--- a/data/prueba_predicc_dia_dia.xlsx
+++ b/data/prueba_predicc_dia_dia.xlsx
@@ -489,11 +489,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="101698154"/>
-        <c:axId val="903379274"/>
+        <c:axId val="1048020017"/>
+        <c:axId val="1916803777"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101698154"/>
+        <c:axId val="1048020017"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -568,10 +568,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="903379274"/>
+        <c:crossAx val="1916803777"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="903379274"/>
+        <c:axId val="1916803777"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -646,7 +646,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101698154"/>
+        <c:crossAx val="1048020017"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -755,11 +755,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="382286369"/>
-        <c:axId val="1761573847"/>
+        <c:axId val="669726474"/>
+        <c:axId val="1881038879"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="382286369"/>
+        <c:axId val="669726474"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -834,10 +834,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1761573847"/>
+        <c:crossAx val="1881038879"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1761573847"/>
+        <c:axId val="1881038879"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -912,7 +912,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382286369"/>
+        <c:crossAx val="669726474"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1708,8 +1708,6 @@
       <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="2">
@@ -1826,8 +1824,6 @@
       <c r="AL2" s="3">
         <v>115.0</v>
       </c>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="2">
@@ -1944,8 +1940,6 @@
       <c r="AL3" s="3">
         <v>114.0</v>
       </c>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="2">
@@ -2062,8 +2056,6 @@
       <c r="AL4" s="3">
         <v>149.0</v>
       </c>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="2">
@@ -2180,8 +2172,6 @@
       <c r="AL5" s="1">
         <v>229.0</v>
       </c>
-      <c r="AM5" s="3"/>
-      <c r="AN5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="2">
@@ -2298,8 +2288,6 @@
       <c r="AL6" s="1">
         <v>244.0</v>
       </c>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="2">
@@ -2416,8 +2404,6 @@
       <c r="AL7" s="1">
         <v>259.0</v>
       </c>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="2">
@@ -2534,8 +2520,6 @@
       <c r="AL8" s="1">
         <v>260.0</v>
       </c>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="2">
@@ -2652,8 +2636,6 @@
       <c r="AL9" s="1">
         <v>255.0</v>
       </c>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="2">
@@ -2770,8 +2752,6 @@
       <c r="AL10" s="1">
         <v>265.0</v>
       </c>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="2">
@@ -2888,8 +2868,6 @@
       <c r="AL11" s="1">
         <v>265.0</v>
       </c>
-      <c r="AM11" s="3"/>
-      <c r="AN11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="2">
@@ -3006,8 +2984,6 @@
       <c r="AL12" s="1">
         <v>220.0</v>
       </c>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="2">
@@ -3124,8 +3100,6 @@
       <c r="AL13" s="1">
         <v>210.0</v>
       </c>
-      <c r="AM13" s="3"/>
-      <c r="AN13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="2">
@@ -3242,8 +3216,6 @@
       <c r="AL14" s="1">
         <v>166.0</v>
       </c>
-      <c r="AM14" s="3"/>
-      <c r="AN14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="2">
@@ -3360,7 +3332,6 @@
       <c r="AL15" s="4">
         <v>244.0</v>
       </c>
-      <c r="AM15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" s="2">
@@ -4175,3043 +4146,4120 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="A23" s="2">
+        <v>45049.0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>226.0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>61.0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>193.0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>129.0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>456.0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>455.0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P23" s="1">
+        <v>69.0</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S23" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="T23" s="1">
+        <v>399.0</v>
+      </c>
+      <c r="U23" s="1">
+        <v>244.0</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W23" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="X23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>75.0</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>69.0</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>438.0</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>147.0</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>55.0</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH23" s="1">
+        <v>189.0</v>
+      </c>
+      <c r="AI23" s="1">
+        <v>584.0</v>
+      </c>
+      <c r="AJ23" s="1">
+        <v>57.0</v>
+      </c>
+      <c r="AK23" s="1">
+        <v>161.0</v>
+      </c>
+      <c r="AL23" s="1">
+        <v>222.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="2"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="2"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="2"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="2"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="2"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="2"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
     </row>
     <row r="31">
       <c r="A31" s="2"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
     </row>
     <row r="32">
       <c r="A32" s="2"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="1"/>
+      <c r="AK32" s="1"/>
+      <c r="AL32" s="1"/>
     </row>
     <row r="33">
       <c r="A33" s="2"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1"/>
     </row>
     <row r="34">
       <c r="A34" s="2"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1"/>
     </row>
     <row r="35">
       <c r="A35" s="2"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="1"/>
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="1"/>
     </row>
     <row r="36">
       <c r="A36" s="2"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1"/>
     </row>
     <row r="37">
       <c r="A37" s="2"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" s="2"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1"/>
+      <c r="AL38" s="1"/>
     </row>
     <row r="39">
       <c r="A39" s="2"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1"/>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="1"/>
     </row>
     <row r="40">
       <c r="A40" s="2"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1"/>
+      <c r="AI40" s="1"/>
+      <c r="AJ40" s="1"/>
+      <c r="AK40" s="1"/>
+      <c r="AL40" s="1"/>
     </row>
     <row r="41">
       <c r="A41" s="2"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
+      <c r="AK41" s="1"/>
+      <c r="AL41" s="1"/>
     </row>
     <row r="42">
       <c r="A42" s="2"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="1"/>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1"/>
+      <c r="AK42" s="1"/>
+      <c r="AL42" s="1"/>
     </row>
     <row r="43">
       <c r="A43" s="2"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="1"/>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1"/>
+      <c r="AK43" s="1"/>
+      <c r="AL43" s="1"/>
     </row>
     <row r="44">
       <c r="A44" s="2"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
+      <c r="AG44" s="1"/>
+      <c r="AH44" s="1"/>
+      <c r="AI44" s="1"/>
+      <c r="AJ44" s="1"/>
+      <c r="AK44" s="1"/>
+      <c r="AL44" s="1"/>
     </row>
     <row r="45">
       <c r="A45" s="2"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="1"/>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1"/>
+      <c r="AK45" s="1"/>
+      <c r="AL45" s="1"/>
     </row>
     <row r="46">
       <c r="A46" s="2"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
+      <c r="AG46" s="1"/>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1"/>
+      <c r="AJ46" s="1"/>
+      <c r="AK46" s="1"/>
+      <c r="AL46" s="1"/>
     </row>
     <row r="47">
       <c r="A47" s="2"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
+      <c r="AG47" s="1"/>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1"/>
+      <c r="AJ47" s="1"/>
+      <c r="AK47" s="1"/>
+      <c r="AL47" s="1"/>
     </row>
     <row r="48">
       <c r="A48" s="2"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
+      <c r="AG48" s="1"/>
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="1"/>
+      <c r="AJ48" s="1"/>
+      <c r="AK48" s="1"/>
+      <c r="AL48" s="1"/>
     </row>
     <row r="49">
       <c r="A49" s="2"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
+      <c r="AG49" s="1"/>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="1"/>
+      <c r="AJ49" s="1"/>
+      <c r="AK49" s="1"/>
+      <c r="AL49" s="1"/>
     </row>
     <row r="50">
       <c r="A50" s="2"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
+      <c r="AG50" s="1"/>
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1"/>
+      <c r="AK50" s="1"/>
+      <c r="AL50" s="1"/>
     </row>
     <row r="51">
       <c r="A51" s="2"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
+      <c r="AG51" s="1"/>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1"/>
+      <c r="AK51" s="1"/>
+      <c r="AL51" s="1"/>
     </row>
     <row r="52">
       <c r="A52" s="2"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="1"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="1"/>
     </row>
     <row r="53">
       <c r="A53" s="2"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="1"/>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="1"/>
+      <c r="AF53" s="1"/>
+      <c r="AG53" s="1"/>
+      <c r="AH53" s="1"/>
+      <c r="AI53" s="1"/>
+      <c r="AJ53" s="1"/>
+      <c r="AK53" s="1"/>
+      <c r="AL53" s="1"/>
     </row>
     <row r="54">
       <c r="A54" s="2"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1"/>
+      <c r="AC54" s="1"/>
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="1"/>
+      <c r="AF54" s="1"/>
+      <c r="AG54" s="1"/>
+      <c r="AH54" s="1"/>
+      <c r="AI54" s="1"/>
+      <c r="AJ54" s="1"/>
+      <c r="AK54" s="1"/>
+      <c r="AL54" s="1"/>
     </row>
     <row r="55">
       <c r="A55" s="2"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
+      <c r="AC55" s="1"/>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1"/>
+      <c r="AF55" s="1"/>
+      <c r="AG55" s="1"/>
+      <c r="AH55" s="1"/>
+      <c r="AI55" s="1"/>
+      <c r="AJ55" s="1"/>
+      <c r="AK55" s="1"/>
+      <c r="AL55" s="1"/>
     </row>
     <row r="56">
       <c r="A56" s="2"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
+      <c r="AA56" s="1"/>
+      <c r="AB56" s="1"/>
+      <c r="AC56" s="1"/>
+      <c r="AD56" s="1"/>
+      <c r="AE56" s="1"/>
+      <c r="AF56" s="1"/>
+      <c r="AG56" s="1"/>
+      <c r="AH56" s="1"/>
+      <c r="AI56" s="1"/>
+      <c r="AJ56" s="1"/>
+      <c r="AK56" s="1"/>
+      <c r="AL56" s="1"/>
     </row>
     <row r="57">
       <c r="A57" s="2"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
+      <c r="AA57" s="1"/>
+      <c r="AB57" s="1"/>
+      <c r="AC57" s="1"/>
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="1"/>
+      <c r="AF57" s="1"/>
+      <c r="AG57" s="1"/>
+      <c r="AH57" s="1"/>
+      <c r="AI57" s="1"/>
+      <c r="AJ57" s="1"/>
+      <c r="AK57" s="1"/>
+      <c r="AL57" s="1"/>
     </row>
     <row r="58">
       <c r="A58" s="2"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1"/>
+      <c r="AA58" s="1"/>
+      <c r="AB58" s="1"/>
+      <c r="AC58" s="1"/>
+      <c r="AD58" s="1"/>
+      <c r="AE58" s="1"/>
+      <c r="AF58" s="1"/>
+      <c r="AG58" s="1"/>
+      <c r="AH58" s="1"/>
+      <c r="AI58" s="1"/>
+      <c r="AJ58" s="1"/>
+      <c r="AK58" s="1"/>
+      <c r="AL58" s="1"/>
     </row>
     <row r="59">
       <c r="A59" s="2"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="1"/>
+      <c r="AB59" s="1"/>
+      <c r="AC59" s="1"/>
+      <c r="AD59" s="1"/>
+      <c r="AE59" s="1"/>
+      <c r="AF59" s="1"/>
+      <c r="AG59" s="1"/>
+      <c r="AH59" s="1"/>
+      <c r="AI59" s="1"/>
+      <c r="AJ59" s="1"/>
+      <c r="AK59" s="1"/>
+      <c r="AL59" s="1"/>
     </row>
     <row r="60">
       <c r="A60" s="2"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
+      <c r="AA60" s="1"/>
+      <c r="AB60" s="1"/>
+      <c r="AC60" s="1"/>
+      <c r="AD60" s="1"/>
+      <c r="AE60" s="1"/>
+      <c r="AF60" s="1"/>
+      <c r="AG60" s="1"/>
+      <c r="AH60" s="1"/>
+      <c r="AI60" s="1"/>
+      <c r="AJ60" s="1"/>
+      <c r="AK60" s="1"/>
+      <c r="AL60" s="1"/>
     </row>
     <row r="61">
       <c r="A61" s="2"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1"/>
+      <c r="AA61" s="1"/>
+      <c r="AB61" s="1"/>
+      <c r="AC61" s="1"/>
+      <c r="AD61" s="1"/>
+      <c r="AE61" s="1"/>
+      <c r="AF61" s="1"/>
+      <c r="AG61" s="1"/>
+      <c r="AH61" s="1"/>
+      <c r="AI61" s="1"/>
+      <c r="AJ61" s="1"/>
+      <c r="AK61" s="1"/>
+      <c r="AL61" s="1"/>
     </row>
     <row r="62">
       <c r="A62" s="2"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+      <c r="Y62" s="1"/>
+      <c r="Z62" s="1"/>
+      <c r="AA62" s="1"/>
+      <c r="AB62" s="1"/>
+      <c r="AC62" s="1"/>
+      <c r="AD62" s="1"/>
+      <c r="AE62" s="1"/>
+      <c r="AF62" s="1"/>
+      <c r="AG62" s="1"/>
+      <c r="AH62" s="1"/>
+      <c r="AI62" s="1"/>
+      <c r="AJ62" s="1"/>
+      <c r="AK62" s="1"/>
+      <c r="AL62" s="1"/>
     </row>
     <row r="63">
       <c r="A63" s="2"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="1"/>
+      <c r="AB63" s="1"/>
+      <c r="AC63" s="1"/>
+      <c r="AD63" s="1"/>
+      <c r="AE63" s="1"/>
+      <c r="AF63" s="1"/>
+      <c r="AG63" s="1"/>
+      <c r="AH63" s="1"/>
+      <c r="AI63" s="1"/>
+      <c r="AJ63" s="1"/>
+      <c r="AK63" s="1"/>
+      <c r="AL63" s="1"/>
     </row>
     <row r="64">
       <c r="A64" s="2"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="1"/>
+      <c r="AA64" s="1"/>
+      <c r="AB64" s="1"/>
+      <c r="AC64" s="1"/>
+      <c r="AD64" s="1"/>
+      <c r="AE64" s="1"/>
+      <c r="AF64" s="1"/>
+      <c r="AG64" s="1"/>
+      <c r="AH64" s="1"/>
+      <c r="AI64" s="1"/>
+      <c r="AJ64" s="1"/>
+      <c r="AK64" s="1"/>
+      <c r="AL64" s="1"/>
     </row>
     <row r="65">
       <c r="A65" s="2"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="1"/>
+      <c r="AB65" s="1"/>
+      <c r="AC65" s="1"/>
+      <c r="AD65" s="1"/>
+      <c r="AE65" s="1"/>
+      <c r="AF65" s="1"/>
+      <c r="AG65" s="1"/>
+      <c r="AH65" s="1"/>
+      <c r="AI65" s="1"/>
+      <c r="AJ65" s="1"/>
+      <c r="AK65" s="1"/>
+      <c r="AL65" s="1"/>
     </row>
     <row r="66">
       <c r="A66" s="2"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="1"/>
+      <c r="AA66" s="1"/>
+      <c r="AB66" s="1"/>
+      <c r="AC66" s="1"/>
+      <c r="AD66" s="1"/>
+      <c r="AE66" s="1"/>
+      <c r="AF66" s="1"/>
+      <c r="AG66" s="1"/>
+      <c r="AH66" s="1"/>
+      <c r="AI66" s="1"/>
+      <c r="AJ66" s="1"/>
+      <c r="AK66" s="1"/>
+      <c r="AL66" s="1"/>
     </row>
     <row r="67">
       <c r="A67" s="2"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="1"/>
+      <c r="AB67" s="1"/>
+      <c r="AC67" s="1"/>
+      <c r="AD67" s="1"/>
+      <c r="AE67" s="1"/>
+      <c r="AF67" s="1"/>
+      <c r="AG67" s="1"/>
+      <c r="AH67" s="1"/>
+      <c r="AI67" s="1"/>
+      <c r="AJ67" s="1"/>
+      <c r="AK67" s="1"/>
+      <c r="AL67" s="1"/>
     </row>
     <row r="68">
       <c r="A68" s="2"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
+      <c r="AA68" s="1"/>
+      <c r="AB68" s="1"/>
+      <c r="AC68" s="1"/>
+      <c r="AD68" s="1"/>
+      <c r="AE68" s="1"/>
+      <c r="AF68" s="1"/>
+      <c r="AG68" s="1"/>
+      <c r="AH68" s="1"/>
+      <c r="AI68" s="1"/>
+      <c r="AJ68" s="1"/>
+      <c r="AK68" s="1"/>
+      <c r="AL68" s="1"/>
     </row>
     <row r="69">
       <c r="A69" s="2"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="1"/>
+      <c r="AB69" s="1"/>
+      <c r="AC69" s="1"/>
+      <c r="AD69" s="1"/>
+      <c r="AE69" s="1"/>
+      <c r="AF69" s="1"/>
+      <c r="AG69" s="1"/>
+      <c r="AH69" s="1"/>
+      <c r="AI69" s="1"/>
+      <c r="AJ69" s="1"/>
+      <c r="AK69" s="1"/>
+      <c r="AL69" s="1"/>
     </row>
     <row r="70">
       <c r="A70" s="2"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="1"/>
+      <c r="AA70" s="1"/>
+      <c r="AB70" s="1"/>
+      <c r="AC70" s="1"/>
+      <c r="AD70" s="1"/>
+      <c r="AE70" s="1"/>
+      <c r="AF70" s="1"/>
+      <c r="AG70" s="1"/>
+      <c r="AH70" s="1"/>
+      <c r="AI70" s="1"/>
+      <c r="AJ70" s="1"/>
+      <c r="AK70" s="1"/>
+      <c r="AL70" s="1"/>
     </row>
     <row r="71">
       <c r="A71" s="2"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
+      <c r="Z71" s="1"/>
+      <c r="AA71" s="1"/>
+      <c r="AB71" s="1"/>
+      <c r="AC71" s="1"/>
+      <c r="AD71" s="1"/>
+      <c r="AE71" s="1"/>
+      <c r="AF71" s="1"/>
+      <c r="AG71" s="1"/>
+      <c r="AH71" s="1"/>
+      <c r="AI71" s="1"/>
+      <c r="AJ71" s="1"/>
+      <c r="AK71" s="1"/>
+      <c r="AL71" s="1"/>
     </row>
     <row r="72">
       <c r="A72" s="2"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
+      <c r="Y72" s="1"/>
+      <c r="Z72" s="1"/>
+      <c r="AA72" s="1"/>
+      <c r="AB72" s="1"/>
+      <c r="AC72" s="1"/>
+      <c r="AD72" s="1"/>
+      <c r="AE72" s="1"/>
+      <c r="AF72" s="1"/>
+      <c r="AG72" s="1"/>
+      <c r="AH72" s="1"/>
+      <c r="AI72" s="1"/>
+      <c r="AJ72" s="1"/>
+      <c r="AK72" s="1"/>
+      <c r="AL72" s="1"/>
     </row>
     <row r="73">
       <c r="A73" s="2"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1"/>
+      <c r="W73" s="1"/>
+      <c r="X73" s="1"/>
+      <c r="Y73" s="1"/>
+      <c r="Z73" s="1"/>
+      <c r="AA73" s="1"/>
+      <c r="AB73" s="1"/>
+      <c r="AC73" s="1"/>
+      <c r="AD73" s="1"/>
+      <c r="AE73" s="1"/>
+      <c r="AF73" s="1"/>
+      <c r="AG73" s="1"/>
+      <c r="AH73" s="1"/>
+      <c r="AI73" s="1"/>
+      <c r="AJ73" s="1"/>
+      <c r="AK73" s="1"/>
+      <c r="AL73" s="1"/>
     </row>
     <row r="74">
       <c r="A74" s="2"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
+      <c r="Y74" s="1"/>
+      <c r="Z74" s="1"/>
+      <c r="AA74" s="1"/>
+      <c r="AB74" s="1"/>
+      <c r="AC74" s="1"/>
+      <c r="AD74" s="1"/>
+      <c r="AE74" s="1"/>
+      <c r="AF74" s="1"/>
+      <c r="AG74" s="1"/>
+      <c r="AH74" s="1"/>
+      <c r="AI74" s="1"/>
+      <c r="AJ74" s="1"/>
+      <c r="AK74" s="1"/>
+      <c r="AL74" s="1"/>
     </row>
     <row r="75">
       <c r="A75" s="2"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
+      <c r="X75" s="1"/>
+      <c r="Y75" s="1"/>
+      <c r="Z75" s="1"/>
+      <c r="AA75" s="1"/>
+      <c r="AB75" s="1"/>
+      <c r="AC75" s="1"/>
+      <c r="AD75" s="1"/>
+      <c r="AE75" s="1"/>
+      <c r="AF75" s="1"/>
+      <c r="AG75" s="1"/>
+      <c r="AH75" s="1"/>
+      <c r="AI75" s="1"/>
+      <c r="AJ75" s="1"/>
+      <c r="AK75" s="1"/>
+      <c r="AL75" s="1"/>
     </row>
     <row r="76">
       <c r="A76" s="2"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+      <c r="X76" s="1"/>
+      <c r="Y76" s="1"/>
+      <c r="Z76" s="1"/>
+      <c r="AA76" s="1"/>
+      <c r="AB76" s="1"/>
+      <c r="AC76" s="1"/>
+      <c r="AD76" s="1"/>
+      <c r="AE76" s="1"/>
+      <c r="AF76" s="1"/>
+      <c r="AG76" s="1"/>
+      <c r="AH76" s="1"/>
+      <c r="AI76" s="1"/>
+      <c r="AJ76" s="1"/>
+      <c r="AK76" s="1"/>
+      <c r="AL76" s="1"/>
     </row>
     <row r="77">
       <c r="A77" s="2"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
+      <c r="X77" s="1"/>
+      <c r="Y77" s="1"/>
+      <c r="Z77" s="1"/>
+      <c r="AA77" s="1"/>
+      <c r="AB77" s="1"/>
+      <c r="AC77" s="1"/>
+      <c r="AD77" s="1"/>
+      <c r="AE77" s="1"/>
+      <c r="AF77" s="1"/>
+      <c r="AG77" s="1"/>
+      <c r="AH77" s="1"/>
+      <c r="AI77" s="1"/>
+      <c r="AJ77" s="1"/>
+      <c r="AK77" s="1"/>
+      <c r="AL77" s="1"/>
     </row>
     <row r="78">
       <c r="A78" s="2"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+      <c r="Y78" s="1"/>
+      <c r="Z78" s="1"/>
+      <c r="AA78" s="1"/>
+      <c r="AB78" s="1"/>
+      <c r="AC78" s="1"/>
+      <c r="AD78" s="1"/>
+      <c r="AE78" s="1"/>
+      <c r="AF78" s="1"/>
+      <c r="AG78" s="1"/>
+      <c r="AH78" s="1"/>
+      <c r="AI78" s="1"/>
+      <c r="AJ78" s="1"/>
+      <c r="AK78" s="1"/>
+      <c r="AL78" s="1"/>
     </row>
     <row r="79">
       <c r="A79" s="2"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+      <c r="X79" s="1"/>
+      <c r="Y79" s="1"/>
+      <c r="Z79" s="1"/>
+      <c r="AA79" s="1"/>
+      <c r="AB79" s="1"/>
+      <c r="AC79" s="1"/>
+      <c r="AD79" s="1"/>
+      <c r="AE79" s="1"/>
+      <c r="AF79" s="1"/>
+      <c r="AG79" s="1"/>
+      <c r="AH79" s="1"/>
+      <c r="AI79" s="1"/>
+      <c r="AJ79" s="1"/>
+      <c r="AK79" s="1"/>
+      <c r="AL79" s="1"/>
     </row>
     <row r="80">
       <c r="A80" s="2"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
+      <c r="Y80" s="1"/>
+      <c r="Z80" s="1"/>
+      <c r="AA80" s="1"/>
+      <c r="AB80" s="1"/>
+      <c r="AC80" s="1"/>
+      <c r="AD80" s="1"/>
+      <c r="AE80" s="1"/>
+      <c r="AF80" s="1"/>
+      <c r="AG80" s="1"/>
+      <c r="AH80" s="1"/>
+      <c r="AI80" s="1"/>
+      <c r="AJ80" s="1"/>
+      <c r="AK80" s="1"/>
+      <c r="AL80" s="1"/>
     </row>
     <row r="81">
       <c r="A81" s="2"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="1"/>
+      <c r="W81" s="1"/>
+      <c r="X81" s="1"/>
+      <c r="Y81" s="1"/>
+      <c r="Z81" s="1"/>
+      <c r="AA81" s="1"/>
+      <c r="AB81" s="1"/>
+      <c r="AC81" s="1"/>
+      <c r="AD81" s="1"/>
+      <c r="AE81" s="1"/>
+      <c r="AF81" s="1"/>
+      <c r="AG81" s="1"/>
+      <c r="AH81" s="1"/>
+      <c r="AI81" s="1"/>
+      <c r="AJ81" s="1"/>
+      <c r="AK81" s="1"/>
+      <c r="AL81" s="1"/>
     </row>
     <row r="82">
       <c r="A82" s="2"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
+      <c r="Y82" s="1"/>
+      <c r="Z82" s="1"/>
+      <c r="AA82" s="1"/>
+      <c r="AB82" s="1"/>
+      <c r="AC82" s="1"/>
+      <c r="AD82" s="1"/>
+      <c r="AE82" s="1"/>
+      <c r="AF82" s="1"/>
+      <c r="AG82" s="1"/>
+      <c r="AH82" s="1"/>
+      <c r="AI82" s="1"/>
+      <c r="AJ82" s="1"/>
+      <c r="AK82" s="1"/>
+      <c r="AL82" s="1"/>
     </row>
     <row r="83">
       <c r="A83" s="2"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
+      <c r="Y83" s="1"/>
+      <c r="Z83" s="1"/>
+      <c r="AA83" s="1"/>
+      <c r="AB83" s="1"/>
+      <c r="AC83" s="1"/>
+      <c r="AD83" s="1"/>
+      <c r="AE83" s="1"/>
+      <c r="AF83" s="1"/>
+      <c r="AG83" s="1"/>
+      <c r="AH83" s="1"/>
+      <c r="AI83" s="1"/>
+      <c r="AJ83" s="1"/>
+      <c r="AK83" s="1"/>
+      <c r="AL83" s="1"/>
     </row>
     <row r="84">
       <c r="A84" s="2"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="1"/>
+      <c r="W84" s="1"/>
+      <c r="X84" s="1"/>
+      <c r="Y84" s="1"/>
+      <c r="Z84" s="1"/>
+      <c r="AA84" s="1"/>
+      <c r="AB84" s="1"/>
+      <c r="AC84" s="1"/>
+      <c r="AD84" s="1"/>
+      <c r="AE84" s="1"/>
+      <c r="AF84" s="1"/>
+      <c r="AG84" s="1"/>
+      <c r="AH84" s="1"/>
+      <c r="AI84" s="1"/>
+      <c r="AJ84" s="1"/>
+      <c r="AK84" s="1"/>
+      <c r="AL84" s="1"/>
     </row>
     <row r="85">
       <c r="A85" s="2"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="1"/>
+      <c r="W85" s="1"/>
+      <c r="X85" s="1"/>
+      <c r="Y85" s="1"/>
+      <c r="Z85" s="1"/>
+      <c r="AA85" s="1"/>
+      <c r="AB85" s="1"/>
+      <c r="AC85" s="1"/>
+      <c r="AD85" s="1"/>
+      <c r="AE85" s="1"/>
+      <c r="AF85" s="1"/>
+      <c r="AG85" s="1"/>
+      <c r="AH85" s="1"/>
+      <c r="AI85" s="1"/>
+      <c r="AJ85" s="1"/>
+      <c r="AK85" s="1"/>
+      <c r="AL85" s="1"/>
     </row>
     <row r="86">
       <c r="A86" s="2"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
+      <c r="Y86" s="1"/>
+      <c r="Z86" s="1"/>
+      <c r="AA86" s="1"/>
+      <c r="AB86" s="1"/>
+      <c r="AC86" s="1"/>
+      <c r="AD86" s="1"/>
+      <c r="AE86" s="1"/>
+      <c r="AF86" s="1"/>
+      <c r="AG86" s="1"/>
+      <c r="AH86" s="1"/>
+      <c r="AI86" s="1"/>
+      <c r="AJ86" s="1"/>
+      <c r="AK86" s="1"/>
+      <c r="AL86" s="1"/>
     </row>
     <row r="87">
       <c r="A87" s="2"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+      <c r="Y87" s="1"/>
+      <c r="Z87" s="1"/>
+      <c r="AA87" s="1"/>
+      <c r="AB87" s="1"/>
+      <c r="AC87" s="1"/>
+      <c r="AD87" s="1"/>
+      <c r="AE87" s="1"/>
+      <c r="AF87" s="1"/>
+      <c r="AG87" s="1"/>
+      <c r="AH87" s="1"/>
+      <c r="AI87" s="1"/>
+      <c r="AJ87" s="1"/>
+      <c r="AK87" s="1"/>
+      <c r="AL87" s="1"/>
     </row>
     <row r="88">
       <c r="A88" s="2"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
+      <c r="Y88" s="1"/>
+      <c r="Z88" s="1"/>
+      <c r="AA88" s="1"/>
+      <c r="AB88" s="1"/>
+      <c r="AC88" s="1"/>
+      <c r="AD88" s="1"/>
+      <c r="AE88" s="1"/>
+      <c r="AF88" s="1"/>
+      <c r="AG88" s="1"/>
+      <c r="AH88" s="1"/>
+      <c r="AI88" s="1"/>
+      <c r="AJ88" s="1"/>
+      <c r="AK88" s="1"/>
+      <c r="AL88" s="1"/>
     </row>
     <row r="89">
       <c r="A89" s="2"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
+      <c r="X89" s="1"/>
+      <c r="Y89" s="1"/>
+      <c r="Z89" s="1"/>
+      <c r="AA89" s="1"/>
+      <c r="AB89" s="1"/>
+      <c r="AC89" s="1"/>
+      <c r="AD89" s="1"/>
+      <c r="AE89" s="1"/>
+      <c r="AF89" s="1"/>
+      <c r="AG89" s="1"/>
+      <c r="AH89" s="1"/>
+      <c r="AI89" s="1"/>
+      <c r="AJ89" s="1"/>
+      <c r="AK89" s="1"/>
+      <c r="AL89" s="1"/>
     </row>
     <row r="90">
       <c r="A90" s="2"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+      <c r="Y90" s="1"/>
+      <c r="Z90" s="1"/>
+      <c r="AA90" s="1"/>
+      <c r="AB90" s="1"/>
+      <c r="AC90" s="1"/>
+      <c r="AD90" s="1"/>
+      <c r="AE90" s="1"/>
+      <c r="AF90" s="1"/>
+      <c r="AG90" s="1"/>
+      <c r="AH90" s="1"/>
+      <c r="AI90" s="1"/>
+      <c r="AJ90" s="1"/>
+      <c r="AK90" s="1"/>
+      <c r="AL90" s="1"/>
     </row>
     <row r="91">
       <c r="A91" s="2"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+      <c r="Y91" s="1"/>
+      <c r="Z91" s="1"/>
+      <c r="AA91" s="1"/>
+      <c r="AB91" s="1"/>
+      <c r="AC91" s="1"/>
+      <c r="AD91" s="1"/>
+      <c r="AE91" s="1"/>
+      <c r="AF91" s="1"/>
+      <c r="AG91" s="1"/>
+      <c r="AH91" s="1"/>
+      <c r="AI91" s="1"/>
+      <c r="AJ91" s="1"/>
+      <c r="AK91" s="1"/>
+      <c r="AL91" s="1"/>
     </row>
     <row r="92">
       <c r="A92" s="2"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+      <c r="V92" s="1"/>
+      <c r="W92" s="1"/>
+      <c r="X92" s="1"/>
+      <c r="Y92" s="1"/>
+      <c r="Z92" s="1"/>
+      <c r="AA92" s="1"/>
+      <c r="AB92" s="1"/>
+      <c r="AC92" s="1"/>
+      <c r="AD92" s="1"/>
+      <c r="AE92" s="1"/>
+      <c r="AF92" s="1"/>
+      <c r="AG92" s="1"/>
+      <c r="AH92" s="1"/>
+      <c r="AI92" s="1"/>
+      <c r="AJ92" s="1"/>
+      <c r="AK92" s="1"/>
+      <c r="AL92" s="1"/>
     </row>
     <row r="93">
       <c r="A93" s="2"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
+      <c r="X93" s="1"/>
+      <c r="Y93" s="1"/>
+      <c r="Z93" s="1"/>
+      <c r="AA93" s="1"/>
+      <c r="AB93" s="1"/>
+      <c r="AC93" s="1"/>
+      <c r="AD93" s="1"/>
+      <c r="AE93" s="1"/>
+      <c r="AF93" s="1"/>
+      <c r="AG93" s="1"/>
+      <c r="AH93" s="1"/>
+      <c r="AI93" s="1"/>
+      <c r="AJ93" s="1"/>
+      <c r="AK93" s="1"/>
+      <c r="AL93" s="1"/>
     </row>
     <row r="94">
       <c r="A94" s="2"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+      <c r="U94" s="1"/>
+      <c r="V94" s="1"/>
+      <c r="W94" s="1"/>
+      <c r="X94" s="1"/>
+      <c r="Y94" s="1"/>
+      <c r="Z94" s="1"/>
+      <c r="AA94" s="1"/>
+      <c r="AB94" s="1"/>
+      <c r="AC94" s="1"/>
+      <c r="AD94" s="1"/>
+      <c r="AE94" s="1"/>
+      <c r="AF94" s="1"/>
+      <c r="AG94" s="1"/>
+      <c r="AH94" s="1"/>
+      <c r="AI94" s="1"/>
+      <c r="AJ94" s="1"/>
+      <c r="AK94" s="1"/>
+      <c r="AL94" s="1"/>
     </row>
     <row r="95">
       <c r="A95" s="2"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+      <c r="U95" s="1"/>
+      <c r="V95" s="1"/>
+      <c r="W95" s="1"/>
+      <c r="X95" s="1"/>
+      <c r="Y95" s="1"/>
+      <c r="Z95" s="1"/>
+      <c r="AA95" s="1"/>
+      <c r="AB95" s="1"/>
+      <c r="AC95" s="1"/>
+      <c r="AD95" s="1"/>
+      <c r="AE95" s="1"/>
+      <c r="AF95" s="1"/>
+      <c r="AG95" s="1"/>
+      <c r="AH95" s="1"/>
+      <c r="AI95" s="1"/>
+      <c r="AJ95" s="1"/>
+      <c r="AK95" s="1"/>
+      <c r="AL95" s="1"/>
     </row>
     <row r="96">
       <c r="A96" s="2"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+      <c r="V96" s="1"/>
+      <c r="W96" s="1"/>
+      <c r="X96" s="1"/>
+      <c r="Y96" s="1"/>
+      <c r="Z96" s="1"/>
+      <c r="AA96" s="1"/>
+      <c r="AB96" s="1"/>
+      <c r="AC96" s="1"/>
+      <c r="AD96" s="1"/>
+      <c r="AE96" s="1"/>
+      <c r="AF96" s="1"/>
+      <c r="AG96" s="1"/>
+      <c r="AH96" s="1"/>
+      <c r="AI96" s="1"/>
+      <c r="AJ96" s="1"/>
+      <c r="AK96" s="1"/>
+      <c r="AL96" s="1"/>
     </row>
     <row r="97">
       <c r="A97" s="2"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
+      <c r="V97" s="1"/>
+      <c r="W97" s="1"/>
+      <c r="X97" s="1"/>
+      <c r="Y97" s="1"/>
+      <c r="Z97" s="1"/>
+      <c r="AA97" s="1"/>
+      <c r="AB97" s="1"/>
+      <c r="AC97" s="1"/>
+      <c r="AD97" s="1"/>
+      <c r="AE97" s="1"/>
+      <c r="AF97" s="1"/>
+      <c r="AG97" s="1"/>
+      <c r="AH97" s="1"/>
+      <c r="AI97" s="1"/>
+      <c r="AJ97" s="1"/>
+      <c r="AK97" s="1"/>
+      <c r="AL97" s="1"/>
     </row>
     <row r="98">
       <c r="A98" s="2"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
+      <c r="X98" s="1"/>
+      <c r="Y98" s="1"/>
+      <c r="Z98" s="1"/>
+      <c r="AA98" s="1"/>
+      <c r="AB98" s="1"/>
+      <c r="AC98" s="1"/>
+      <c r="AD98" s="1"/>
+      <c r="AE98" s="1"/>
+      <c r="AF98" s="1"/>
+      <c r="AG98" s="1"/>
+      <c r="AH98" s="1"/>
+      <c r="AI98" s="1"/>
+      <c r="AJ98" s="1"/>
+      <c r="AK98" s="1"/>
+      <c r="AL98" s="1"/>
     </row>
     <row r="99">
       <c r="A99" s="2"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1"/>
+      <c r="W99" s="1"/>
+      <c r="X99" s="1"/>
+      <c r="Y99" s="1"/>
+      <c r="Z99" s="1"/>
+      <c r="AA99" s="1"/>
+      <c r="AB99" s="1"/>
+      <c r="AC99" s="1"/>
+      <c r="AD99" s="1"/>
+      <c r="AE99" s="1"/>
+      <c r="AF99" s="1"/>
+      <c r="AG99" s="1"/>
+      <c r="AH99" s="1"/>
+      <c r="AI99" s="1"/>
+      <c r="AJ99" s="1"/>
+      <c r="AK99" s="1"/>
+      <c r="AL99" s="1"/>
     </row>
     <row r="100">
       <c r="A100" s="2"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
+      <c r="W100" s="1"/>
+      <c r="X100" s="1"/>
+      <c r="Y100" s="1"/>
+      <c r="Z100" s="1"/>
+      <c r="AA100" s="1"/>
+      <c r="AB100" s="1"/>
+      <c r="AC100" s="1"/>
+      <c r="AD100" s="1"/>
+      <c r="AE100" s="1"/>
+      <c r="AF100" s="1"/>
+      <c r="AG100" s="1"/>
+      <c r="AH100" s="1"/>
+      <c r="AI100" s="1"/>
+      <c r="AJ100" s="1"/>
+      <c r="AK100" s="1"/>
+      <c r="AL100" s="1"/>
     </row>
     <row r="101">
       <c r="A101" s="2"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="1"/>
+      <c r="W101" s="1"/>
+      <c r="X101" s="1"/>
+      <c r="Y101" s="1"/>
+      <c r="Z101" s="1"/>
+      <c r="AA101" s="1"/>
+      <c r="AB101" s="1"/>
+      <c r="AC101" s="1"/>
+      <c r="AD101" s="1"/>
+      <c r="AE101" s="1"/>
+      <c r="AF101" s="1"/>
+      <c r="AG101" s="1"/>
+      <c r="AH101" s="1"/>
+      <c r="AI101" s="1"/>
+      <c r="AJ101" s="1"/>
+      <c r="AK101" s="1"/>
+      <c r="AL101" s="1"/>
     </row>
     <row r="102">
       <c r="A102" s="2"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="1"/>
+      <c r="W102" s="1"/>
+      <c r="X102" s="1"/>
+      <c r="Y102" s="1"/>
+      <c r="Z102" s="1"/>
+      <c r="AA102" s="1"/>
+      <c r="AB102" s="1"/>
+      <c r="AC102" s="1"/>
+      <c r="AD102" s="1"/>
+      <c r="AE102" s="1"/>
+      <c r="AF102" s="1"/>
+      <c r="AG102" s="1"/>
+      <c r="AH102" s="1"/>
+      <c r="AI102" s="1"/>
+      <c r="AJ102" s="1"/>
+      <c r="AK102" s="1"/>
+      <c r="AL102" s="1"/>
     </row>
     <row r="103">
       <c r="A103" s="2"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+      <c r="T103" s="1"/>
+      <c r="U103" s="1"/>
+      <c r="V103" s="1"/>
+      <c r="W103" s="1"/>
+      <c r="X103" s="1"/>
+      <c r="Y103" s="1"/>
+      <c r="Z103" s="1"/>
+      <c r="AA103" s="1"/>
+      <c r="AB103" s="1"/>
+      <c r="AC103" s="1"/>
+      <c r="AD103" s="1"/>
+      <c r="AE103" s="1"/>
+      <c r="AF103" s="1"/>
+      <c r="AG103" s="1"/>
+      <c r="AH103" s="1"/>
+      <c r="AI103" s="1"/>
+      <c r="AJ103" s="1"/>
+      <c r="AK103" s="1"/>
+      <c r="AL103" s="1"/>
     </row>
     <row r="104">
       <c r="A104" s="2"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+      <c r="T104" s="1"/>
+      <c r="U104" s="1"/>
+      <c r="V104" s="1"/>
+      <c r="W104" s="1"/>
+      <c r="X104" s="1"/>
+      <c r="Y104" s="1"/>
+      <c r="Z104" s="1"/>
+      <c r="AA104" s="1"/>
+      <c r="AB104" s="1"/>
+      <c r="AC104" s="1"/>
+      <c r="AD104" s="1"/>
+      <c r="AE104" s="1"/>
+      <c r="AF104" s="1"/>
+      <c r="AG104" s="1"/>
+      <c r="AH104" s="1"/>
+      <c r="AI104" s="1"/>
+      <c r="AJ104" s="1"/>
+      <c r="AK104" s="1"/>
+      <c r="AL104" s="1"/>
     </row>
     <row r="105">
       <c r="A105" s="2"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="1"/>
+      <c r="U105" s="1"/>
+      <c r="V105" s="1"/>
+      <c r="W105" s="1"/>
+      <c r="X105" s="1"/>
+      <c r="Y105" s="1"/>
+      <c r="Z105" s="1"/>
+      <c r="AA105" s="1"/>
+      <c r="AB105" s="1"/>
+      <c r="AC105" s="1"/>
+      <c r="AD105" s="1"/>
+      <c r="AE105" s="1"/>
+      <c r="AF105" s="1"/>
+      <c r="AG105" s="1"/>
+      <c r="AH105" s="1"/>
+      <c r="AI105" s="1"/>
+      <c r="AJ105" s="1"/>
+      <c r="AK105" s="1"/>
+      <c r="AL105" s="1"/>
     </row>
     <row r="106">
       <c r="A106" s="2"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
+      <c r="T106" s="1"/>
+      <c r="U106" s="1"/>
+      <c r="V106" s="1"/>
+      <c r="W106" s="1"/>
+      <c r="X106" s="1"/>
+      <c r="Y106" s="1"/>
+      <c r="Z106" s="1"/>
+      <c r="AA106" s="1"/>
+      <c r="AB106" s="1"/>
+      <c r="AC106" s="1"/>
+      <c r="AD106" s="1"/>
+      <c r="AE106" s="1"/>
+      <c r="AF106" s="1"/>
+      <c r="AG106" s="1"/>
+      <c r="AH106" s="1"/>
+      <c r="AI106" s="1"/>
+      <c r="AJ106" s="1"/>
+      <c r="AK106" s="1"/>
+      <c r="AL106" s="1"/>
     </row>
     <row r="107">
       <c r="A107" s="2"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
+      <c r="R107" s="1"/>
+      <c r="S107" s="1"/>
+      <c r="T107" s="1"/>
+      <c r="U107" s="1"/>
+      <c r="V107" s="1"/>
+      <c r="W107" s="1"/>
+      <c r="X107" s="1"/>
+      <c r="Y107" s="1"/>
+      <c r="Z107" s="1"/>
+      <c r="AA107" s="1"/>
+      <c r="AB107" s="1"/>
+      <c r="AC107" s="1"/>
+      <c r="AD107" s="1"/>
+      <c r="AE107" s="1"/>
+      <c r="AF107" s="1"/>
+      <c r="AG107" s="1"/>
+      <c r="AH107" s="1"/>
+      <c r="AI107" s="1"/>
+      <c r="AJ107" s="1"/>
+      <c r="AK107" s="1"/>
+      <c r="AL107" s="1"/>
     </row>
     <row r="108">
       <c r="A108" s="2"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+      <c r="T108" s="1"/>
+      <c r="U108" s="1"/>
+      <c r="V108" s="1"/>
+      <c r="W108" s="1"/>
+      <c r="X108" s="1"/>
+      <c r="Y108" s="1"/>
+      <c r="Z108" s="1"/>
+      <c r="AA108" s="1"/>
+      <c r="AB108" s="1"/>
+      <c r="AC108" s="1"/>
+      <c r="AD108" s="1"/>
+      <c r="AE108" s="1"/>
+      <c r="AF108" s="1"/>
+      <c r="AG108" s="1"/>
+      <c r="AH108" s="1"/>
+      <c r="AI108" s="1"/>
+      <c r="AJ108" s="1"/>
+      <c r="AK108" s="1"/>
+      <c r="AL108" s="1"/>
     </row>
     <row r="109">
       <c r="A109" s="2"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="T109" s="1"/>
+      <c r="U109" s="1"/>
+      <c r="V109" s="1"/>
+      <c r="W109" s="1"/>
+      <c r="X109" s="1"/>
+      <c r="Y109" s="1"/>
+      <c r="Z109" s="1"/>
+      <c r="AA109" s="1"/>
+      <c r="AB109" s="1"/>
+      <c r="AC109" s="1"/>
+      <c r="AD109" s="1"/>
+      <c r="AE109" s="1"/>
+      <c r="AF109" s="1"/>
+      <c r="AG109" s="1"/>
+      <c r="AH109" s="1"/>
+      <c r="AI109" s="1"/>
+      <c r="AJ109" s="1"/>
+      <c r="AK109" s="1"/>
+      <c r="AL109" s="1"/>
     </row>
     <row r="110">
       <c r="A110" s="2"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="S110" s="1"/>
+      <c r="T110" s="1"/>
+      <c r="U110" s="1"/>
+      <c r="V110" s="1"/>
+      <c r="W110" s="1"/>
+      <c r="X110" s="1"/>
+      <c r="Y110" s="1"/>
+      <c r="Z110" s="1"/>
+      <c r="AA110" s="1"/>
+      <c r="AB110" s="1"/>
+      <c r="AC110" s="1"/>
+      <c r="AD110" s="1"/>
+      <c r="AE110" s="1"/>
+      <c r="AF110" s="1"/>
+      <c r="AG110" s="1"/>
+      <c r="AH110" s="1"/>
+      <c r="AI110" s="1"/>
+      <c r="AJ110" s="1"/>
+      <c r="AK110" s="1"/>
+      <c r="AL110" s="1"/>
     </row>
     <row r="111">
       <c r="A111" s="2"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
+      <c r="R111" s="1"/>
+      <c r="S111" s="1"/>
+      <c r="T111" s="1"/>
+      <c r="U111" s="1"/>
+      <c r="V111" s="1"/>
+      <c r="W111" s="1"/>
+      <c r="X111" s="1"/>
+      <c r="Y111" s="1"/>
+      <c r="Z111" s="1"/>
+      <c r="AA111" s="1"/>
+      <c r="AB111" s="1"/>
+      <c r="AC111" s="1"/>
+      <c r="AD111" s="1"/>
+      <c r="AE111" s="1"/>
+      <c r="AF111" s="1"/>
+      <c r="AG111" s="1"/>
+      <c r="AH111" s="1"/>
+      <c r="AI111" s="1"/>
+      <c r="AJ111" s="1"/>
+      <c r="AK111" s="1"/>
+      <c r="AL111" s="1"/>
     </row>
     <row r="112">
       <c r="A112" s="2"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
+      <c r="R112" s="1"/>
+      <c r="S112" s="1"/>
+      <c r="T112" s="1"/>
+      <c r="U112" s="1"/>
+      <c r="V112" s="1"/>
+      <c r="W112" s="1"/>
+      <c r="X112" s="1"/>
+      <c r="Y112" s="1"/>
+      <c r="Z112" s="1"/>
+      <c r="AA112" s="1"/>
+      <c r="AB112" s="1"/>
+      <c r="AC112" s="1"/>
+      <c r="AD112" s="1"/>
+      <c r="AE112" s="1"/>
+      <c r="AF112" s="1"/>
+      <c r="AG112" s="1"/>
+      <c r="AH112" s="1"/>
+      <c r="AI112" s="1"/>
+      <c r="AJ112" s="1"/>
+      <c r="AK112" s="1"/>
+      <c r="AL112" s="1"/>
     </row>
     <row r="113">
       <c r="A113" s="2"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+      <c r="P113" s="1"/>
+      <c r="Q113" s="1"/>
+      <c r="R113" s="1"/>
+      <c r="S113" s="1"/>
+      <c r="T113" s="1"/>
+      <c r="U113" s="1"/>
+      <c r="V113" s="1"/>
+      <c r="W113" s="1"/>
+      <c r="X113" s="1"/>
+      <c r="Y113" s="1"/>
+      <c r="Z113" s="1"/>
+      <c r="AA113" s="1"/>
+      <c r="AB113" s="1"/>
+      <c r="AC113" s="1"/>
+      <c r="AD113" s="1"/>
+      <c r="AE113" s="1"/>
+      <c r="AF113" s="1"/>
+      <c r="AG113" s="1"/>
+      <c r="AH113" s="1"/>
+      <c r="AI113" s="1"/>
+      <c r="AJ113" s="1"/>
+      <c r="AK113" s="1"/>
+      <c r="AL113" s="1"/>
     </row>
     <row r="114">
       <c r="A114" s="2"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+      <c r="O114" s="1"/>
+      <c r="P114" s="1"/>
+      <c r="Q114" s="1"/>
+      <c r="R114" s="1"/>
+      <c r="S114" s="1"/>
+      <c r="T114" s="1"/>
+      <c r="U114" s="1"/>
+      <c r="V114" s="1"/>
+      <c r="W114" s="1"/>
+      <c r="X114" s="1"/>
+      <c r="Y114" s="1"/>
+      <c r="Z114" s="1"/>
+      <c r="AA114" s="1"/>
+      <c r="AB114" s="1"/>
+      <c r="AC114" s="1"/>
+      <c r="AD114" s="1"/>
+      <c r="AE114" s="1"/>
+      <c r="AF114" s="1"/>
+      <c r="AG114" s="1"/>
+      <c r="AH114" s="1"/>
+      <c r="AI114" s="1"/>
+      <c r="AJ114" s="1"/>
+      <c r="AK114" s="1"/>
+      <c r="AL114" s="1"/>
     </row>
     <row r="115">
       <c r="A115" s="2"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="1"/>
+      <c r="Q115" s="1"/>
+      <c r="R115" s="1"/>
+      <c r="S115" s="1"/>
+      <c r="T115" s="1"/>
+      <c r="U115" s="1"/>
+      <c r="V115" s="1"/>
+      <c r="W115" s="1"/>
+      <c r="X115" s="1"/>
+      <c r="Y115" s="1"/>
+      <c r="Z115" s="1"/>
+      <c r="AA115" s="1"/>
+      <c r="AB115" s="1"/>
+      <c r="AC115" s="1"/>
+      <c r="AD115" s="1"/>
+      <c r="AE115" s="1"/>
+      <c r="AF115" s="1"/>
+      <c r="AG115" s="1"/>
+      <c r="AH115" s="1"/>
+      <c r="AI115" s="1"/>
+      <c r="AJ115" s="1"/>
+      <c r="AK115" s="1"/>
+      <c r="AL115" s="1"/>
     </row>
     <row r="116">
       <c r="A116" s="2"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+      <c r="O116" s="1"/>
+      <c r="P116" s="1"/>
+      <c r="Q116" s="1"/>
+      <c r="R116" s="1"/>
+      <c r="S116" s="1"/>
+      <c r="T116" s="1"/>
+      <c r="U116" s="1"/>
+      <c r="V116" s="1"/>
+      <c r="W116" s="1"/>
+      <c r="X116" s="1"/>
+      <c r="Y116" s="1"/>
+      <c r="Z116" s="1"/>
+      <c r="AA116" s="1"/>
+      <c r="AB116" s="1"/>
+      <c r="AC116" s="1"/>
+      <c r="AD116" s="1"/>
+      <c r="AE116" s="1"/>
+      <c r="AF116" s="1"/>
+      <c r="AG116" s="1"/>
+      <c r="AH116" s="1"/>
+      <c r="AI116" s="1"/>
+      <c r="AJ116" s="1"/>
+      <c r="AK116" s="1"/>
+      <c r="AL116" s="1"/>
     </row>
     <row r="117">
       <c r="A117" s="2"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
+      <c r="P117" s="1"/>
+      <c r="Q117" s="1"/>
+      <c r="R117" s="1"/>
+      <c r="S117" s="1"/>
+      <c r="T117" s="1"/>
+      <c r="U117" s="1"/>
+      <c r="V117" s="1"/>
+      <c r="W117" s="1"/>
+      <c r="X117" s="1"/>
+      <c r="Y117" s="1"/>
+      <c r="Z117" s="1"/>
+      <c r="AA117" s="1"/>
+      <c r="AB117" s="1"/>
+      <c r="AC117" s="1"/>
+      <c r="AD117" s="1"/>
+      <c r="AE117" s="1"/>
+      <c r="AF117" s="1"/>
+      <c r="AG117" s="1"/>
+      <c r="AH117" s="1"/>
+      <c r="AI117" s="1"/>
+      <c r="AJ117" s="1"/>
+      <c r="AK117" s="1"/>
+      <c r="AL117" s="1"/>
     </row>
     <row r="118">
       <c r="A118" s="2"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="1"/>
+      <c r="Q118" s="1"/>
+      <c r="R118" s="1"/>
+      <c r="S118" s="1"/>
+      <c r="T118" s="1"/>
+      <c r="U118" s="1"/>
+      <c r="V118" s="1"/>
+      <c r="W118" s="1"/>
+      <c r="X118" s="1"/>
+      <c r="Y118" s="1"/>
+      <c r="Z118" s="1"/>
+      <c r="AA118" s="1"/>
+      <c r="AB118" s="1"/>
+      <c r="AC118" s="1"/>
+      <c r="AD118" s="1"/>
+      <c r="AE118" s="1"/>
+      <c r="AF118" s="1"/>
+      <c r="AG118" s="1"/>
+      <c r="AH118" s="1"/>
+      <c r="AI118" s="1"/>
+      <c r="AJ118" s="1"/>
+      <c r="AK118" s="1"/>
+      <c r="AL118" s="1"/>
     </row>
     <row r="119">
       <c r="A119" s="2"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+      <c r="P119" s="1"/>
+      <c r="Q119" s="1"/>
+      <c r="R119" s="1"/>
+      <c r="S119" s="1"/>
+      <c r="T119" s="1"/>
+      <c r="U119" s="1"/>
+      <c r="V119" s="1"/>
+      <c r="W119" s="1"/>
+      <c r="X119" s="1"/>
+      <c r="Y119" s="1"/>
+      <c r="Z119" s="1"/>
+      <c r="AA119" s="1"/>
+      <c r="AB119" s="1"/>
+      <c r="AC119" s="1"/>
+      <c r="AD119" s="1"/>
+      <c r="AE119" s="1"/>
+      <c r="AF119" s="1"/>
+      <c r="AG119" s="1"/>
+      <c r="AH119" s="1"/>
+      <c r="AI119" s="1"/>
+      <c r="AJ119" s="1"/>
+      <c r="AK119" s="1"/>
+      <c r="AL119" s="1"/>
     </row>
     <row r="120">
       <c r="A120" s="2"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
+      <c r="Q120" s="1"/>
+      <c r="R120" s="1"/>
+      <c r="S120" s="1"/>
+      <c r="T120" s="1"/>
+      <c r="U120" s="1"/>
+      <c r="V120" s="1"/>
+      <c r="W120" s="1"/>
+      <c r="X120" s="1"/>
+      <c r="Y120" s="1"/>
+      <c r="Z120" s="1"/>
+      <c r="AA120" s="1"/>
+      <c r="AB120" s="1"/>
+      <c r="AC120" s="1"/>
+      <c r="AD120" s="1"/>
+      <c r="AE120" s="1"/>
+      <c r="AF120" s="1"/>
+      <c r="AG120" s="1"/>
+      <c r="AH120" s="1"/>
+      <c r="AI120" s="1"/>
+      <c r="AJ120" s="1"/>
+      <c r="AK120" s="1"/>
+      <c r="AL120" s="1"/>
     </row>
     <row r="121">
       <c r="A121" s="2"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+      <c r="O121" s="1"/>
+      <c r="P121" s="1"/>
+      <c r="Q121" s="1"/>
+      <c r="R121" s="1"/>
+      <c r="S121" s="1"/>
+      <c r="T121" s="1"/>
+      <c r="U121" s="1"/>
+      <c r="V121" s="1"/>
+      <c r="W121" s="1"/>
+      <c r="X121" s="1"/>
+      <c r="Y121" s="1"/>
+      <c r="Z121" s="1"/>
+      <c r="AA121" s="1"/>
+      <c r="AB121" s="1"/>
+      <c r="AC121" s="1"/>
+      <c r="AD121" s="1"/>
+      <c r="AE121" s="1"/>
+      <c r="AF121" s="1"/>
+      <c r="AG121" s="1"/>
+      <c r="AH121" s="1"/>
+      <c r="AI121" s="1"/>
+      <c r="AJ121" s="1"/>
+      <c r="AK121" s="1"/>
+      <c r="AL121" s="1"/>
     </row>
     <row r="122">
       <c r="A122" s="2"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+      <c r="O122" s="1"/>
+      <c r="P122" s="1"/>
+      <c r="Q122" s="1"/>
+      <c r="R122" s="1"/>
+      <c r="S122" s="1"/>
+      <c r="T122" s="1"/>
+      <c r="U122" s="1"/>
+      <c r="V122" s="1"/>
+      <c r="W122" s="1"/>
+      <c r="X122" s="1"/>
+      <c r="Y122" s="1"/>
+      <c r="Z122" s="1"/>
+      <c r="AA122" s="1"/>
+      <c r="AB122" s="1"/>
+      <c r="AC122" s="1"/>
+      <c r="AD122" s="1"/>
+      <c r="AE122" s="1"/>
+      <c r="AF122" s="1"/>
+      <c r="AG122" s="1"/>
+      <c r="AH122" s="1"/>
+      <c r="AI122" s="1"/>
+      <c r="AJ122" s="1"/>
+      <c r="AK122" s="1"/>
+      <c r="AL122" s="1"/>
     </row>
     <row r="123">
       <c r="A123" s="2"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="2"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="2"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="2"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="2"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="2"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="2"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="2"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="2"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="2"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="2"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="2"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="2"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="2"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="2"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="2"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="2"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="2"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="2"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="2"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="2"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="2"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="2"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="2"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="2"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="2"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="2"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="2"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="2"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="2"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="2"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="2"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="2"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="2"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="2"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="2"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="2"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="2"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="2"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="2"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="2"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="2"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="2"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="2"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="2"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="2"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="2"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="2"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="2"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="2"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="2"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="2"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="2"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="2"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="2"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="2"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="2"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="2"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="2"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="2"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="2"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="2"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="2"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="2"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="2"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="2"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="2"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="2"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="2"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="2"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="2"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="2"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="2"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="2"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="2"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="2"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="2"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="2"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="2"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="2"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="2"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="2"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="2"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="2"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="2"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="2"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="2"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="2"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="2"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="2"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="2"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="2"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="2"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="2"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="2"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="2"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="2"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="2"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="2"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="2"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="2"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="2"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="2"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="2"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="2"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="2"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="2"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="2"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="2"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="2"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="2"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="2"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="2"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="2"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="2"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="2"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="2"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="2"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="2"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="2"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="2"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="2"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="2"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="2"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="2"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="2"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="2"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="2"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="2"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="2"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="2"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="2"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="2"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="2"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="2"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="2"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="2"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="2"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="2"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="2"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="2"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="2"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="2"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="2"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="2"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="2"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="2"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="2"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="2"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="2"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="2"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="2"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="2"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="2"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="2"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="2"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="2"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="2"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="2"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="2"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="2"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="2"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="2"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="2"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="2"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="2"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="2"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="2"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="2"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="2"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="2"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="2"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="2"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="2"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="2"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="2"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="2"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="2"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="2"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="2"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="2"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="2"/>
-    </row>
-    <row r="305">
-      <c r="A305" s="2"/>
-    </row>
-    <row r="306">
-      <c r="A306" s="2"/>
-    </row>
-    <row r="307">
-      <c r="A307" s="2"/>
-    </row>
-    <row r="308">
-      <c r="A308" s="2"/>
-    </row>
-    <row r="309">
-      <c r="A309" s="2"/>
-    </row>
-    <row r="310">
-      <c r="A310" s="2"/>
-    </row>
-    <row r="311">
-      <c r="A311" s="2"/>
-    </row>
-    <row r="312">
-      <c r="A312" s="2"/>
-    </row>
-    <row r="313">
-      <c r="A313" s="2"/>
-    </row>
-    <row r="314">
-      <c r="A314" s="2"/>
-    </row>
-    <row r="315">
-      <c r="A315" s="2"/>
-    </row>
-    <row r="316">
-      <c r="A316" s="2"/>
-    </row>
-    <row r="317">
-      <c r="A317" s="2"/>
-    </row>
-    <row r="318">
-      <c r="A318" s="2"/>
-    </row>
-    <row r="319">
-      <c r="A319" s="2"/>
-    </row>
-    <row r="320">
-      <c r="A320" s="2"/>
-    </row>
-    <row r="321">
-      <c r="A321" s="2"/>
-    </row>
-    <row r="322">
-      <c r="A322" s="2"/>
-    </row>
-    <row r="323">
-      <c r="A323" s="2"/>
-    </row>
-    <row r="324">
-      <c r="A324" s="2"/>
-    </row>
-    <row r="325">
-      <c r="A325" s="2"/>
-    </row>
-    <row r="326">
-      <c r="A326" s="2"/>
-    </row>
-    <row r="327">
-      <c r="A327" s="2"/>
-    </row>
-    <row r="328">
-      <c r="A328" s="2"/>
-    </row>
-    <row r="329">
-      <c r="A329" s="2"/>
-    </row>
-    <row r="330">
-      <c r="A330" s="2"/>
-    </row>
-    <row r="331">
-      <c r="A331" s="2"/>
-    </row>
-    <row r="332">
-      <c r="A332" s="2"/>
-    </row>
-    <row r="333">
-      <c r="A333" s="2"/>
-    </row>
-    <row r="334">
-      <c r="A334" s="2"/>
-    </row>
-    <row r="335">
-      <c r="A335" s="2"/>
-    </row>
-    <row r="336">
-      <c r="A336" s="2"/>
-    </row>
-    <row r="337">
-      <c r="A337" s="2"/>
-    </row>
-    <row r="338">
-      <c r="A338" s="2"/>
-    </row>
-    <row r="339">
-      <c r="A339" s="2"/>
-    </row>
-    <row r="340">
-      <c r="A340" s="2"/>
-    </row>
-    <row r="341">
-      <c r="A341" s="2"/>
-    </row>
-    <row r="342">
-      <c r="A342" s="2"/>
-    </row>
-    <row r="343">
-      <c r="A343" s="2"/>
-    </row>
-    <row r="344">
-      <c r="A344" s="2"/>
-    </row>
-    <row r="345">
-      <c r="A345" s="2"/>
-    </row>
-    <row r="346">
-      <c r="A346" s="2"/>
-    </row>
-    <row r="347">
-      <c r="A347" s="2"/>
-    </row>
-    <row r="348">
-      <c r="A348" s="2"/>
-    </row>
-    <row r="349">
-      <c r="A349" s="2"/>
-    </row>
-    <row r="350">
-      <c r="A350" s="2"/>
-    </row>
-    <row r="351">
-      <c r="A351" s="2"/>
-    </row>
-    <row r="352">
-      <c r="A352" s="2"/>
-    </row>
-    <row r="353">
-      <c r="A353" s="2"/>
-    </row>
-    <row r="354">
-      <c r="A354" s="2"/>
-    </row>
-    <row r="355">
-      <c r="A355" s="2"/>
-    </row>
-    <row r="356">
-      <c r="A356" s="2"/>
-    </row>
-    <row r="357">
-      <c r="A357" s="2"/>
-    </row>
-    <row r="358">
-      <c r="A358" s="2"/>
-    </row>
-    <row r="359">
-      <c r="A359" s="2"/>
-    </row>
-    <row r="360">
-      <c r="A360" s="2"/>
-    </row>
-    <row r="361">
-      <c r="A361" s="2"/>
-    </row>
-    <row r="362">
-      <c r="A362" s="2"/>
-    </row>
-    <row r="363">
-      <c r="A363" s="2"/>
-    </row>
-    <row r="364">
-      <c r="A364" s="2"/>
-    </row>
-    <row r="365">
-      <c r="A365" s="2"/>
-    </row>
-    <row r="366">
-      <c r="A366" s="2"/>
-    </row>
-    <row r="367">
-      <c r="A367" s="2"/>
-    </row>
-    <row r="368">
-      <c r="A368" s="2"/>
-    </row>
-    <row r="369">
-      <c r="A369" s="2"/>
-    </row>
-    <row r="370">
-      <c r="A370" s="2"/>
-    </row>
-    <row r="371">
-      <c r="A371" s="2"/>
-    </row>
-    <row r="372">
-      <c r="A372" s="2"/>
-    </row>
-    <row r="373">
-      <c r="A373" s="2"/>
-    </row>
-    <row r="374">
-      <c r="A374" s="2"/>
-    </row>
-    <row r="375">
-      <c r="A375" s="2"/>
-    </row>
-    <row r="376">
-      <c r="A376" s="2"/>
-    </row>
-    <row r="377">
-      <c r="A377" s="2"/>
-    </row>
-    <row r="378">
-      <c r="A378" s="2"/>
-    </row>
-    <row r="379">
-      <c r="A379" s="2"/>
-    </row>
-    <row r="380">
-      <c r="A380" s="2"/>
-    </row>
-    <row r="381">
-      <c r="A381" s="2"/>
-    </row>
-    <row r="382">
-      <c r="A382" s="2"/>
-    </row>
-    <row r="383">
-      <c r="A383" s="2"/>
-    </row>
-    <row r="384">
-      <c r="A384" s="2"/>
-    </row>
-    <row r="385">
-      <c r="A385" s="2"/>
-    </row>
-    <row r="386">
-      <c r="A386" s="2"/>
-    </row>
-    <row r="387">
-      <c r="A387" s="2"/>
-    </row>
-    <row r="388">
-      <c r="A388" s="2"/>
-    </row>
-    <row r="389">
-      <c r="A389" s="2"/>
-    </row>
-    <row r="390">
-      <c r="A390" s="2"/>
-    </row>
-    <row r="391">
-      <c r="A391" s="2"/>
-    </row>
-    <row r="392">
-      <c r="A392" s="2"/>
-    </row>
-    <row r="393">
-      <c r="A393" s="2"/>
-    </row>
-    <row r="394">
-      <c r="A394" s="2"/>
-    </row>
-    <row r="395">
-      <c r="A395" s="2"/>
-    </row>
-    <row r="396">
-      <c r="A396" s="2"/>
-    </row>
-    <row r="397">
-      <c r="A397" s="2"/>
-    </row>
-    <row r="398">
-      <c r="A398" s="2"/>
-    </row>
-    <row r="399">
-      <c r="A399" s="2"/>
-    </row>
-    <row r="400">
-      <c r="A400" s="2"/>
-    </row>
-    <row r="401">
-      <c r="A401" s="2"/>
-    </row>
-    <row r="402">
-      <c r="A402" s="2"/>
-    </row>
-    <row r="403">
-      <c r="A403" s="2"/>
-    </row>
-    <row r="404">
-      <c r="A404" s="2"/>
-    </row>
-    <row r="405">
-      <c r="A405" s="2"/>
-    </row>
-    <row r="406">
-      <c r="A406" s="2"/>
-    </row>
-    <row r="407">
-      <c r="A407" s="2"/>
-    </row>
-    <row r="408">
-      <c r="A408" s="2"/>
-    </row>
-    <row r="409">
-      <c r="A409" s="2"/>
-    </row>
-    <row r="410">
-      <c r="A410" s="2"/>
-    </row>
-    <row r="411">
-      <c r="A411" s="2"/>
-    </row>
-    <row r="412">
-      <c r="A412" s="2"/>
-    </row>
-    <row r="413">
-      <c r="A413" s="2"/>
-    </row>
-    <row r="414">
-      <c r="A414" s="2"/>
-    </row>
-    <row r="415">
-      <c r="A415" s="2"/>
-    </row>
-    <row r="416">
-      <c r="A416" s="2"/>
-    </row>
-    <row r="417">
-      <c r="A417" s="2"/>
-    </row>
-    <row r="418">
-      <c r="A418" s="2"/>
-    </row>
-    <row r="419">
-      <c r="A419" s="2"/>
-    </row>
-    <row r="420">
-      <c r="A420" s="2"/>
-    </row>
-    <row r="421">
-      <c r="A421" s="2"/>
-    </row>
-    <row r="422">
-      <c r="A422" s="2"/>
-    </row>
-    <row r="423">
-      <c r="A423" s="2"/>
-    </row>
-    <row r="424">
-      <c r="A424" s="2"/>
-    </row>
-    <row r="425">
-      <c r="A425" s="2"/>
-    </row>
-    <row r="426">
-      <c r="A426" s="2"/>
-    </row>
-    <row r="427">
-      <c r="A427" s="2"/>
-    </row>
-    <row r="428">
-      <c r="A428" s="2"/>
-    </row>
-    <row r="429">
-      <c r="A429" s="2"/>
-    </row>
-    <row r="430">
-      <c r="A430" s="2"/>
-    </row>
-    <row r="431">
-      <c r="A431" s="2"/>
-    </row>
-    <row r="432">
-      <c r="A432" s="2"/>
-    </row>
-    <row r="433">
-      <c r="A433" s="2"/>
-    </row>
-    <row r="434">
-      <c r="A434" s="2"/>
-    </row>
-    <row r="435">
-      <c r="A435" s="2"/>
-    </row>
-    <row r="436">
-      <c r="A436" s="2"/>
-    </row>
-    <row r="437">
-      <c r="A437" s="2"/>
-    </row>
-    <row r="438">
-      <c r="A438" s="2"/>
-    </row>
-    <row r="439">
-      <c r="A439" s="2"/>
-    </row>
-    <row r="440">
-      <c r="A440" s="2"/>
-    </row>
-    <row r="441">
-      <c r="A441" s="2"/>
-    </row>
-    <row r="442">
-      <c r="A442" s="2"/>
-    </row>
-    <row r="443">
-      <c r="A443" s="2"/>
-    </row>
-    <row r="444">
-      <c r="A444" s="2"/>
-    </row>
-    <row r="445">
-      <c r="A445" s="2"/>
-    </row>
-    <row r="446">
-      <c r="A446" s="2"/>
-    </row>
-    <row r="447">
-      <c r="A447" s="2"/>
-    </row>
-    <row r="448">
-      <c r="A448" s="2"/>
-    </row>
-    <row r="449">
-      <c r="A449" s="2"/>
-    </row>
-    <row r="450">
-      <c r="A450" s="2"/>
-    </row>
-    <row r="451">
-      <c r="A451" s="2"/>
-    </row>
-    <row r="452">
-      <c r="A452" s="2"/>
-    </row>
-    <row r="453">
-      <c r="A453" s="2"/>
-    </row>
-    <row r="454">
-      <c r="A454" s="2"/>
-    </row>
-    <row r="455">
-      <c r="A455" s="2"/>
-    </row>
-    <row r="456">
-      <c r="A456" s="2"/>
-    </row>
-    <row r="457">
-      <c r="A457" s="2"/>
-    </row>
-    <row r="458">
-      <c r="A458" s="2"/>
-    </row>
-    <row r="459">
-      <c r="A459" s="2"/>
-    </row>
-    <row r="460">
-      <c r="A460" s="2"/>
-    </row>
-    <row r="461">
-      <c r="A461" s="2"/>
-    </row>
-    <row r="462">
-      <c r="A462" s="2"/>
-    </row>
-    <row r="463">
-      <c r="A463" s="2"/>
-    </row>
-    <row r="464">
-      <c r="A464" s="2"/>
-    </row>
-    <row r="465">
-      <c r="A465" s="2"/>
-    </row>
-    <row r="466">
-      <c r="A466" s="2"/>
-    </row>
-    <row r="467">
-      <c r="A467" s="2"/>
-    </row>
-    <row r="468">
-      <c r="A468" s="2"/>
-    </row>
-    <row r="469">
-      <c r="A469" s="2"/>
-    </row>
-    <row r="470">
-      <c r="A470" s="2"/>
-    </row>
-    <row r="471">
-      <c r="A471" s="2"/>
-    </row>
-    <row r="472">
-      <c r="A472" s="2"/>
-    </row>
-    <row r="473">
-      <c r="A473" s="2"/>
-    </row>
-    <row r="474">
-      <c r="A474" s="2"/>
-    </row>
-    <row r="475">
-      <c r="A475" s="2"/>
-    </row>
-    <row r="476">
-      <c r="A476" s="2"/>
-    </row>
-    <row r="477">
-      <c r="A477" s="2"/>
-    </row>
-    <row r="478">
-      <c r="A478" s="2"/>
-    </row>
-    <row r="479">
-      <c r="A479" s="2"/>
-    </row>
-    <row r="480">
-      <c r="A480" s="2"/>
-    </row>
-    <row r="481">
-      <c r="A481" s="2"/>
-    </row>
-    <row r="482">
-      <c r="A482" s="2"/>
-    </row>
-    <row r="483">
-      <c r="A483" s="2"/>
-    </row>
-    <row r="484">
-      <c r="A484" s="2"/>
-    </row>
-    <row r="485">
-      <c r="A485" s="2"/>
-    </row>
-    <row r="486">
-      <c r="A486" s="2"/>
-    </row>
-    <row r="487">
-      <c r="A487" s="2"/>
-    </row>
-    <row r="488">
-      <c r="A488" s="2"/>
-    </row>
-    <row r="489">
-      <c r="A489" s="2"/>
-    </row>
-    <row r="490">
-      <c r="A490" s="2"/>
-    </row>
-    <row r="491">
-      <c r="A491" s="2"/>
-    </row>
-    <row r="492">
-      <c r="A492" s="2"/>
-    </row>
-    <row r="493">
-      <c r="A493" s="2"/>
-    </row>
-    <row r="494">
-      <c r="A494" s="2"/>
-    </row>
-    <row r="495">
-      <c r="A495" s="2"/>
-    </row>
-    <row r="496">
-      <c r="A496" s="2"/>
-    </row>
-    <row r="497">
-      <c r="A497" s="2"/>
-    </row>
-    <row r="498">
-      <c r="A498" s="2"/>
-    </row>
-    <row r="499">
-      <c r="A499" s="2"/>
-    </row>
-    <row r="500">
-      <c r="A500" s="2"/>
-    </row>
-    <row r="501">
-      <c r="A501" s="2"/>
-    </row>
-    <row r="502">
-      <c r="A502" s="2"/>
-    </row>
-    <row r="503">
-      <c r="A503" s="2"/>
-    </row>
-    <row r="504">
-      <c r="A504" s="2"/>
-    </row>
-    <row r="505">
-      <c r="A505" s="2"/>
-    </row>
-    <row r="506">
-      <c r="A506" s="2"/>
-    </row>
-    <row r="507">
-      <c r="A507" s="2"/>
-    </row>
-    <row r="508">
-      <c r="A508" s="2"/>
-    </row>
-    <row r="509">
-      <c r="A509" s="2"/>
-    </row>
-    <row r="510">
-      <c r="A510" s="2"/>
-    </row>
-    <row r="511">
-      <c r="A511" s="2"/>
-    </row>
-    <row r="512">
-      <c r="A512" s="2"/>
-    </row>
-    <row r="513">
-      <c r="A513" s="2"/>
-    </row>
-    <row r="514">
-      <c r="A514" s="2"/>
-    </row>
-    <row r="515">
-      <c r="A515" s="2"/>
-    </row>
-    <row r="516">
-      <c r="A516" s="2"/>
-    </row>
-    <row r="517">
-      <c r="A517" s="2"/>
-    </row>
-    <row r="518">
-      <c r="A518" s="2"/>
-    </row>
-    <row r="519">
-      <c r="A519" s="2"/>
-    </row>
-    <row r="520">
-      <c r="A520" s="2"/>
-    </row>
-    <row r="521">
-      <c r="A521" s="2"/>
-    </row>
-    <row r="522">
-      <c r="A522" s="2"/>
-    </row>
-    <row r="523">
-      <c r="A523" s="2"/>
-    </row>
-    <row r="524">
-      <c r="A524" s="2"/>
-    </row>
-    <row r="525">
-      <c r="A525" s="2"/>
-    </row>
-    <row r="526">
-      <c r="A526" s="2"/>
-    </row>
-    <row r="527">
-      <c r="A527" s="2"/>
-    </row>
-    <row r="528">
-      <c r="A528" s="2"/>
-    </row>
-    <row r="529">
-      <c r="A529" s="2"/>
-    </row>
-    <row r="530">
-      <c r="A530" s="2"/>
-    </row>
-    <row r="531">
-      <c r="A531" s="2"/>
-    </row>
-    <row r="532">
-      <c r="A532" s="2"/>
-    </row>
-    <row r="533">
-      <c r="A533" s="2"/>
-    </row>
-    <row r="534">
-      <c r="A534" s="2"/>
-    </row>
-    <row r="535">
-      <c r="A535" s="2"/>
-    </row>
-    <row r="536">
-      <c r="A536" s="2"/>
-    </row>
-    <row r="537">
-      <c r="A537" s="2"/>
-    </row>
-    <row r="538">
-      <c r="A538" s="2"/>
-    </row>
-    <row r="539">
-      <c r="A539" s="2"/>
-    </row>
-    <row r="540">
-      <c r="A540" s="2"/>
-    </row>
-    <row r="541">
-      <c r="A541" s="2"/>
-    </row>
-    <row r="542">
-      <c r="A542" s="2"/>
-    </row>
-    <row r="543">
-      <c r="A543" s="2"/>
-    </row>
-    <row r="544">
-      <c r="A544" s="2"/>
-    </row>
-    <row r="545">
-      <c r="A545" s="2"/>
-    </row>
-    <row r="546">
-      <c r="A546" s="2"/>
-    </row>
-    <row r="547">
-      <c r="A547" s="2"/>
-    </row>
-    <row r="548">
-      <c r="A548" s="2"/>
-    </row>
-    <row r="549">
-      <c r="A549" s="2"/>
-    </row>
-    <row r="550">
-      <c r="A550" s="2"/>
-    </row>
-    <row r="551">
-      <c r="A551" s="2"/>
-    </row>
-    <row r="552">
-      <c r="A552" s="2"/>
-    </row>
-    <row r="553">
-      <c r="A553" s="2"/>
-    </row>
-    <row r="554">
-      <c r="A554" s="2"/>
-    </row>
-    <row r="555">
-      <c r="A555" s="2"/>
-    </row>
-    <row r="556">
-      <c r="A556" s="2"/>
-    </row>
-    <row r="557">
-      <c r="A557" s="2"/>
-    </row>
-    <row r="558">
-      <c r="A558" s="2"/>
-    </row>
-    <row r="559">
-      <c r="A559" s="2"/>
-    </row>
-    <row r="560">
-      <c r="A560" s="2"/>
-    </row>
-    <row r="561">
-      <c r="A561" s="2"/>
-    </row>
-    <row r="562">
-      <c r="A562" s="2"/>
-    </row>
-    <row r="563">
-      <c r="A563" s="2"/>
-    </row>
-    <row r="564">
-      <c r="A564" s="2"/>
-    </row>
-    <row r="565">
-      <c r="A565" s="2"/>
-    </row>
-    <row r="566">
-      <c r="A566" s="2"/>
-    </row>
-    <row r="567">
-      <c r="A567" s="2"/>
-    </row>
-    <row r="568">
-      <c r="A568" s="2"/>
-    </row>
-    <row r="569">
-      <c r="A569" s="2"/>
-    </row>
-    <row r="570">
-      <c r="A570" s="2"/>
-    </row>
-    <row r="571">
-      <c r="A571" s="2"/>
-    </row>
-    <row r="572">
-      <c r="A572" s="2"/>
-    </row>
-    <row r="573">
-      <c r="A573" s="2"/>
-    </row>
-    <row r="574">
-      <c r="A574" s="2"/>
-    </row>
-    <row r="575">
-      <c r="A575" s="2"/>
-    </row>
-    <row r="576">
-      <c r="A576" s="2"/>
-    </row>
-    <row r="577">
-      <c r="A577" s="2"/>
-    </row>
-    <row r="578">
-      <c r="A578" s="2"/>
-    </row>
-    <row r="579">
-      <c r="A579" s="2"/>
-    </row>
-    <row r="580">
-      <c r="A580" s="2"/>
-    </row>
-    <row r="581">
-      <c r="A581" s="2"/>
-    </row>
-    <row r="582">
-      <c r="A582" s="2"/>
-    </row>
-    <row r="583">
-      <c r="A583" s="2"/>
-    </row>
-    <row r="584">
-      <c r="A584" s="2"/>
-    </row>
-    <row r="585">
-      <c r="A585" s="2"/>
-    </row>
-    <row r="586">
-      <c r="A586" s="2"/>
-    </row>
-    <row r="587">
-      <c r="A587" s="2"/>
-    </row>
-    <row r="588">
-      <c r="A588" s="2"/>
-    </row>
-    <row r="589">
-      <c r="A589" s="2"/>
-    </row>
-    <row r="590">
-      <c r="A590" s="2"/>
-    </row>
-    <row r="591">
-      <c r="A591" s="2"/>
-    </row>
-    <row r="592">
-      <c r="A592" s="2"/>
-    </row>
-    <row r="593">
-      <c r="A593" s="2"/>
-    </row>
-    <row r="594">
-      <c r="A594" s="2"/>
-    </row>
-    <row r="595">
-      <c r="A595" s="2"/>
-    </row>
-    <row r="596">
-      <c r="A596" s="2"/>
-    </row>
-    <row r="597">
-      <c r="A597" s="2"/>
-    </row>
-    <row r="598">
-      <c r="A598" s="2"/>
-    </row>
-    <row r="599">
-      <c r="A599" s="2"/>
-    </row>
-    <row r="600">
-      <c r="A600" s="2"/>
-    </row>
-    <row r="601">
-      <c r="A601" s="2"/>
-    </row>
-    <row r="602">
-      <c r="A602" s="2"/>
-    </row>
-    <row r="603">
-      <c r="A603" s="2"/>
-    </row>
-    <row r="604">
-      <c r="A604" s="2"/>
-    </row>
-    <row r="605">
-      <c r="A605" s="2"/>
-    </row>
-    <row r="606">
-      <c r="A606" s="2"/>
-    </row>
-    <row r="607">
-      <c r="A607" s="2"/>
-    </row>
-    <row r="608">
-      <c r="A608" s="2"/>
-    </row>
-    <row r="609">
-      <c r="A609" s="2"/>
-    </row>
-    <row r="610">
-      <c r="A610" s="2"/>
-    </row>
-    <row r="611">
-      <c r="A611" s="2"/>
-    </row>
-    <row r="612">
-      <c r="A612" s="2"/>
-    </row>
-    <row r="613">
-      <c r="A613" s="2"/>
-    </row>
-    <row r="614">
-      <c r="A614" s="2"/>
-    </row>
-    <row r="615">
-      <c r="A615" s="2"/>
-    </row>
-    <row r="616">
-      <c r="A616" s="2"/>
-    </row>
-    <row r="617">
-      <c r="A617" s="2"/>
-    </row>
-    <row r="618">
-      <c r="A618" s="2"/>
-    </row>
-    <row r="619">
-      <c r="A619" s="2"/>
-    </row>
-    <row r="620">
-      <c r="A620" s="2"/>
-    </row>
-    <row r="621">
-      <c r="A621" s="2"/>
-    </row>
-    <row r="622">
-      <c r="A622" s="2"/>
-    </row>
-    <row r="623">
-      <c r="A623" s="2"/>
-    </row>
-    <row r="624">
-      <c r="A624" s="2"/>
-    </row>
-    <row r="625">
-      <c r="A625" s="2"/>
-    </row>
-    <row r="626">
-      <c r="A626" s="2"/>
-    </row>
-    <row r="627">
-      <c r="A627" s="2"/>
-    </row>
-    <row r="628">
-      <c r="A628" s="2"/>
-    </row>
-    <row r="629">
-      <c r="A629" s="2"/>
-    </row>
-    <row r="630">
-      <c r="A630" s="2"/>
-    </row>
-    <row r="631">
-      <c r="A631" s="2"/>
-    </row>
-    <row r="632">
-      <c r="A632" s="2"/>
-    </row>
-    <row r="633">
-      <c r="A633" s="2"/>
-    </row>
-    <row r="634">
-      <c r="A634" s="2"/>
-    </row>
-    <row r="635">
-      <c r="A635" s="2"/>
-    </row>
-    <row r="636">
-      <c r="A636" s="2"/>
-    </row>
-    <row r="637">
-      <c r="A637" s="2"/>
-    </row>
-    <row r="638">
-      <c r="A638" s="2"/>
-    </row>
-    <row r="639">
-      <c r="A639" s="2"/>
-    </row>
-    <row r="640">
-      <c r="A640" s="2"/>
-    </row>
-    <row r="641">
-      <c r="A641" s="2"/>
-    </row>
-    <row r="642">
-      <c r="A642" s="2"/>
-    </row>
-    <row r="643">
-      <c r="A643" s="2"/>
-    </row>
-    <row r="644">
-      <c r="A644" s="2"/>
-    </row>
-    <row r="645">
-      <c r="A645" s="2"/>
-    </row>
-    <row r="646">
-      <c r="A646" s="2"/>
-    </row>
-    <row r="647">
-      <c r="A647" s="2"/>
-    </row>
-    <row r="648">
-      <c r="A648" s="2"/>
-    </row>
-    <row r="649">
-      <c r="A649" s="2"/>
-    </row>
-    <row r="650">
-      <c r="A650" s="2"/>
-    </row>
-    <row r="651">
-      <c r="A651" s="2"/>
-    </row>
-    <row r="652">
-      <c r="A652" s="2"/>
-    </row>
-    <row r="653">
-      <c r="A653" s="2"/>
-    </row>
-    <row r="654">
-      <c r="A654" s="2"/>
-    </row>
-    <row r="655">
-      <c r="A655" s="2"/>
-    </row>
-    <row r="656">
-      <c r="A656" s="2"/>
-    </row>
-    <row r="657">
-      <c r="A657" s="2"/>
-    </row>
-    <row r="658">
-      <c r="A658" s="2"/>
-    </row>
-    <row r="659">
-      <c r="A659" s="2"/>
-    </row>
-    <row r="660">
-      <c r="A660" s="2"/>
-    </row>
-    <row r="661">
-      <c r="A661" s="2"/>
-    </row>
-    <row r="662">
-      <c r="A662" s="2"/>
-    </row>
-    <row r="663">
-      <c r="A663" s="2"/>
-    </row>
-    <row r="664">
-      <c r="A664" s="2"/>
-    </row>
-    <row r="665">
-      <c r="A665" s="2"/>
-    </row>
-    <row r="666">
-      <c r="A666" s="2"/>
-    </row>
-    <row r="667">
-      <c r="A667" s="2"/>
-    </row>
-    <row r="668">
-      <c r="A668" s="2"/>
-    </row>
-    <row r="669">
-      <c r="A669" s="2"/>
-    </row>
-    <row r="670">
-      <c r="A670" s="2"/>
-    </row>
-    <row r="671">
-      <c r="A671" s="2"/>
-    </row>
-    <row r="672">
-      <c r="A672" s="2"/>
-    </row>
-    <row r="673">
-      <c r="A673" s="2"/>
-    </row>
-    <row r="674">
-      <c r="A674" s="2"/>
-    </row>
-    <row r="675">
-      <c r="A675" s="2"/>
-    </row>
-    <row r="676">
-      <c r="A676" s="2"/>
-    </row>
-    <row r="677">
-      <c r="A677" s="2"/>
-    </row>
-    <row r="678">
-      <c r="A678" s="2"/>
-    </row>
-    <row r="679">
-      <c r="A679" s="2"/>
-    </row>
-    <row r="680">
-      <c r="A680" s="2"/>
-    </row>
-    <row r="681">
-      <c r="A681" s="2"/>
-    </row>
-    <row r="682">
-      <c r="A682" s="2"/>
-    </row>
-    <row r="683">
-      <c r="A683" s="2"/>
-    </row>
-    <row r="684">
-      <c r="A684" s="2"/>
-    </row>
-    <row r="685">
-      <c r="A685" s="2"/>
-    </row>
-    <row r="686">
-      <c r="A686" s="2"/>
-    </row>
-    <row r="687">
-      <c r="A687" s="2"/>
-    </row>
-    <row r="688">
-      <c r="A688" s="2"/>
-    </row>
-    <row r="689">
-      <c r="A689" s="2"/>
-    </row>
-    <row r="690">
-      <c r="A690" s="2"/>
-    </row>
-    <row r="691">
-      <c r="A691" s="2"/>
-    </row>
-    <row r="692">
-      <c r="A692" s="2"/>
-    </row>
-    <row r="693">
-      <c r="A693" s="2"/>
-    </row>
-    <row r="694">
-      <c r="A694" s="2"/>
-    </row>
-    <row r="695">
-      <c r="A695" s="2"/>
-    </row>
-    <row r="696">
-      <c r="A696" s="2"/>
-    </row>
-    <row r="697">
-      <c r="A697" s="2"/>
-    </row>
-    <row r="698">
-      <c r="A698" s="2"/>
-    </row>
-    <row r="699">
-      <c r="A699" s="2"/>
-    </row>
-    <row r="700">
-      <c r="A700" s="2"/>
-    </row>
-    <row r="701">
-      <c r="A701" s="2"/>
-    </row>
-    <row r="702">
-      <c r="A702" s="2"/>
-    </row>
-    <row r="703">
-      <c r="A703" s="2"/>
-    </row>
-    <row r="704">
-      <c r="A704" s="2"/>
-    </row>
-    <row r="705">
-      <c r="A705" s="2"/>
-    </row>
-    <row r="706">
-      <c r="A706" s="2"/>
-    </row>
-    <row r="707">
-      <c r="A707" s="2"/>
-    </row>
-    <row r="708">
-      <c r="A708" s="2"/>
-    </row>
-    <row r="709">
-      <c r="A709" s="2"/>
-    </row>
-    <row r="710">
-      <c r="A710" s="2"/>
-    </row>
-    <row r="711">
-      <c r="A711" s="2"/>
-    </row>
-    <row r="712">
-      <c r="A712" s="2"/>
-    </row>
-    <row r="713">
-      <c r="A713" s="2"/>
-    </row>
-    <row r="714">
-      <c r="A714" s="2"/>
-    </row>
-    <row r="715">
-      <c r="A715" s="2"/>
-    </row>
-    <row r="716">
-      <c r="A716" s="2"/>
-    </row>
-    <row r="717">
-      <c r="A717" s="2"/>
-    </row>
-    <row r="718">
-      <c r="A718" s="2"/>
-    </row>
-    <row r="719">
-      <c r="A719" s="2"/>
-    </row>
-    <row r="720">
-      <c r="A720" s="2"/>
-    </row>
-    <row r="721">
-      <c r="A721" s="2"/>
-    </row>
-    <row r="722">
-      <c r="A722" s="2"/>
-    </row>
-    <row r="723">
-      <c r="A723" s="2"/>
-    </row>
-    <row r="724">
-      <c r="A724" s="2"/>
-    </row>
-    <row r="725">
-      <c r="A725" s="2"/>
-    </row>
-    <row r="726">
-      <c r="A726" s="2"/>
-    </row>
-    <row r="727">
-      <c r="A727" s="2"/>
-    </row>
-    <row r="728">
-      <c r="A728" s="2"/>
-    </row>
-    <row r="729">
-      <c r="A729" s="2"/>
-    </row>
-    <row r="730">
-      <c r="A730" s="2"/>
-    </row>
-    <row r="731">
-      <c r="A731" s="2"/>
-    </row>
-    <row r="732">
-      <c r="A732" s="2"/>
-    </row>
-    <row r="733">
-      <c r="A733" s="2"/>
-    </row>
-    <row r="734">
-      <c r="A734" s="2"/>
-    </row>
-    <row r="735">
-      <c r="A735" s="2"/>
-    </row>
-    <row r="736">
-      <c r="A736" s="2"/>
-    </row>
-    <row r="737">
-      <c r="A737" s="2"/>
-    </row>
-    <row r="738">
-      <c r="A738" s="2"/>
-    </row>
-    <row r="739">
-      <c r="A739" s="2"/>
-    </row>
-    <row r="740">
-      <c r="A740" s="2"/>
-    </row>
-    <row r="741">
-      <c r="A741" s="2"/>
-    </row>
-    <row r="742">
-      <c r="A742" s="2"/>
-    </row>
-    <row r="743">
-      <c r="A743" s="2"/>
-    </row>
-    <row r="744">
-      <c r="A744" s="2"/>
-    </row>
-    <row r="745">
-      <c r="A745" s="2"/>
-    </row>
-    <row r="746">
-      <c r="A746" s="2"/>
-    </row>
-    <row r="747">
-      <c r="A747" s="2"/>
-    </row>
-    <row r="748">
-      <c r="A748" s="2"/>
-    </row>
-    <row r="749">
-      <c r="A749" s="2"/>
-    </row>
-    <row r="750">
-      <c r="A750" s="2"/>
-    </row>
-    <row r="751">
-      <c r="A751" s="2"/>
-    </row>
-    <row r="752">
-      <c r="A752" s="2"/>
-    </row>
-    <row r="753">
-      <c r="A753" s="2"/>
-    </row>
-    <row r="754">
-      <c r="A754" s="2"/>
-    </row>
-    <row r="755">
-      <c r="A755" s="2"/>
-    </row>
-    <row r="756">
-      <c r="A756" s="2"/>
-    </row>
-    <row r="757">
-      <c r="A757" s="2"/>
-    </row>
-    <row r="758">
-      <c r="A758" s="2"/>
-    </row>
-    <row r="759">
-      <c r="A759" s="2"/>
-    </row>
-    <row r="760">
-      <c r="A760" s="2"/>
-    </row>
-    <row r="761">
-      <c r="A761" s="2"/>
-    </row>
-    <row r="762">
-      <c r="A762" s="2"/>
-    </row>
-    <row r="763">
-      <c r="A763" s="2"/>
-    </row>
-    <row r="764">
-      <c r="A764" s="2"/>
-    </row>
-    <row r="765">
-      <c r="A765" s="2"/>
-    </row>
-    <row r="766">
-      <c r="A766" s="2"/>
-    </row>
-    <row r="767">
-      <c r="A767" s="2"/>
-    </row>
-    <row r="768">
-      <c r="A768" s="2"/>
-    </row>
-    <row r="769">
-      <c r="A769" s="2"/>
-    </row>
-    <row r="770">
-      <c r="A770" s="2"/>
-    </row>
-    <row r="771">
-      <c r="A771" s="2"/>
-    </row>
-    <row r="772">
-      <c r="A772" s="2"/>
-    </row>
-    <row r="773">
-      <c r="A773" s="2"/>
-    </row>
-    <row r="774">
-      <c r="A774" s="2"/>
-    </row>
-    <row r="775">
-      <c r="A775" s="2"/>
-    </row>
-    <row r="776">
-      <c r="A776" s="2"/>
-    </row>
-    <row r="777">
-      <c r="A777" s="2"/>
-    </row>
-    <row r="778">
-      <c r="A778" s="2"/>
-    </row>
-    <row r="779">
-      <c r="A779" s="2"/>
-    </row>
-    <row r="780">
-      <c r="A780" s="2"/>
-    </row>
-    <row r="781">
-      <c r="A781" s="2"/>
-    </row>
-    <row r="782">
-      <c r="A782" s="2"/>
-    </row>
-    <row r="783">
-      <c r="A783" s="2"/>
-    </row>
-    <row r="784">
-      <c r="A784" s="2"/>
-    </row>
-    <row r="785">
-      <c r="A785" s="2"/>
-    </row>
-    <row r="786">
-      <c r="A786" s="2"/>
-    </row>
-    <row r="787">
-      <c r="A787" s="2"/>
-    </row>
-    <row r="788">
-      <c r="A788" s="2"/>
-    </row>
-    <row r="789">
-      <c r="A789" s="2"/>
-    </row>
-    <row r="790">
-      <c r="A790" s="2"/>
-    </row>
-    <row r="791">
-      <c r="A791" s="2"/>
-    </row>
-    <row r="792">
-      <c r="A792" s="2"/>
-    </row>
-    <row r="793">
-      <c r="A793" s="2"/>
-    </row>
-    <row r="794">
-      <c r="A794" s="2"/>
-    </row>
-    <row r="795">
-      <c r="A795" s="2"/>
-    </row>
-    <row r="796">
-      <c r="A796" s="2"/>
-    </row>
-    <row r="797">
-      <c r="A797" s="2"/>
-    </row>
-    <row r="798">
-      <c r="A798" s="2"/>
-    </row>
-    <row r="799">
-      <c r="A799" s="2"/>
-    </row>
-    <row r="800">
-      <c r="A800" s="2"/>
-    </row>
-    <row r="801">
-      <c r="A801" s="2"/>
-    </row>
-    <row r="802">
-      <c r="A802" s="2"/>
-    </row>
-    <row r="803">
-      <c r="A803" s="2"/>
-    </row>
-    <row r="804">
-      <c r="A804" s="2"/>
-    </row>
-    <row r="805">
-      <c r="A805" s="2"/>
-    </row>
-    <row r="806">
-      <c r="A806" s="2"/>
-    </row>
-    <row r="807">
-      <c r="A807" s="2"/>
-    </row>
-    <row r="808">
-      <c r="A808" s="2"/>
-    </row>
-    <row r="809">
-      <c r="A809" s="2"/>
-    </row>
-    <row r="810">
-      <c r="A810" s="2"/>
-    </row>
-    <row r="811">
-      <c r="A811" s="2"/>
-    </row>
-    <row r="812">
-      <c r="A812" s="2"/>
-    </row>
-    <row r="813">
-      <c r="A813" s="2"/>
-    </row>
-    <row r="814">
-      <c r="A814" s="2"/>
-    </row>
-    <row r="815">
-      <c r="A815" s="2"/>
-    </row>
-    <row r="816">
-      <c r="A816" s="2"/>
-    </row>
-    <row r="817">
-      <c r="A817" s="2"/>
-    </row>
-    <row r="818">
-      <c r="A818" s="2"/>
-    </row>
-    <row r="819">
-      <c r="A819" s="2"/>
-    </row>
-    <row r="820">
-      <c r="A820" s="2"/>
-    </row>
-    <row r="821">
-      <c r="A821" s="2"/>
-    </row>
-    <row r="822">
-      <c r="A822" s="2"/>
-    </row>
-    <row r="823">
-      <c r="A823" s="2"/>
-    </row>
-    <row r="824">
-      <c r="A824" s="2"/>
-    </row>
-    <row r="825">
-      <c r="A825" s="2"/>
-    </row>
-    <row r="826">
-      <c r="A826" s="2"/>
-    </row>
-    <row r="827">
-      <c r="A827" s="2"/>
-    </row>
-    <row r="828">
-      <c r="A828" s="2"/>
-    </row>
-    <row r="829">
-      <c r="A829" s="2"/>
-    </row>
-    <row r="830">
-      <c r="A830" s="2"/>
-    </row>
-    <row r="831">
-      <c r="A831" s="2"/>
-    </row>
-    <row r="832">
-      <c r="A832" s="2"/>
-    </row>
-    <row r="833">
-      <c r="A833" s="2"/>
-    </row>
-    <row r="834">
-      <c r="A834" s="2"/>
-    </row>
-    <row r="835">
-      <c r="A835" s="2"/>
-    </row>
-    <row r="836">
-      <c r="A836" s="2"/>
-    </row>
-    <row r="837">
-      <c r="A837" s="2"/>
-    </row>
-    <row r="838">
-      <c r="A838" s="2"/>
-    </row>
-    <row r="839">
-      <c r="A839" s="2"/>
-    </row>
-    <row r="840">
-      <c r="A840" s="2"/>
-    </row>
-    <row r="841">
-      <c r="A841" s="2"/>
-    </row>
-    <row r="842">
-      <c r="A842" s="2"/>
-    </row>
-    <row r="843">
-      <c r="A843" s="2"/>
-    </row>
-    <row r="844">
-      <c r="A844" s="2"/>
-    </row>
-    <row r="845">
-      <c r="A845" s="2"/>
-    </row>
-    <row r="846">
-      <c r="A846" s="2"/>
-    </row>
-    <row r="847">
-      <c r="A847" s="2"/>
-    </row>
-    <row r="848">
-      <c r="A848" s="2"/>
-    </row>
-    <row r="849">
-      <c r="A849" s="2"/>
-    </row>
-    <row r="850">
-      <c r="A850" s="2"/>
-    </row>
-    <row r="851">
-      <c r="A851" s="2"/>
-    </row>
-    <row r="852">
-      <c r="A852" s="2"/>
-    </row>
-    <row r="853">
-      <c r="A853" s="2"/>
-    </row>
-    <row r="854">
-      <c r="A854" s="2"/>
-    </row>
-    <row r="855">
-      <c r="A855" s="2"/>
-    </row>
-    <row r="856">
-      <c r="A856" s="2"/>
-    </row>
-    <row r="857">
-      <c r="A857" s="2"/>
-    </row>
-    <row r="858">
-      <c r="A858" s="2"/>
-    </row>
-    <row r="859">
-      <c r="A859" s="2"/>
-    </row>
-    <row r="860">
-      <c r="A860" s="2"/>
-    </row>
-    <row r="861">
-      <c r="A861" s="2"/>
-    </row>
-    <row r="862">
-      <c r="A862" s="2"/>
-    </row>
-    <row r="863">
-      <c r="A863" s="2"/>
-    </row>
-    <row r="864">
-      <c r="A864" s="2"/>
-    </row>
-    <row r="865">
-      <c r="A865" s="2"/>
-    </row>
-    <row r="866">
-      <c r="A866" s="2"/>
-    </row>
-    <row r="867">
-      <c r="A867" s="2"/>
-    </row>
-    <row r="868">
-      <c r="A868" s="2"/>
-    </row>
-    <row r="869">
-      <c r="A869" s="2"/>
-    </row>
-    <row r="870">
-      <c r="A870" s="2"/>
-    </row>
-    <row r="871">
-      <c r="A871" s="2"/>
-    </row>
-    <row r="872">
-      <c r="A872" s="2"/>
-    </row>
-    <row r="873">
-      <c r="A873" s="2"/>
-    </row>
-    <row r="874">
-      <c r="A874" s="2"/>
-    </row>
-    <row r="875">
-      <c r="A875" s="2"/>
-    </row>
-    <row r="876">
-      <c r="A876" s="2"/>
-    </row>
-    <row r="877">
-      <c r="A877" s="2"/>
-    </row>
-    <row r="878">
-      <c r="A878" s="2"/>
-    </row>
-    <row r="879">
-      <c r="A879" s="2"/>
-    </row>
-    <row r="880">
-      <c r="A880" s="2"/>
-    </row>
-    <row r="881">
-      <c r="A881" s="2"/>
-    </row>
-    <row r="882">
-      <c r="A882" s="2"/>
-    </row>
-    <row r="883">
-      <c r="A883" s="2"/>
-    </row>
-    <row r="884">
-      <c r="A884" s="2"/>
-    </row>
-    <row r="885">
-      <c r="A885" s="2"/>
-    </row>
-    <row r="886">
-      <c r="A886" s="2"/>
-    </row>
-    <row r="887">
-      <c r="A887" s="2"/>
-    </row>
-    <row r="888">
-      <c r="A888" s="2"/>
-    </row>
-    <row r="889">
-      <c r="A889" s="2"/>
-    </row>
-    <row r="890">
-      <c r="A890" s="2"/>
-    </row>
-    <row r="891">
-      <c r="A891" s="2"/>
-    </row>
-    <row r="892">
-      <c r="A892" s="2"/>
-    </row>
-    <row r="893">
-      <c r="A893" s="2"/>
-    </row>
-    <row r="894">
-      <c r="A894" s="2"/>
-    </row>
-    <row r="895">
-      <c r="A895" s="2"/>
-    </row>
-    <row r="896">
-      <c r="A896" s="2"/>
-    </row>
-    <row r="897">
-      <c r="A897" s="2"/>
-    </row>
-    <row r="898">
-      <c r="A898" s="2"/>
-    </row>
-    <row r="899">
-      <c r="A899" s="2"/>
-    </row>
-    <row r="900">
-      <c r="A900" s="2"/>
-    </row>
-    <row r="901">
-      <c r="A901" s="2"/>
-    </row>
-    <row r="902">
-      <c r="A902" s="2"/>
-    </row>
-    <row r="903">
-      <c r="A903" s="2"/>
-    </row>
-    <row r="904">
-      <c r="A904" s="2"/>
-    </row>
-    <row r="905">
-      <c r="A905" s="2"/>
-    </row>
-    <row r="906">
-      <c r="A906" s="2"/>
-    </row>
-    <row r="907">
-      <c r="A907" s="2"/>
-    </row>
-    <row r="908">
-      <c r="A908" s="2"/>
-    </row>
-    <row r="909">
-      <c r="A909" s="2"/>
-    </row>
-    <row r="910">
-      <c r="A910" s="2"/>
-    </row>
-    <row r="911">
-      <c r="A911" s="2"/>
-    </row>
-    <row r="912">
-      <c r="A912" s="2"/>
-    </row>
-    <row r="913">
-      <c r="A913" s="2"/>
-    </row>
-    <row r="914">
-      <c r="A914" s="2"/>
-    </row>
-    <row r="915">
-      <c r="A915" s="2"/>
-    </row>
-    <row r="916">
-      <c r="A916" s="2"/>
-    </row>
-    <row r="917">
-      <c r="A917" s="2"/>
-    </row>
-    <row r="918">
-      <c r="A918" s="2"/>
-    </row>
-    <row r="919">
-      <c r="A919" s="2"/>
-    </row>
-    <row r="920">
-      <c r="A920" s="2"/>
-    </row>
-    <row r="921">
-      <c r="A921" s="2"/>
-    </row>
-    <row r="922">
-      <c r="A922" s="2"/>
-    </row>
-    <row r="923">
-      <c r="A923" s="2"/>
-    </row>
-    <row r="924">
-      <c r="A924" s="2"/>
-    </row>
-    <row r="925">
-      <c r="A925" s="2"/>
-    </row>
-    <row r="926">
-      <c r="A926" s="2"/>
-    </row>
-    <row r="927">
-      <c r="A927" s="2"/>
-    </row>
-    <row r="928">
-      <c r="A928" s="2"/>
-    </row>
-    <row r="929">
-      <c r="A929" s="2"/>
-    </row>
-    <row r="930">
-      <c r="A930" s="2"/>
-    </row>
-    <row r="931">
-      <c r="A931" s="2"/>
-    </row>
-    <row r="932">
-      <c r="A932" s="2"/>
-    </row>
-    <row r="933">
-      <c r="A933" s="2"/>
-    </row>
-    <row r="934">
-      <c r="A934" s="2"/>
-    </row>
-    <row r="935">
-      <c r="A935" s="2"/>
-    </row>
-    <row r="936">
-      <c r="A936" s="2"/>
-    </row>
-    <row r="937">
-      <c r="A937" s="2"/>
-    </row>
-    <row r="938">
-      <c r="A938" s="2"/>
-    </row>
-    <row r="939">
-      <c r="A939" s="2"/>
-    </row>
-    <row r="940">
-      <c r="A940" s="2"/>
-    </row>
-    <row r="941">
-      <c r="A941" s="2"/>
-    </row>
-    <row r="942">
-      <c r="A942" s="2"/>
-    </row>
-    <row r="943">
-      <c r="A943" s="2"/>
-    </row>
-    <row r="944">
-      <c r="A944" s="2"/>
-    </row>
-    <row r="945">
-      <c r="A945" s="2"/>
-    </row>
-    <row r="946">
-      <c r="A946" s="2"/>
-    </row>
-    <row r="947">
-      <c r="A947" s="2"/>
-    </row>
-    <row r="948">
-      <c r="A948" s="2"/>
-    </row>
-    <row r="949">
-      <c r="A949" s="2"/>
-    </row>
-    <row r="950">
-      <c r="A950" s="2"/>
-    </row>
-    <row r="951">
-      <c r="A951" s="2"/>
-    </row>
-    <row r="952">
-      <c r="A952" s="2"/>
-    </row>
-    <row r="953">
-      <c r="A953" s="2"/>
-    </row>
-    <row r="954">
-      <c r="A954" s="2"/>
-    </row>
-    <row r="955">
-      <c r="A955" s="2"/>
-    </row>
-    <row r="956">
-      <c r="A956" s="2"/>
-    </row>
-    <row r="957">
-      <c r="A957" s="2"/>
-    </row>
-    <row r="958">
-      <c r="A958" s="2"/>
-    </row>
-    <row r="959">
-      <c r="A959" s="2"/>
-    </row>
-    <row r="960">
-      <c r="A960" s="2"/>
-    </row>
-    <row r="961">
-      <c r="A961" s="2"/>
-    </row>
-    <row r="962">
-      <c r="A962" s="2"/>
-    </row>
-    <row r="963">
-      <c r="A963" s="2"/>
-    </row>
-    <row r="964">
-      <c r="A964" s="2"/>
-    </row>
-    <row r="965">
-      <c r="A965" s="2"/>
-    </row>
-    <row r="966">
-      <c r="A966" s="2"/>
-    </row>
-    <row r="967">
-      <c r="A967" s="2"/>
-    </row>
-    <row r="968">
-      <c r="A968" s="2"/>
-    </row>
-    <row r="969">
-      <c r="A969" s="2"/>
-    </row>
-    <row r="970">
-      <c r="A970" s="2"/>
-    </row>
-    <row r="971">
-      <c r="A971" s="2"/>
-    </row>
-    <row r="972">
-      <c r="A972" s="2"/>
-    </row>
-    <row r="973">
-      <c r="A973" s="2"/>
-    </row>
-    <row r="974">
-      <c r="A974" s="2"/>
-    </row>
-    <row r="975">
-      <c r="A975" s="2"/>
-    </row>
-    <row r="976">
-      <c r="A976" s="2"/>
-    </row>
-    <row r="977">
-      <c r="A977" s="2"/>
-    </row>
-    <row r="978">
-      <c r="A978" s="2"/>
-    </row>
-    <row r="979">
-      <c r="A979" s="2"/>
-    </row>
-    <row r="980">
-      <c r="A980" s="2"/>
-    </row>
-    <row r="981">
-      <c r="A981" s="2"/>
-    </row>
-    <row r="982">
-      <c r="A982" s="2"/>
-    </row>
-    <row r="983">
-      <c r="A983" s="2"/>
-    </row>
-    <row r="984">
-      <c r="A984" s="2"/>
-    </row>
-    <row r="985">
-      <c r="A985" s="2"/>
-    </row>
-    <row r="986">
-      <c r="A986" s="2"/>
-    </row>
-    <row r="987">
-      <c r="A987" s="2"/>
-    </row>
-    <row r="988">
-      <c r="A988" s="2"/>
-    </row>
-    <row r="989">
-      <c r="A989" s="2"/>
-    </row>
-    <row r="990">
-      <c r="A990" s="2"/>
-    </row>
-    <row r="991">
-      <c r="A991" s="2"/>
-    </row>
-    <row r="992">
-      <c r="A992" s="2"/>
-    </row>
-    <row r="993">
-      <c r="A993" s="2"/>
-    </row>
-    <row r="994">
-      <c r="A994" s="2"/>
-    </row>
-    <row r="995">
-      <c r="A995" s="2"/>
-    </row>
-    <row r="996">
-      <c r="A996" s="2"/>
-    </row>
-    <row r="997">
-      <c r="A997" s="2"/>
-    </row>
-    <row r="998">
-      <c r="A998" s="2"/>
-    </row>
-    <row r="999">
-      <c r="A999" s="2"/>
-    </row>
-    <row r="1000">
-      <c r="A1000" s="2"/>
-    </row>
-    <row r="1001">
-      <c r="A1001" s="2"/>
-    </row>
-    <row r="1002">
-      <c r="A1002" s="2"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+      <c r="O123" s="1"/>
+      <c r="P123" s="1"/>
+      <c r="Q123" s="1"/>
+      <c r="R123" s="1"/>
+      <c r="S123" s="1"/>
+      <c r="T123" s="1"/>
+      <c r="U123" s="1"/>
+      <c r="V123" s="1"/>
+      <c r="W123" s="1"/>
+      <c r="X123" s="1"/>
+      <c r="Y123" s="1"/>
+      <c r="Z123" s="1"/>
+      <c r="AA123" s="1"/>
+      <c r="AB123" s="1"/>
+      <c r="AC123" s="1"/>
+      <c r="AD123" s="1"/>
+      <c r="AE123" s="1"/>
+      <c r="AF123" s="1"/>
+      <c r="AG123" s="1"/>
+      <c r="AH123" s="1"/>
+      <c r="AI123" s="1"/>
+      <c r="AJ123" s="1"/>
+      <c r="AK123" s="1"/>
+      <c r="AL123" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/data/prueba_predicc_dia_dia.xlsx
+++ b/data/prueba_predicc_dia_dia.xlsx
@@ -489,11 +489,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1048020017"/>
-        <c:axId val="1916803777"/>
+        <c:axId val="1970148799"/>
+        <c:axId val="2024097162"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1048020017"/>
+        <c:axId val="1970148799"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -568,10 +568,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1916803777"/>
+        <c:crossAx val="2024097162"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1916803777"/>
+        <c:axId val="2024097162"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -646,7 +646,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1048020017"/>
+        <c:crossAx val="1970148799"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -755,11 +755,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="669726474"/>
-        <c:axId val="1881038879"/>
+        <c:axId val="1003696887"/>
+        <c:axId val="1465058345"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="669726474"/>
+        <c:axId val="1003696887"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -834,10 +834,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1881038879"/>
+        <c:crossAx val="1465058345"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1881038879"/>
+        <c:axId val="1465058345"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -912,7 +912,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="669726474"/>
+        <c:crossAx val="1003696887"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4262,44 +4262,120 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
-      <c r="AI24" s="1"/>
-      <c r="AJ24" s="1"/>
-      <c r="AK24" s="1"/>
-      <c r="AL24" s="1"/>
+      <c r="A24" s="2">
+        <v>45050.0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>223.0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>65.0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>192.0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>131.0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>444.0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>470.0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>73.0</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S24" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="T24" s="1">
+        <v>389.0</v>
+      </c>
+      <c r="U24" s="1">
+        <v>240.0</v>
+      </c>
+      <c r="V24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W24" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>73.0</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>426.0</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>147.0</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>59.0</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>231.0</v>
+      </c>
+      <c r="AI24" s="1">
+        <v>566.0</v>
+      </c>
+      <c r="AJ24" s="1">
+        <v>61.0</v>
+      </c>
+      <c r="AK24" s="1">
+        <v>161.0</v>
+      </c>
+      <c r="AL24" s="1">
+        <v>220.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2"/>
@@ -4343,7 +4419,6 @@
     </row>
     <row r="26">
       <c r="A26" s="2"/>
-      <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -4383,7 +4458,6 @@
     </row>
     <row r="27">
       <c r="A27" s="2"/>
-      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -4423,7 +4497,6 @@
     </row>
     <row r="28">
       <c r="A28" s="2"/>
-      <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -4463,7 +4536,6 @@
     </row>
     <row r="29">
       <c r="A29" s="2"/>
-      <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -4503,7 +4575,6 @@
     </row>
     <row r="30">
       <c r="A30" s="2"/>
-      <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -4543,7 +4614,6 @@
     </row>
     <row r="31">
       <c r="A31" s="2"/>
-      <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -4583,7 +4653,6 @@
     </row>
     <row r="32">
       <c r="A32" s="2"/>
-      <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -4623,7 +4692,6 @@
     </row>
     <row r="33">
       <c r="A33" s="2"/>
-      <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -4663,7 +4731,6 @@
     </row>
     <row r="34">
       <c r="A34" s="2"/>
-      <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -4703,7 +4770,6 @@
     </row>
     <row r="35">
       <c r="A35" s="2"/>
-      <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -4743,7 +4809,6 @@
     </row>
     <row r="36">
       <c r="A36" s="2"/>
-      <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -4783,7 +4848,6 @@
     </row>
     <row r="37">
       <c r="A37" s="2"/>
-      <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -4823,7 +4887,6 @@
     </row>
     <row r="38">
       <c r="A38" s="2"/>
-      <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -4863,7 +4926,6 @@
     </row>
     <row r="39">
       <c r="A39" s="2"/>
-      <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -4903,7 +4965,6 @@
     </row>
     <row r="40">
       <c r="A40" s="2"/>
-      <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -4943,7 +5004,6 @@
     </row>
     <row r="41">
       <c r="A41" s="2"/>
-      <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -4983,7 +5043,6 @@
     </row>
     <row r="42">
       <c r="A42" s="2"/>
-      <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -5023,7 +5082,6 @@
     </row>
     <row r="43">
       <c r="A43" s="2"/>
-      <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -5063,7 +5121,6 @@
     </row>
     <row r="44">
       <c r="A44" s="2"/>
-      <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -5103,7 +5160,6 @@
     </row>
     <row r="45">
       <c r="A45" s="2"/>
-      <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -5143,7 +5199,6 @@
     </row>
     <row r="46">
       <c r="A46" s="2"/>
-      <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -5183,7 +5238,6 @@
     </row>
     <row r="47">
       <c r="A47" s="2"/>
-      <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -5223,7 +5277,6 @@
     </row>
     <row r="48">
       <c r="A48" s="2"/>
-      <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -5263,7 +5316,6 @@
     </row>
     <row r="49">
       <c r="A49" s="2"/>
-      <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -5303,7 +5355,6 @@
     </row>
     <row r="50">
       <c r="A50" s="2"/>
-      <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -5343,7 +5394,6 @@
     </row>
     <row r="51">
       <c r="A51" s="2"/>
-      <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -5383,7 +5433,6 @@
     </row>
     <row r="52">
       <c r="A52" s="2"/>
-      <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -5423,7 +5472,6 @@
     </row>
     <row r="53">
       <c r="A53" s="2"/>
-      <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -5463,7 +5511,6 @@
     </row>
     <row r="54">
       <c r="A54" s="2"/>
-      <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -5503,7 +5550,6 @@
     </row>
     <row r="55">
       <c r="A55" s="2"/>
-      <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -5543,7 +5589,6 @@
     </row>
     <row r="56">
       <c r="A56" s="2"/>
-      <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -5583,7 +5628,6 @@
     </row>
     <row r="57">
       <c r="A57" s="2"/>
-      <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -5623,7 +5667,6 @@
     </row>
     <row r="58">
       <c r="A58" s="2"/>
-      <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -5663,7 +5706,6 @@
     </row>
     <row r="59">
       <c r="A59" s="2"/>
-      <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -5703,7 +5745,6 @@
     </row>
     <row r="60">
       <c r="A60" s="2"/>
-      <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -5743,7 +5784,6 @@
     </row>
     <row r="61">
       <c r="A61" s="2"/>
-      <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -5783,7 +5823,6 @@
     </row>
     <row r="62">
       <c r="A62" s="2"/>
-      <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -10195,60 +10234,132 @@
     </row>
     <row r="25">
       <c r="A25" s="2"/>
+      <c r="F25" s="1">
+        <v>125.0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>411.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="5">
         <v>9787.0</v>
       </c>
+      <c r="F26" s="1">
+        <v>58.0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>191.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="5">
         <v>977.0</v>
       </c>
+      <c r="F27" s="1">
+        <v>52.0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>171.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="5">
         <v>97.0</v>
       </c>
+      <c r="F28" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>128.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="5">
         <v>9682.0</v>
       </c>
+      <c r="F29" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>118.0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="5">
         <v>9664.0</v>
       </c>
+      <c r="F30" s="1">
+        <v>29.0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>95.0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="5">
         <v>962.0</v>
       </c>
+      <c r="F31" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>76.0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="5">
         <v>9600.0</v>
       </c>
+      <c r="F32" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>76.0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="5">
         <v>956.0</v>
       </c>
+      <c r="F33" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>36.0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="5">
         <v>9535.0</v>
       </c>
+      <c r="F34" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>33.0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="5">
         <v>9484.0</v>
       </c>
+      <c r="F35" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>30.0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="5">
         <v>9466.0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>27.0</v>
       </c>
     </row>
     <row r="37">

--- a/data/prueba_predicc_dia_dia.xlsx
+++ b/data/prueba_predicc_dia_dia.xlsx
@@ -19,9 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="89">
   <si>
-    <t>Albania</t>
+    <t xml:space="preserve">Albania 🇦🇱 </t>
   </si>
   <si>
     <t>Armenia</t>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Albania</t>
   </si>
   <si>
     <t>Czech Republic</t>
@@ -489,11 +492,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1970148799"/>
-        <c:axId val="2024097162"/>
+        <c:axId val="1824947455"/>
+        <c:axId val="1046462019"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1970148799"/>
+        <c:axId val="1824947455"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -568,10 +571,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2024097162"/>
+        <c:crossAx val="1046462019"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2024097162"/>
+        <c:axId val="1046462019"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -646,7 +649,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1970148799"/>
+        <c:crossAx val="1824947455"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -755,11 +758,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1003696887"/>
-        <c:axId val="1465058345"/>
+        <c:axId val="1874335838"/>
+        <c:axId val="2093902452"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1003696887"/>
+        <c:axId val="1874335838"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -834,10 +837,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1465058345"/>
+        <c:crossAx val="2093902452"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1465058345"/>
+        <c:axId val="2093902452"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -912,7 +915,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1003696887"/>
+        <c:crossAx val="1874335838"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -8317,7 +8320,7 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -8341,7 +8344,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -8419,7 +8422,7 @@
         <v>34</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>35</v>
@@ -9826,228 +9829,228 @@
     <row r="15">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AH15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AJ15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AK15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AL15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="H16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="N16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="Q16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="V16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N16" s="1" t="s">
+      <c r="W16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="X16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q16" s="1" t="s">
+      <c r="Y16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="AA16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="AJ16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="T16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF16" s="1" t="s">
+      <c r="AL16" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="AG16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL16" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="18">
@@ -10058,7 +10061,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" ref="B20:AL20" si="1">IFERROR(ROUND(HARMEAN(B9:B19),0),0)</f>
@@ -13224,7 +13227,7 @@
     </row>
     <row r="609">
       <c r="A609" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="610">
@@ -14389,7 +14392,7 @@
     </row>
     <row r="842">
       <c r="A842" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="843">
@@ -14895,54 +14898,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="S1" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1">
         <v>0.0</v>
@@ -14981,7 +14984,7 @@
       </c>
       <c r="N2" s="6"/>
       <c r="O2" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P2" s="4">
         <f t="shared" ref="P2:S2" si="2">CORREL(I$2:I$37,$I$2:$I$37)</f>
@@ -15008,7 +15011,7 @@
       <c r="L3" s="8"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q3" s="4">
         <f t="shared" ref="Q3:S3" si="3">CORREL(J$2:J$37,$J$2:$J$37)</f>
@@ -15025,7 +15028,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1">
         <v>3.0</v>
@@ -15068,7 +15071,7 @@
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R4" s="4">
         <f t="shared" ref="R4:S4" si="5">CORREL(K$2:K$37,$K$2:$K$37)</f>
@@ -15081,7 +15084,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5" s="1">
         <v>4.0</v>
@@ -15124,7 +15127,7 @@
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S5" s="4">
         <f>CORREL(L$2:L$37,$L$2:$L$37)</f>
@@ -15133,7 +15136,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1">
         <v>5.0</v>
@@ -15177,7 +15180,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B7" s="1">
         <v>7.0</v>
@@ -15221,7 +15224,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8" s="1">
         <v>10.0</v>
@@ -15265,7 +15268,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1">
         <v>11.0</v>
@@ -15309,7 +15312,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10" s="1">
         <v>12.0</v>
@@ -15353,7 +15356,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B11" s="1">
         <v>13.0</v>
@@ -15397,7 +15400,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" s="1">
         <v>14.0</v>
@@ -15448,7 +15451,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B14" s="1">
         <v>16.0</v>
@@ -15488,7 +15491,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B15" s="1">
         <v>17.0</v>
@@ -15535,7 +15538,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B17" s="1">
         <v>19.0</v>
@@ -15575,7 +15578,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B18" s="1">
         <v>21.0</v>
@@ -15615,7 +15618,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B19" s="1">
         <v>22.0</v>
@@ -15655,7 +15658,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B20" s="1">
         <v>23.0</v>
@@ -15695,7 +15698,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B21" s="1">
         <v>25.0</v>
@@ -15735,7 +15738,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B22" s="1">
         <v>26.0</v>
@@ -15775,7 +15778,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B23" s="1">
         <v>27.0</v>
@@ -15815,7 +15818,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B24" s="1">
         <v>28.0</v>
@@ -15855,7 +15858,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B25" s="1">
         <v>32.0</v>
@@ -15895,7 +15898,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B26" s="1">
         <v>33.0</v>
@@ -15935,7 +15938,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B27" s="1">
         <v>34.0</v>
@@ -15975,7 +15978,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B28" s="1">
         <v>35.0</v>
@@ -16022,7 +16025,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B30" s="1">
         <v>38.0</v>
@@ -16062,7 +16065,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B31" s="1">
         <v>41.0</v>
@@ -16102,7 +16105,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B32" s="1">
         <v>42.0</v>
@@ -16149,7 +16152,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B34" s="1">
         <v>44.0</v>
@@ -16189,7 +16192,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B35" s="1">
         <v>45.0</v>
@@ -16229,7 +16232,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B36" s="1">
         <v>47.0</v>
@@ -16269,7 +16272,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B37" s="1">
         <v>48.0</v>
@@ -16333,7 +16336,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B42" s="1">
         <v>24.0</v>
@@ -16373,7 +16376,7 @@
     </row>
     <row r="43">
       <c r="A43" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B43" s="10">
         <v>2.0</v>
@@ -16414,7 +16417,7 @@
       <c r="M43" s="9"/>
       <c r="N43" s="13"/>
       <c r="O43" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P43" s="9"/>
       <c r="Q43" s="14">
@@ -16433,7 +16436,7 @@
     </row>
     <row r="44">
       <c r="A44" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B44" s="10">
         <v>18.0</v>
@@ -16482,7 +16485,7 @@
     </row>
     <row r="45">
       <c r="A45" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B45" s="10">
         <v>37.0</v>
@@ -16531,7 +16534,7 @@
     </row>
     <row r="46">
       <c r="A46" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B46" s="10">
         <v>43.0</v>

--- a/data/prueba_predicc_dia_dia.xlsx
+++ b/data/prueba_predicc_dia_dia.xlsx
@@ -19,9 +19,120 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="123">
   <si>
     <t xml:space="preserve">Albania 🇦🇱 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armenia 🇦🇲 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia 🇦🇺 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria 🇦🇹 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan 🇦🇿 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium 🇧🇪 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatia 🇭🇷 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyprus 🇨🇾 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czechia 🇨🇿 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denmark 🇩🇰 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonia 🇪🇪 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finland 🇫🇮 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">France 🇫🇷 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia 🇬🇪 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany 🇩🇪 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greece 🇬🇷 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iceland 🇮🇸 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ireland 🇮🇪 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel 🇮🇱 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy 🇮🇹 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latvia 🇱🇻 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithuania 🇱🇹 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malta🇲🇹 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moldova 🇲🇩 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands 🇳🇱 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway 🇳🇴 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland 🇵🇱 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal 🇵🇹 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romania 🇷🇴 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Marino 🇸🇲 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbia 🇷🇸 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovenia 🇸🇮 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain 🇪🇸 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden 🇸🇪 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland 🇨🇭 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine 🇺🇦 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom 🇬🇧 </t>
+  </si>
+  <si>
+    <t>Albania</t>
   </si>
   <si>
     <t>Armenia</t>
@@ -45,7 +156,7 @@
     <t>Cyprus</t>
   </si>
   <si>
-    <t>Czechia</t>
+    <t>Czech Republic</t>
   </si>
   <si>
     <t>Denmark</t>
@@ -93,9 +204,6 @@
     <t>Moldova</t>
   </si>
   <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
     <t>Norway</t>
   </si>
   <si>
@@ -126,19 +234,13 @@
     <t>Switzerland</t>
   </si>
   <si>
+    <t>The Netherlands</t>
+  </si>
+  <si>
     <t>Ukraine</t>
   </si>
   <si>
     <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>The Netherlands</t>
   </si>
   <si>
     <t>x</t>
@@ -492,11 +594,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1824947455"/>
-        <c:axId val="1046462019"/>
+        <c:axId val="75650880"/>
+        <c:axId val="865582133"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1824947455"/>
+        <c:axId val="75650880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -571,10 +673,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1046462019"/>
+        <c:crossAx val="865582133"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1046462019"/>
+        <c:axId val="865582133"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -649,7 +751,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1824947455"/>
+        <c:crossAx val="75650880"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -758,11 +860,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1874335838"/>
-        <c:axId val="2093902452"/>
+        <c:axId val="2057256632"/>
+        <c:axId val="1802533940"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1874335838"/>
+        <c:axId val="2057256632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -837,10 +939,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2093902452"/>
+        <c:crossAx val="1802533940"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2093902452"/>
+        <c:axId val="1802533940"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -915,7 +1017,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1874335838"/>
+        <c:crossAx val="2057256632"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -8323,112 +8425,112 @@
         <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
@@ -9829,228 +9931,228 @@
     <row r="15">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AF15" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AH15" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AI15" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AJ15" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AK15" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AL15" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AF16" s="1" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AH16" s="1" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AI16" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="AJ16" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="AK16" s="1" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AL16" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
@@ -10061,7 +10163,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" ref="B20:AL20" si="1">IFERROR(ROUND(HARMEAN(B9:B19),0),0)</f>
@@ -13227,7 +13329,7 @@
     </row>
     <row r="609">
       <c r="A609" s="5" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
     </row>
     <row r="610">
@@ -14392,7 +14494,7 @@
     </row>
     <row r="842">
       <c r="A842" s="5" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
     </row>
     <row r="843">
@@ -14898,54 +15000,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="B2" s="1">
         <v>0.0</v>
@@ -14984,7 +15086,7 @@
       </c>
       <c r="N2" s="6"/>
       <c r="O2" s="6" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="P2" s="4">
         <f t="shared" ref="P2:S2" si="2">CORREL(I$2:I$37,$I$2:$I$37)</f>
@@ -15011,7 +15113,7 @@
       <c r="L3" s="8"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="Q3" s="4">
         <f t="shared" ref="Q3:S3" si="3">CORREL(J$2:J$37,$J$2:$J$37)</f>
@@ -15028,7 +15130,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="B4" s="1">
         <v>3.0</v>
@@ -15071,7 +15173,7 @@
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="R4" s="4">
         <f t="shared" ref="R4:S4" si="5">CORREL(K$2:K$37,$K$2:$K$37)</f>
@@ -15084,7 +15186,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="B5" s="1">
         <v>4.0</v>
@@ -15127,7 +15229,7 @@
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="S5" s="4">
         <f>CORREL(L$2:L$37,$L$2:$L$37)</f>
@@ -15136,7 +15238,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="B6" s="1">
         <v>5.0</v>
@@ -15180,7 +15282,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="B7" s="1">
         <v>7.0</v>
@@ -15224,7 +15326,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="B8" s="1">
         <v>10.0</v>
@@ -15268,7 +15370,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="B9" s="1">
         <v>11.0</v>
@@ -15312,7 +15414,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="B10" s="1">
         <v>12.0</v>
@@ -15356,7 +15458,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="B11" s="1">
         <v>13.0</v>
@@ -15400,7 +15502,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="B12" s="1">
         <v>14.0</v>
@@ -15451,7 +15553,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="B14" s="1">
         <v>16.0</v>
@@ -15491,7 +15593,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="B15" s="1">
         <v>17.0</v>
@@ -15538,7 +15640,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="B17" s="1">
         <v>19.0</v>
@@ -15578,7 +15680,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="B18" s="1">
         <v>21.0</v>
@@ -15618,7 +15720,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="B19" s="1">
         <v>22.0</v>
@@ -15658,7 +15760,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="B20" s="1">
         <v>23.0</v>
@@ -15698,7 +15800,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="B21" s="1">
         <v>25.0</v>
@@ -15738,7 +15840,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="B22" s="1">
         <v>26.0</v>
@@ -15778,7 +15880,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="B23" s="1">
         <v>27.0</v>
@@ -15818,7 +15920,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="B24" s="1">
         <v>28.0</v>
@@ -15858,7 +15960,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="B25" s="1">
         <v>32.0</v>
@@ -15898,7 +16000,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="B26" s="1">
         <v>33.0</v>
@@ -15938,7 +16040,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="B27" s="1">
         <v>34.0</v>
@@ -15978,7 +16080,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="B28" s="1">
         <v>35.0</v>
@@ -16025,7 +16127,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="B30" s="1">
         <v>38.0</v>
@@ -16065,7 +16167,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="B31" s="1">
         <v>41.0</v>
@@ -16105,7 +16207,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="B32" s="1">
         <v>42.0</v>
@@ -16152,7 +16254,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="B34" s="1">
         <v>44.0</v>
@@ -16192,7 +16294,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="B35" s="1">
         <v>45.0</v>
@@ -16232,7 +16334,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="B36" s="1">
         <v>47.0</v>
@@ -16272,7 +16374,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="B37" s="1">
         <v>48.0</v>
@@ -16336,7 +16438,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="B42" s="1">
         <v>24.0</v>
@@ -16376,7 +16478,7 @@
     </row>
     <row r="43">
       <c r="A43" s="9" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="B43" s="10">
         <v>2.0</v>
@@ -16417,7 +16519,7 @@
       <c r="M43" s="9"/>
       <c r="N43" s="13"/>
       <c r="O43" s="13" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="P43" s="9"/>
       <c r="Q43" s="14">
@@ -16436,7 +16538,7 @@
     </row>
     <row r="44">
       <c r="A44" s="9" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="B44" s="10">
         <v>18.0</v>
@@ -16485,7 +16587,7 @@
     </row>
     <row r="45">
       <c r="A45" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B45" s="10">
         <v>37.0</v>
@@ -16534,7 +16636,7 @@
     </row>
     <row r="46">
       <c r="A46" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="B46" s="10">
         <v>43.0</v>

--- a/data/prueba_predicc_dia_dia.xlsx
+++ b/data/prueba_predicc_dia_dia.xlsx
@@ -594,11 +594,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="75650880"/>
-        <c:axId val="865582133"/>
+        <c:axId val="1065094900"/>
+        <c:axId val="475437696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75650880"/>
+        <c:axId val="1065094900"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -673,10 +673,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="865582133"/>
+        <c:crossAx val="475437696"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="865582133"/>
+        <c:axId val="475437696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -751,7 +751,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75650880"/>
+        <c:crossAx val="1065094900"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -860,11 +860,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2057256632"/>
-        <c:axId val="1802533940"/>
+        <c:axId val="1213363230"/>
+        <c:axId val="539176674"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2057256632"/>
+        <c:axId val="1213363230"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -939,10 +939,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1802533940"/>
+        <c:crossAx val="539176674"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1802533940"/>
+        <c:axId val="539176674"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1017,7 +1017,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2057256632"/>
+        <c:crossAx val="1213363230"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4483,44 +4483,120 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="1"/>
-      <c r="AJ25" s="1"/>
-      <c r="AK25" s="1"/>
-      <c r="AL25" s="1"/>
+      <c r="A25" s="2">
+        <v>45050.0</v>
+      </c>
+      <c r="B25" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>224.0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>102.0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>193.0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>131.0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>446.0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>446.0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P25" s="1">
+        <v>73.0</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S25" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="T25" s="1">
+        <v>391.0</v>
+      </c>
+      <c r="U25" s="1">
+        <v>241.0</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W25" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="X25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>73.0</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>428.0</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>147.0</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>74.0</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>189.0</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>569.0</v>
+      </c>
+      <c r="AJ25" s="1">
+        <v>61.0</v>
+      </c>
+      <c r="AK25" s="1">
+        <v>161.0</v>
+      </c>
+      <c r="AL25" s="1">
+        <v>220.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2"/>
@@ -4719,6 +4795,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2"/>
+      <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -4758,6 +4835,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2"/>
+      <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -4797,6 +4875,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2"/>
+      <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -4836,6 +4915,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2"/>
+      <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -4875,6 +4955,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2"/>
+      <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -4914,6 +4995,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2"/>
+      <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -4953,6 +5035,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2"/>
+      <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -4992,6 +5075,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2"/>
+      <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -5031,6 +5115,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2"/>
+      <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -5070,6 +5155,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2"/>
+      <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -5109,6 +5195,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2"/>
+      <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -5148,6 +5235,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2"/>
+      <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -5187,6 +5275,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2"/>
+      <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -5226,6 +5315,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2"/>
+      <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -5265,6 +5355,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2"/>
+      <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -5304,6 +5395,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2"/>
+      <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -5343,6 +5435,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2"/>
+      <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -5382,6 +5475,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2"/>
+      <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -5421,6 +5515,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2"/>
+      <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -5460,6 +5555,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2"/>
+      <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -5499,6 +5595,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2"/>
+      <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -5538,6 +5635,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2"/>
+      <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -5577,6 +5675,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2"/>
+      <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -5616,6 +5715,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2"/>
+      <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -5655,6 +5755,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2"/>
+      <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -5694,6 +5795,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2"/>
+      <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -5733,6 +5835,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2"/>
+      <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -5772,6 +5875,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2"/>
+      <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -5811,6 +5915,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2"/>
+      <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -5850,6 +5955,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2"/>
+      <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -5889,6 +5995,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2"/>
+      <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -5928,6 +6035,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2"/>
+      <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -6884,1526 +6992,6 @@
       <c r="AJ85" s="1"/>
       <c r="AK85" s="1"/>
       <c r="AL85" s="1"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="2"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
-      <c r="N86" s="1"/>
-      <c r="O86" s="1"/>
-      <c r="P86" s="1"/>
-      <c r="Q86" s="1"/>
-      <c r="R86" s="1"/>
-      <c r="S86" s="1"/>
-      <c r="T86" s="1"/>
-      <c r="U86" s="1"/>
-      <c r="V86" s="1"/>
-      <c r="W86" s="1"/>
-      <c r="X86" s="1"/>
-      <c r="Y86" s="1"/>
-      <c r="Z86" s="1"/>
-      <c r="AA86" s="1"/>
-      <c r="AB86" s="1"/>
-      <c r="AC86" s="1"/>
-      <c r="AD86" s="1"/>
-      <c r="AE86" s="1"/>
-      <c r="AF86" s="1"/>
-      <c r="AG86" s="1"/>
-      <c r="AH86" s="1"/>
-      <c r="AI86" s="1"/>
-      <c r="AJ86" s="1"/>
-      <c r="AK86" s="1"/>
-      <c r="AL86" s="1"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="2"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="N87" s="1"/>
-      <c r="O87" s="1"/>
-      <c r="P87" s="1"/>
-      <c r="Q87" s="1"/>
-      <c r="R87" s="1"/>
-      <c r="S87" s="1"/>
-      <c r="T87" s="1"/>
-      <c r="U87" s="1"/>
-      <c r="V87" s="1"/>
-      <c r="W87" s="1"/>
-      <c r="X87" s="1"/>
-      <c r="Y87" s="1"/>
-      <c r="Z87" s="1"/>
-      <c r="AA87" s="1"/>
-      <c r="AB87" s="1"/>
-      <c r="AC87" s="1"/>
-      <c r="AD87" s="1"/>
-      <c r="AE87" s="1"/>
-      <c r="AF87" s="1"/>
-      <c r="AG87" s="1"/>
-      <c r="AH87" s="1"/>
-      <c r="AI87" s="1"/>
-      <c r="AJ87" s="1"/>
-      <c r="AK87" s="1"/>
-      <c r="AL87" s="1"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="2"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
-      <c r="O88" s="1"/>
-      <c r="P88" s="1"/>
-      <c r="Q88" s="1"/>
-      <c r="R88" s="1"/>
-      <c r="S88" s="1"/>
-      <c r="T88" s="1"/>
-      <c r="U88" s="1"/>
-      <c r="V88" s="1"/>
-      <c r="W88" s="1"/>
-      <c r="X88" s="1"/>
-      <c r="Y88" s="1"/>
-      <c r="Z88" s="1"/>
-      <c r="AA88" s="1"/>
-      <c r="AB88" s="1"/>
-      <c r="AC88" s="1"/>
-      <c r="AD88" s="1"/>
-      <c r="AE88" s="1"/>
-      <c r="AF88" s="1"/>
-      <c r="AG88" s="1"/>
-      <c r="AH88" s="1"/>
-      <c r="AI88" s="1"/>
-      <c r="AJ88" s="1"/>
-      <c r="AK88" s="1"/>
-      <c r="AL88" s="1"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="2"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="L89" s="1"/>
-      <c r="M89" s="1"/>
-      <c r="N89" s="1"/>
-      <c r="O89" s="1"/>
-      <c r="P89" s="1"/>
-      <c r="Q89" s="1"/>
-      <c r="R89" s="1"/>
-      <c r="S89" s="1"/>
-      <c r="T89" s="1"/>
-      <c r="U89" s="1"/>
-      <c r="V89" s="1"/>
-      <c r="W89" s="1"/>
-      <c r="X89" s="1"/>
-      <c r="Y89" s="1"/>
-      <c r="Z89" s="1"/>
-      <c r="AA89" s="1"/>
-      <c r="AB89" s="1"/>
-      <c r="AC89" s="1"/>
-      <c r="AD89" s="1"/>
-      <c r="AE89" s="1"/>
-      <c r="AF89" s="1"/>
-      <c r="AG89" s="1"/>
-      <c r="AH89" s="1"/>
-      <c r="AI89" s="1"/>
-      <c r="AJ89" s="1"/>
-      <c r="AK89" s="1"/>
-      <c r="AL89" s="1"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="2"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="L90" s="1"/>
-      <c r="M90" s="1"/>
-      <c r="N90" s="1"/>
-      <c r="O90" s="1"/>
-      <c r="P90" s="1"/>
-      <c r="Q90" s="1"/>
-      <c r="R90" s="1"/>
-      <c r="S90" s="1"/>
-      <c r="T90" s="1"/>
-      <c r="U90" s="1"/>
-      <c r="V90" s="1"/>
-      <c r="W90" s="1"/>
-      <c r="X90" s="1"/>
-      <c r="Y90" s="1"/>
-      <c r="Z90" s="1"/>
-      <c r="AA90" s="1"/>
-      <c r="AB90" s="1"/>
-      <c r="AC90" s="1"/>
-      <c r="AD90" s="1"/>
-      <c r="AE90" s="1"/>
-      <c r="AF90" s="1"/>
-      <c r="AG90" s="1"/>
-      <c r="AH90" s="1"/>
-      <c r="AI90" s="1"/>
-      <c r="AJ90" s="1"/>
-      <c r="AK90" s="1"/>
-      <c r="AL90" s="1"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="2"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="L91" s="1"/>
-      <c r="M91" s="1"/>
-      <c r="N91" s="1"/>
-      <c r="O91" s="1"/>
-      <c r="P91" s="1"/>
-      <c r="Q91" s="1"/>
-      <c r="R91" s="1"/>
-      <c r="S91" s="1"/>
-      <c r="T91" s="1"/>
-      <c r="U91" s="1"/>
-      <c r="V91" s="1"/>
-      <c r="W91" s="1"/>
-      <c r="X91" s="1"/>
-      <c r="Y91" s="1"/>
-      <c r="Z91" s="1"/>
-      <c r="AA91" s="1"/>
-      <c r="AB91" s="1"/>
-      <c r="AC91" s="1"/>
-      <c r="AD91" s="1"/>
-      <c r="AE91" s="1"/>
-      <c r="AF91" s="1"/>
-      <c r="AG91" s="1"/>
-      <c r="AH91" s="1"/>
-      <c r="AI91" s="1"/>
-      <c r="AJ91" s="1"/>
-      <c r="AK91" s="1"/>
-      <c r="AL91" s="1"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="2"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
-      <c r="O92" s="1"/>
-      <c r="P92" s="1"/>
-      <c r="Q92" s="1"/>
-      <c r="R92" s="1"/>
-      <c r="S92" s="1"/>
-      <c r="T92" s="1"/>
-      <c r="U92" s="1"/>
-      <c r="V92" s="1"/>
-      <c r="W92" s="1"/>
-      <c r="X92" s="1"/>
-      <c r="Y92" s="1"/>
-      <c r="Z92" s="1"/>
-      <c r="AA92" s="1"/>
-      <c r="AB92" s="1"/>
-      <c r="AC92" s="1"/>
-      <c r="AD92" s="1"/>
-      <c r="AE92" s="1"/>
-      <c r="AF92" s="1"/>
-      <c r="AG92" s="1"/>
-      <c r="AH92" s="1"/>
-      <c r="AI92" s="1"/>
-      <c r="AJ92" s="1"/>
-      <c r="AK92" s="1"/>
-      <c r="AL92" s="1"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="2"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
-      <c r="L93" s="1"/>
-      <c r="M93" s="1"/>
-      <c r="N93" s="1"/>
-      <c r="O93" s="1"/>
-      <c r="P93" s="1"/>
-      <c r="Q93" s="1"/>
-      <c r="R93" s="1"/>
-      <c r="S93" s="1"/>
-      <c r="T93" s="1"/>
-      <c r="U93" s="1"/>
-      <c r="V93" s="1"/>
-      <c r="W93" s="1"/>
-      <c r="X93" s="1"/>
-      <c r="Y93" s="1"/>
-      <c r="Z93" s="1"/>
-      <c r="AA93" s="1"/>
-      <c r="AB93" s="1"/>
-      <c r="AC93" s="1"/>
-      <c r="AD93" s="1"/>
-      <c r="AE93" s="1"/>
-      <c r="AF93" s="1"/>
-      <c r="AG93" s="1"/>
-      <c r="AH93" s="1"/>
-      <c r="AI93" s="1"/>
-      <c r="AJ93" s="1"/>
-      <c r="AK93" s="1"/>
-      <c r="AL93" s="1"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="2"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-      <c r="L94" s="1"/>
-      <c r="M94" s="1"/>
-      <c r="N94" s="1"/>
-      <c r="O94" s="1"/>
-      <c r="P94" s="1"/>
-      <c r="Q94" s="1"/>
-      <c r="R94" s="1"/>
-      <c r="S94" s="1"/>
-      <c r="T94" s="1"/>
-      <c r="U94" s="1"/>
-      <c r="V94" s="1"/>
-      <c r="W94" s="1"/>
-      <c r="X94" s="1"/>
-      <c r="Y94" s="1"/>
-      <c r="Z94" s="1"/>
-      <c r="AA94" s="1"/>
-      <c r="AB94" s="1"/>
-      <c r="AC94" s="1"/>
-      <c r="AD94" s="1"/>
-      <c r="AE94" s="1"/>
-      <c r="AF94" s="1"/>
-      <c r="AG94" s="1"/>
-      <c r="AH94" s="1"/>
-      <c r="AI94" s="1"/>
-      <c r="AJ94" s="1"/>
-      <c r="AK94" s="1"/>
-      <c r="AL94" s="1"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="2"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
-      <c r="L95" s="1"/>
-      <c r="M95" s="1"/>
-      <c r="N95" s="1"/>
-      <c r="O95" s="1"/>
-      <c r="P95" s="1"/>
-      <c r="Q95" s="1"/>
-      <c r="R95" s="1"/>
-      <c r="S95" s="1"/>
-      <c r="T95" s="1"/>
-      <c r="U95" s="1"/>
-      <c r="V95" s="1"/>
-      <c r="W95" s="1"/>
-      <c r="X95" s="1"/>
-      <c r="Y95" s="1"/>
-      <c r="Z95" s="1"/>
-      <c r="AA95" s="1"/>
-      <c r="AB95" s="1"/>
-      <c r="AC95" s="1"/>
-      <c r="AD95" s="1"/>
-      <c r="AE95" s="1"/>
-      <c r="AF95" s="1"/>
-      <c r="AG95" s="1"/>
-      <c r="AH95" s="1"/>
-      <c r="AI95" s="1"/>
-      <c r="AJ95" s="1"/>
-      <c r="AK95" s="1"/>
-      <c r="AL95" s="1"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="2"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-      <c r="L96" s="1"/>
-      <c r="M96" s="1"/>
-      <c r="N96" s="1"/>
-      <c r="O96" s="1"/>
-      <c r="P96" s="1"/>
-      <c r="Q96" s="1"/>
-      <c r="R96" s="1"/>
-      <c r="S96" s="1"/>
-      <c r="T96" s="1"/>
-      <c r="U96" s="1"/>
-      <c r="V96" s="1"/>
-      <c r="W96" s="1"/>
-      <c r="X96" s="1"/>
-      <c r="Y96" s="1"/>
-      <c r="Z96" s="1"/>
-      <c r="AA96" s="1"/>
-      <c r="AB96" s="1"/>
-      <c r="AC96" s="1"/>
-      <c r="AD96" s="1"/>
-      <c r="AE96" s="1"/>
-      <c r="AF96" s="1"/>
-      <c r="AG96" s="1"/>
-      <c r="AH96" s="1"/>
-      <c r="AI96" s="1"/>
-      <c r="AJ96" s="1"/>
-      <c r="AK96" s="1"/>
-      <c r="AL96" s="1"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="2"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
-      <c r="N97" s="1"/>
-      <c r="O97" s="1"/>
-      <c r="P97" s="1"/>
-      <c r="Q97" s="1"/>
-      <c r="R97" s="1"/>
-      <c r="S97" s="1"/>
-      <c r="T97" s="1"/>
-      <c r="U97" s="1"/>
-      <c r="V97" s="1"/>
-      <c r="W97" s="1"/>
-      <c r="X97" s="1"/>
-      <c r="Y97" s="1"/>
-      <c r="Z97" s="1"/>
-      <c r="AA97" s="1"/>
-      <c r="AB97" s="1"/>
-      <c r="AC97" s="1"/>
-      <c r="AD97" s="1"/>
-      <c r="AE97" s="1"/>
-      <c r="AF97" s="1"/>
-      <c r="AG97" s="1"/>
-      <c r="AH97" s="1"/>
-      <c r="AI97" s="1"/>
-      <c r="AJ97" s="1"/>
-      <c r="AK97" s="1"/>
-      <c r="AL97" s="1"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="2"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
-      <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
-      <c r="O98" s="1"/>
-      <c r="P98" s="1"/>
-      <c r="Q98" s="1"/>
-      <c r="R98" s="1"/>
-      <c r="S98" s="1"/>
-      <c r="T98" s="1"/>
-      <c r="U98" s="1"/>
-      <c r="V98" s="1"/>
-      <c r="W98" s="1"/>
-      <c r="X98" s="1"/>
-      <c r="Y98" s="1"/>
-      <c r="Z98" s="1"/>
-      <c r="AA98" s="1"/>
-      <c r="AB98" s="1"/>
-      <c r="AC98" s="1"/>
-      <c r="AD98" s="1"/>
-      <c r="AE98" s="1"/>
-      <c r="AF98" s="1"/>
-      <c r="AG98" s="1"/>
-      <c r="AH98" s="1"/>
-      <c r="AI98" s="1"/>
-      <c r="AJ98" s="1"/>
-      <c r="AK98" s="1"/>
-      <c r="AL98" s="1"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="2"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="1"/>
-      <c r="M99" s="1"/>
-      <c r="N99" s="1"/>
-      <c r="O99" s="1"/>
-      <c r="P99" s="1"/>
-      <c r="Q99" s="1"/>
-      <c r="R99" s="1"/>
-      <c r="S99" s="1"/>
-      <c r="T99" s="1"/>
-      <c r="U99" s="1"/>
-      <c r="V99" s="1"/>
-      <c r="W99" s="1"/>
-      <c r="X99" s="1"/>
-      <c r="Y99" s="1"/>
-      <c r="Z99" s="1"/>
-      <c r="AA99" s="1"/>
-      <c r="AB99" s="1"/>
-      <c r="AC99" s="1"/>
-      <c r="AD99" s="1"/>
-      <c r="AE99" s="1"/>
-      <c r="AF99" s="1"/>
-      <c r="AG99" s="1"/>
-      <c r="AH99" s="1"/>
-      <c r="AI99" s="1"/>
-      <c r="AJ99" s="1"/>
-      <c r="AK99" s="1"/>
-      <c r="AL99" s="1"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="2"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
-      <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
-      <c r="O100" s="1"/>
-      <c r="P100" s="1"/>
-      <c r="Q100" s="1"/>
-      <c r="R100" s="1"/>
-      <c r="S100" s="1"/>
-      <c r="T100" s="1"/>
-      <c r="U100" s="1"/>
-      <c r="V100" s="1"/>
-      <c r="W100" s="1"/>
-      <c r="X100" s="1"/>
-      <c r="Y100" s="1"/>
-      <c r="Z100" s="1"/>
-      <c r="AA100" s="1"/>
-      <c r="AB100" s="1"/>
-      <c r="AC100" s="1"/>
-      <c r="AD100" s="1"/>
-      <c r="AE100" s="1"/>
-      <c r="AF100" s="1"/>
-      <c r="AG100" s="1"/>
-      <c r="AH100" s="1"/>
-      <c r="AI100" s="1"/>
-      <c r="AJ100" s="1"/>
-      <c r="AK100" s="1"/>
-      <c r="AL100" s="1"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="2"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-      <c r="L101" s="1"/>
-      <c r="M101" s="1"/>
-      <c r="N101" s="1"/>
-      <c r="O101" s="1"/>
-      <c r="P101" s="1"/>
-      <c r="Q101" s="1"/>
-      <c r="R101" s="1"/>
-      <c r="S101" s="1"/>
-      <c r="T101" s="1"/>
-      <c r="U101" s="1"/>
-      <c r="V101" s="1"/>
-      <c r="W101" s="1"/>
-      <c r="X101" s="1"/>
-      <c r="Y101" s="1"/>
-      <c r="Z101" s="1"/>
-      <c r="AA101" s="1"/>
-      <c r="AB101" s="1"/>
-      <c r="AC101" s="1"/>
-      <c r="AD101" s="1"/>
-      <c r="AE101" s="1"/>
-      <c r="AF101" s="1"/>
-      <c r="AG101" s="1"/>
-      <c r="AH101" s="1"/>
-      <c r="AI101" s="1"/>
-      <c r="AJ101" s="1"/>
-      <c r="AK101" s="1"/>
-      <c r="AL101" s="1"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="2"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
-      <c r="L102" s="1"/>
-      <c r="M102" s="1"/>
-      <c r="N102" s="1"/>
-      <c r="O102" s="1"/>
-      <c r="P102" s="1"/>
-      <c r="Q102" s="1"/>
-      <c r="R102" s="1"/>
-      <c r="S102" s="1"/>
-      <c r="T102" s="1"/>
-      <c r="U102" s="1"/>
-      <c r="V102" s="1"/>
-      <c r="W102" s="1"/>
-      <c r="X102" s="1"/>
-      <c r="Y102" s="1"/>
-      <c r="Z102" s="1"/>
-      <c r="AA102" s="1"/>
-      <c r="AB102" s="1"/>
-      <c r="AC102" s="1"/>
-      <c r="AD102" s="1"/>
-      <c r="AE102" s="1"/>
-      <c r="AF102" s="1"/>
-      <c r="AG102" s="1"/>
-      <c r="AH102" s="1"/>
-      <c r="AI102" s="1"/>
-      <c r="AJ102" s="1"/>
-      <c r="AK102" s="1"/>
-      <c r="AL102" s="1"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="2"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
-      <c r="K103" s="1"/>
-      <c r="L103" s="1"/>
-      <c r="M103" s="1"/>
-      <c r="N103" s="1"/>
-      <c r="O103" s="1"/>
-      <c r="P103" s="1"/>
-      <c r="Q103" s="1"/>
-      <c r="R103" s="1"/>
-      <c r="S103" s="1"/>
-      <c r="T103" s="1"/>
-      <c r="U103" s="1"/>
-      <c r="V103" s="1"/>
-      <c r="W103" s="1"/>
-      <c r="X103" s="1"/>
-      <c r="Y103" s="1"/>
-      <c r="Z103" s="1"/>
-      <c r="AA103" s="1"/>
-      <c r="AB103" s="1"/>
-      <c r="AC103" s="1"/>
-      <c r="AD103" s="1"/>
-      <c r="AE103" s="1"/>
-      <c r="AF103" s="1"/>
-      <c r="AG103" s="1"/>
-      <c r="AH103" s="1"/>
-      <c r="AI103" s="1"/>
-      <c r="AJ103" s="1"/>
-      <c r="AK103" s="1"/>
-      <c r="AL103" s="1"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="2"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
-      <c r="L104" s="1"/>
-      <c r="M104" s="1"/>
-      <c r="N104" s="1"/>
-      <c r="O104" s="1"/>
-      <c r="P104" s="1"/>
-      <c r="Q104" s="1"/>
-      <c r="R104" s="1"/>
-      <c r="S104" s="1"/>
-      <c r="T104" s="1"/>
-      <c r="U104" s="1"/>
-      <c r="V104" s="1"/>
-      <c r="W104" s="1"/>
-      <c r="X104" s="1"/>
-      <c r="Y104" s="1"/>
-      <c r="Z104" s="1"/>
-      <c r="AA104" s="1"/>
-      <c r="AB104" s="1"/>
-      <c r="AC104" s="1"/>
-      <c r="AD104" s="1"/>
-      <c r="AE104" s="1"/>
-      <c r="AF104" s="1"/>
-      <c r="AG104" s="1"/>
-      <c r="AH104" s="1"/>
-      <c r="AI104" s="1"/>
-      <c r="AJ104" s="1"/>
-      <c r="AK104" s="1"/>
-      <c r="AL104" s="1"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="2"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
-      <c r="K105" s="1"/>
-      <c r="L105" s="1"/>
-      <c r="M105" s="1"/>
-      <c r="N105" s="1"/>
-      <c r="O105" s="1"/>
-      <c r="P105" s="1"/>
-      <c r="Q105" s="1"/>
-      <c r="R105" s="1"/>
-      <c r="S105" s="1"/>
-      <c r="T105" s="1"/>
-      <c r="U105" s="1"/>
-      <c r="V105" s="1"/>
-      <c r="W105" s="1"/>
-      <c r="X105" s="1"/>
-      <c r="Y105" s="1"/>
-      <c r="Z105" s="1"/>
-      <c r="AA105" s="1"/>
-      <c r="AB105" s="1"/>
-      <c r="AC105" s="1"/>
-      <c r="AD105" s="1"/>
-      <c r="AE105" s="1"/>
-      <c r="AF105" s="1"/>
-      <c r="AG105" s="1"/>
-      <c r="AH105" s="1"/>
-      <c r="AI105" s="1"/>
-      <c r="AJ105" s="1"/>
-      <c r="AK105" s="1"/>
-      <c r="AL105" s="1"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="2"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
-      <c r="K106" s="1"/>
-      <c r="L106" s="1"/>
-      <c r="M106" s="1"/>
-      <c r="N106" s="1"/>
-      <c r="O106" s="1"/>
-      <c r="P106" s="1"/>
-      <c r="Q106" s="1"/>
-      <c r="R106" s="1"/>
-      <c r="S106" s="1"/>
-      <c r="T106" s="1"/>
-      <c r="U106" s="1"/>
-      <c r="V106" s="1"/>
-      <c r="W106" s="1"/>
-      <c r="X106" s="1"/>
-      <c r="Y106" s="1"/>
-      <c r="Z106" s="1"/>
-      <c r="AA106" s="1"/>
-      <c r="AB106" s="1"/>
-      <c r="AC106" s="1"/>
-      <c r="AD106" s="1"/>
-      <c r="AE106" s="1"/>
-      <c r="AF106" s="1"/>
-      <c r="AG106" s="1"/>
-      <c r="AH106" s="1"/>
-      <c r="AI106" s="1"/>
-      <c r="AJ106" s="1"/>
-      <c r="AK106" s="1"/>
-      <c r="AL106" s="1"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="2"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
-      <c r="K107" s="1"/>
-      <c r="L107" s="1"/>
-      <c r="M107" s="1"/>
-      <c r="N107" s="1"/>
-      <c r="O107" s="1"/>
-      <c r="P107" s="1"/>
-      <c r="Q107" s="1"/>
-      <c r="R107" s="1"/>
-      <c r="S107" s="1"/>
-      <c r="T107" s="1"/>
-      <c r="U107" s="1"/>
-      <c r="V107" s="1"/>
-      <c r="W107" s="1"/>
-      <c r="X107" s="1"/>
-      <c r="Y107" s="1"/>
-      <c r="Z107" s="1"/>
-      <c r="AA107" s="1"/>
-      <c r="AB107" s="1"/>
-      <c r="AC107" s="1"/>
-      <c r="AD107" s="1"/>
-      <c r="AE107" s="1"/>
-      <c r="AF107" s="1"/>
-      <c r="AG107" s="1"/>
-      <c r="AH107" s="1"/>
-      <c r="AI107" s="1"/>
-      <c r="AJ107" s="1"/>
-      <c r="AK107" s="1"/>
-      <c r="AL107" s="1"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="2"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
-      <c r="K108" s="1"/>
-      <c r="L108" s="1"/>
-      <c r="M108" s="1"/>
-      <c r="N108" s="1"/>
-      <c r="O108" s="1"/>
-      <c r="P108" s="1"/>
-      <c r="Q108" s="1"/>
-      <c r="R108" s="1"/>
-      <c r="S108" s="1"/>
-      <c r="T108" s="1"/>
-      <c r="U108" s="1"/>
-      <c r="V108" s="1"/>
-      <c r="W108" s="1"/>
-      <c r="X108" s="1"/>
-      <c r="Y108" s="1"/>
-      <c r="Z108" s="1"/>
-      <c r="AA108" s="1"/>
-      <c r="AB108" s="1"/>
-      <c r="AC108" s="1"/>
-      <c r="AD108" s="1"/>
-      <c r="AE108" s="1"/>
-      <c r="AF108" s="1"/>
-      <c r="AG108" s="1"/>
-      <c r="AH108" s="1"/>
-      <c r="AI108" s="1"/>
-      <c r="AJ108" s="1"/>
-      <c r="AK108" s="1"/>
-      <c r="AL108" s="1"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="2"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
-      <c r="K109" s="1"/>
-      <c r="L109" s="1"/>
-      <c r="M109" s="1"/>
-      <c r="N109" s="1"/>
-      <c r="O109" s="1"/>
-      <c r="P109" s="1"/>
-      <c r="Q109" s="1"/>
-      <c r="R109" s="1"/>
-      <c r="S109" s="1"/>
-      <c r="T109" s="1"/>
-      <c r="U109" s="1"/>
-      <c r="V109" s="1"/>
-      <c r="W109" s="1"/>
-      <c r="X109" s="1"/>
-      <c r="Y109" s="1"/>
-      <c r="Z109" s="1"/>
-      <c r="AA109" s="1"/>
-      <c r="AB109" s="1"/>
-      <c r="AC109" s="1"/>
-      <c r="AD109" s="1"/>
-      <c r="AE109" s="1"/>
-      <c r="AF109" s="1"/>
-      <c r="AG109" s="1"/>
-      <c r="AH109" s="1"/>
-      <c r="AI109" s="1"/>
-      <c r="AJ109" s="1"/>
-      <c r="AK109" s="1"/>
-      <c r="AL109" s="1"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="2"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
-      <c r="K110" s="1"/>
-      <c r="L110" s="1"/>
-      <c r="M110" s="1"/>
-      <c r="N110" s="1"/>
-      <c r="O110" s="1"/>
-      <c r="P110" s="1"/>
-      <c r="Q110" s="1"/>
-      <c r="R110" s="1"/>
-      <c r="S110" s="1"/>
-      <c r="T110" s="1"/>
-      <c r="U110" s="1"/>
-      <c r="V110" s="1"/>
-      <c r="W110" s="1"/>
-      <c r="X110" s="1"/>
-      <c r="Y110" s="1"/>
-      <c r="Z110" s="1"/>
-      <c r="AA110" s="1"/>
-      <c r="AB110" s="1"/>
-      <c r="AC110" s="1"/>
-      <c r="AD110" s="1"/>
-      <c r="AE110" s="1"/>
-      <c r="AF110" s="1"/>
-      <c r="AG110" s="1"/>
-      <c r="AH110" s="1"/>
-      <c r="AI110" s="1"/>
-      <c r="AJ110" s="1"/>
-      <c r="AK110" s="1"/>
-      <c r="AL110" s="1"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="2"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
-      <c r="K111" s="1"/>
-      <c r="L111" s="1"/>
-      <c r="M111" s="1"/>
-      <c r="N111" s="1"/>
-      <c r="O111" s="1"/>
-      <c r="P111" s="1"/>
-      <c r="Q111" s="1"/>
-      <c r="R111" s="1"/>
-      <c r="S111" s="1"/>
-      <c r="T111" s="1"/>
-      <c r="U111" s="1"/>
-      <c r="V111" s="1"/>
-      <c r="W111" s="1"/>
-      <c r="X111" s="1"/>
-      <c r="Y111" s="1"/>
-      <c r="Z111" s="1"/>
-      <c r="AA111" s="1"/>
-      <c r="AB111" s="1"/>
-      <c r="AC111" s="1"/>
-      <c r="AD111" s="1"/>
-      <c r="AE111" s="1"/>
-      <c r="AF111" s="1"/>
-      <c r="AG111" s="1"/>
-      <c r="AH111" s="1"/>
-      <c r="AI111" s="1"/>
-      <c r="AJ111" s="1"/>
-      <c r="AK111" s="1"/>
-      <c r="AL111" s="1"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="2"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
-      <c r="K112" s="1"/>
-      <c r="L112" s="1"/>
-      <c r="M112" s="1"/>
-      <c r="N112" s="1"/>
-      <c r="O112" s="1"/>
-      <c r="P112" s="1"/>
-      <c r="Q112" s="1"/>
-      <c r="R112" s="1"/>
-      <c r="S112" s="1"/>
-      <c r="T112" s="1"/>
-      <c r="U112" s="1"/>
-      <c r="V112" s="1"/>
-      <c r="W112" s="1"/>
-      <c r="X112" s="1"/>
-      <c r="Y112" s="1"/>
-      <c r="Z112" s="1"/>
-      <c r="AA112" s="1"/>
-      <c r="AB112" s="1"/>
-      <c r="AC112" s="1"/>
-      <c r="AD112" s="1"/>
-      <c r="AE112" s="1"/>
-      <c r="AF112" s="1"/>
-      <c r="AG112" s="1"/>
-      <c r="AH112" s="1"/>
-      <c r="AI112" s="1"/>
-      <c r="AJ112" s="1"/>
-      <c r="AK112" s="1"/>
-      <c r="AL112" s="1"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="2"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
-      <c r="K113" s="1"/>
-      <c r="L113" s="1"/>
-      <c r="M113" s="1"/>
-      <c r="N113" s="1"/>
-      <c r="O113" s="1"/>
-      <c r="P113" s="1"/>
-      <c r="Q113" s="1"/>
-      <c r="R113" s="1"/>
-      <c r="S113" s="1"/>
-      <c r="T113" s="1"/>
-      <c r="U113" s="1"/>
-      <c r="V113" s="1"/>
-      <c r="W113" s="1"/>
-      <c r="X113" s="1"/>
-      <c r="Y113" s="1"/>
-      <c r="Z113" s="1"/>
-      <c r="AA113" s="1"/>
-      <c r="AB113" s="1"/>
-      <c r="AC113" s="1"/>
-      <c r="AD113" s="1"/>
-      <c r="AE113" s="1"/>
-      <c r="AF113" s="1"/>
-      <c r="AG113" s="1"/>
-      <c r="AH113" s="1"/>
-      <c r="AI113" s="1"/>
-      <c r="AJ113" s="1"/>
-      <c r="AK113" s="1"/>
-      <c r="AL113" s="1"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="2"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
-      <c r="J114" s="1"/>
-      <c r="K114" s="1"/>
-      <c r="L114" s="1"/>
-      <c r="M114" s="1"/>
-      <c r="N114" s="1"/>
-      <c r="O114" s="1"/>
-      <c r="P114" s="1"/>
-      <c r="Q114" s="1"/>
-      <c r="R114" s="1"/>
-      <c r="S114" s="1"/>
-      <c r="T114" s="1"/>
-      <c r="U114" s="1"/>
-      <c r="V114" s="1"/>
-      <c r="W114" s="1"/>
-      <c r="X114" s="1"/>
-      <c r="Y114" s="1"/>
-      <c r="Z114" s="1"/>
-      <c r="AA114" s="1"/>
-      <c r="AB114" s="1"/>
-      <c r="AC114" s="1"/>
-      <c r="AD114" s="1"/>
-      <c r="AE114" s="1"/>
-      <c r="AF114" s="1"/>
-      <c r="AG114" s="1"/>
-      <c r="AH114" s="1"/>
-      <c r="AI114" s="1"/>
-      <c r="AJ114" s="1"/>
-      <c r="AK114" s="1"/>
-      <c r="AL114" s="1"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="2"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
-      <c r="K115" s="1"/>
-      <c r="L115" s="1"/>
-      <c r="M115" s="1"/>
-      <c r="N115" s="1"/>
-      <c r="O115" s="1"/>
-      <c r="P115" s="1"/>
-      <c r="Q115" s="1"/>
-      <c r="R115" s="1"/>
-      <c r="S115" s="1"/>
-      <c r="T115" s="1"/>
-      <c r="U115" s="1"/>
-      <c r="V115" s="1"/>
-      <c r="W115" s="1"/>
-      <c r="X115" s="1"/>
-      <c r="Y115" s="1"/>
-      <c r="Z115" s="1"/>
-      <c r="AA115" s="1"/>
-      <c r="AB115" s="1"/>
-      <c r="AC115" s="1"/>
-      <c r="AD115" s="1"/>
-      <c r="AE115" s="1"/>
-      <c r="AF115" s="1"/>
-      <c r="AG115" s="1"/>
-      <c r="AH115" s="1"/>
-      <c r="AI115" s="1"/>
-      <c r="AJ115" s="1"/>
-      <c r="AK115" s="1"/>
-      <c r="AL115" s="1"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="2"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
-      <c r="K116" s="1"/>
-      <c r="L116" s="1"/>
-      <c r="M116" s="1"/>
-      <c r="N116" s="1"/>
-      <c r="O116" s="1"/>
-      <c r="P116" s="1"/>
-      <c r="Q116" s="1"/>
-      <c r="R116" s="1"/>
-      <c r="S116" s="1"/>
-      <c r="T116" s="1"/>
-      <c r="U116" s="1"/>
-      <c r="V116" s="1"/>
-      <c r="W116" s="1"/>
-      <c r="X116" s="1"/>
-      <c r="Y116" s="1"/>
-      <c r="Z116" s="1"/>
-      <c r="AA116" s="1"/>
-      <c r="AB116" s="1"/>
-      <c r="AC116" s="1"/>
-      <c r="AD116" s="1"/>
-      <c r="AE116" s="1"/>
-      <c r="AF116" s="1"/>
-      <c r="AG116" s="1"/>
-      <c r="AH116" s="1"/>
-      <c r="AI116" s="1"/>
-      <c r="AJ116" s="1"/>
-      <c r="AK116" s="1"/>
-      <c r="AL116" s="1"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="2"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
-      <c r="J117" s="1"/>
-      <c r="K117" s="1"/>
-      <c r="L117" s="1"/>
-      <c r="M117" s="1"/>
-      <c r="N117" s="1"/>
-      <c r="O117" s="1"/>
-      <c r="P117" s="1"/>
-      <c r="Q117" s="1"/>
-      <c r="R117" s="1"/>
-      <c r="S117" s="1"/>
-      <c r="T117" s="1"/>
-      <c r="U117" s="1"/>
-      <c r="V117" s="1"/>
-      <c r="W117" s="1"/>
-      <c r="X117" s="1"/>
-      <c r="Y117" s="1"/>
-      <c r="Z117" s="1"/>
-      <c r="AA117" s="1"/>
-      <c r="AB117" s="1"/>
-      <c r="AC117" s="1"/>
-      <c r="AD117" s="1"/>
-      <c r="AE117" s="1"/>
-      <c r="AF117" s="1"/>
-      <c r="AG117" s="1"/>
-      <c r="AH117" s="1"/>
-      <c r="AI117" s="1"/>
-      <c r="AJ117" s="1"/>
-      <c r="AK117" s="1"/>
-      <c r="AL117" s="1"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="2"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
-      <c r="J118" s="1"/>
-      <c r="K118" s="1"/>
-      <c r="L118" s="1"/>
-      <c r="M118" s="1"/>
-      <c r="N118" s="1"/>
-      <c r="O118" s="1"/>
-      <c r="P118" s="1"/>
-      <c r="Q118" s="1"/>
-      <c r="R118" s="1"/>
-      <c r="S118" s="1"/>
-      <c r="T118" s="1"/>
-      <c r="U118" s="1"/>
-      <c r="V118" s="1"/>
-      <c r="W118" s="1"/>
-      <c r="X118" s="1"/>
-      <c r="Y118" s="1"/>
-      <c r="Z118" s="1"/>
-      <c r="AA118" s="1"/>
-      <c r="AB118" s="1"/>
-      <c r="AC118" s="1"/>
-      <c r="AD118" s="1"/>
-      <c r="AE118" s="1"/>
-      <c r="AF118" s="1"/>
-      <c r="AG118" s="1"/>
-      <c r="AH118" s="1"/>
-      <c r="AI118" s="1"/>
-      <c r="AJ118" s="1"/>
-      <c r="AK118" s="1"/>
-      <c r="AL118" s="1"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="2"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
-      <c r="J119" s="1"/>
-      <c r="K119" s="1"/>
-      <c r="L119" s="1"/>
-      <c r="M119" s="1"/>
-      <c r="N119" s="1"/>
-      <c r="O119" s="1"/>
-      <c r="P119" s="1"/>
-      <c r="Q119" s="1"/>
-      <c r="R119" s="1"/>
-      <c r="S119" s="1"/>
-      <c r="T119" s="1"/>
-      <c r="U119" s="1"/>
-      <c r="V119" s="1"/>
-      <c r="W119" s="1"/>
-      <c r="X119" s="1"/>
-      <c r="Y119" s="1"/>
-      <c r="Z119" s="1"/>
-      <c r="AA119" s="1"/>
-      <c r="AB119" s="1"/>
-      <c r="AC119" s="1"/>
-      <c r="AD119" s="1"/>
-      <c r="AE119" s="1"/>
-      <c r="AF119" s="1"/>
-      <c r="AG119" s="1"/>
-      <c r="AH119" s="1"/>
-      <c r="AI119" s="1"/>
-      <c r="AJ119" s="1"/>
-      <c r="AK119" s="1"/>
-      <c r="AL119" s="1"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="2"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
-      <c r="J120" s="1"/>
-      <c r="K120" s="1"/>
-      <c r="L120" s="1"/>
-      <c r="M120" s="1"/>
-      <c r="N120" s="1"/>
-      <c r="O120" s="1"/>
-      <c r="P120" s="1"/>
-      <c r="Q120" s="1"/>
-      <c r="R120" s="1"/>
-      <c r="S120" s="1"/>
-      <c r="T120" s="1"/>
-      <c r="U120" s="1"/>
-      <c r="V120" s="1"/>
-      <c r="W120" s="1"/>
-      <c r="X120" s="1"/>
-      <c r="Y120" s="1"/>
-      <c r="Z120" s="1"/>
-      <c r="AA120" s="1"/>
-      <c r="AB120" s="1"/>
-      <c r="AC120" s="1"/>
-      <c r="AD120" s="1"/>
-      <c r="AE120" s="1"/>
-      <c r="AF120" s="1"/>
-      <c r="AG120" s="1"/>
-      <c r="AH120" s="1"/>
-      <c r="AI120" s="1"/>
-      <c r="AJ120" s="1"/>
-      <c r="AK120" s="1"/>
-      <c r="AL120" s="1"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="2"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
-      <c r="K121" s="1"/>
-      <c r="L121" s="1"/>
-      <c r="M121" s="1"/>
-      <c r="N121" s="1"/>
-      <c r="O121" s="1"/>
-      <c r="P121" s="1"/>
-      <c r="Q121" s="1"/>
-      <c r="R121" s="1"/>
-      <c r="S121" s="1"/>
-      <c r="T121" s="1"/>
-      <c r="U121" s="1"/>
-      <c r="V121" s="1"/>
-      <c r="W121" s="1"/>
-      <c r="X121" s="1"/>
-      <c r="Y121" s="1"/>
-      <c r="Z121" s="1"/>
-      <c r="AA121" s="1"/>
-      <c r="AB121" s="1"/>
-      <c r="AC121" s="1"/>
-      <c r="AD121" s="1"/>
-      <c r="AE121" s="1"/>
-      <c r="AF121" s="1"/>
-      <c r="AG121" s="1"/>
-      <c r="AH121" s="1"/>
-      <c r="AI121" s="1"/>
-      <c r="AJ121" s="1"/>
-      <c r="AK121" s="1"/>
-      <c r="AL121" s="1"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="2"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
-      <c r="K122" s="1"/>
-      <c r="L122" s="1"/>
-      <c r="M122" s="1"/>
-      <c r="N122" s="1"/>
-      <c r="O122" s="1"/>
-      <c r="P122" s="1"/>
-      <c r="Q122" s="1"/>
-      <c r="R122" s="1"/>
-      <c r="S122" s="1"/>
-      <c r="T122" s="1"/>
-      <c r="U122" s="1"/>
-      <c r="V122" s="1"/>
-      <c r="W122" s="1"/>
-      <c r="X122" s="1"/>
-      <c r="Y122" s="1"/>
-      <c r="Z122" s="1"/>
-      <c r="AA122" s="1"/>
-      <c r="AB122" s="1"/>
-      <c r="AC122" s="1"/>
-      <c r="AD122" s="1"/>
-      <c r="AE122" s="1"/>
-      <c r="AF122" s="1"/>
-      <c r="AG122" s="1"/>
-      <c r="AH122" s="1"/>
-      <c r="AI122" s="1"/>
-      <c r="AJ122" s="1"/>
-      <c r="AK122" s="1"/>
-      <c r="AL122" s="1"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="2"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
-      <c r="J123" s="1"/>
-      <c r="K123" s="1"/>
-      <c r="L123" s="1"/>
-      <c r="M123" s="1"/>
-      <c r="N123" s="1"/>
-      <c r="O123" s="1"/>
-      <c r="P123" s="1"/>
-      <c r="Q123" s="1"/>
-      <c r="R123" s="1"/>
-      <c r="S123" s="1"/>
-      <c r="T123" s="1"/>
-      <c r="U123" s="1"/>
-      <c r="V123" s="1"/>
-      <c r="W123" s="1"/>
-      <c r="X123" s="1"/>
-      <c r="Y123" s="1"/>
-      <c r="Z123" s="1"/>
-      <c r="AA123" s="1"/>
-      <c r="AB123" s="1"/>
-      <c r="AC123" s="1"/>
-      <c r="AD123" s="1"/>
-      <c r="AE123" s="1"/>
-      <c r="AF123" s="1"/>
-      <c r="AG123" s="1"/>
-      <c r="AH123" s="1"/>
-      <c r="AI123" s="1"/>
-      <c r="AJ123" s="1"/>
-      <c r="AK123" s="1"/>
-      <c r="AL123" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/data/prueba_predicc_dia_dia.xlsx
+++ b/data/prueba_predicc_dia_dia.xlsx
@@ -594,11 +594,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1065094900"/>
-        <c:axId val="475437696"/>
+        <c:axId val="910510281"/>
+        <c:axId val="951856569"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1065094900"/>
+        <c:axId val="910510281"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -673,10 +673,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475437696"/>
+        <c:crossAx val="951856569"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="475437696"/>
+        <c:axId val="951856569"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -751,7 +751,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1065094900"/>
+        <c:crossAx val="910510281"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -860,11 +860,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1213363230"/>
-        <c:axId val="539176674"/>
+        <c:axId val="1309753259"/>
+        <c:axId val="1254477543"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1213363230"/>
+        <c:axId val="1309753259"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -939,10 +939,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539176674"/>
+        <c:crossAx val="1254477543"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="539176674"/>
+        <c:axId val="1254477543"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1017,7 +1017,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1213363230"/>
+        <c:crossAx val="1309753259"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4484,7 +4484,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2">
-        <v>45050.0</v>
+        <v>45051.0</v>
       </c>
       <c r="B25" s="1">
         <v>7.0</v>
@@ -4599,43 +4599,120 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
-      <c r="AE26" s="1"/>
-      <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
-      <c r="AH26" s="1"/>
-      <c r="AI26" s="1"/>
-      <c r="AJ26" s="1"/>
-      <c r="AK26" s="1"/>
-      <c r="AL26" s="1"/>
+      <c r="A26" s="2">
+        <v>45052.0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>225.0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>67.0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>193.0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>132.0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>445.0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>445.0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P26" s="1">
+        <v>75.0</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S26" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="T26" s="1">
+        <v>390.0</v>
+      </c>
+      <c r="U26" s="1">
+        <v>242.0</v>
+      </c>
+      <c r="V26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W26" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="X26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>75.0</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>428.0</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>149.0</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>76.0</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH26" s="1">
+        <v>190.0</v>
+      </c>
+      <c r="AI26" s="1">
+        <v>566.0</v>
+      </c>
+      <c r="AJ26" s="1">
+        <v>64.0</v>
+      </c>
+      <c r="AK26" s="1">
+        <v>165.0</v>
+      </c>
+      <c r="AL26" s="1">
+        <v>221.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2"/>
@@ -4717,6 +4794,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2"/>
+      <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -4756,6 +4834,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2"/>
+      <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -5472,1526 +5551,6 @@
       <c r="AJ47" s="1"/>
       <c r="AK47" s="1"/>
       <c r="AL47" s="1"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="2"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
-      <c r="V48" s="1"/>
-      <c r="W48" s="1"/>
-      <c r="X48" s="1"/>
-      <c r="Y48" s="1"/>
-      <c r="Z48" s="1"/>
-      <c r="AA48" s="1"/>
-      <c r="AB48" s="1"/>
-      <c r="AC48" s="1"/>
-      <c r="AD48" s="1"/>
-      <c r="AE48" s="1"/>
-      <c r="AF48" s="1"/>
-      <c r="AG48" s="1"/>
-      <c r="AH48" s="1"/>
-      <c r="AI48" s="1"/>
-      <c r="AJ48" s="1"/>
-      <c r="AK48" s="1"/>
-      <c r="AL48" s="1"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="2"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
-      <c r="X49" s="1"/>
-      <c r="Y49" s="1"/>
-      <c r="Z49" s="1"/>
-      <c r="AA49" s="1"/>
-      <c r="AB49" s="1"/>
-      <c r="AC49" s="1"/>
-      <c r="AD49" s="1"/>
-      <c r="AE49" s="1"/>
-      <c r="AF49" s="1"/>
-      <c r="AG49" s="1"/>
-      <c r="AH49" s="1"/>
-      <c r="AI49" s="1"/>
-      <c r="AJ49" s="1"/>
-      <c r="AK49" s="1"/>
-      <c r="AL49" s="1"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="2"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="1"/>
-      <c r="U50" s="1"/>
-      <c r="V50" s="1"/>
-      <c r="W50" s="1"/>
-      <c r="X50" s="1"/>
-      <c r="Y50" s="1"/>
-      <c r="Z50" s="1"/>
-      <c r="AA50" s="1"/>
-      <c r="AB50" s="1"/>
-      <c r="AC50" s="1"/>
-      <c r="AD50" s="1"/>
-      <c r="AE50" s="1"/>
-      <c r="AF50" s="1"/>
-      <c r="AG50" s="1"/>
-      <c r="AH50" s="1"/>
-      <c r="AI50" s="1"/>
-      <c r="AJ50" s="1"/>
-      <c r="AK50" s="1"/>
-      <c r="AL50" s="1"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="2"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
-      <c r="V51" s="1"/>
-      <c r="W51" s="1"/>
-      <c r="X51" s="1"/>
-      <c r="Y51" s="1"/>
-      <c r="Z51" s="1"/>
-      <c r="AA51" s="1"/>
-      <c r="AB51" s="1"/>
-      <c r="AC51" s="1"/>
-      <c r="AD51" s="1"/>
-      <c r="AE51" s="1"/>
-      <c r="AF51" s="1"/>
-      <c r="AG51" s="1"/>
-      <c r="AH51" s="1"/>
-      <c r="AI51" s="1"/>
-      <c r="AJ51" s="1"/>
-      <c r="AK51" s="1"/>
-      <c r="AL51" s="1"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="2"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
-      <c r="S52" s="1"/>
-      <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="V52" s="1"/>
-      <c r="W52" s="1"/>
-      <c r="X52" s="1"/>
-      <c r="Y52" s="1"/>
-      <c r="Z52" s="1"/>
-      <c r="AA52" s="1"/>
-      <c r="AB52" s="1"/>
-      <c r="AC52" s="1"/>
-      <c r="AD52" s="1"/>
-      <c r="AE52" s="1"/>
-      <c r="AF52" s="1"/>
-      <c r="AG52" s="1"/>
-      <c r="AH52" s="1"/>
-      <c r="AI52" s="1"/>
-      <c r="AJ52" s="1"/>
-      <c r="AK52" s="1"/>
-      <c r="AL52" s="1"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="2"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
-      <c r="S53" s="1"/>
-      <c r="T53" s="1"/>
-      <c r="U53" s="1"/>
-      <c r="V53" s="1"/>
-      <c r="W53" s="1"/>
-      <c r="X53" s="1"/>
-      <c r="Y53" s="1"/>
-      <c r="Z53" s="1"/>
-      <c r="AA53" s="1"/>
-      <c r="AB53" s="1"/>
-      <c r="AC53" s="1"/>
-      <c r="AD53" s="1"/>
-      <c r="AE53" s="1"/>
-      <c r="AF53" s="1"/>
-      <c r="AG53" s="1"/>
-      <c r="AH53" s="1"/>
-      <c r="AI53" s="1"/>
-      <c r="AJ53" s="1"/>
-      <c r="AK53" s="1"/>
-      <c r="AL53" s="1"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="2"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-      <c r="V54" s="1"/>
-      <c r="W54" s="1"/>
-      <c r="X54" s="1"/>
-      <c r="Y54" s="1"/>
-      <c r="Z54" s="1"/>
-      <c r="AA54" s="1"/>
-      <c r="AB54" s="1"/>
-      <c r="AC54" s="1"/>
-      <c r="AD54" s="1"/>
-      <c r="AE54" s="1"/>
-      <c r="AF54" s="1"/>
-      <c r="AG54" s="1"/>
-      <c r="AH54" s="1"/>
-      <c r="AI54" s="1"/>
-      <c r="AJ54" s="1"/>
-      <c r="AK54" s="1"/>
-      <c r="AL54" s="1"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="2"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
-      <c r="S55" s="1"/>
-      <c r="T55" s="1"/>
-      <c r="U55" s="1"/>
-      <c r="V55" s="1"/>
-      <c r="W55" s="1"/>
-      <c r="X55" s="1"/>
-      <c r="Y55" s="1"/>
-      <c r="Z55" s="1"/>
-      <c r="AA55" s="1"/>
-      <c r="AB55" s="1"/>
-      <c r="AC55" s="1"/>
-      <c r="AD55" s="1"/>
-      <c r="AE55" s="1"/>
-      <c r="AF55" s="1"/>
-      <c r="AG55" s="1"/>
-      <c r="AH55" s="1"/>
-      <c r="AI55" s="1"/>
-      <c r="AJ55" s="1"/>
-      <c r="AK55" s="1"/>
-      <c r="AL55" s="1"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="2"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
-      <c r="T56" s="1"/>
-      <c r="U56" s="1"/>
-      <c r="V56" s="1"/>
-      <c r="W56" s="1"/>
-      <c r="X56" s="1"/>
-      <c r="Y56" s="1"/>
-      <c r="Z56" s="1"/>
-      <c r="AA56" s="1"/>
-      <c r="AB56" s="1"/>
-      <c r="AC56" s="1"/>
-      <c r="AD56" s="1"/>
-      <c r="AE56" s="1"/>
-      <c r="AF56" s="1"/>
-      <c r="AG56" s="1"/>
-      <c r="AH56" s="1"/>
-      <c r="AI56" s="1"/>
-      <c r="AJ56" s="1"/>
-      <c r="AK56" s="1"/>
-      <c r="AL56" s="1"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="2"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
-      <c r="S57" s="1"/>
-      <c r="T57" s="1"/>
-      <c r="U57" s="1"/>
-      <c r="V57" s="1"/>
-      <c r="W57" s="1"/>
-      <c r="X57" s="1"/>
-      <c r="Y57" s="1"/>
-      <c r="Z57" s="1"/>
-      <c r="AA57" s="1"/>
-      <c r="AB57" s="1"/>
-      <c r="AC57" s="1"/>
-      <c r="AD57" s="1"/>
-      <c r="AE57" s="1"/>
-      <c r="AF57" s="1"/>
-      <c r="AG57" s="1"/>
-      <c r="AH57" s="1"/>
-      <c r="AI57" s="1"/>
-      <c r="AJ57" s="1"/>
-      <c r="AK57" s="1"/>
-      <c r="AL57" s="1"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="2"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
-      <c r="S58" s="1"/>
-      <c r="T58" s="1"/>
-      <c r="U58" s="1"/>
-      <c r="V58" s="1"/>
-      <c r="W58" s="1"/>
-      <c r="X58" s="1"/>
-      <c r="Y58" s="1"/>
-      <c r="Z58" s="1"/>
-      <c r="AA58" s="1"/>
-      <c r="AB58" s="1"/>
-      <c r="AC58" s="1"/>
-      <c r="AD58" s="1"/>
-      <c r="AE58" s="1"/>
-      <c r="AF58" s="1"/>
-      <c r="AG58" s="1"/>
-      <c r="AH58" s="1"/>
-      <c r="AI58" s="1"/>
-      <c r="AJ58" s="1"/>
-      <c r="AK58" s="1"/>
-      <c r="AL58" s="1"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="2"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
-      <c r="S59" s="1"/>
-      <c r="T59" s="1"/>
-      <c r="U59" s="1"/>
-      <c r="V59" s="1"/>
-      <c r="W59" s="1"/>
-      <c r="X59" s="1"/>
-      <c r="Y59" s="1"/>
-      <c r="Z59" s="1"/>
-      <c r="AA59" s="1"/>
-      <c r="AB59" s="1"/>
-      <c r="AC59" s="1"/>
-      <c r="AD59" s="1"/>
-      <c r="AE59" s="1"/>
-      <c r="AF59" s="1"/>
-      <c r="AG59" s="1"/>
-      <c r="AH59" s="1"/>
-      <c r="AI59" s="1"/>
-      <c r="AJ59" s="1"/>
-      <c r="AK59" s="1"/>
-      <c r="AL59" s="1"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="2"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
-      <c r="S60" s="1"/>
-      <c r="T60" s="1"/>
-      <c r="U60" s="1"/>
-      <c r="V60" s="1"/>
-      <c r="W60" s="1"/>
-      <c r="X60" s="1"/>
-      <c r="Y60" s="1"/>
-      <c r="Z60" s="1"/>
-      <c r="AA60" s="1"/>
-      <c r="AB60" s="1"/>
-      <c r="AC60" s="1"/>
-      <c r="AD60" s="1"/>
-      <c r="AE60" s="1"/>
-      <c r="AF60" s="1"/>
-      <c r="AG60" s="1"/>
-      <c r="AH60" s="1"/>
-      <c r="AI60" s="1"/>
-      <c r="AJ60" s="1"/>
-      <c r="AK60" s="1"/>
-      <c r="AL60" s="1"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="2"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
-      <c r="S61" s="1"/>
-      <c r="T61" s="1"/>
-      <c r="U61" s="1"/>
-      <c r="V61" s="1"/>
-      <c r="W61" s="1"/>
-      <c r="X61" s="1"/>
-      <c r="Y61" s="1"/>
-      <c r="Z61" s="1"/>
-      <c r="AA61" s="1"/>
-      <c r="AB61" s="1"/>
-      <c r="AC61" s="1"/>
-      <c r="AD61" s="1"/>
-      <c r="AE61" s="1"/>
-      <c r="AF61" s="1"/>
-      <c r="AG61" s="1"/>
-      <c r="AH61" s="1"/>
-      <c r="AI61" s="1"/>
-      <c r="AJ61" s="1"/>
-      <c r="AK61" s="1"/>
-      <c r="AL61" s="1"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="2"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
-      <c r="R62" s="1"/>
-      <c r="S62" s="1"/>
-      <c r="T62" s="1"/>
-      <c r="U62" s="1"/>
-      <c r="V62" s="1"/>
-      <c r="W62" s="1"/>
-      <c r="X62" s="1"/>
-      <c r="Y62" s="1"/>
-      <c r="Z62" s="1"/>
-      <c r="AA62" s="1"/>
-      <c r="AB62" s="1"/>
-      <c r="AC62" s="1"/>
-      <c r="AD62" s="1"/>
-      <c r="AE62" s="1"/>
-      <c r="AF62" s="1"/>
-      <c r="AG62" s="1"/>
-      <c r="AH62" s="1"/>
-      <c r="AI62" s="1"/>
-      <c r="AJ62" s="1"/>
-      <c r="AK62" s="1"/>
-      <c r="AL62" s="1"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="2"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1"/>
-      <c r="T63" s="1"/>
-      <c r="U63" s="1"/>
-      <c r="V63" s="1"/>
-      <c r="W63" s="1"/>
-      <c r="X63" s="1"/>
-      <c r="Y63" s="1"/>
-      <c r="Z63" s="1"/>
-      <c r="AA63" s="1"/>
-      <c r="AB63" s="1"/>
-      <c r="AC63" s="1"/>
-      <c r="AD63" s="1"/>
-      <c r="AE63" s="1"/>
-      <c r="AF63" s="1"/>
-      <c r="AG63" s="1"/>
-      <c r="AH63" s="1"/>
-      <c r="AI63" s="1"/>
-      <c r="AJ63" s="1"/>
-      <c r="AK63" s="1"/>
-      <c r="AL63" s="1"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="2"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="1"/>
-      <c r="R64" s="1"/>
-      <c r="S64" s="1"/>
-      <c r="T64" s="1"/>
-      <c r="U64" s="1"/>
-      <c r="V64" s="1"/>
-      <c r="W64" s="1"/>
-      <c r="X64" s="1"/>
-      <c r="Y64" s="1"/>
-      <c r="Z64" s="1"/>
-      <c r="AA64" s="1"/>
-      <c r="AB64" s="1"/>
-      <c r="AC64" s="1"/>
-      <c r="AD64" s="1"/>
-      <c r="AE64" s="1"/>
-      <c r="AF64" s="1"/>
-      <c r="AG64" s="1"/>
-      <c r="AH64" s="1"/>
-      <c r="AI64" s="1"/>
-      <c r="AJ64" s="1"/>
-      <c r="AK64" s="1"/>
-      <c r="AL64" s="1"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="2"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="1"/>
-      <c r="R65" s="1"/>
-      <c r="S65" s="1"/>
-      <c r="T65" s="1"/>
-      <c r="U65" s="1"/>
-      <c r="V65" s="1"/>
-      <c r="W65" s="1"/>
-      <c r="X65" s="1"/>
-      <c r="Y65" s="1"/>
-      <c r="Z65" s="1"/>
-      <c r="AA65" s="1"/>
-      <c r="AB65" s="1"/>
-      <c r="AC65" s="1"/>
-      <c r="AD65" s="1"/>
-      <c r="AE65" s="1"/>
-      <c r="AF65" s="1"/>
-      <c r="AG65" s="1"/>
-      <c r="AH65" s="1"/>
-      <c r="AI65" s="1"/>
-      <c r="AJ65" s="1"/>
-      <c r="AK65" s="1"/>
-      <c r="AL65" s="1"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="2"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="1"/>
-      <c r="R66" s="1"/>
-      <c r="S66" s="1"/>
-      <c r="T66" s="1"/>
-      <c r="U66" s="1"/>
-      <c r="V66" s="1"/>
-      <c r="W66" s="1"/>
-      <c r="X66" s="1"/>
-      <c r="Y66" s="1"/>
-      <c r="Z66" s="1"/>
-      <c r="AA66" s="1"/>
-      <c r="AB66" s="1"/>
-      <c r="AC66" s="1"/>
-      <c r="AD66" s="1"/>
-      <c r="AE66" s="1"/>
-      <c r="AF66" s="1"/>
-      <c r="AG66" s="1"/>
-      <c r="AH66" s="1"/>
-      <c r="AI66" s="1"/>
-      <c r="AJ66" s="1"/>
-      <c r="AK66" s="1"/>
-      <c r="AL66" s="1"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="2"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
-      <c r="R67" s="1"/>
-      <c r="S67" s="1"/>
-      <c r="T67" s="1"/>
-      <c r="U67" s="1"/>
-      <c r="V67" s="1"/>
-      <c r="W67" s="1"/>
-      <c r="X67" s="1"/>
-      <c r="Y67" s="1"/>
-      <c r="Z67" s="1"/>
-      <c r="AA67" s="1"/>
-      <c r="AB67" s="1"/>
-      <c r="AC67" s="1"/>
-      <c r="AD67" s="1"/>
-      <c r="AE67" s="1"/>
-      <c r="AF67" s="1"/>
-      <c r="AG67" s="1"/>
-      <c r="AH67" s="1"/>
-      <c r="AI67" s="1"/>
-      <c r="AJ67" s="1"/>
-      <c r="AK67" s="1"/>
-      <c r="AL67" s="1"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="2"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
-      <c r="R68" s="1"/>
-      <c r="S68" s="1"/>
-      <c r="T68" s="1"/>
-      <c r="U68" s="1"/>
-      <c r="V68" s="1"/>
-      <c r="W68" s="1"/>
-      <c r="X68" s="1"/>
-      <c r="Y68" s="1"/>
-      <c r="Z68" s="1"/>
-      <c r="AA68" s="1"/>
-      <c r="AB68" s="1"/>
-      <c r="AC68" s="1"/>
-      <c r="AD68" s="1"/>
-      <c r="AE68" s="1"/>
-      <c r="AF68" s="1"/>
-      <c r="AG68" s="1"/>
-      <c r="AH68" s="1"/>
-      <c r="AI68" s="1"/>
-      <c r="AJ68" s="1"/>
-      <c r="AK68" s="1"/>
-      <c r="AL68" s="1"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="2"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
-      <c r="R69" s="1"/>
-      <c r="S69" s="1"/>
-      <c r="T69" s="1"/>
-      <c r="U69" s="1"/>
-      <c r="V69" s="1"/>
-      <c r="W69" s="1"/>
-      <c r="X69" s="1"/>
-      <c r="Y69" s="1"/>
-      <c r="Z69" s="1"/>
-      <c r="AA69" s="1"/>
-      <c r="AB69" s="1"/>
-      <c r="AC69" s="1"/>
-      <c r="AD69" s="1"/>
-      <c r="AE69" s="1"/>
-      <c r="AF69" s="1"/>
-      <c r="AG69" s="1"/>
-      <c r="AH69" s="1"/>
-      <c r="AI69" s="1"/>
-      <c r="AJ69" s="1"/>
-      <c r="AK69" s="1"/>
-      <c r="AL69" s="1"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="2"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="1"/>
-      <c r="R70" s="1"/>
-      <c r="S70" s="1"/>
-      <c r="T70" s="1"/>
-      <c r="U70" s="1"/>
-      <c r="V70" s="1"/>
-      <c r="W70" s="1"/>
-      <c r="X70" s="1"/>
-      <c r="Y70" s="1"/>
-      <c r="Z70" s="1"/>
-      <c r="AA70" s="1"/>
-      <c r="AB70" s="1"/>
-      <c r="AC70" s="1"/>
-      <c r="AD70" s="1"/>
-      <c r="AE70" s="1"/>
-      <c r="AF70" s="1"/>
-      <c r="AG70" s="1"/>
-      <c r="AH70" s="1"/>
-      <c r="AI70" s="1"/>
-      <c r="AJ70" s="1"/>
-      <c r="AK70" s="1"/>
-      <c r="AL70" s="1"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="2"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
-      <c r="R71" s="1"/>
-      <c r="S71" s="1"/>
-      <c r="T71" s="1"/>
-      <c r="U71" s="1"/>
-      <c r="V71" s="1"/>
-      <c r="W71" s="1"/>
-      <c r="X71" s="1"/>
-      <c r="Y71" s="1"/>
-      <c r="Z71" s="1"/>
-      <c r="AA71" s="1"/>
-      <c r="AB71" s="1"/>
-      <c r="AC71" s="1"/>
-      <c r="AD71" s="1"/>
-      <c r="AE71" s="1"/>
-      <c r="AF71" s="1"/>
-      <c r="AG71" s="1"/>
-      <c r="AH71" s="1"/>
-      <c r="AI71" s="1"/>
-      <c r="AJ71" s="1"/>
-      <c r="AK71" s="1"/>
-      <c r="AL71" s="1"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="2"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
-      <c r="R72" s="1"/>
-      <c r="S72" s="1"/>
-      <c r="T72" s="1"/>
-      <c r="U72" s="1"/>
-      <c r="V72" s="1"/>
-      <c r="W72" s="1"/>
-      <c r="X72" s="1"/>
-      <c r="Y72" s="1"/>
-      <c r="Z72" s="1"/>
-      <c r="AA72" s="1"/>
-      <c r="AB72" s="1"/>
-      <c r="AC72" s="1"/>
-      <c r="AD72" s="1"/>
-      <c r="AE72" s="1"/>
-      <c r="AF72" s="1"/>
-      <c r="AG72" s="1"/>
-      <c r="AH72" s="1"/>
-      <c r="AI72" s="1"/>
-      <c r="AJ72" s="1"/>
-      <c r="AK72" s="1"/>
-      <c r="AL72" s="1"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="2"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
-      <c r="R73" s="1"/>
-      <c r="S73" s="1"/>
-      <c r="T73" s="1"/>
-      <c r="U73" s="1"/>
-      <c r="V73" s="1"/>
-      <c r="W73" s="1"/>
-      <c r="X73" s="1"/>
-      <c r="Y73" s="1"/>
-      <c r="Z73" s="1"/>
-      <c r="AA73" s="1"/>
-      <c r="AB73" s="1"/>
-      <c r="AC73" s="1"/>
-      <c r="AD73" s="1"/>
-      <c r="AE73" s="1"/>
-      <c r="AF73" s="1"/>
-      <c r="AG73" s="1"/>
-      <c r="AH73" s="1"/>
-      <c r="AI73" s="1"/>
-      <c r="AJ73" s="1"/>
-      <c r="AK73" s="1"/>
-      <c r="AL73" s="1"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="2"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="1"/>
-      <c r="S74" s="1"/>
-      <c r="T74" s="1"/>
-      <c r="U74" s="1"/>
-      <c r="V74" s="1"/>
-      <c r="W74" s="1"/>
-      <c r="X74" s="1"/>
-      <c r="Y74" s="1"/>
-      <c r="Z74" s="1"/>
-      <c r="AA74" s="1"/>
-      <c r="AB74" s="1"/>
-      <c r="AC74" s="1"/>
-      <c r="AD74" s="1"/>
-      <c r="AE74" s="1"/>
-      <c r="AF74" s="1"/>
-      <c r="AG74" s="1"/>
-      <c r="AH74" s="1"/>
-      <c r="AI74" s="1"/>
-      <c r="AJ74" s="1"/>
-      <c r="AK74" s="1"/>
-      <c r="AL74" s="1"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="2"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
-      <c r="R75" s="1"/>
-      <c r="S75" s="1"/>
-      <c r="T75" s="1"/>
-      <c r="U75" s="1"/>
-      <c r="V75" s="1"/>
-      <c r="W75" s="1"/>
-      <c r="X75" s="1"/>
-      <c r="Y75" s="1"/>
-      <c r="Z75" s="1"/>
-      <c r="AA75" s="1"/>
-      <c r="AB75" s="1"/>
-      <c r="AC75" s="1"/>
-      <c r="AD75" s="1"/>
-      <c r="AE75" s="1"/>
-      <c r="AF75" s="1"/>
-      <c r="AG75" s="1"/>
-      <c r="AH75" s="1"/>
-      <c r="AI75" s="1"/>
-      <c r="AJ75" s="1"/>
-      <c r="AK75" s="1"/>
-      <c r="AL75" s="1"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="2"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
-      <c r="R76" s="1"/>
-      <c r="S76" s="1"/>
-      <c r="T76" s="1"/>
-      <c r="U76" s="1"/>
-      <c r="V76" s="1"/>
-      <c r="W76" s="1"/>
-      <c r="X76" s="1"/>
-      <c r="Y76" s="1"/>
-      <c r="Z76" s="1"/>
-      <c r="AA76" s="1"/>
-      <c r="AB76" s="1"/>
-      <c r="AC76" s="1"/>
-      <c r="AD76" s="1"/>
-      <c r="AE76" s="1"/>
-      <c r="AF76" s="1"/>
-      <c r="AG76" s="1"/>
-      <c r="AH76" s="1"/>
-      <c r="AI76" s="1"/>
-      <c r="AJ76" s="1"/>
-      <c r="AK76" s="1"/>
-      <c r="AL76" s="1"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="2"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="1"/>
-      <c r="S77" s="1"/>
-      <c r="T77" s="1"/>
-      <c r="U77" s="1"/>
-      <c r="V77" s="1"/>
-      <c r="W77" s="1"/>
-      <c r="X77" s="1"/>
-      <c r="Y77" s="1"/>
-      <c r="Z77" s="1"/>
-      <c r="AA77" s="1"/>
-      <c r="AB77" s="1"/>
-      <c r="AC77" s="1"/>
-      <c r="AD77" s="1"/>
-      <c r="AE77" s="1"/>
-      <c r="AF77" s="1"/>
-      <c r="AG77" s="1"/>
-      <c r="AH77" s="1"/>
-      <c r="AI77" s="1"/>
-      <c r="AJ77" s="1"/>
-      <c r="AK77" s="1"/>
-      <c r="AL77" s="1"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="2"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="1"/>
-      <c r="S78" s="1"/>
-      <c r="T78" s="1"/>
-      <c r="U78" s="1"/>
-      <c r="V78" s="1"/>
-      <c r="W78" s="1"/>
-      <c r="X78" s="1"/>
-      <c r="Y78" s="1"/>
-      <c r="Z78" s="1"/>
-      <c r="AA78" s="1"/>
-      <c r="AB78" s="1"/>
-      <c r="AC78" s="1"/>
-      <c r="AD78" s="1"/>
-      <c r="AE78" s="1"/>
-      <c r="AF78" s="1"/>
-      <c r="AG78" s="1"/>
-      <c r="AH78" s="1"/>
-      <c r="AI78" s="1"/>
-      <c r="AJ78" s="1"/>
-      <c r="AK78" s="1"/>
-      <c r="AL78" s="1"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="2"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
-      <c r="R79" s="1"/>
-      <c r="S79" s="1"/>
-      <c r="T79" s="1"/>
-      <c r="U79" s="1"/>
-      <c r="V79" s="1"/>
-      <c r="W79" s="1"/>
-      <c r="X79" s="1"/>
-      <c r="Y79" s="1"/>
-      <c r="Z79" s="1"/>
-      <c r="AA79" s="1"/>
-      <c r="AB79" s="1"/>
-      <c r="AC79" s="1"/>
-      <c r="AD79" s="1"/>
-      <c r="AE79" s="1"/>
-      <c r="AF79" s="1"/>
-      <c r="AG79" s="1"/>
-      <c r="AH79" s="1"/>
-      <c r="AI79" s="1"/>
-      <c r="AJ79" s="1"/>
-      <c r="AK79" s="1"/>
-      <c r="AL79" s="1"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="2"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
-      <c r="O80" s="1"/>
-      <c r="P80" s="1"/>
-      <c r="Q80" s="1"/>
-      <c r="R80" s="1"/>
-      <c r="S80" s="1"/>
-      <c r="T80" s="1"/>
-      <c r="U80" s="1"/>
-      <c r="V80" s="1"/>
-      <c r="W80" s="1"/>
-      <c r="X80" s="1"/>
-      <c r="Y80" s="1"/>
-      <c r="Z80" s="1"/>
-      <c r="AA80" s="1"/>
-      <c r="AB80" s="1"/>
-      <c r="AC80" s="1"/>
-      <c r="AD80" s="1"/>
-      <c r="AE80" s="1"/>
-      <c r="AF80" s="1"/>
-      <c r="AG80" s="1"/>
-      <c r="AH80" s="1"/>
-      <c r="AI80" s="1"/>
-      <c r="AJ80" s="1"/>
-      <c r="AK80" s="1"/>
-      <c r="AL80" s="1"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="2"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
-      <c r="P81" s="1"/>
-      <c r="Q81" s="1"/>
-      <c r="R81" s="1"/>
-      <c r="S81" s="1"/>
-      <c r="T81" s="1"/>
-      <c r="U81" s="1"/>
-      <c r="V81" s="1"/>
-      <c r="W81" s="1"/>
-      <c r="X81" s="1"/>
-      <c r="Y81" s="1"/>
-      <c r="Z81" s="1"/>
-      <c r="AA81" s="1"/>
-      <c r="AB81" s="1"/>
-      <c r="AC81" s="1"/>
-      <c r="AD81" s="1"/>
-      <c r="AE81" s="1"/>
-      <c r="AF81" s="1"/>
-      <c r="AG81" s="1"/>
-      <c r="AH81" s="1"/>
-      <c r="AI81" s="1"/>
-      <c r="AJ81" s="1"/>
-      <c r="AK81" s="1"/>
-      <c r="AL81" s="1"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="2"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
-      <c r="O82" s="1"/>
-      <c r="P82" s="1"/>
-      <c r="Q82" s="1"/>
-      <c r="R82" s="1"/>
-      <c r="S82" s="1"/>
-      <c r="T82" s="1"/>
-      <c r="U82" s="1"/>
-      <c r="V82" s="1"/>
-      <c r="W82" s="1"/>
-      <c r="X82" s="1"/>
-      <c r="Y82" s="1"/>
-      <c r="Z82" s="1"/>
-      <c r="AA82" s="1"/>
-      <c r="AB82" s="1"/>
-      <c r="AC82" s="1"/>
-      <c r="AD82" s="1"/>
-      <c r="AE82" s="1"/>
-      <c r="AF82" s="1"/>
-      <c r="AG82" s="1"/>
-      <c r="AH82" s="1"/>
-      <c r="AI82" s="1"/>
-      <c r="AJ82" s="1"/>
-      <c r="AK82" s="1"/>
-      <c r="AL82" s="1"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="2"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-      <c r="L83" s="1"/>
-      <c r="M83" s="1"/>
-      <c r="N83" s="1"/>
-      <c r="O83" s="1"/>
-      <c r="P83" s="1"/>
-      <c r="Q83" s="1"/>
-      <c r="R83" s="1"/>
-      <c r="S83" s="1"/>
-      <c r="T83" s="1"/>
-      <c r="U83" s="1"/>
-      <c r="V83" s="1"/>
-      <c r="W83" s="1"/>
-      <c r="X83" s="1"/>
-      <c r="Y83" s="1"/>
-      <c r="Z83" s="1"/>
-      <c r="AA83" s="1"/>
-      <c r="AB83" s="1"/>
-      <c r="AC83" s="1"/>
-      <c r="AD83" s="1"/>
-      <c r="AE83" s="1"/>
-      <c r="AF83" s="1"/>
-      <c r="AG83" s="1"/>
-      <c r="AH83" s="1"/>
-      <c r="AI83" s="1"/>
-      <c r="AJ83" s="1"/>
-      <c r="AK83" s="1"/>
-      <c r="AL83" s="1"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="2"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
-      <c r="N84" s="1"/>
-      <c r="O84" s="1"/>
-      <c r="P84" s="1"/>
-      <c r="Q84" s="1"/>
-      <c r="R84" s="1"/>
-      <c r="S84" s="1"/>
-      <c r="T84" s="1"/>
-      <c r="U84" s="1"/>
-      <c r="V84" s="1"/>
-      <c r="W84" s="1"/>
-      <c r="X84" s="1"/>
-      <c r="Y84" s="1"/>
-      <c r="Z84" s="1"/>
-      <c r="AA84" s="1"/>
-      <c r="AB84" s="1"/>
-      <c r="AC84" s="1"/>
-      <c r="AD84" s="1"/>
-      <c r="AE84" s="1"/>
-      <c r="AF84" s="1"/>
-      <c r="AG84" s="1"/>
-      <c r="AH84" s="1"/>
-      <c r="AI84" s="1"/>
-      <c r="AJ84" s="1"/>
-      <c r="AK84" s="1"/>
-      <c r="AL84" s="1"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="2"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
-      <c r="N85" s="1"/>
-      <c r="O85" s="1"/>
-      <c r="P85" s="1"/>
-      <c r="Q85" s="1"/>
-      <c r="R85" s="1"/>
-      <c r="S85" s="1"/>
-      <c r="T85" s="1"/>
-      <c r="U85" s="1"/>
-      <c r="V85" s="1"/>
-      <c r="W85" s="1"/>
-      <c r="X85" s="1"/>
-      <c r="Y85" s="1"/>
-      <c r="Z85" s="1"/>
-      <c r="AA85" s="1"/>
-      <c r="AB85" s="1"/>
-      <c r="AC85" s="1"/>
-      <c r="AD85" s="1"/>
-      <c r="AE85" s="1"/>
-      <c r="AF85" s="1"/>
-      <c r="AG85" s="1"/>
-      <c r="AH85" s="1"/>
-      <c r="AI85" s="1"/>
-      <c r="AJ85" s="1"/>
-      <c r="AK85" s="1"/>
-      <c r="AL85" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/data/prueba_predicc_dia_dia.xlsx
+++ b/data/prueba_predicc_dia_dia.xlsx
@@ -594,11 +594,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="910510281"/>
-        <c:axId val="951856569"/>
+        <c:axId val="1172223077"/>
+        <c:axId val="1167884333"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="910510281"/>
+        <c:axId val="1172223077"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -673,10 +673,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="951856569"/>
+        <c:crossAx val="1167884333"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="951856569"/>
+        <c:axId val="1167884333"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -751,7 +751,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="910510281"/>
+        <c:crossAx val="1172223077"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -860,11 +860,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1309753259"/>
-        <c:axId val="1254477543"/>
+        <c:axId val="489014973"/>
+        <c:axId val="656123943"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1309753259"/>
+        <c:axId val="489014973"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -939,10 +939,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1254477543"/>
+        <c:crossAx val="656123943"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1254477543"/>
+        <c:axId val="656123943"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1017,7 +1017,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1309753259"/>
+        <c:crossAx val="489014973"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4715,43 +4715,120 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="1"/>
-      <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
-      <c r="AH27" s="1"/>
-      <c r="AI27" s="1"/>
-      <c r="AJ27" s="1"/>
-      <c r="AK27" s="1"/>
-      <c r="AL27" s="1"/>
+      <c r="A27" s="2">
+        <v>45053.0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>230.0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>69.0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>197.0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>135.0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>423.0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>455.0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P27" s="1">
+        <v>77.0</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="R27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S27" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="T27" s="1">
+        <v>398.0</v>
+      </c>
+      <c r="U27" s="1">
+        <v>178.0</v>
+      </c>
+      <c r="V27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W27" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="X27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>93.0</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>437.0</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>152.0</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>78.0</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AH27" s="1">
+        <v>194.0</v>
+      </c>
+      <c r="AI27" s="1">
+        <v>579.0</v>
+      </c>
+      <c r="AJ27" s="1">
+        <v>65.0</v>
+      </c>
+      <c r="AK27" s="1">
+        <v>169.0</v>
+      </c>
+      <c r="AL27" s="1">
+        <v>226.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2"/>
@@ -4911,646 +4988,6 @@
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1"/>
       <c r="AL31" s="1"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="2"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
-      <c r="AA32" s="1"/>
-      <c r="AB32" s="1"/>
-      <c r="AC32" s="1"/>
-      <c r="AD32" s="1"/>
-      <c r="AE32" s="1"/>
-      <c r="AF32" s="1"/>
-      <c r="AG32" s="1"/>
-      <c r="AH32" s="1"/>
-      <c r="AI32" s="1"/>
-      <c r="AJ32" s="1"/>
-      <c r="AK32" s="1"/>
-      <c r="AL32" s="1"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="2"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
-      <c r="AC33" s="1"/>
-      <c r="AD33" s="1"/>
-      <c r="AE33" s="1"/>
-      <c r="AF33" s="1"/>
-      <c r="AG33" s="1"/>
-      <c r="AH33" s="1"/>
-      <c r="AI33" s="1"/>
-      <c r="AJ33" s="1"/>
-      <c r="AK33" s="1"/>
-      <c r="AL33" s="1"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="2"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
-      <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
-      <c r="AD34" s="1"/>
-      <c r="AE34" s="1"/>
-      <c r="AF34" s="1"/>
-      <c r="AG34" s="1"/>
-      <c r="AH34" s="1"/>
-      <c r="AI34" s="1"/>
-      <c r="AJ34" s="1"/>
-      <c r="AK34" s="1"/>
-      <c r="AL34" s="1"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="2"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
-      <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
-      <c r="AA35" s="1"/>
-      <c r="AB35" s="1"/>
-      <c r="AC35" s="1"/>
-      <c r="AD35" s="1"/>
-      <c r="AE35" s="1"/>
-      <c r="AF35" s="1"/>
-      <c r="AG35" s="1"/>
-      <c r="AH35" s="1"/>
-      <c r="AI35" s="1"/>
-      <c r="AJ35" s="1"/>
-      <c r="AK35" s="1"/>
-      <c r="AL35" s="1"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="2"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="1"/>
-      <c r="AB36" s="1"/>
-      <c r="AC36" s="1"/>
-      <c r="AD36" s="1"/>
-      <c r="AE36" s="1"/>
-      <c r="AF36" s="1"/>
-      <c r="AG36" s="1"/>
-      <c r="AH36" s="1"/>
-      <c r="AI36" s="1"/>
-      <c r="AJ36" s="1"/>
-      <c r="AK36" s="1"/>
-      <c r="AL36" s="1"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="2"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-      <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
-      <c r="Z37" s="1"/>
-      <c r="AA37" s="1"/>
-      <c r="AB37" s="1"/>
-      <c r="AC37" s="1"/>
-      <c r="AD37" s="1"/>
-      <c r="AE37" s="1"/>
-      <c r="AF37" s="1"/>
-      <c r="AG37" s="1"/>
-      <c r="AH37" s="1"/>
-      <c r="AI37" s="1"/>
-      <c r="AJ37" s="1"/>
-      <c r="AK37" s="1"/>
-      <c r="AL37" s="1"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="2"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-      <c r="X38" s="1"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
-      <c r="AA38" s="1"/>
-      <c r="AB38" s="1"/>
-      <c r="AC38" s="1"/>
-      <c r="AD38" s="1"/>
-      <c r="AE38" s="1"/>
-      <c r="AF38" s="1"/>
-      <c r="AG38" s="1"/>
-      <c r="AH38" s="1"/>
-      <c r="AI38" s="1"/>
-      <c r="AJ38" s="1"/>
-      <c r="AK38" s="1"/>
-      <c r="AL38" s="1"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="2"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
-      <c r="AA39" s="1"/>
-      <c r="AB39" s="1"/>
-      <c r="AC39" s="1"/>
-      <c r="AD39" s="1"/>
-      <c r="AE39" s="1"/>
-      <c r="AF39" s="1"/>
-      <c r="AG39" s="1"/>
-      <c r="AH39" s="1"/>
-      <c r="AI39" s="1"/>
-      <c r="AJ39" s="1"/>
-      <c r="AK39" s="1"/>
-      <c r="AL39" s="1"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="2"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-      <c r="X40" s="1"/>
-      <c r="Y40" s="1"/>
-      <c r="Z40" s="1"/>
-      <c r="AA40" s="1"/>
-      <c r="AB40" s="1"/>
-      <c r="AC40" s="1"/>
-      <c r="AD40" s="1"/>
-      <c r="AE40" s="1"/>
-      <c r="AF40" s="1"/>
-      <c r="AG40" s="1"/>
-      <c r="AH40" s="1"/>
-      <c r="AI40" s="1"/>
-      <c r="AJ40" s="1"/>
-      <c r="AK40" s="1"/>
-      <c r="AL40" s="1"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="2"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-      <c r="X41" s="1"/>
-      <c r="Y41" s="1"/>
-      <c r="Z41" s="1"/>
-      <c r="AA41" s="1"/>
-      <c r="AB41" s="1"/>
-      <c r="AC41" s="1"/>
-      <c r="AD41" s="1"/>
-      <c r="AE41" s="1"/>
-      <c r="AF41" s="1"/>
-      <c r="AG41" s="1"/>
-      <c r="AH41" s="1"/>
-      <c r="AI41" s="1"/>
-      <c r="AJ41" s="1"/>
-      <c r="AK41" s="1"/>
-      <c r="AL41" s="1"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="2"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
-      <c r="W42" s="1"/>
-      <c r="X42" s="1"/>
-      <c r="Y42" s="1"/>
-      <c r="Z42" s="1"/>
-      <c r="AA42" s="1"/>
-      <c r="AB42" s="1"/>
-      <c r="AC42" s="1"/>
-      <c r="AD42" s="1"/>
-      <c r="AE42" s="1"/>
-      <c r="AF42" s="1"/>
-      <c r="AG42" s="1"/>
-      <c r="AH42" s="1"/>
-      <c r="AI42" s="1"/>
-      <c r="AJ42" s="1"/>
-      <c r="AK42" s="1"/>
-      <c r="AL42" s="1"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="2"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-      <c r="X43" s="1"/>
-      <c r="Y43" s="1"/>
-      <c r="Z43" s="1"/>
-      <c r="AA43" s="1"/>
-      <c r="AB43" s="1"/>
-      <c r="AC43" s="1"/>
-      <c r="AD43" s="1"/>
-      <c r="AE43" s="1"/>
-      <c r="AF43" s="1"/>
-      <c r="AG43" s="1"/>
-      <c r="AH43" s="1"/>
-      <c r="AI43" s="1"/>
-      <c r="AJ43" s="1"/>
-      <c r="AK43" s="1"/>
-      <c r="AL43" s="1"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="2"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
-      <c r="X44" s="1"/>
-      <c r="Y44" s="1"/>
-      <c r="Z44" s="1"/>
-      <c r="AA44" s="1"/>
-      <c r="AB44" s="1"/>
-      <c r="AC44" s="1"/>
-      <c r="AD44" s="1"/>
-      <c r="AE44" s="1"/>
-      <c r="AF44" s="1"/>
-      <c r="AG44" s="1"/>
-      <c r="AH44" s="1"/>
-      <c r="AI44" s="1"/>
-      <c r="AJ44" s="1"/>
-      <c r="AK44" s="1"/>
-      <c r="AL44" s="1"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="2"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
-      <c r="W45" s="1"/>
-      <c r="X45" s="1"/>
-      <c r="Y45" s="1"/>
-      <c r="Z45" s="1"/>
-      <c r="AA45" s="1"/>
-      <c r="AB45" s="1"/>
-      <c r="AC45" s="1"/>
-      <c r="AD45" s="1"/>
-      <c r="AE45" s="1"/>
-      <c r="AF45" s="1"/>
-      <c r="AG45" s="1"/>
-      <c r="AH45" s="1"/>
-      <c r="AI45" s="1"/>
-      <c r="AJ45" s="1"/>
-      <c r="AK45" s="1"/>
-      <c r="AL45" s="1"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="2"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
-      <c r="X46" s="1"/>
-      <c r="Y46" s="1"/>
-      <c r="Z46" s="1"/>
-      <c r="AA46" s="1"/>
-      <c r="AB46" s="1"/>
-      <c r="AC46" s="1"/>
-      <c r="AD46" s="1"/>
-      <c r="AE46" s="1"/>
-      <c r="AF46" s="1"/>
-      <c r="AG46" s="1"/>
-      <c r="AH46" s="1"/>
-      <c r="AI46" s="1"/>
-      <c r="AJ46" s="1"/>
-      <c r="AK46" s="1"/>
-      <c r="AL46" s="1"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="2"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
-      <c r="X47" s="1"/>
-      <c r="Y47" s="1"/>
-      <c r="Z47" s="1"/>
-      <c r="AA47" s="1"/>
-      <c r="AB47" s="1"/>
-      <c r="AC47" s="1"/>
-      <c r="AD47" s="1"/>
-      <c r="AE47" s="1"/>
-      <c r="AF47" s="1"/>
-      <c r="AG47" s="1"/>
-      <c r="AH47" s="1"/>
-      <c r="AI47" s="1"/>
-      <c r="AJ47" s="1"/>
-      <c r="AK47" s="1"/>
-      <c r="AL47" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/data/prueba_predicc_dia_dia.xlsx
+++ b/data/prueba_predicc_dia_dia.xlsx
@@ -594,11 +594,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1172223077"/>
-        <c:axId val="1167884333"/>
+        <c:axId val="1869791901"/>
+        <c:axId val="752000874"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1172223077"/>
+        <c:axId val="1869791901"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -673,10 +673,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1167884333"/>
+        <c:crossAx val="752000874"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1167884333"/>
+        <c:axId val="752000874"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -751,7 +751,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1172223077"/>
+        <c:crossAx val="1869791901"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -860,11 +860,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="489014973"/>
-        <c:axId val="656123943"/>
+        <c:axId val="1786550344"/>
+        <c:axId val="1438709692"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="489014973"/>
+        <c:axId val="1786550344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -939,10 +939,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656123943"/>
+        <c:crossAx val="1438709692"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="656123943"/>
+        <c:axId val="1438709692"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1017,7 +1017,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489014973"/>
+        <c:crossAx val="1786550344"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4831,43 +4831,120 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
-      <c r="AE28" s="1"/>
-      <c r="AF28" s="1"/>
-      <c r="AG28" s="1"/>
-      <c r="AH28" s="1"/>
-      <c r="AI28" s="1"/>
-      <c r="AJ28" s="1"/>
-      <c r="AK28" s="1"/>
-      <c r="AL28" s="1"/>
+      <c r="A28" s="2">
+        <v>45054.0</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>227.0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>67.0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>194.0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>133.0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>416.0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>448.0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P28" s="1">
+        <v>76.0</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="R28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S28" s="1">
+        <v>78.0</v>
+      </c>
+      <c r="T28" s="1">
+        <v>392.0</v>
+      </c>
+      <c r="U28" s="1">
+        <v>176.0</v>
+      </c>
+      <c r="V28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W28" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="X28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>92.0</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>430.0</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>77.0</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH28" s="1">
+        <v>191.0</v>
+      </c>
+      <c r="AI28" s="1">
+        <v>570.0</v>
+      </c>
+      <c r="AJ28" s="1">
+        <v>64.0</v>
+      </c>
+      <c r="AK28" s="1">
+        <v>184.0</v>
+      </c>
+      <c r="AL28" s="1">
+        <v>222.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2"/>
@@ -4908,86 +4985,6 @@
       <c r="AJ29" s="1"/>
       <c r="AK29" s="1"/>
       <c r="AL29" s="1"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="2"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="1"/>
-      <c r="AB30" s="1"/>
-      <c r="AC30" s="1"/>
-      <c r="AD30" s="1"/>
-      <c r="AE30" s="1"/>
-      <c r="AF30" s="1"/>
-      <c r="AG30" s="1"/>
-      <c r="AH30" s="1"/>
-      <c r="AI30" s="1"/>
-      <c r="AJ30" s="1"/>
-      <c r="AK30" s="1"/>
-      <c r="AL30" s="1"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="2"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
-      <c r="AD31" s="1"/>
-      <c r="AE31" s="1"/>
-      <c r="AF31" s="1"/>
-      <c r="AG31" s="1"/>
-      <c r="AH31" s="1"/>
-      <c r="AI31" s="1"/>
-      <c r="AJ31" s="1"/>
-      <c r="AK31" s="1"/>
-      <c r="AL31" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/data/prueba_predicc_dia_dia.xlsx
+++ b/data/prueba_predicc_dia_dia.xlsx
@@ -1015,11 +1015,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1823108507"/>
-        <c:axId val="688416803"/>
+        <c:axId val="404532971"/>
+        <c:axId val="1412643978"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1823108507"/>
+        <c:axId val="404532971"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1094,10 +1094,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="688416803"/>
+        <c:crossAx val="1412643978"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="688416803"/>
+        <c:axId val="1412643978"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1172,7 +1172,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1823108507"/>
+        <c:crossAx val="404532971"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1281,11 +1281,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1821316577"/>
-        <c:axId val="157764416"/>
+        <c:axId val="1661885747"/>
+        <c:axId val="742499464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1821316577"/>
+        <c:axId val="1661885747"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1360,10 +1360,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157764416"/>
+        <c:crossAx val="742499464"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="157764416"/>
+        <c:axId val="742499464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1438,7 +1438,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1821316577"/>
+        <c:crossAx val="1661885747"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -5836,84 +5836,236 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
-      <c r="AC33" s="1"/>
-      <c r="AD33" s="13"/>
-      <c r="AE33" s="13"/>
-      <c r="AF33" s="13"/>
-      <c r="AG33" s="1"/>
-      <c r="AH33" s="1"/>
-      <c r="AI33" s="13"/>
-      <c r="AJ33" s="13"/>
-      <c r="AK33" s="13"/>
-      <c r="AL33" s="13"/>
+      <c r="A33" s="5">
+        <v>45059.0</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>113.0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>120.0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>103.0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>99.0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>271.0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>94.0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>517.0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>231.0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="N33" s="1">
+        <v>456.0</v>
+      </c>
+      <c r="O33" s="1">
+        <v>267.0</v>
+      </c>
+      <c r="P33" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="R33" s="1">
+        <v>311.0</v>
+      </c>
+      <c r="S33" s="1">
+        <v>189.0</v>
+      </c>
+      <c r="T33" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="U33" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="V33" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="W33" s="1">
+        <v>204.0</v>
+      </c>
+      <c r="X33" s="1">
+        <v>649.0</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>63.0</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>273.0</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>86.0</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AG33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AK33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AL33" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="5"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
-      <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
-      <c r="AD34" s="13"/>
-      <c r="AE34" s="13"/>
-      <c r="AF34" s="13"/>
-      <c r="AG34" s="1"/>
-      <c r="AH34" s="1"/>
-      <c r="AI34" s="13"/>
-      <c r="AJ34" s="13"/>
-      <c r="AK34" s="13"/>
-      <c r="AL34" s="13"/>
+      <c r="A34" s="5">
+        <v>45060.0</v>
+      </c>
+      <c r="B34" s="1">
+        <v>76.0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>122.0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>151.0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>120.0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>182.0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>123.0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>126.0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>129.0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>168.0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>526.0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>104.0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>362.0</v>
+      </c>
+      <c r="O34" s="1">
+        <v>350.0</v>
+      </c>
+      <c r="P34" s="1">
+        <v>127.0</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>96.0</v>
+      </c>
+      <c r="R34" s="1">
+        <v>268.0</v>
+      </c>
+      <c r="S34" s="1">
+        <v>93.0</v>
+      </c>
+      <c r="T34" s="1">
+        <v>59.0</v>
+      </c>
+      <c r="U34" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="V34" s="1">
+        <v>78.0</v>
+      </c>
+      <c r="W34" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="X34" s="1">
+        <v>583.0</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>92.0</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>243.0</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AG34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AK34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AL34" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="5"/>

--- a/data/prueba_predicc_dia_dia.xlsx
+++ b/data/prueba_predicc_dia_dia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/Desktop/adri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41A6A3BB-2486-4B6A-8441-9B61B741544E}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0C43F0D-0AB4-4D0F-A0BE-9C7C935E0484}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-6315" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="187">
   <si>
     <t>Code</t>
   </si>
@@ -499,6 +499,114 @@
   <si>
     <t>a restar</t>
   </si>
+  <si>
+    <t xml:space="preserve">Ukraine 🇺🇦 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands 🇳🇱 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greece 🇬🇷 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy 🇮🇹 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland 🇨🇭 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armenia 🇦🇲 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithuania 🇱🇹 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium 🇧🇪 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatia 🇭🇷 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">France 🇫🇷 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom 🇬🇧 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria 🇦🇹 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ireland 🇮🇪 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain 🇪🇸 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway 🇳🇴 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden 🇸🇪 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia 🇬🇪 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finland 🇫🇮 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denmark 🇩🇰 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland 🇵🇱 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan 🇦🇿 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovenia 🇸🇮 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyprus 🇨🇾 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbia 🇷🇸 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonia 🇪🇪 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany 🇩🇪 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latvia 🇱🇻 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia 🇦🇺 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moldova 🇲🇩 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal 🇵🇹 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czechia 🇨🇿 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albania 🇦🇱 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxemburgo 🇱🇺 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malta 🇲🇹 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iceland 🇮🇸 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Marino 🇸🇲 </t>
+  </si>
 </sst>
 </file>
 
@@ -907,15 +1015,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -949,6 +1048,15 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2038,7 +2146,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45390.742655208334" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45390.764806481478" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="H1:L37" sheet="Hoja 3"/>
   </cacheSource>
@@ -3124,7 +3232,7 @@
   <dimension ref="A1:AL839"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3134,112 +3242,112 @@
         <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="D1" t="s">
-        <v>90</v>
+        <v>152</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>153</v>
       </c>
       <c r="F1" t="s">
-        <v>57</v>
+        <v>154</v>
       </c>
       <c r="G1" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="I1" t="s">
-        <v>61</v>
+        <v>157</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="K1" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="L1" t="s">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="M1" t="s">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="N1" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="O1" t="s">
-        <v>53</v>
+        <v>163</v>
       </c>
       <c r="P1" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="Q1" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="R1" t="s">
-        <v>87</v>
+        <v>166</v>
       </c>
       <c r="S1" t="s">
-        <v>43</v>
+        <v>167</v>
       </c>
       <c r="T1" t="s">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="U1" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="V1" t="s">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="W1" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="X1" t="s">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c r="Y1" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="Z1" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="AA1" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="AB1" t="s">
-        <v>45</v>
+        <v>176</v>
       </c>
       <c r="AC1" t="s">
-        <v>59</v>
+        <v>177</v>
       </c>
       <c r="AD1" t="s">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c r="AE1" t="s">
-        <v>65</v>
+        <v>179</v>
       </c>
       <c r="AF1" t="s">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="AG1" t="s">
-        <v>33</v>
+        <v>181</v>
       </c>
       <c r="AH1" t="s">
-        <v>9</v>
+        <v>182</v>
       </c>
       <c r="AI1" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AJ1" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="AK1" t="s">
-        <v>51</v>
+        <v>185</v>
       </c>
       <c r="AL1" t="s">
-        <v>81</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:38">
@@ -3388,15 +3496,15 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
     </row>
     <row r="4" spans="1:38">
       <c r="A4" s="2"/>
@@ -36851,7 +36959,7 @@
   <dimension ref="A1:BD165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -36864,15 +36972,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="13.8">
-      <c r="A1" s="48">
+      <c r="A1" s="61">
         <v>45056.999305555553</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
       <c r="H1" s="6"/>
       <c r="I1" s="7" t="s">
         <v>0</v>
@@ -38188,15 +38296,15 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="13.8">
-      <c r="A43" s="50">
+      <c r="A43" s="63">
         <v>45057.5</v>
       </c>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="52"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="65"/>
       <c r="I43" s="6">
         <v>43</v>
       </c>
@@ -39146,15 +39254,15 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="13.2">
-      <c r="A85" s="50">
+      <c r="A85" s="63">
         <v>45057.999305555553</v>
       </c>
-      <c r="B85" s="51"/>
-      <c r="C85" s="51"/>
-      <c r="D85" s="51"/>
-      <c r="E85" s="51"/>
-      <c r="F85" s="51"/>
-      <c r="G85" s="52"/>
+      <c r="B85" s="64"/>
+      <c r="C85" s="64"/>
+      <c r="D85" s="64"/>
+      <c r="E85" s="64"/>
+      <c r="F85" s="64"/>
+      <c r="G85" s="65"/>
     </row>
     <row r="86" spans="1:7" ht="15.75" customHeight="1">
       <c r="A86" s="20" t="s">
@@ -40068,15 +40176,15 @@
       </c>
     </row>
     <row r="127" spans="1:10" ht="13.2">
-      <c r="A127" s="50">
+      <c r="A127" s="63">
         <v>45058.5</v>
       </c>
-      <c r="B127" s="51"/>
-      <c r="C127" s="51"/>
-      <c r="D127" s="51"/>
-      <c r="E127" s="51"/>
-      <c r="F127" s="51"/>
-      <c r="G127" s="52"/>
+      <c r="B127" s="64"/>
+      <c r="C127" s="64"/>
+      <c r="D127" s="64"/>
+      <c r="E127" s="64"/>
+      <c r="F127" s="64"/>
+      <c r="G127" s="65"/>
     </row>
     <row r="128" spans="1:10" ht="15.75" customHeight="1">
       <c r="A128" s="26" t="s">
@@ -41463,19 +41571,19 @@
   <dimension ref="A1:AX40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:AX2"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:50" ht="13.8">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="58" t="s">
         <v>150</v>
       </c>
       <c r="N1" t="s">
@@ -41591,13 +41699,13 @@
       </c>
     </row>
     <row r="2" spans="1:50" ht="13.8">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="56">
+      <c r="B2" s="51">
         <v>601</v>
       </c>
-      <c r="C2" s="64">
+      <c r="C2" s="59">
         <f>B2/4292</f>
         <v>0.14002795899347623</v>
       </c>
@@ -41613,7 +41721,7 @@
         <f>ROUND(E2,0)</f>
         <v>454</v>
       </c>
-      <c r="G2" s="63">
+      <c r="G2" s="58">
         <f>F2+9</f>
         <v>463</v>
       </c>
@@ -41736,13 +41844,13 @@
       </c>
     </row>
     <row r="3" spans="1:50" ht="13.8">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="58">
+      <c r="B3" s="53">
         <v>526</v>
       </c>
-      <c r="C3" s="64">
+      <c r="C3" s="59">
         <f t="shared" ref="C3:C38" si="0">B3/4292</f>
         <v>0.12255358807082944</v>
       </c>
@@ -41758,7 +41866,7 @@
         <f t="shared" ref="F3:F38" si="3">ROUND(E3,0)</f>
         <v>397</v>
       </c>
-      <c r="G3" s="63">
+      <c r="G3" s="58">
         <f>F3+9</f>
         <v>406</v>
       </c>
@@ -41770,13 +41878,13 @@
       </c>
     </row>
     <row r="4" spans="1:50" ht="27.6">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="60">
+      <c r="B4" s="55">
         <v>424</v>
       </c>
-      <c r="C4" s="64">
+      <c r="C4" s="59">
         <f t="shared" si="0"/>
         <v>9.8788443616029828E-2</v>
       </c>
@@ -41792,7 +41900,7 @@
         <f t="shared" si="3"/>
         <v>320</v>
       </c>
-      <c r="G4" s="63">
+      <c r="G4" s="58">
         <f>F4+25</f>
         <v>345</v>
       </c>
@@ -41804,13 +41912,13 @@
       </c>
     </row>
     <row r="5" spans="1:50" ht="13.8">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="62">
+      <c r="B5" s="57">
         <v>384</v>
       </c>
-      <c r="C5" s="64">
+      <c r="C5" s="59">
         <f t="shared" si="0"/>
         <v>8.9468779123951542E-2</v>
       </c>
@@ -41826,8 +41934,8 @@
         <f t="shared" si="3"/>
         <v>290</v>
       </c>
-      <c r="G5" s="63">
-        <f t="shared" ref="G3:G39" si="4">F5+9</f>
+      <c r="G5" s="58">
+        <f t="shared" ref="G5:G26" si="4">F5+9</f>
         <v>299</v>
       </c>
       <c r="J5" t="s">
@@ -41838,13 +41946,13 @@
       </c>
     </row>
     <row r="6" spans="1:50" ht="13.8">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="62">
+      <c r="B6" s="57">
         <v>368</v>
       </c>
-      <c r="C6" s="64">
+      <c r="C6" s="59">
         <f t="shared" si="0"/>
         <v>8.5740913327120222E-2</v>
       </c>
@@ -41860,7 +41968,7 @@
         <f t="shared" si="3"/>
         <v>278</v>
       </c>
-      <c r="G6" s="63">
+      <c r="G6" s="58">
         <f>F6+15</f>
         <v>293</v>
       </c>
@@ -41872,13 +41980,13 @@
       </c>
     </row>
     <row r="7" spans="1:50" ht="27.6">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="62">
+      <c r="B7" s="57">
         <v>366</v>
       </c>
-      <c r="C7" s="64">
+      <c r="C7" s="59">
         <f t="shared" si="0"/>
         <v>8.5274930102516314E-2</v>
       </c>
@@ -41894,7 +42002,7 @@
         <f t="shared" si="3"/>
         <v>276</v>
       </c>
-      <c r="G7" s="63">
+      <c r="G7" s="58">
         <f t="shared" si="4"/>
         <v>285</v>
       </c>
@@ -41906,13 +42014,13 @@
       </c>
     </row>
     <row r="8" spans="1:50" ht="13.8">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="62">
+      <c r="B8" s="57">
         <v>298</v>
       </c>
-      <c r="C8" s="64">
+      <c r="C8" s="59">
         <f t="shared" si="0"/>
         <v>6.9431500465983231E-2</v>
       </c>
@@ -41928,7 +42036,7 @@
         <f t="shared" si="3"/>
         <v>225</v>
       </c>
-      <c r="G8" s="63">
+      <c r="G8" s="58">
         <f t="shared" si="4"/>
         <v>234</v>
       </c>
@@ -41940,13 +42048,13 @@
       </c>
     </row>
     <row r="9" spans="1:50" ht="13.8">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="62">
+      <c r="B9" s="57">
         <v>292</v>
       </c>
-      <c r="C9" s="64">
+      <c r="C9" s="59">
         <f t="shared" si="0"/>
         <v>6.8033550792171479E-2</v>
       </c>
@@ -41962,7 +42070,7 @@
         <f t="shared" si="3"/>
         <v>220</v>
       </c>
-      <c r="G9" s="63">
+      <c r="G9" s="58">
         <f t="shared" si="4"/>
         <v>229</v>
       </c>
@@ -41974,13 +42082,13 @@
       </c>
     </row>
     <row r="10" spans="1:50" ht="13.8">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="62">
+      <c r="B10" s="57">
         <v>270</v>
       </c>
-      <c r="C10" s="64">
+      <c r="C10" s="59">
         <f t="shared" si="0"/>
         <v>6.2907735321528421E-2</v>
       </c>
@@ -41996,7 +42104,7 @@
         <f t="shared" si="3"/>
         <v>204</v>
       </c>
-      <c r="G10" s="63">
+      <c r="G10" s="58">
         <f t="shared" si="4"/>
         <v>213</v>
       </c>
@@ -42008,13 +42116,13 @@
       </c>
     </row>
     <row r="11" spans="1:50" ht="13.8">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="62">
+      <c r="B11" s="57">
         <v>266</v>
       </c>
-      <c r="C11" s="64">
+      <c r="C11" s="59">
         <f t="shared" si="0"/>
         <v>6.1975768872320598E-2</v>
       </c>
@@ -42030,7 +42138,7 @@
         <f t="shared" si="3"/>
         <v>201</v>
       </c>
-      <c r="G11" s="63">
+      <c r="G11" s="58">
         <f>F11+15</f>
         <v>216</v>
       </c>
@@ -42042,13 +42150,13 @@
       </c>
     </row>
     <row r="12" spans="1:50" ht="13.8">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="54">
+      <c r="B12" s="49">
         <v>245</v>
       </c>
-      <c r="C12" s="64">
+      <c r="C12" s="59">
         <f t="shared" si="0"/>
         <v>5.7082945013979494E-2</v>
       </c>
@@ -42064,7 +42172,7 @@
         <f t="shared" si="3"/>
         <v>185</v>
       </c>
-      <c r="G12" s="63">
+      <c r="G12" s="58">
         <f t="shared" si="4"/>
         <v>194</v>
       </c>
@@ -42076,13 +42184,13 @@
       </c>
     </row>
     <row r="13" spans="1:50" ht="27.6">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="54">
+      <c r="B13" s="49">
         <v>168</v>
       </c>
-      <c r="C13" s="64">
+      <c r="C13" s="59">
         <f t="shared" si="0"/>
         <v>3.9142590866728798E-2</v>
       </c>
@@ -42098,7 +42206,7 @@
         <f t="shared" si="3"/>
         <v>127</v>
       </c>
-      <c r="G13" s="63">
+      <c r="G13" s="58">
         <f t="shared" si="4"/>
         <v>136</v>
       </c>
@@ -42110,13 +42218,13 @@
       </c>
     </row>
     <row r="14" spans="1:50" ht="13.8">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="54">
+      <c r="B14" s="49">
         <v>152</v>
       </c>
-      <c r="C14" s="64">
+      <c r="C14" s="59">
         <f t="shared" si="0"/>
         <v>3.5414725069897485E-2</v>
       </c>
@@ -42132,7 +42240,7 @@
         <f t="shared" si="3"/>
         <v>115</v>
       </c>
-      <c r="G14" s="63">
+      <c r="G14" s="58">
         <f t="shared" si="4"/>
         <v>124</v>
       </c>
@@ -42144,13 +42252,13 @@
       </c>
     </row>
     <row r="15" spans="1:50" ht="13.8">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="54">
+      <c r="B15" s="49">
         <v>147</v>
       </c>
-      <c r="C15" s="64">
+      <c r="C15" s="59">
         <f t="shared" si="0"/>
         <v>3.4249767008387701E-2</v>
       </c>
@@ -42166,7 +42274,7 @@
         <f t="shared" si="3"/>
         <v>111</v>
       </c>
-      <c r="G15" s="63">
+      <c r="G15" s="58">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
@@ -42178,13 +42286,13 @@
       </c>
     </row>
     <row r="16" spans="1:50" ht="13.8">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="54">
+      <c r="B16" s="49">
         <v>147</v>
       </c>
-      <c r="C16" s="64">
+      <c r="C16" s="59">
         <f t="shared" si="0"/>
         <v>3.4249767008387701E-2</v>
       </c>
@@ -42200,7 +42308,7 @@
         <f t="shared" si="3"/>
         <v>111</v>
       </c>
-      <c r="G16" s="63">
+      <c r="G16" s="58">
         <f>F16+12</f>
         <v>123</v>
       </c>
@@ -42212,13 +42320,13 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="13.8">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="54">
+      <c r="B17" s="49">
         <v>144</v>
       </c>
-      <c r="C17" s="64">
+      <c r="C17" s="59">
         <f t="shared" si="0"/>
         <v>3.3550792171481825E-2</v>
       </c>
@@ -42234,7 +42342,7 @@
         <f t="shared" si="3"/>
         <v>109</v>
       </c>
-      <c r="G17" s="63">
+      <c r="G17" s="58">
         <f t="shared" si="4"/>
         <v>118</v>
       </c>
@@ -42246,13 +42354,13 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="13.8">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="54">
+      <c r="B18" s="49">
         <v>139</v>
       </c>
-      <c r="C18" s="64">
+      <c r="C18" s="59">
         <f t="shared" si="0"/>
         <v>3.2385834109972041E-2</v>
       </c>
@@ -42268,7 +42376,7 @@
         <f t="shared" si="3"/>
         <v>105</v>
       </c>
-      <c r="G18" s="63">
+      <c r="G18" s="58">
         <f>F18+11</f>
         <v>116</v>
       </c>
@@ -42280,13 +42388,13 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="13.8">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="54">
+      <c r="B19" s="49">
         <v>134</v>
       </c>
-      <c r="C19" s="64">
+      <c r="C19" s="59">
         <f t="shared" si="0"/>
         <v>3.1220876048462257E-2</v>
       </c>
@@ -42302,7 +42410,7 @@
         <f t="shared" si="3"/>
         <v>101</v>
       </c>
-      <c r="G19" s="63">
+      <c r="G19" s="58">
         <f t="shared" si="4"/>
         <v>110</v>
       </c>
@@ -42314,13 +42422,13 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="13.8">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="54">
+      <c r="B20" s="49">
         <v>81</v>
       </c>
-      <c r="C20" s="64">
+      <c r="C20" s="59">
         <f t="shared" si="0"/>
         <v>1.8872320596458526E-2</v>
       </c>
@@ -42336,7 +42444,7 @@
         <f t="shared" si="3"/>
         <v>61</v>
       </c>
-      <c r="G20" s="63">
+      <c r="G20" s="58">
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
@@ -42348,13 +42456,13 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="13.8">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="54">
+      <c r="B21" s="49">
         <v>45</v>
       </c>
-      <c r="C21" s="64">
+      <c r="C21" s="59">
         <f t="shared" si="0"/>
         <v>1.048462255358807E-2</v>
       </c>
@@ -42370,7 +42478,7 @@
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="G21" s="63">
+      <c r="G21" s="58">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
@@ -42382,13 +42490,13 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="13.8">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="54">
+      <c r="B22" s="49">
         <v>42</v>
       </c>
-      <c r="C22" s="64">
+      <c r="C22" s="59">
         <f t="shared" si="0"/>
         <v>9.7856477166821994E-3</v>
       </c>
@@ -42404,7 +42512,7 @@
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="G22" s="63">
+      <c r="G22" s="58">
         <f t="shared" si="4"/>
         <v>41</v>
       </c>
@@ -42416,13 +42524,13 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="13.8">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="54">
+      <c r="B23" s="49">
         <v>36</v>
       </c>
-      <c r="C23" s="64">
+      <c r="C23" s="59">
         <f t="shared" si="0"/>
         <v>8.3876980428704562E-3</v>
       </c>
@@ -42438,7 +42546,7 @@
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="G23" s="63">
+      <c r="G23" s="58">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
@@ -42450,13 +42558,13 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="13.8">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="54">
+      <c r="B24" s="49">
         <v>31</v>
       </c>
-      <c r="C24" s="64">
+      <c r="C24" s="59">
         <f t="shared" si="0"/>
         <v>7.2227399813606713E-3</v>
       </c>
@@ -42472,7 +42580,7 @@
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="G24" s="63">
+      <c r="G24" s="58">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
@@ -42484,13 +42592,13 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="13.8">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="54">
+      <c r="B25" s="49">
         <v>25</v>
       </c>
-      <c r="C25" s="64">
+      <c r="C25" s="59">
         <f t="shared" si="0"/>
         <v>5.824790307548928E-3</v>
       </c>
@@ -42506,7 +42614,7 @@
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="G25" s="63">
+      <c r="G25" s="58">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
@@ -42518,13 +42626,13 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="13.8">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="54">
+      <c r="B26" s="49">
         <v>12</v>
       </c>
-      <c r="C26" s="64">
+      <c r="C26" s="59">
         <f t="shared" si="0"/>
         <v>2.7958993476234857E-3</v>
       </c>
@@ -42540,7 +42648,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="G26" s="63">
+      <c r="G26" s="58">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
@@ -42552,13 +42660,13 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="13.8">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="54">
+      <c r="B27" s="49">
         <v>0</v>
       </c>
-      <c r="C27" s="64">
+      <c r="C27" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -42574,7 +42682,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G27" s="63">
+      <c r="G27" s="58">
         <v>0</v>
       </c>
       <c r="J27" t="s">
@@ -42585,13 +42693,13 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="13.8">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="54">
+      <c r="B28" s="49">
         <v>0</v>
       </c>
-      <c r="C28" s="64">
+      <c r="C28" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -42607,7 +42715,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G28" s="63">
+      <c r="G28" s="58">
         <v>0</v>
       </c>
       <c r="J28" t="s">
@@ -42618,13 +42726,13 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="13.8">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="54">
+      <c r="B29" s="49">
         <v>0</v>
       </c>
-      <c r="C29" s="64">
+      <c r="C29" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -42640,7 +42748,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G29" s="63">
+      <c r="G29" s="58">
         <v>0</v>
       </c>
       <c r="J29" t="s">
@@ -42651,13 +42759,13 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="13.8">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="54">
+      <c r="B30" s="49">
         <v>0</v>
       </c>
-      <c r="C30" s="64">
+      <c r="C30" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -42673,7 +42781,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G30" s="63">
+      <c r="G30" s="58">
         <v>0</v>
       </c>
       <c r="J30" t="s">
@@ -42684,13 +42792,13 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="13.8">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="54">
+      <c r="B31" s="49">
         <v>0</v>
       </c>
-      <c r="C31" s="64">
+      <c r="C31" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -42706,7 +42814,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G31" s="63">
+      <c r="G31" s="58">
         <v>0</v>
       </c>
       <c r="J31" t="s">
@@ -42717,13 +42825,13 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="13.8">
-      <c r="A32" s="53" t="s">
+      <c r="A32" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="54">
+      <c r="B32" s="49">
         <v>0</v>
       </c>
-      <c r="C32" s="64">
+      <c r="C32" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -42739,7 +42847,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G32" s="63">
+      <c r="G32" s="58">
         <v>0</v>
       </c>
       <c r="J32" t="s">
@@ -42750,13 +42858,13 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="13.8">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="54">
+      <c r="B33" s="49">
         <v>0</v>
       </c>
-      <c r="C33" s="64">
+      <c r="C33" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -42772,7 +42880,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G33" s="63">
+      <c r="G33" s="58">
         <v>0</v>
       </c>
       <c r="J33" t="s">
@@ -42783,13 +42891,13 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="13.8">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="54">
+      <c r="B34" s="49">
         <v>0</v>
       </c>
-      <c r="C34" s="64">
+      <c r="C34" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -42805,7 +42913,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G34" s="63">
+      <c r="G34" s="58">
         <v>0</v>
       </c>
       <c r="J34" t="s">
@@ -42816,13 +42924,13 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="27.6">
-      <c r="A35" s="53" t="s">
+      <c r="A35" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="B35" s="54">
+      <c r="B35" s="49">
         <v>0</v>
       </c>
-      <c r="C35" s="64">
+      <c r="C35" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -42838,7 +42946,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G35" s="63">
+      <c r="G35" s="58">
         <v>0</v>
       </c>
       <c r="J35" t="s">
@@ -42849,13 +42957,13 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="13.8">
-      <c r="A36" s="53" t="s">
+      <c r="A36" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="54">
+      <c r="B36" s="49">
         <v>0</v>
       </c>
-      <c r="C36" s="64">
+      <c r="C36" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -42871,7 +42979,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G36" s="63">
+      <c r="G36" s="58">
         <v>0</v>
       </c>
       <c r="J36" t="s">
@@ -42882,13 +42990,13 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="13.8">
-      <c r="A37" s="53" t="s">
+      <c r="A37" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="54">
+      <c r="B37" s="49">
         <v>0</v>
       </c>
-      <c r="C37" s="64">
+      <c r="C37" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -42904,7 +43012,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G37" s="63">
+      <c r="G37" s="58">
         <v>0</v>
       </c>
       <c r="J37" t="s">
@@ -42915,13 +43023,13 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="27.6">
-      <c r="A38" s="53" t="s">
+      <c r="A38" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="B38" s="54">
+      <c r="B38" s="49">
         <v>0</v>
       </c>
-      <c r="C38" s="64">
+      <c r="C38" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -42937,7 +43045,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G38" s="63">
+      <c r="G38" s="58">
         <v>0</v>
       </c>
       <c r="J38" t="s">
@@ -42952,7 +43060,7 @@
         <f>SUM(B2:B38)</f>
         <v>5343</v>
       </c>
-      <c r="C39" s="63">
+      <c r="C39" s="58">
         <v>4292</v>
       </c>
       <c r="D39">
@@ -42963,13 +43071,13 @@
         <f>SUM(F2:F38)</f>
         <v>4034</v>
       </c>
-      <c r="G39" s="63">
+      <c r="G39" s="58">
         <f>SUM(G2:G38)</f>
         <v>4292</v>
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="F40" s="65">
+      <c r="F40" s="60">
         <f>C39-F39</f>
         <v>258</v>
       </c>

--- a/data/prueba_predicc_dia_dia.xlsx
+++ b/data/prueba_predicc_dia_dia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/Desktop/adri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0C43F0D-0AB4-4D0F-A0BE-9C7C935E0484}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22083187-970E-4121-89F7-2E9BF0577979}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-6315" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="151">
   <si>
     <t>Code</t>
   </si>
@@ -498,114 +498,6 @@
   </si>
   <si>
     <t>a restar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ukraine 🇺🇦 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netherlands 🇳🇱 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greece 🇬🇷 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy 🇮🇹 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland 🇨🇭 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armenia 🇦🇲 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lithuania 🇱🇹 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belgium 🇧🇪 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Croatia 🇭🇷 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">France 🇫🇷 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom 🇬🇧 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austria 🇦🇹 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ireland 🇮🇪 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain 🇪🇸 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norway 🇳🇴 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweden 🇸🇪 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgia 🇬🇪 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finland 🇫🇮 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denmark 🇩🇰 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poland 🇵🇱 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azerbaijan 🇦🇿 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovenia 🇸🇮 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyprus 🇨🇾 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serbia 🇷🇸 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estonia 🇪🇪 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany 🇩🇪 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latvia 🇱🇻 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australia 🇦🇺 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moldova 🇲🇩 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portugal 🇵🇹 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Czechia 🇨🇿 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Albania 🇦🇱 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luxemburgo 🇱🇺 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malta 🇲🇹 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iceland 🇮🇸 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Marino 🇸🇲 </t>
   </si>
 </sst>
 </file>
@@ -2146,7 +2038,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45390.764806481478" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45390.774462499998" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="H1:L37" sheet="Hoja 3"/>
   </cacheSource>
@@ -3229,125 +3121,125 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL839"/>
+  <dimension ref="A1:AL796"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:38">
-      <c r="B1" t="s">
+      <c r="B1" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="C1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J1" t="s">
-        <v>158</v>
-      </c>
-      <c r="K1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L1" t="s">
-        <v>160</v>
-      </c>
-      <c r="M1" t="s">
-        <v>161</v>
-      </c>
-      <c r="N1" t="s">
-        <v>162</v>
-      </c>
-      <c r="O1" t="s">
-        <v>163</v>
-      </c>
-      <c r="P1" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>165</v>
-      </c>
-      <c r="R1" t="s">
-        <v>166</v>
-      </c>
-      <c r="S1" t="s">
-        <v>167</v>
-      </c>
-      <c r="T1" t="s">
-        <v>168</v>
-      </c>
-      <c r="U1" t="s">
-        <v>169</v>
-      </c>
-      <c r="V1" t="s">
-        <v>170</v>
-      </c>
-      <c r="W1" t="s">
-        <v>171</v>
-      </c>
-      <c r="X1" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>186</v>
+      <c r="C1" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q1" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="W1" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y1" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA1" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB1" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD1" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE1" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF1" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG1" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH1" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI1" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ1" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK1" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL1" s="48" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:38">
@@ -35225,1726 +35117,6 @@
       <c r="AJ796" s="5"/>
       <c r="AK796" s="5"/>
       <c r="AL796" s="5"/>
-    </row>
-    <row r="797" spans="1:38">
-      <c r="A797" s="2"/>
-      <c r="B797" s="1"/>
-      <c r="C797" s="1"/>
-      <c r="D797" s="1"/>
-      <c r="E797" s="1"/>
-      <c r="F797" s="1"/>
-      <c r="G797" s="1"/>
-      <c r="H797" s="1"/>
-      <c r="I797" s="1"/>
-      <c r="J797" s="1"/>
-      <c r="K797" s="1"/>
-      <c r="L797" s="1"/>
-      <c r="M797" s="1"/>
-      <c r="N797" s="1"/>
-      <c r="O797" s="1"/>
-      <c r="P797" s="1"/>
-      <c r="Q797" s="1"/>
-      <c r="R797" s="1"/>
-      <c r="S797" s="1"/>
-      <c r="T797" s="1"/>
-      <c r="U797" s="1"/>
-      <c r="V797" s="1"/>
-      <c r="W797" s="1"/>
-      <c r="X797" s="1"/>
-      <c r="Y797" s="1"/>
-      <c r="Z797" s="1"/>
-      <c r="AA797" s="1"/>
-      <c r="AB797" s="1"/>
-      <c r="AC797" s="1"/>
-      <c r="AD797" s="5"/>
-      <c r="AE797" s="5"/>
-      <c r="AF797" s="5"/>
-      <c r="AG797" s="1"/>
-      <c r="AH797" s="1"/>
-      <c r="AI797" s="5"/>
-      <c r="AJ797" s="5"/>
-      <c r="AK797" s="5"/>
-      <c r="AL797" s="5"/>
-    </row>
-    <row r="798" spans="1:38">
-      <c r="A798" s="2"/>
-      <c r="B798" s="1"/>
-      <c r="C798" s="1"/>
-      <c r="D798" s="1"/>
-      <c r="E798" s="1"/>
-      <c r="F798" s="1"/>
-      <c r="G798" s="1"/>
-      <c r="H798" s="1"/>
-      <c r="I798" s="1"/>
-      <c r="J798" s="1"/>
-      <c r="K798" s="1"/>
-      <c r="L798" s="1"/>
-      <c r="M798" s="1"/>
-      <c r="N798" s="1"/>
-      <c r="O798" s="1"/>
-      <c r="P798" s="1"/>
-      <c r="Q798" s="1"/>
-      <c r="R798" s="1"/>
-      <c r="S798" s="1"/>
-      <c r="T798" s="1"/>
-      <c r="U798" s="1"/>
-      <c r="V798" s="1"/>
-      <c r="W798" s="1"/>
-      <c r="X798" s="1"/>
-      <c r="Y798" s="1"/>
-      <c r="Z798" s="1"/>
-      <c r="AA798" s="1"/>
-      <c r="AB798" s="1"/>
-      <c r="AC798" s="1"/>
-      <c r="AD798" s="5"/>
-      <c r="AE798" s="5"/>
-      <c r="AF798" s="5"/>
-      <c r="AG798" s="1"/>
-      <c r="AH798" s="1"/>
-      <c r="AI798" s="5"/>
-      <c r="AJ798" s="5"/>
-      <c r="AK798" s="5"/>
-      <c r="AL798" s="5"/>
-    </row>
-    <row r="799" spans="1:38">
-      <c r="A799" s="2"/>
-      <c r="B799" s="1"/>
-      <c r="C799" s="1"/>
-      <c r="D799" s="1"/>
-      <c r="E799" s="1"/>
-      <c r="F799" s="1"/>
-      <c r="G799" s="1"/>
-      <c r="H799" s="1"/>
-      <c r="I799" s="1"/>
-      <c r="J799" s="1"/>
-      <c r="K799" s="1"/>
-      <c r="L799" s="1"/>
-      <c r="M799" s="1"/>
-      <c r="N799" s="1"/>
-      <c r="O799" s="1"/>
-      <c r="P799" s="1"/>
-      <c r="Q799" s="1"/>
-      <c r="R799" s="1"/>
-      <c r="S799" s="1"/>
-      <c r="T799" s="1"/>
-      <c r="U799" s="1"/>
-      <c r="V799" s="1"/>
-      <c r="W799" s="1"/>
-      <c r="X799" s="1"/>
-      <c r="Y799" s="1"/>
-      <c r="Z799" s="1"/>
-      <c r="AA799" s="1"/>
-      <c r="AB799" s="1"/>
-      <c r="AC799" s="1"/>
-      <c r="AD799" s="5"/>
-      <c r="AE799" s="5"/>
-      <c r="AF799" s="5"/>
-      <c r="AG799" s="1"/>
-      <c r="AH799" s="1"/>
-      <c r="AI799" s="5"/>
-      <c r="AJ799" s="5"/>
-      <c r="AK799" s="5"/>
-      <c r="AL799" s="5"/>
-    </row>
-    <row r="800" spans="1:38">
-      <c r="A800" s="2"/>
-      <c r="B800" s="1"/>
-      <c r="C800" s="1"/>
-      <c r="D800" s="1"/>
-      <c r="E800" s="1"/>
-      <c r="F800" s="1"/>
-      <c r="G800" s="1"/>
-      <c r="H800" s="1"/>
-      <c r="I800" s="1"/>
-      <c r="J800" s="1"/>
-      <c r="K800" s="1"/>
-      <c r="L800" s="1"/>
-      <c r="M800" s="1"/>
-      <c r="N800" s="1"/>
-      <c r="O800" s="1"/>
-      <c r="P800" s="1"/>
-      <c r="Q800" s="1"/>
-      <c r="R800" s="1"/>
-      <c r="S800" s="1"/>
-      <c r="T800" s="1"/>
-      <c r="U800" s="1"/>
-      <c r="V800" s="1"/>
-      <c r="W800" s="1"/>
-      <c r="X800" s="1"/>
-      <c r="Y800" s="1"/>
-      <c r="Z800" s="1"/>
-      <c r="AA800" s="1"/>
-      <c r="AB800" s="1"/>
-      <c r="AC800" s="1"/>
-      <c r="AD800" s="5"/>
-      <c r="AE800" s="5"/>
-      <c r="AF800" s="5"/>
-      <c r="AG800" s="1"/>
-      <c r="AH800" s="1"/>
-      <c r="AI800" s="5"/>
-      <c r="AJ800" s="5"/>
-      <c r="AK800" s="5"/>
-      <c r="AL800" s="5"/>
-    </row>
-    <row r="801" spans="1:38">
-      <c r="A801" s="2"/>
-      <c r="B801" s="1"/>
-      <c r="C801" s="1"/>
-      <c r="D801" s="1"/>
-      <c r="E801" s="1"/>
-      <c r="F801" s="1"/>
-      <c r="G801" s="1"/>
-      <c r="H801" s="1"/>
-      <c r="I801" s="1"/>
-      <c r="J801" s="1"/>
-      <c r="K801" s="1"/>
-      <c r="L801" s="1"/>
-      <c r="M801" s="1"/>
-      <c r="N801" s="1"/>
-      <c r="O801" s="1"/>
-      <c r="P801" s="1"/>
-      <c r="Q801" s="1"/>
-      <c r="R801" s="1"/>
-      <c r="S801" s="1"/>
-      <c r="T801" s="1"/>
-      <c r="U801" s="1"/>
-      <c r="V801" s="1"/>
-      <c r="W801" s="1"/>
-      <c r="X801" s="1"/>
-      <c r="Y801" s="1"/>
-      <c r="Z801" s="1"/>
-      <c r="AA801" s="1"/>
-      <c r="AB801" s="1"/>
-      <c r="AC801" s="1"/>
-      <c r="AD801" s="5"/>
-      <c r="AE801" s="5"/>
-      <c r="AF801" s="5"/>
-      <c r="AG801" s="1"/>
-      <c r="AH801" s="1"/>
-      <c r="AI801" s="5"/>
-      <c r="AJ801" s="5"/>
-      <c r="AK801" s="5"/>
-      <c r="AL801" s="5"/>
-    </row>
-    <row r="802" spans="1:38">
-      <c r="A802" s="2"/>
-      <c r="B802" s="1"/>
-      <c r="C802" s="1"/>
-      <c r="D802" s="1"/>
-      <c r="E802" s="1"/>
-      <c r="F802" s="1"/>
-      <c r="G802" s="1"/>
-      <c r="H802" s="1"/>
-      <c r="I802" s="1"/>
-      <c r="J802" s="1"/>
-      <c r="K802" s="1"/>
-      <c r="L802" s="1"/>
-      <c r="M802" s="1"/>
-      <c r="N802" s="1"/>
-      <c r="O802" s="1"/>
-      <c r="P802" s="1"/>
-      <c r="Q802" s="1"/>
-      <c r="R802" s="1"/>
-      <c r="S802" s="1"/>
-      <c r="T802" s="1"/>
-      <c r="U802" s="1"/>
-      <c r="V802" s="1"/>
-      <c r="W802" s="1"/>
-      <c r="X802" s="1"/>
-      <c r="Y802" s="1"/>
-      <c r="Z802" s="1"/>
-      <c r="AA802" s="1"/>
-      <c r="AB802" s="1"/>
-      <c r="AC802" s="1"/>
-      <c r="AD802" s="5"/>
-      <c r="AE802" s="5"/>
-      <c r="AF802" s="5"/>
-      <c r="AG802" s="1"/>
-      <c r="AH802" s="1"/>
-      <c r="AI802" s="5"/>
-      <c r="AJ802" s="5"/>
-      <c r="AK802" s="5"/>
-      <c r="AL802" s="5"/>
-    </row>
-    <row r="803" spans="1:38">
-      <c r="A803" s="2"/>
-      <c r="B803" s="1"/>
-      <c r="C803" s="1"/>
-      <c r="D803" s="1"/>
-      <c r="E803" s="1"/>
-      <c r="F803" s="1"/>
-      <c r="G803" s="1"/>
-      <c r="H803" s="1"/>
-      <c r="I803" s="1"/>
-      <c r="J803" s="1"/>
-      <c r="K803" s="1"/>
-      <c r="L803" s="1"/>
-      <c r="M803" s="1"/>
-      <c r="N803" s="1"/>
-      <c r="O803" s="1"/>
-      <c r="P803" s="1"/>
-      <c r="Q803" s="1"/>
-      <c r="R803" s="1"/>
-      <c r="S803" s="1"/>
-      <c r="T803" s="1"/>
-      <c r="U803" s="1"/>
-      <c r="V803" s="1"/>
-      <c r="W803" s="1"/>
-      <c r="X803" s="1"/>
-      <c r="Y803" s="1"/>
-      <c r="Z803" s="1"/>
-      <c r="AA803" s="1"/>
-      <c r="AB803" s="1"/>
-      <c r="AC803" s="1"/>
-      <c r="AD803" s="5"/>
-      <c r="AE803" s="5"/>
-      <c r="AF803" s="5"/>
-      <c r="AG803" s="1"/>
-      <c r="AH803" s="1"/>
-      <c r="AI803" s="5"/>
-      <c r="AJ803" s="5"/>
-      <c r="AK803" s="5"/>
-      <c r="AL803" s="5"/>
-    </row>
-    <row r="804" spans="1:38">
-      <c r="A804" s="2"/>
-      <c r="B804" s="1"/>
-      <c r="C804" s="1"/>
-      <c r="D804" s="1"/>
-      <c r="E804" s="1"/>
-      <c r="F804" s="1"/>
-      <c r="G804" s="1"/>
-      <c r="H804" s="1"/>
-      <c r="I804" s="1"/>
-      <c r="J804" s="1"/>
-      <c r="K804" s="1"/>
-      <c r="L804" s="1"/>
-      <c r="M804" s="1"/>
-      <c r="N804" s="1"/>
-      <c r="O804" s="1"/>
-      <c r="P804" s="1"/>
-      <c r="Q804" s="1"/>
-      <c r="R804" s="1"/>
-      <c r="S804" s="1"/>
-      <c r="T804" s="1"/>
-      <c r="U804" s="1"/>
-      <c r="V804" s="1"/>
-      <c r="W804" s="1"/>
-      <c r="X804" s="1"/>
-      <c r="Y804" s="1"/>
-      <c r="Z804" s="1"/>
-      <c r="AA804" s="1"/>
-      <c r="AB804" s="1"/>
-      <c r="AC804" s="1"/>
-      <c r="AD804" s="5"/>
-      <c r="AE804" s="5"/>
-      <c r="AF804" s="5"/>
-      <c r="AG804" s="1"/>
-      <c r="AH804" s="1"/>
-      <c r="AI804" s="5"/>
-      <c r="AJ804" s="5"/>
-      <c r="AK804" s="5"/>
-      <c r="AL804" s="5"/>
-    </row>
-    <row r="805" spans="1:38">
-      <c r="A805" s="2"/>
-      <c r="B805" s="1"/>
-      <c r="C805" s="1"/>
-      <c r="D805" s="1"/>
-      <c r="E805" s="1"/>
-      <c r="F805" s="1"/>
-      <c r="G805" s="1"/>
-      <c r="H805" s="1"/>
-      <c r="I805" s="1"/>
-      <c r="J805" s="1"/>
-      <c r="K805" s="1"/>
-      <c r="L805" s="1"/>
-      <c r="M805" s="1"/>
-      <c r="N805" s="1"/>
-      <c r="O805" s="1"/>
-      <c r="P805" s="1"/>
-      <c r="Q805" s="1"/>
-      <c r="R805" s="1"/>
-      <c r="S805" s="1"/>
-      <c r="T805" s="1"/>
-      <c r="U805" s="1"/>
-      <c r="V805" s="1"/>
-      <c r="W805" s="1"/>
-      <c r="X805" s="1"/>
-      <c r="Y805" s="1"/>
-      <c r="Z805" s="1"/>
-      <c r="AA805" s="1"/>
-      <c r="AB805" s="1"/>
-      <c r="AC805" s="1"/>
-      <c r="AD805" s="5"/>
-      <c r="AE805" s="5"/>
-      <c r="AF805" s="5"/>
-      <c r="AG805" s="1"/>
-      <c r="AH805" s="1"/>
-      <c r="AI805" s="5"/>
-      <c r="AJ805" s="5"/>
-      <c r="AK805" s="5"/>
-      <c r="AL805" s="5"/>
-    </row>
-    <row r="806" spans="1:38">
-      <c r="A806" s="2"/>
-      <c r="B806" s="1"/>
-      <c r="C806" s="1"/>
-      <c r="D806" s="1"/>
-      <c r="E806" s="1"/>
-      <c r="F806" s="1"/>
-      <c r="G806" s="1"/>
-      <c r="H806" s="1"/>
-      <c r="I806" s="1"/>
-      <c r="J806" s="1"/>
-      <c r="K806" s="1"/>
-      <c r="L806" s="1"/>
-      <c r="M806" s="1"/>
-      <c r="N806" s="1"/>
-      <c r="O806" s="1"/>
-      <c r="P806" s="1"/>
-      <c r="Q806" s="1"/>
-      <c r="R806" s="1"/>
-      <c r="S806" s="1"/>
-      <c r="T806" s="1"/>
-      <c r="U806" s="1"/>
-      <c r="V806" s="1"/>
-      <c r="W806" s="1"/>
-      <c r="X806" s="1"/>
-      <c r="Y806" s="1"/>
-      <c r="Z806" s="1"/>
-      <c r="AA806" s="1"/>
-      <c r="AB806" s="1"/>
-      <c r="AC806" s="1"/>
-      <c r="AD806" s="5"/>
-      <c r="AE806" s="5"/>
-      <c r="AF806" s="5"/>
-      <c r="AG806" s="1"/>
-      <c r="AH806" s="1"/>
-      <c r="AI806" s="5"/>
-      <c r="AJ806" s="5"/>
-      <c r="AK806" s="5"/>
-      <c r="AL806" s="5"/>
-    </row>
-    <row r="807" spans="1:38">
-      <c r="A807" s="2"/>
-      <c r="B807" s="1"/>
-      <c r="C807" s="1"/>
-      <c r="D807" s="1"/>
-      <c r="E807" s="1"/>
-      <c r="F807" s="1"/>
-      <c r="G807" s="1"/>
-      <c r="H807" s="1"/>
-      <c r="I807" s="1"/>
-      <c r="J807" s="1"/>
-      <c r="K807" s="1"/>
-      <c r="L807" s="1"/>
-      <c r="M807" s="1"/>
-      <c r="N807" s="1"/>
-      <c r="O807" s="1"/>
-      <c r="P807" s="1"/>
-      <c r="Q807" s="1"/>
-      <c r="R807" s="1"/>
-      <c r="S807" s="1"/>
-      <c r="T807" s="1"/>
-      <c r="U807" s="1"/>
-      <c r="V807" s="1"/>
-      <c r="W807" s="1"/>
-      <c r="X807" s="1"/>
-      <c r="Y807" s="1"/>
-      <c r="Z807" s="1"/>
-      <c r="AA807" s="1"/>
-      <c r="AB807" s="1"/>
-      <c r="AC807" s="1"/>
-      <c r="AD807" s="5"/>
-      <c r="AE807" s="5"/>
-      <c r="AF807" s="5"/>
-      <c r="AG807" s="1"/>
-      <c r="AH807" s="1"/>
-      <c r="AI807" s="5"/>
-      <c r="AJ807" s="5"/>
-      <c r="AK807" s="5"/>
-      <c r="AL807" s="5"/>
-    </row>
-    <row r="808" spans="1:38">
-      <c r="A808" s="2"/>
-      <c r="B808" s="1"/>
-      <c r="C808" s="1"/>
-      <c r="D808" s="1"/>
-      <c r="E808" s="1"/>
-      <c r="F808" s="1"/>
-      <c r="G808" s="1"/>
-      <c r="H808" s="1"/>
-      <c r="I808" s="1"/>
-      <c r="J808" s="1"/>
-      <c r="K808" s="1"/>
-      <c r="L808" s="1"/>
-      <c r="M808" s="1"/>
-      <c r="N808" s="1"/>
-      <c r="O808" s="1"/>
-      <c r="P808" s="1"/>
-      <c r="Q808" s="1"/>
-      <c r="R808" s="1"/>
-      <c r="S808" s="1"/>
-      <c r="T808" s="1"/>
-      <c r="U808" s="1"/>
-      <c r="V808" s="1"/>
-      <c r="W808" s="1"/>
-      <c r="X808" s="1"/>
-      <c r="Y808" s="1"/>
-      <c r="Z808" s="1"/>
-      <c r="AA808" s="1"/>
-      <c r="AB808" s="1"/>
-      <c r="AC808" s="1"/>
-      <c r="AD808" s="5"/>
-      <c r="AE808" s="5"/>
-      <c r="AF808" s="5"/>
-      <c r="AG808" s="1"/>
-      <c r="AH808" s="1"/>
-      <c r="AI808" s="5"/>
-      <c r="AJ808" s="5"/>
-      <c r="AK808" s="5"/>
-      <c r="AL808" s="5"/>
-    </row>
-    <row r="809" spans="1:38">
-      <c r="A809" s="2"/>
-      <c r="B809" s="1"/>
-      <c r="C809" s="1"/>
-      <c r="D809" s="1"/>
-      <c r="E809" s="1"/>
-      <c r="F809" s="1"/>
-      <c r="G809" s="1"/>
-      <c r="H809" s="1"/>
-      <c r="I809" s="1"/>
-      <c r="J809" s="1"/>
-      <c r="K809" s="1"/>
-      <c r="L809" s="1"/>
-      <c r="M809" s="1"/>
-      <c r="N809" s="1"/>
-      <c r="O809" s="1"/>
-      <c r="P809" s="1"/>
-      <c r="Q809" s="1"/>
-      <c r="R809" s="1"/>
-      <c r="S809" s="1"/>
-      <c r="T809" s="1"/>
-      <c r="U809" s="1"/>
-      <c r="V809" s="1"/>
-      <c r="W809" s="1"/>
-      <c r="X809" s="1"/>
-      <c r="Y809" s="1"/>
-      <c r="Z809" s="1"/>
-      <c r="AA809" s="1"/>
-      <c r="AB809" s="1"/>
-      <c r="AC809" s="1"/>
-      <c r="AD809" s="5"/>
-      <c r="AE809" s="5"/>
-      <c r="AF809" s="5"/>
-      <c r="AG809" s="1"/>
-      <c r="AH809" s="1"/>
-      <c r="AI809" s="5"/>
-      <c r="AJ809" s="5"/>
-      <c r="AK809" s="5"/>
-      <c r="AL809" s="5"/>
-    </row>
-    <row r="810" spans="1:38">
-      <c r="A810" s="2"/>
-      <c r="B810" s="1"/>
-      <c r="C810" s="1"/>
-      <c r="D810" s="1"/>
-      <c r="E810" s="1"/>
-      <c r="F810" s="1"/>
-      <c r="G810" s="1"/>
-      <c r="H810" s="1"/>
-      <c r="I810" s="1"/>
-      <c r="J810" s="1"/>
-      <c r="K810" s="1"/>
-      <c r="L810" s="1"/>
-      <c r="M810" s="1"/>
-      <c r="N810" s="1"/>
-      <c r="O810" s="1"/>
-      <c r="P810" s="1"/>
-      <c r="Q810" s="1"/>
-      <c r="R810" s="1"/>
-      <c r="S810" s="1"/>
-      <c r="T810" s="1"/>
-      <c r="U810" s="1"/>
-      <c r="V810" s="1"/>
-      <c r="W810" s="1"/>
-      <c r="X810" s="1"/>
-      <c r="Y810" s="1"/>
-      <c r="Z810" s="1"/>
-      <c r="AA810" s="1"/>
-      <c r="AB810" s="1"/>
-      <c r="AC810" s="1"/>
-      <c r="AD810" s="5"/>
-      <c r="AE810" s="5"/>
-      <c r="AF810" s="5"/>
-      <c r="AG810" s="1"/>
-      <c r="AH810" s="1"/>
-      <c r="AI810" s="5"/>
-      <c r="AJ810" s="5"/>
-      <c r="AK810" s="5"/>
-      <c r="AL810" s="5"/>
-    </row>
-    <row r="811" spans="1:38">
-      <c r="A811" s="2"/>
-      <c r="B811" s="1"/>
-      <c r="C811" s="1"/>
-      <c r="D811" s="1"/>
-      <c r="E811" s="1"/>
-      <c r="F811" s="1"/>
-      <c r="G811" s="1"/>
-      <c r="H811" s="1"/>
-      <c r="I811" s="1"/>
-      <c r="J811" s="1"/>
-      <c r="K811" s="1"/>
-      <c r="L811" s="1"/>
-      <c r="M811" s="1"/>
-      <c r="N811" s="1"/>
-      <c r="O811" s="1"/>
-      <c r="P811" s="1"/>
-      <c r="Q811" s="1"/>
-      <c r="R811" s="1"/>
-      <c r="S811" s="1"/>
-      <c r="T811" s="1"/>
-      <c r="U811" s="1"/>
-      <c r="V811" s="1"/>
-      <c r="W811" s="1"/>
-      <c r="X811" s="1"/>
-      <c r="Y811" s="1"/>
-      <c r="Z811" s="1"/>
-      <c r="AA811" s="1"/>
-      <c r="AB811" s="1"/>
-      <c r="AC811" s="1"/>
-      <c r="AD811" s="5"/>
-      <c r="AE811" s="5"/>
-      <c r="AF811" s="5"/>
-      <c r="AG811" s="1"/>
-      <c r="AH811" s="1"/>
-      <c r="AI811" s="5"/>
-      <c r="AJ811" s="5"/>
-      <c r="AK811" s="5"/>
-      <c r="AL811" s="5"/>
-    </row>
-    <row r="812" spans="1:38">
-      <c r="A812" s="2"/>
-      <c r="B812" s="1"/>
-      <c r="C812" s="1"/>
-      <c r="D812" s="1"/>
-      <c r="E812" s="1"/>
-      <c r="F812" s="1"/>
-      <c r="G812" s="1"/>
-      <c r="H812" s="1"/>
-      <c r="I812" s="1"/>
-      <c r="J812" s="1"/>
-      <c r="K812" s="1"/>
-      <c r="L812" s="1"/>
-      <c r="M812" s="1"/>
-      <c r="N812" s="1"/>
-      <c r="O812" s="1"/>
-      <c r="P812" s="1"/>
-      <c r="Q812" s="1"/>
-      <c r="R812" s="1"/>
-      <c r="S812" s="1"/>
-      <c r="T812" s="1"/>
-      <c r="U812" s="1"/>
-      <c r="V812" s="1"/>
-      <c r="W812" s="1"/>
-      <c r="X812" s="1"/>
-      <c r="Y812" s="1"/>
-      <c r="Z812" s="1"/>
-      <c r="AA812" s="1"/>
-      <c r="AB812" s="1"/>
-      <c r="AC812" s="1"/>
-      <c r="AD812" s="5"/>
-      <c r="AE812" s="5"/>
-      <c r="AF812" s="5"/>
-      <c r="AG812" s="1"/>
-      <c r="AH812" s="1"/>
-      <c r="AI812" s="5"/>
-      <c r="AJ812" s="5"/>
-      <c r="AK812" s="5"/>
-      <c r="AL812" s="5"/>
-    </row>
-    <row r="813" spans="1:38">
-      <c r="A813" s="2"/>
-      <c r="B813" s="1"/>
-      <c r="C813" s="1"/>
-      <c r="D813" s="1"/>
-      <c r="E813" s="1"/>
-      <c r="F813" s="1"/>
-      <c r="G813" s="1"/>
-      <c r="H813" s="1"/>
-      <c r="I813" s="1"/>
-      <c r="J813" s="1"/>
-      <c r="K813" s="1"/>
-      <c r="L813" s="1"/>
-      <c r="M813" s="1"/>
-      <c r="N813" s="1"/>
-      <c r="O813" s="1"/>
-      <c r="P813" s="1"/>
-      <c r="Q813" s="1"/>
-      <c r="R813" s="1"/>
-      <c r="S813" s="1"/>
-      <c r="T813" s="1"/>
-      <c r="U813" s="1"/>
-      <c r="V813" s="1"/>
-      <c r="W813" s="1"/>
-      <c r="X813" s="1"/>
-      <c r="Y813" s="1"/>
-      <c r="Z813" s="1"/>
-      <c r="AA813" s="1"/>
-      <c r="AB813" s="1"/>
-      <c r="AC813" s="1"/>
-      <c r="AD813" s="5"/>
-      <c r="AE813" s="5"/>
-      <c r="AF813" s="5"/>
-      <c r="AG813" s="1"/>
-      <c r="AH813" s="1"/>
-      <c r="AI813" s="5"/>
-      <c r="AJ813" s="5"/>
-      <c r="AK813" s="5"/>
-      <c r="AL813" s="5"/>
-    </row>
-    <row r="814" spans="1:38">
-      <c r="A814" s="2"/>
-      <c r="B814" s="1"/>
-      <c r="C814" s="1"/>
-      <c r="D814" s="1"/>
-      <c r="E814" s="1"/>
-      <c r="F814" s="1"/>
-      <c r="G814" s="1"/>
-      <c r="H814" s="1"/>
-      <c r="I814" s="1"/>
-      <c r="J814" s="1"/>
-      <c r="K814" s="1"/>
-      <c r="L814" s="1"/>
-      <c r="M814" s="1"/>
-      <c r="N814" s="1"/>
-      <c r="O814" s="1"/>
-      <c r="P814" s="1"/>
-      <c r="Q814" s="1"/>
-      <c r="R814" s="1"/>
-      <c r="S814" s="1"/>
-      <c r="T814" s="1"/>
-      <c r="U814" s="1"/>
-      <c r="V814" s="1"/>
-      <c r="W814" s="1"/>
-      <c r="X814" s="1"/>
-      <c r="Y814" s="1"/>
-      <c r="Z814" s="1"/>
-      <c r="AA814" s="1"/>
-      <c r="AB814" s="1"/>
-      <c r="AC814" s="1"/>
-      <c r="AD814" s="5"/>
-      <c r="AE814" s="5"/>
-      <c r="AF814" s="5"/>
-      <c r="AG814" s="1"/>
-      <c r="AH814" s="1"/>
-      <c r="AI814" s="5"/>
-      <c r="AJ814" s="5"/>
-      <c r="AK814" s="5"/>
-      <c r="AL814" s="5"/>
-    </row>
-    <row r="815" spans="1:38">
-      <c r="A815" s="2"/>
-      <c r="B815" s="1"/>
-      <c r="C815" s="1"/>
-      <c r="D815" s="1"/>
-      <c r="E815" s="1"/>
-      <c r="F815" s="1"/>
-      <c r="G815" s="1"/>
-      <c r="H815" s="1"/>
-      <c r="I815" s="1"/>
-      <c r="J815" s="1"/>
-      <c r="K815" s="1"/>
-      <c r="L815" s="1"/>
-      <c r="M815" s="1"/>
-      <c r="N815" s="1"/>
-      <c r="O815" s="1"/>
-      <c r="P815" s="1"/>
-      <c r="Q815" s="1"/>
-      <c r="R815" s="1"/>
-      <c r="S815" s="1"/>
-      <c r="T815" s="1"/>
-      <c r="U815" s="1"/>
-      <c r="V815" s="1"/>
-      <c r="W815" s="1"/>
-      <c r="X815" s="1"/>
-      <c r="Y815" s="1"/>
-      <c r="Z815" s="1"/>
-      <c r="AA815" s="1"/>
-      <c r="AB815" s="1"/>
-      <c r="AC815" s="1"/>
-      <c r="AD815" s="5"/>
-      <c r="AE815" s="5"/>
-      <c r="AF815" s="5"/>
-      <c r="AG815" s="1"/>
-      <c r="AH815" s="1"/>
-      <c r="AI815" s="5"/>
-      <c r="AJ815" s="5"/>
-      <c r="AK815" s="5"/>
-      <c r="AL815" s="5"/>
-    </row>
-    <row r="816" spans="1:38">
-      <c r="A816" s="2"/>
-      <c r="B816" s="1"/>
-      <c r="C816" s="1"/>
-      <c r="D816" s="1"/>
-      <c r="E816" s="1"/>
-      <c r="F816" s="1"/>
-      <c r="G816" s="1"/>
-      <c r="H816" s="1"/>
-      <c r="I816" s="1"/>
-      <c r="J816" s="1"/>
-      <c r="K816" s="1"/>
-      <c r="L816" s="1"/>
-      <c r="M816" s="1"/>
-      <c r="N816" s="1"/>
-      <c r="O816" s="1"/>
-      <c r="P816" s="1"/>
-      <c r="Q816" s="1"/>
-      <c r="R816" s="1"/>
-      <c r="S816" s="1"/>
-      <c r="T816" s="1"/>
-      <c r="U816" s="1"/>
-      <c r="V816" s="1"/>
-      <c r="W816" s="1"/>
-      <c r="X816" s="1"/>
-      <c r="Y816" s="1"/>
-      <c r="Z816" s="1"/>
-      <c r="AA816" s="1"/>
-      <c r="AB816" s="1"/>
-      <c r="AC816" s="1"/>
-      <c r="AD816" s="5"/>
-      <c r="AE816" s="5"/>
-      <c r="AF816" s="5"/>
-      <c r="AG816" s="1"/>
-      <c r="AH816" s="1"/>
-      <c r="AI816" s="5"/>
-      <c r="AJ816" s="5"/>
-      <c r="AK816" s="5"/>
-      <c r="AL816" s="5"/>
-    </row>
-    <row r="817" spans="1:38">
-      <c r="A817" s="2"/>
-      <c r="B817" s="1"/>
-      <c r="C817" s="1"/>
-      <c r="D817" s="1"/>
-      <c r="E817" s="1"/>
-      <c r="F817" s="1"/>
-      <c r="G817" s="1"/>
-      <c r="H817" s="1"/>
-      <c r="I817" s="1"/>
-      <c r="J817" s="1"/>
-      <c r="K817" s="1"/>
-      <c r="L817" s="1"/>
-      <c r="M817" s="1"/>
-      <c r="N817" s="1"/>
-      <c r="O817" s="1"/>
-      <c r="P817" s="1"/>
-      <c r="Q817" s="1"/>
-      <c r="R817" s="1"/>
-      <c r="S817" s="1"/>
-      <c r="T817" s="1"/>
-      <c r="U817" s="1"/>
-      <c r="V817" s="1"/>
-      <c r="W817" s="1"/>
-      <c r="X817" s="1"/>
-      <c r="Y817" s="1"/>
-      <c r="Z817" s="1"/>
-      <c r="AA817" s="1"/>
-      <c r="AB817" s="1"/>
-      <c r="AC817" s="1"/>
-      <c r="AD817" s="5"/>
-      <c r="AE817" s="5"/>
-      <c r="AF817" s="5"/>
-      <c r="AG817" s="1"/>
-      <c r="AH817" s="1"/>
-      <c r="AI817" s="5"/>
-      <c r="AJ817" s="5"/>
-      <c r="AK817" s="5"/>
-      <c r="AL817" s="5"/>
-    </row>
-    <row r="818" spans="1:38">
-      <c r="A818" s="2"/>
-      <c r="B818" s="1"/>
-      <c r="C818" s="1"/>
-      <c r="D818" s="1"/>
-      <c r="E818" s="1"/>
-      <c r="F818" s="1"/>
-      <c r="G818" s="1"/>
-      <c r="H818" s="1"/>
-      <c r="I818" s="1"/>
-      <c r="J818" s="1"/>
-      <c r="K818" s="1"/>
-      <c r="L818" s="1"/>
-      <c r="M818" s="1"/>
-      <c r="N818" s="1"/>
-      <c r="O818" s="1"/>
-      <c r="P818" s="1"/>
-      <c r="Q818" s="1"/>
-      <c r="R818" s="1"/>
-      <c r="S818" s="1"/>
-      <c r="T818" s="1"/>
-      <c r="U818" s="1"/>
-      <c r="V818" s="1"/>
-      <c r="W818" s="1"/>
-      <c r="X818" s="1"/>
-      <c r="Y818" s="1"/>
-      <c r="Z818" s="1"/>
-      <c r="AA818" s="1"/>
-      <c r="AB818" s="1"/>
-      <c r="AC818" s="1"/>
-      <c r="AD818" s="5"/>
-      <c r="AE818" s="5"/>
-      <c r="AF818" s="5"/>
-      <c r="AG818" s="1"/>
-      <c r="AH818" s="1"/>
-      <c r="AI818" s="5"/>
-      <c r="AJ818" s="5"/>
-      <c r="AK818" s="5"/>
-      <c r="AL818" s="5"/>
-    </row>
-    <row r="819" spans="1:38">
-      <c r="A819" s="2"/>
-      <c r="B819" s="1"/>
-      <c r="C819" s="1"/>
-      <c r="D819" s="1"/>
-      <c r="E819" s="1"/>
-      <c r="F819" s="1"/>
-      <c r="G819" s="1"/>
-      <c r="H819" s="1"/>
-      <c r="I819" s="1"/>
-      <c r="J819" s="1"/>
-      <c r="K819" s="1"/>
-      <c r="L819" s="1"/>
-      <c r="M819" s="1"/>
-      <c r="N819" s="1"/>
-      <c r="O819" s="1"/>
-      <c r="P819" s="1"/>
-      <c r="Q819" s="1"/>
-      <c r="R819" s="1"/>
-      <c r="S819" s="1"/>
-      <c r="T819" s="1"/>
-      <c r="U819" s="1"/>
-      <c r="V819" s="1"/>
-      <c r="W819" s="1"/>
-      <c r="X819" s="1"/>
-      <c r="Y819" s="1"/>
-      <c r="Z819" s="1"/>
-      <c r="AA819" s="1"/>
-      <c r="AB819" s="1"/>
-      <c r="AC819" s="1"/>
-      <c r="AD819" s="5"/>
-      <c r="AE819" s="5"/>
-      <c r="AF819" s="5"/>
-      <c r="AG819" s="1"/>
-      <c r="AH819" s="1"/>
-      <c r="AI819" s="5"/>
-      <c r="AJ819" s="5"/>
-      <c r="AK819" s="5"/>
-      <c r="AL819" s="5"/>
-    </row>
-    <row r="820" spans="1:38">
-      <c r="A820" s="2"/>
-      <c r="B820" s="1"/>
-      <c r="C820" s="1"/>
-      <c r="D820" s="1"/>
-      <c r="E820" s="1"/>
-      <c r="F820" s="1"/>
-      <c r="G820" s="1"/>
-      <c r="H820" s="1"/>
-      <c r="I820" s="1"/>
-      <c r="J820" s="1"/>
-      <c r="K820" s="1"/>
-      <c r="L820" s="1"/>
-      <c r="M820" s="1"/>
-      <c r="N820" s="1"/>
-      <c r="O820" s="1"/>
-      <c r="P820" s="1"/>
-      <c r="Q820" s="1"/>
-      <c r="R820" s="1"/>
-      <c r="S820" s="1"/>
-      <c r="T820" s="1"/>
-      <c r="U820" s="1"/>
-      <c r="V820" s="1"/>
-      <c r="W820" s="1"/>
-      <c r="X820" s="1"/>
-      <c r="Y820" s="1"/>
-      <c r="Z820" s="1"/>
-      <c r="AA820" s="1"/>
-      <c r="AB820" s="1"/>
-      <c r="AC820" s="1"/>
-      <c r="AD820" s="5"/>
-      <c r="AE820" s="5"/>
-      <c r="AF820" s="5"/>
-      <c r="AG820" s="1"/>
-      <c r="AH820" s="1"/>
-      <c r="AI820" s="5"/>
-      <c r="AJ820" s="5"/>
-      <c r="AK820" s="5"/>
-      <c r="AL820" s="5"/>
-    </row>
-    <row r="821" spans="1:38">
-      <c r="A821" s="2"/>
-      <c r="B821" s="1"/>
-      <c r="C821" s="1"/>
-      <c r="D821" s="1"/>
-      <c r="E821" s="1"/>
-      <c r="F821" s="1"/>
-      <c r="G821" s="1"/>
-      <c r="H821" s="1"/>
-      <c r="I821" s="1"/>
-      <c r="J821" s="1"/>
-      <c r="K821" s="1"/>
-      <c r="L821" s="1"/>
-      <c r="M821" s="1"/>
-      <c r="N821" s="1"/>
-      <c r="O821" s="1"/>
-      <c r="P821" s="1"/>
-      <c r="Q821" s="1"/>
-      <c r="R821" s="1"/>
-      <c r="S821" s="1"/>
-      <c r="T821" s="1"/>
-      <c r="U821" s="1"/>
-      <c r="V821" s="1"/>
-      <c r="W821" s="1"/>
-      <c r="X821" s="1"/>
-      <c r="Y821" s="1"/>
-      <c r="Z821" s="1"/>
-      <c r="AA821" s="1"/>
-      <c r="AB821" s="1"/>
-      <c r="AC821" s="1"/>
-      <c r="AD821" s="5"/>
-      <c r="AE821" s="5"/>
-      <c r="AF821" s="5"/>
-      <c r="AG821" s="1"/>
-      <c r="AH821" s="1"/>
-      <c r="AI821" s="5"/>
-      <c r="AJ821" s="5"/>
-      <c r="AK821" s="5"/>
-      <c r="AL821" s="5"/>
-    </row>
-    <row r="822" spans="1:38">
-      <c r="A822" s="2"/>
-      <c r="B822" s="1"/>
-      <c r="C822" s="1"/>
-      <c r="D822" s="1"/>
-      <c r="E822" s="1"/>
-      <c r="F822" s="1"/>
-      <c r="G822" s="1"/>
-      <c r="H822" s="1"/>
-      <c r="I822" s="1"/>
-      <c r="J822" s="1"/>
-      <c r="K822" s="1"/>
-      <c r="L822" s="1"/>
-      <c r="M822" s="1"/>
-      <c r="N822" s="1"/>
-      <c r="O822" s="1"/>
-      <c r="P822" s="1"/>
-      <c r="Q822" s="1"/>
-      <c r="R822" s="1"/>
-      <c r="S822" s="1"/>
-      <c r="T822" s="1"/>
-      <c r="U822" s="1"/>
-      <c r="V822" s="1"/>
-      <c r="W822" s="1"/>
-      <c r="X822" s="1"/>
-      <c r="Y822" s="1"/>
-      <c r="Z822" s="1"/>
-      <c r="AA822" s="1"/>
-      <c r="AB822" s="1"/>
-      <c r="AC822" s="1"/>
-      <c r="AD822" s="5"/>
-      <c r="AE822" s="5"/>
-      <c r="AF822" s="5"/>
-      <c r="AG822" s="1"/>
-      <c r="AH822" s="1"/>
-      <c r="AI822" s="5"/>
-      <c r="AJ822" s="5"/>
-      <c r="AK822" s="5"/>
-      <c r="AL822" s="5"/>
-    </row>
-    <row r="823" spans="1:38">
-      <c r="A823" s="2"/>
-      <c r="B823" s="1"/>
-      <c r="C823" s="1"/>
-      <c r="D823" s="1"/>
-      <c r="E823" s="1"/>
-      <c r="F823" s="1"/>
-      <c r="G823" s="1"/>
-      <c r="H823" s="1"/>
-      <c r="I823" s="1"/>
-      <c r="J823" s="1"/>
-      <c r="K823" s="1"/>
-      <c r="L823" s="1"/>
-      <c r="M823" s="1"/>
-      <c r="N823" s="1"/>
-      <c r="O823" s="1"/>
-      <c r="P823" s="1"/>
-      <c r="Q823" s="1"/>
-      <c r="R823" s="1"/>
-      <c r="S823" s="1"/>
-      <c r="T823" s="1"/>
-      <c r="U823" s="1"/>
-      <c r="V823" s="1"/>
-      <c r="W823" s="1"/>
-      <c r="X823" s="1"/>
-      <c r="Y823" s="1"/>
-      <c r="Z823" s="1"/>
-      <c r="AA823" s="1"/>
-      <c r="AB823" s="1"/>
-      <c r="AC823" s="1"/>
-      <c r="AD823" s="5"/>
-      <c r="AE823" s="5"/>
-      <c r="AF823" s="5"/>
-      <c r="AG823" s="1"/>
-      <c r="AH823" s="1"/>
-      <c r="AI823" s="5"/>
-      <c r="AJ823" s="5"/>
-      <c r="AK823" s="5"/>
-      <c r="AL823" s="5"/>
-    </row>
-    <row r="824" spans="1:38">
-      <c r="A824" s="2"/>
-      <c r="B824" s="1"/>
-      <c r="C824" s="1"/>
-      <c r="D824" s="1"/>
-      <c r="E824" s="1"/>
-      <c r="F824" s="1"/>
-      <c r="G824" s="1"/>
-      <c r="H824" s="1"/>
-      <c r="I824" s="1"/>
-      <c r="J824" s="1"/>
-      <c r="K824" s="1"/>
-      <c r="L824" s="1"/>
-      <c r="M824" s="1"/>
-      <c r="N824" s="1"/>
-      <c r="O824" s="1"/>
-      <c r="P824" s="1"/>
-      <c r="Q824" s="1"/>
-      <c r="R824" s="1"/>
-      <c r="S824" s="1"/>
-      <c r="T824" s="1"/>
-      <c r="U824" s="1"/>
-      <c r="V824" s="1"/>
-      <c r="W824" s="1"/>
-      <c r="X824" s="1"/>
-      <c r="Y824" s="1"/>
-      <c r="Z824" s="1"/>
-      <c r="AA824" s="1"/>
-      <c r="AB824" s="1"/>
-      <c r="AC824" s="1"/>
-      <c r="AD824" s="5"/>
-      <c r="AE824" s="5"/>
-      <c r="AF824" s="5"/>
-      <c r="AG824" s="1"/>
-      <c r="AH824" s="1"/>
-      <c r="AI824" s="5"/>
-      <c r="AJ824" s="5"/>
-      <c r="AK824" s="5"/>
-      <c r="AL824" s="5"/>
-    </row>
-    <row r="825" spans="1:38">
-      <c r="A825" s="2"/>
-      <c r="B825" s="1"/>
-      <c r="C825" s="1"/>
-      <c r="D825" s="1"/>
-      <c r="E825" s="1"/>
-      <c r="F825" s="1"/>
-      <c r="G825" s="1"/>
-      <c r="H825" s="1"/>
-      <c r="I825" s="1"/>
-      <c r="J825" s="1"/>
-      <c r="K825" s="1"/>
-      <c r="L825" s="1"/>
-      <c r="M825" s="1"/>
-      <c r="N825" s="1"/>
-      <c r="O825" s="1"/>
-      <c r="P825" s="1"/>
-      <c r="Q825" s="1"/>
-      <c r="R825" s="1"/>
-      <c r="S825" s="1"/>
-      <c r="T825" s="1"/>
-      <c r="U825" s="1"/>
-      <c r="V825" s="1"/>
-      <c r="W825" s="1"/>
-      <c r="X825" s="1"/>
-      <c r="Y825" s="1"/>
-      <c r="Z825" s="1"/>
-      <c r="AA825" s="1"/>
-      <c r="AB825" s="1"/>
-      <c r="AC825" s="1"/>
-      <c r="AD825" s="5"/>
-      <c r="AE825" s="5"/>
-      <c r="AF825" s="5"/>
-      <c r="AG825" s="1"/>
-      <c r="AH825" s="1"/>
-      <c r="AI825" s="5"/>
-      <c r="AJ825" s="5"/>
-      <c r="AK825" s="5"/>
-      <c r="AL825" s="5"/>
-    </row>
-    <row r="826" spans="1:38">
-      <c r="A826" s="2"/>
-      <c r="B826" s="1"/>
-      <c r="C826" s="1"/>
-      <c r="D826" s="1"/>
-      <c r="E826" s="1"/>
-      <c r="F826" s="1"/>
-      <c r="G826" s="1"/>
-      <c r="H826" s="1"/>
-      <c r="I826" s="1"/>
-      <c r="J826" s="1"/>
-      <c r="K826" s="1"/>
-      <c r="L826" s="1"/>
-      <c r="M826" s="1"/>
-      <c r="N826" s="1"/>
-      <c r="O826" s="1"/>
-      <c r="P826" s="1"/>
-      <c r="Q826" s="1"/>
-      <c r="R826" s="1"/>
-      <c r="S826" s="1"/>
-      <c r="T826" s="1"/>
-      <c r="U826" s="1"/>
-      <c r="V826" s="1"/>
-      <c r="W826" s="1"/>
-      <c r="X826" s="1"/>
-      <c r="Y826" s="1"/>
-      <c r="Z826" s="1"/>
-      <c r="AA826" s="1"/>
-      <c r="AB826" s="1"/>
-      <c r="AC826" s="1"/>
-      <c r="AD826" s="5"/>
-      <c r="AE826" s="5"/>
-      <c r="AF826" s="5"/>
-      <c r="AG826" s="1"/>
-      <c r="AH826" s="1"/>
-      <c r="AI826" s="5"/>
-      <c r="AJ826" s="5"/>
-      <c r="AK826" s="5"/>
-      <c r="AL826" s="5"/>
-    </row>
-    <row r="827" spans="1:38">
-      <c r="A827" s="2"/>
-      <c r="B827" s="1"/>
-      <c r="C827" s="1"/>
-      <c r="D827" s="1"/>
-      <c r="E827" s="1"/>
-      <c r="F827" s="1"/>
-      <c r="G827" s="1"/>
-      <c r="H827" s="1"/>
-      <c r="I827" s="1"/>
-      <c r="J827" s="1"/>
-      <c r="K827" s="1"/>
-      <c r="L827" s="1"/>
-      <c r="M827" s="1"/>
-      <c r="N827" s="1"/>
-      <c r="O827" s="1"/>
-      <c r="P827" s="1"/>
-      <c r="Q827" s="1"/>
-      <c r="R827" s="1"/>
-      <c r="S827" s="1"/>
-      <c r="T827" s="1"/>
-      <c r="U827" s="1"/>
-      <c r="V827" s="1"/>
-      <c r="W827" s="1"/>
-      <c r="X827" s="1"/>
-      <c r="Y827" s="1"/>
-      <c r="Z827" s="1"/>
-      <c r="AA827" s="1"/>
-      <c r="AB827" s="1"/>
-      <c r="AC827" s="1"/>
-      <c r="AD827" s="5"/>
-      <c r="AE827" s="5"/>
-      <c r="AF827" s="5"/>
-      <c r="AG827" s="1"/>
-      <c r="AH827" s="1"/>
-      <c r="AI827" s="5"/>
-      <c r="AJ827" s="5"/>
-      <c r="AK827" s="5"/>
-      <c r="AL827" s="5"/>
-    </row>
-    <row r="828" spans="1:38">
-      <c r="A828" s="2"/>
-      <c r="B828" s="1"/>
-      <c r="C828" s="1"/>
-      <c r="D828" s="1"/>
-      <c r="E828" s="1"/>
-      <c r="F828" s="1"/>
-      <c r="G828" s="1"/>
-      <c r="H828" s="1"/>
-      <c r="I828" s="1"/>
-      <c r="J828" s="1"/>
-      <c r="K828" s="1"/>
-      <c r="L828" s="1"/>
-      <c r="M828" s="1"/>
-      <c r="N828" s="1"/>
-      <c r="O828" s="1"/>
-      <c r="P828" s="1"/>
-      <c r="Q828" s="1"/>
-      <c r="R828" s="1"/>
-      <c r="S828" s="1"/>
-      <c r="T828" s="1"/>
-      <c r="U828" s="1"/>
-      <c r="V828" s="1"/>
-      <c r="W828" s="1"/>
-      <c r="X828" s="1"/>
-      <c r="Y828" s="1"/>
-      <c r="Z828" s="1"/>
-      <c r="AA828" s="1"/>
-      <c r="AB828" s="1"/>
-      <c r="AC828" s="1"/>
-      <c r="AD828" s="5"/>
-      <c r="AE828" s="5"/>
-      <c r="AF828" s="5"/>
-      <c r="AG828" s="1"/>
-      <c r="AH828" s="1"/>
-      <c r="AI828" s="5"/>
-      <c r="AJ828" s="5"/>
-      <c r="AK828" s="5"/>
-      <c r="AL828" s="5"/>
-    </row>
-    <row r="829" spans="1:38">
-      <c r="A829" s="2"/>
-      <c r="B829" s="1"/>
-      <c r="C829" s="1"/>
-      <c r="D829" s="1"/>
-      <c r="E829" s="1"/>
-      <c r="F829" s="1"/>
-      <c r="G829" s="1"/>
-      <c r="H829" s="1"/>
-      <c r="I829" s="1"/>
-      <c r="J829" s="1"/>
-      <c r="K829" s="1"/>
-      <c r="L829" s="1"/>
-      <c r="M829" s="1"/>
-      <c r="N829" s="1"/>
-      <c r="O829" s="1"/>
-      <c r="P829" s="1"/>
-      <c r="Q829" s="1"/>
-      <c r="R829" s="1"/>
-      <c r="S829" s="1"/>
-      <c r="T829" s="1"/>
-      <c r="U829" s="1"/>
-      <c r="V829" s="1"/>
-      <c r="W829" s="1"/>
-      <c r="X829" s="1"/>
-      <c r="Y829" s="1"/>
-      <c r="Z829" s="1"/>
-      <c r="AA829" s="1"/>
-      <c r="AB829" s="1"/>
-      <c r="AC829" s="1"/>
-      <c r="AD829" s="5"/>
-      <c r="AE829" s="5"/>
-      <c r="AF829" s="5"/>
-      <c r="AG829" s="1"/>
-      <c r="AH829" s="1"/>
-      <c r="AI829" s="5"/>
-      <c r="AJ829" s="5"/>
-      <c r="AK829" s="5"/>
-      <c r="AL829" s="5"/>
-    </row>
-    <row r="830" spans="1:38">
-      <c r="A830" s="2"/>
-      <c r="B830" s="1"/>
-      <c r="C830" s="1"/>
-      <c r="D830" s="1"/>
-      <c r="E830" s="1"/>
-      <c r="F830" s="1"/>
-      <c r="G830" s="1"/>
-      <c r="H830" s="1"/>
-      <c r="I830" s="1"/>
-      <c r="J830" s="1"/>
-      <c r="K830" s="1"/>
-      <c r="L830" s="1"/>
-      <c r="M830" s="1"/>
-      <c r="N830" s="1"/>
-      <c r="O830" s="1"/>
-      <c r="P830" s="1"/>
-      <c r="Q830" s="1"/>
-      <c r="R830" s="1"/>
-      <c r="S830" s="1"/>
-      <c r="T830" s="1"/>
-      <c r="U830" s="1"/>
-      <c r="V830" s="1"/>
-      <c r="W830" s="1"/>
-      <c r="X830" s="1"/>
-      <c r="Y830" s="1"/>
-      <c r="Z830" s="1"/>
-      <c r="AA830" s="1"/>
-      <c r="AB830" s="1"/>
-      <c r="AC830" s="1"/>
-      <c r="AD830" s="5"/>
-      <c r="AE830" s="5"/>
-      <c r="AF830" s="5"/>
-      <c r="AG830" s="1"/>
-      <c r="AH830" s="1"/>
-      <c r="AI830" s="5"/>
-      <c r="AJ830" s="5"/>
-      <c r="AK830" s="5"/>
-      <c r="AL830" s="5"/>
-    </row>
-    <row r="831" spans="1:38">
-      <c r="A831" s="2"/>
-      <c r="B831" s="1"/>
-      <c r="C831" s="1"/>
-      <c r="D831" s="1"/>
-      <c r="E831" s="1"/>
-      <c r="F831" s="1"/>
-      <c r="G831" s="1"/>
-      <c r="H831" s="1"/>
-      <c r="I831" s="1"/>
-      <c r="J831" s="1"/>
-      <c r="K831" s="1"/>
-      <c r="L831" s="1"/>
-      <c r="M831" s="1"/>
-      <c r="N831" s="1"/>
-      <c r="O831" s="1"/>
-      <c r="P831" s="1"/>
-      <c r="Q831" s="1"/>
-      <c r="R831" s="1"/>
-      <c r="S831" s="1"/>
-      <c r="T831" s="1"/>
-      <c r="U831" s="1"/>
-      <c r="V831" s="1"/>
-      <c r="W831" s="1"/>
-      <c r="X831" s="1"/>
-      <c r="Y831" s="1"/>
-      <c r="Z831" s="1"/>
-      <c r="AA831" s="1"/>
-      <c r="AB831" s="1"/>
-      <c r="AC831" s="1"/>
-      <c r="AD831" s="5"/>
-      <c r="AE831" s="5"/>
-      <c r="AF831" s="5"/>
-      <c r="AG831" s="1"/>
-      <c r="AH831" s="1"/>
-      <c r="AI831" s="5"/>
-      <c r="AJ831" s="5"/>
-      <c r="AK831" s="5"/>
-      <c r="AL831" s="5"/>
-    </row>
-    <row r="832" spans="1:38">
-      <c r="A832" s="2"/>
-      <c r="B832" s="1"/>
-      <c r="C832" s="1"/>
-      <c r="D832" s="1"/>
-      <c r="E832" s="1"/>
-      <c r="F832" s="1"/>
-      <c r="G832" s="1"/>
-      <c r="H832" s="1"/>
-      <c r="I832" s="1"/>
-      <c r="J832" s="1"/>
-      <c r="K832" s="1"/>
-      <c r="L832" s="1"/>
-      <c r="M832" s="1"/>
-      <c r="N832" s="1"/>
-      <c r="O832" s="1"/>
-      <c r="P832" s="1"/>
-      <c r="Q832" s="1"/>
-      <c r="R832" s="1"/>
-      <c r="S832" s="1"/>
-      <c r="T832" s="1"/>
-      <c r="U832" s="1"/>
-      <c r="V832" s="1"/>
-      <c r="W832" s="1"/>
-      <c r="X832" s="1"/>
-      <c r="Y832" s="1"/>
-      <c r="Z832" s="1"/>
-      <c r="AA832" s="1"/>
-      <c r="AB832" s="1"/>
-      <c r="AC832" s="1"/>
-      <c r="AD832" s="5"/>
-      <c r="AE832" s="5"/>
-      <c r="AF832" s="5"/>
-      <c r="AG832" s="1"/>
-      <c r="AH832" s="1"/>
-      <c r="AI832" s="5"/>
-      <c r="AJ832" s="5"/>
-      <c r="AK832" s="5"/>
-      <c r="AL832" s="5"/>
-    </row>
-    <row r="833" spans="1:38">
-      <c r="A833" s="2"/>
-      <c r="B833" s="1"/>
-      <c r="C833" s="1"/>
-      <c r="D833" s="1"/>
-      <c r="E833" s="1"/>
-      <c r="F833" s="1"/>
-      <c r="G833" s="1"/>
-      <c r="H833" s="1"/>
-      <c r="I833" s="1"/>
-      <c r="J833" s="1"/>
-      <c r="K833" s="1"/>
-      <c r="L833" s="1"/>
-      <c r="M833" s="1"/>
-      <c r="N833" s="1"/>
-      <c r="O833" s="1"/>
-      <c r="P833" s="1"/>
-      <c r="Q833" s="1"/>
-      <c r="R833" s="1"/>
-      <c r="S833" s="1"/>
-      <c r="T833" s="1"/>
-      <c r="U833" s="1"/>
-      <c r="V833" s="1"/>
-      <c r="W833" s="1"/>
-      <c r="X833" s="1"/>
-      <c r="Y833" s="1"/>
-      <c r="Z833" s="1"/>
-      <c r="AA833" s="1"/>
-      <c r="AB833" s="1"/>
-      <c r="AC833" s="1"/>
-      <c r="AD833" s="5"/>
-      <c r="AE833" s="5"/>
-      <c r="AF833" s="5"/>
-      <c r="AG833" s="1"/>
-      <c r="AH833" s="1"/>
-      <c r="AI833" s="5"/>
-      <c r="AJ833" s="5"/>
-      <c r="AK833" s="5"/>
-      <c r="AL833" s="5"/>
-    </row>
-    <row r="834" spans="1:38">
-      <c r="A834" s="2"/>
-      <c r="B834" s="1"/>
-      <c r="C834" s="1"/>
-      <c r="D834" s="1"/>
-      <c r="E834" s="1"/>
-      <c r="F834" s="1"/>
-      <c r="G834" s="1"/>
-      <c r="H834" s="1"/>
-      <c r="I834" s="1"/>
-      <c r="J834" s="1"/>
-      <c r="K834" s="1"/>
-      <c r="L834" s="1"/>
-      <c r="M834" s="1"/>
-      <c r="N834" s="1"/>
-      <c r="O834" s="1"/>
-      <c r="P834" s="1"/>
-      <c r="Q834" s="1"/>
-      <c r="R834" s="1"/>
-      <c r="S834" s="1"/>
-      <c r="T834" s="1"/>
-      <c r="U834" s="1"/>
-      <c r="V834" s="1"/>
-      <c r="W834" s="1"/>
-      <c r="X834" s="1"/>
-      <c r="Y834" s="1"/>
-      <c r="Z834" s="1"/>
-      <c r="AA834" s="1"/>
-      <c r="AB834" s="1"/>
-      <c r="AC834" s="1"/>
-      <c r="AD834" s="5"/>
-      <c r="AE834" s="5"/>
-      <c r="AF834" s="5"/>
-      <c r="AG834" s="1"/>
-      <c r="AH834" s="1"/>
-      <c r="AI834" s="5"/>
-      <c r="AJ834" s="5"/>
-      <c r="AK834" s="5"/>
-      <c r="AL834" s="5"/>
-    </row>
-    <row r="835" spans="1:38">
-      <c r="A835" s="2"/>
-      <c r="B835" s="1"/>
-      <c r="C835" s="1"/>
-      <c r="D835" s="1"/>
-      <c r="E835" s="1"/>
-      <c r="F835" s="1"/>
-      <c r="G835" s="1"/>
-      <c r="H835" s="1"/>
-      <c r="I835" s="1"/>
-      <c r="J835" s="1"/>
-      <c r="K835" s="1"/>
-      <c r="L835" s="1"/>
-      <c r="M835" s="1"/>
-      <c r="N835" s="1"/>
-      <c r="O835" s="1"/>
-      <c r="P835" s="1"/>
-      <c r="Q835" s="1"/>
-      <c r="R835" s="1"/>
-      <c r="S835" s="1"/>
-      <c r="T835" s="1"/>
-      <c r="U835" s="1"/>
-      <c r="V835" s="1"/>
-      <c r="W835" s="1"/>
-      <c r="X835" s="1"/>
-      <c r="Y835" s="1"/>
-      <c r="Z835" s="1"/>
-      <c r="AA835" s="1"/>
-      <c r="AB835" s="1"/>
-      <c r="AC835" s="1"/>
-      <c r="AD835" s="5"/>
-      <c r="AE835" s="5"/>
-      <c r="AF835" s="5"/>
-      <c r="AG835" s="1"/>
-      <c r="AH835" s="1"/>
-      <c r="AI835" s="5"/>
-      <c r="AJ835" s="5"/>
-      <c r="AK835" s="5"/>
-      <c r="AL835" s="5"/>
-    </row>
-    <row r="836" spans="1:38">
-      <c r="A836" s="2"/>
-      <c r="B836" s="1"/>
-      <c r="C836" s="1"/>
-      <c r="D836" s="1"/>
-      <c r="E836" s="1"/>
-      <c r="F836" s="1"/>
-      <c r="G836" s="1"/>
-      <c r="H836" s="1"/>
-      <c r="I836" s="1"/>
-      <c r="J836" s="1"/>
-      <c r="K836" s="1"/>
-      <c r="L836" s="1"/>
-      <c r="M836" s="1"/>
-      <c r="N836" s="1"/>
-      <c r="O836" s="1"/>
-      <c r="P836" s="1"/>
-      <c r="Q836" s="1"/>
-      <c r="R836" s="1"/>
-      <c r="S836" s="1"/>
-      <c r="T836" s="1"/>
-      <c r="U836" s="1"/>
-      <c r="V836" s="1"/>
-      <c r="W836" s="1"/>
-      <c r="X836" s="1"/>
-      <c r="Y836" s="1"/>
-      <c r="Z836" s="1"/>
-      <c r="AA836" s="1"/>
-      <c r="AB836" s="1"/>
-      <c r="AC836" s="1"/>
-      <c r="AD836" s="5"/>
-      <c r="AE836" s="5"/>
-      <c r="AF836" s="5"/>
-      <c r="AG836" s="1"/>
-      <c r="AH836" s="1"/>
-      <c r="AI836" s="5"/>
-      <c r="AJ836" s="5"/>
-      <c r="AK836" s="5"/>
-      <c r="AL836" s="5"/>
-    </row>
-    <row r="837" spans="1:38">
-      <c r="A837" s="2"/>
-      <c r="B837" s="1"/>
-      <c r="C837" s="1"/>
-      <c r="D837" s="1"/>
-      <c r="E837" s="1"/>
-      <c r="F837" s="1"/>
-      <c r="G837" s="1"/>
-      <c r="H837" s="1"/>
-      <c r="I837" s="1"/>
-      <c r="J837" s="1"/>
-      <c r="K837" s="1"/>
-      <c r="L837" s="1"/>
-      <c r="M837" s="1"/>
-      <c r="N837" s="1"/>
-      <c r="O837" s="1"/>
-      <c r="P837" s="1"/>
-      <c r="Q837" s="1"/>
-      <c r="R837" s="1"/>
-      <c r="S837" s="1"/>
-      <c r="T837" s="1"/>
-      <c r="U837" s="1"/>
-      <c r="V837" s="1"/>
-      <c r="W837" s="1"/>
-      <c r="X837" s="1"/>
-      <c r="Y837" s="1"/>
-      <c r="Z837" s="1"/>
-      <c r="AA837" s="1"/>
-      <c r="AB837" s="1"/>
-      <c r="AC837" s="1"/>
-      <c r="AD837" s="5"/>
-      <c r="AE837" s="5"/>
-      <c r="AF837" s="5"/>
-      <c r="AG837" s="1"/>
-      <c r="AH837" s="1"/>
-      <c r="AI837" s="5"/>
-      <c r="AJ837" s="5"/>
-      <c r="AK837" s="5"/>
-      <c r="AL837" s="5"/>
-    </row>
-    <row r="838" spans="1:38">
-      <c r="A838" s="2"/>
-      <c r="B838" s="1"/>
-      <c r="C838" s="1"/>
-      <c r="D838" s="1"/>
-      <c r="E838" s="1"/>
-      <c r="F838" s="1"/>
-      <c r="G838" s="1"/>
-      <c r="H838" s="1"/>
-      <c r="I838" s="1"/>
-      <c r="J838" s="1"/>
-      <c r="K838" s="1"/>
-      <c r="L838" s="1"/>
-      <c r="M838" s="1"/>
-      <c r="N838" s="1"/>
-      <c r="O838" s="1"/>
-      <c r="P838" s="1"/>
-      <c r="Q838" s="1"/>
-      <c r="R838" s="1"/>
-      <c r="S838" s="1"/>
-      <c r="T838" s="1"/>
-      <c r="U838" s="1"/>
-      <c r="V838" s="1"/>
-      <c r="W838" s="1"/>
-      <c r="X838" s="1"/>
-      <c r="Y838" s="1"/>
-      <c r="Z838" s="1"/>
-      <c r="AA838" s="1"/>
-      <c r="AB838" s="1"/>
-      <c r="AC838" s="1"/>
-      <c r="AD838" s="5"/>
-      <c r="AE838" s="5"/>
-      <c r="AF838" s="5"/>
-      <c r="AG838" s="1"/>
-      <c r="AH838" s="1"/>
-      <c r="AI838" s="5"/>
-      <c r="AJ838" s="5"/>
-      <c r="AK838" s="5"/>
-      <c r="AL838" s="5"/>
-    </row>
-    <row r="839" spans="1:38">
-      <c r="A839" s="2"/>
-      <c r="B839" s="1"/>
-      <c r="C839" s="1"/>
-      <c r="D839" s="1"/>
-      <c r="E839" s="1"/>
-      <c r="F839" s="1"/>
-      <c r="G839" s="1"/>
-      <c r="H839" s="1"/>
-      <c r="I839" s="1"/>
-      <c r="J839" s="1"/>
-      <c r="K839" s="1"/>
-      <c r="L839" s="1"/>
-      <c r="M839" s="1"/>
-      <c r="N839" s="1"/>
-      <c r="O839" s="1"/>
-      <c r="P839" s="1"/>
-      <c r="Q839" s="1"/>
-      <c r="R839" s="1"/>
-      <c r="S839" s="1"/>
-      <c r="T839" s="1"/>
-      <c r="U839" s="1"/>
-      <c r="V839" s="1"/>
-      <c r="W839" s="1"/>
-      <c r="X839" s="1"/>
-      <c r="Y839" s="1"/>
-      <c r="Z839" s="1"/>
-      <c r="AA839" s="1"/>
-      <c r="AB839" s="1"/>
-      <c r="AC839" s="1"/>
-      <c r="AD839" s="5"/>
-      <c r="AE839" s="5"/>
-      <c r="AF839" s="5"/>
-      <c r="AG839" s="1"/>
-      <c r="AH839" s="1"/>
-      <c r="AI839" s="5"/>
-      <c r="AJ839" s="5"/>
-      <c r="AK839" s="5"/>
-      <c r="AL839" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/prueba_predicc_dia_dia.xlsx
+++ b/data/prueba_predicc_dia_dia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/Desktop/adri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22083187-970E-4121-89F7-2E9BF0577979}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63476A73-6515-4B8B-9932-D2D9D0A309DF}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-6315" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="188">
   <si>
     <t>Code</t>
   </si>
@@ -498,6 +498,117 @@
   </si>
   <si>
     <t>a restar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel 🇮🇱 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine 🇺🇦 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands 🇳🇱 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greece 🇬🇷 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy 🇮🇹 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland 🇨🇭 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armenia 🇦🇲 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithuania 🇱🇹 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium 🇧🇪 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatia 🇭🇷 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">France 🇫🇷 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom 🇬🇧 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria 🇦🇹 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ireland 🇮🇪 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain 🇪🇸 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway 🇳🇴 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden 🇸🇪 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia 🇬🇪 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finland 🇫🇮 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denmark 🇩🇰 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland 🇵🇱 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan 🇦🇿 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovenia 🇸🇮 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyprus 🇨🇾 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbia 🇷🇸 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonia 🇪🇪 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany 🇩🇪 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latvia 🇱🇻 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia 🇦🇺 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moldova 🇲🇩 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal 🇵🇹 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czechia 🇨🇿 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albania 🇦🇱 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxemburgo 🇱🇺 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malta 🇲🇹 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iceland 🇮🇸 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Marino 🇸🇲 </t>
   </si>
 </sst>
 </file>
@@ -2038,7 +2149,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45390.774462499998" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45390.778861574072" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="H1:L37" sheet="Hoja 3"/>
   </cacheSource>
@@ -3124,122 +3235,122 @@
   <dimension ref="A1:AL796"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:38">
-      <c r="B1" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="N1" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q1" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="R1" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="S1" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="U1" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="V1" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="W1" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y1" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z1" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA1" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB1" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC1" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD1" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE1" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF1" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG1" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH1" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI1" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ1" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK1" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL1" s="48" t="s">
-        <v>81</v>
+      <c r="B1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K1" t="s">
+        <v>160</v>
+      </c>
+      <c r="L1" t="s">
+        <v>161</v>
+      </c>
+      <c r="M1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N1" t="s">
+        <v>163</v>
+      </c>
+      <c r="O1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>166</v>
+      </c>
+      <c r="R1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S1" t="s">
+        <v>168</v>
+      </c>
+      <c r="T1" t="s">
+        <v>169</v>
+      </c>
+      <c r="U1" t="s">
+        <v>170</v>
+      </c>
+      <c r="V1" t="s">
+        <v>171</v>
+      </c>
+      <c r="W1" t="s">
+        <v>172</v>
+      </c>
+      <c r="X1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:38">

--- a/data/prueba_predicc_dia_dia.xlsx
+++ b/data/prueba_predicc_dia_dia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/Desktop/adri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C27FEA49-27D9-43B7-824E-F97078E4AC55}"/>
+  <xr:revisionPtr revIDLastSave="171" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4CD9619-BC05-4E36-9331-B7F78FF8894A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1051,6 +1051,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1060,9 +1063,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2152,7 +2152,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45391.690815162037" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45392.728075231484" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="H1:L37" sheet="Hoja 3"/>
   </cacheSource>
@@ -3235,10 +3235,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL3"/>
+  <dimension ref="A1:AL4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3476,115 +3476,231 @@
       <c r="A3" s="2">
         <v>45390</v>
       </c>
-      <c r="B3" s="66">
+      <c r="B3" s="61">
         <v>516</v>
       </c>
-      <c r="C3" s="66">
+      <c r="C3" s="61">
         <v>466</v>
       </c>
-      <c r="D3" s="66">
+      <c r="D3" s="61">
         <v>455</v>
       </c>
-      <c r="E3" s="66">
+      <c r="E3" s="61">
         <v>366</v>
       </c>
-      <c r="F3" s="66">
+      <c r="F3" s="61">
         <v>317</v>
       </c>
-      <c r="G3" s="66">
+      <c r="G3" s="61">
         <v>256</v>
       </c>
-      <c r="H3" s="66">
+      <c r="H3" s="61">
         <v>251</v>
       </c>
-      <c r="I3" s="66">
+      <c r="I3" s="61">
         <v>232</v>
       </c>
-      <c r="J3" s="66">
+      <c r="J3" s="61">
         <v>229</v>
       </c>
-      <c r="K3" s="66">
+      <c r="K3" s="61">
         <v>144</v>
       </c>
-      <c r="L3" s="66">
+      <c r="L3" s="61">
         <v>130</v>
       </c>
-      <c r="M3" s="66">
+      <c r="M3" s="61">
         <v>129</v>
       </c>
-      <c r="N3" s="66">
+      <c r="N3" s="61">
         <v>126</v>
       </c>
-      <c r="O3" s="66">
+      <c r="O3" s="61">
         <v>123</v>
       </c>
-      <c r="P3" s="66">
+      <c r="P3" s="61">
         <v>117</v>
       </c>
-      <c r="Q3" s="66">
+      <c r="Q3" s="61">
         <v>114</v>
       </c>
-      <c r="R3" s="66">
+      <c r="R3" s="61">
         <v>68</v>
       </c>
-      <c r="S3" s="66">
+      <c r="S3" s="61">
         <v>49</v>
       </c>
-      <c r="T3" s="66">
+      <c r="T3" s="61">
         <v>42</v>
       </c>
-      <c r="U3" s="66">
+      <c r="U3" s="61">
         <v>38</v>
       </c>
-      <c r="V3" s="66">
+      <c r="V3" s="61">
         <v>36</v>
       </c>
-      <c r="W3" s="66">
+      <c r="W3" s="61">
         <v>33</v>
       </c>
-      <c r="X3" s="66">
+      <c r="X3" s="61">
         <v>29</v>
       </c>
-      <c r="Y3" s="66">
+      <c r="Y3" s="61">
         <v>19</v>
       </c>
-      <c r="Z3" s="66">
+      <c r="Z3" s="61">
         <v>7</v>
       </c>
-      <c r="AA3" s="66">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="66">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="66">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="66">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="66">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="66">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="66">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="66">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="66">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="66">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="66">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="66">
+      <c r="AA3" s="61">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="61">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="61">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="61">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="61">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="61">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="61">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="61">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="61">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="61">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="61">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A4" s="2">
+        <v>45391</v>
+      </c>
+      <c r="B4" s="61">
+        <v>487</v>
+      </c>
+      <c r="C4" s="61">
+        <v>448</v>
+      </c>
+      <c r="D4" s="61">
+        <v>354</v>
+      </c>
+      <c r="E4" s="61">
+        <v>315</v>
+      </c>
+      <c r="F4" s="61">
+        <v>299</v>
+      </c>
+      <c r="G4" s="61">
+        <v>297</v>
+      </c>
+      <c r="H4" s="61">
+        <v>230</v>
+      </c>
+      <c r="I4" s="61">
+        <v>223</v>
+      </c>
+      <c r="J4" s="61">
+        <v>203</v>
+      </c>
+      <c r="K4" s="61">
+        <v>223</v>
+      </c>
+      <c r="L4" s="61">
+        <v>202</v>
+      </c>
+      <c r="M4" s="61">
+        <v>126</v>
+      </c>
+      <c r="N4" s="61">
+        <v>111</v>
+      </c>
+      <c r="O4" s="61">
+        <v>106</v>
+      </c>
+      <c r="P4" s="61">
+        <v>106</v>
+      </c>
+      <c r="Q4" s="61">
+        <v>103</v>
+      </c>
+      <c r="R4" s="61">
+        <v>98</v>
+      </c>
+      <c r="S4" s="61">
+        <v>93</v>
+      </c>
+      <c r="T4" s="61">
+        <v>80</v>
+      </c>
+      <c r="U4" s="61">
+        <v>45</v>
+      </c>
+      <c r="V4" s="61">
+        <v>42</v>
+      </c>
+      <c r="W4" s="61">
+        <v>35</v>
+      </c>
+      <c r="X4" s="61">
+        <v>31</v>
+      </c>
+      <c r="Y4" s="61">
+        <v>24</v>
+      </c>
+      <c r="Z4" s="61">
+        <v>11</v>
+      </c>
+      <c r="AA4" s="61">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="61">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="61">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="61">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="61">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="61">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="61">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="61">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="61">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="61">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="61">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="61">
         <v>0</v>
       </c>
     </row>
@@ -3614,15 +3730,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="13.8">
-      <c r="A1" s="61">
+      <c r="A1" s="62">
         <v>45056.999305555553</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
       <c r="H1" s="6"/>
       <c r="I1" s="7" t="s">
         <v>0</v>
@@ -4938,15 +5054,15 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="13.8">
-      <c r="A43" s="63">
+      <c r="A43" s="64">
         <v>45057.5</v>
       </c>
-      <c r="B43" s="64"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="65"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="66"/>
       <c r="I43" s="6">
         <v>43</v>
       </c>
@@ -5896,15 +6012,15 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="13.2">
-      <c r="A85" s="63">
+      <c r="A85" s="64">
         <v>45057.999305555553</v>
       </c>
-      <c r="B85" s="64"/>
-      <c r="C85" s="64"/>
-      <c r="D85" s="64"/>
-      <c r="E85" s="64"/>
-      <c r="F85" s="64"/>
-      <c r="G85" s="65"/>
+      <c r="B85" s="65"/>
+      <c r="C85" s="65"/>
+      <c r="D85" s="65"/>
+      <c r="E85" s="65"/>
+      <c r="F85" s="65"/>
+      <c r="G85" s="66"/>
     </row>
     <row r="86" spans="1:7" ht="15.75" customHeight="1">
       <c r="A86" s="20" t="s">
@@ -6818,15 +6934,15 @@
       </c>
     </row>
     <row r="127" spans="1:10" ht="13.2">
-      <c r="A127" s="63">
+      <c r="A127" s="64">
         <v>45058.5</v>
       </c>
-      <c r="B127" s="64"/>
-      <c r="C127" s="64"/>
-      <c r="D127" s="64"/>
-      <c r="E127" s="64"/>
-      <c r="F127" s="64"/>
-      <c r="G127" s="65"/>
+      <c r="B127" s="65"/>
+      <c r="C127" s="65"/>
+      <c r="D127" s="65"/>
+      <c r="E127" s="65"/>
+      <c r="F127" s="65"/>
+      <c r="G127" s="66"/>
     </row>
     <row r="128" spans="1:10" ht="15.75" customHeight="1">
       <c r="A128" s="26" t="s">

--- a/data/prueba_predicc_dia_dia.xlsx
+++ b/data/prueba_predicc_dia_dia.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/Desktop/adri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="171" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4CD9619-BC05-4E36-9331-B7F78FF8894A}"/>
+  <xr:revisionPtr revIDLastSave="328" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AA8441A-D0EE-4C24-9CEF-68872E9CFCD8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja 4" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja1" sheetId="6" r:id="rId3"/>
-    <sheet name="Copia de Hoja 1" sheetId="3" r:id="rId4"/>
-    <sheet name="Hoja 3" sheetId="4" r:id="rId5"/>
-    <sheet name="Tabla dinámica 1" sheetId="5" r:id="rId6"/>
+    <sheet name="Hoja2" sheetId="7" r:id="rId2"/>
+    <sheet name="Hoja 4" sheetId="2" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="6" r:id="rId4"/>
+    <sheet name="Copia de Hoja 1" sheetId="3" r:id="rId5"/>
+    <sheet name="Hoja 3" sheetId="4" r:id="rId6"/>
+    <sheet name="Tabla dinámica 1" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Hoja 3'!$A$1:$F$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Hoja 4'!$A$128:$J$165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Hoja 3'!$A$1:$F$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Hoja 4'!$A$128:$J$165</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId7"/>
+    <pivotCache cacheId="15" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="263">
   <si>
     <t>Code</t>
   </si>
@@ -609,6 +610,231 @@
   </si>
   <si>
     <t xml:space="preserve">San Marino 🇸🇲 </t>
+  </si>
+  <si>
+    <t>song</t>
+  </si>
+  <si>
+    <t>singer</t>
+  </si>
+  <si>
+    <t>Europapa</t>
+  </si>
+  <si>
+    <t>Joost Klein</t>
+  </si>
+  <si>
+    <t>Hurricane</t>
+  </si>
+  <si>
+    <t>Eden Golan</t>
+  </si>
+  <si>
+    <t>Teresa &amp; Maria</t>
+  </si>
+  <si>
+    <t>Alyona Alyona &amp; Jerry Heil</t>
+  </si>
+  <si>
+    <t>Zari» («ζάρι»)</t>
+  </si>
+  <si>
+    <t>Marina Satti</t>
+  </si>
+  <si>
+    <t>La noia</t>
+  </si>
+  <si>
+    <t>Angelina Mango</t>
+  </si>
+  <si>
+    <t>The Code</t>
+  </si>
+  <si>
+    <t>Nemo</t>
+  </si>
+  <si>
+    <t>Jako</t>
+  </si>
+  <si>
+    <t>Ladaniva</t>
+  </si>
+  <si>
+    <t>Before The Party is Over</t>
+  </si>
+  <si>
+    <t>Mustii</t>
+  </si>
+  <si>
+    <t>Rim Tim Tagi Dim</t>
+  </si>
+  <si>
+    <t>Baby Lasagna</t>
+  </si>
+  <si>
+    <t>Luktelk</t>
+  </si>
+  <si>
+    <t>Silvester Belt</t>
+  </si>
+  <si>
+    <t>Mon Amour</t>
+  </si>
+  <si>
+    <t>Slimane</t>
+  </si>
+  <si>
+    <t>Dizzy</t>
+  </si>
+  <si>
+    <t>Olly Alexander</t>
+  </si>
+  <si>
+    <t>We Will Rave</t>
+  </si>
+  <si>
+    <t>Kaleen</t>
+  </si>
+  <si>
+    <t>Doomsday Blue</t>
+  </si>
+  <si>
+    <t>Bambie Thug</t>
+  </si>
+  <si>
+    <t>Zorra</t>
+  </si>
+  <si>
+    <t>Nebulossa</t>
+  </si>
+  <si>
+    <t>Ulveham</t>
+  </si>
+  <si>
+    <t>Gåte</t>
+  </si>
+  <si>
+    <t>Unforgettable</t>
+  </si>
+  <si>
+    <t>Marcus &amp; Martinus</t>
+  </si>
+  <si>
+    <t>Firefighter</t>
+  </si>
+  <si>
+    <t>Nutsa Buzaladze</t>
+  </si>
+  <si>
+    <t>No Rules!</t>
+  </si>
+  <si>
+    <t>Windows95man</t>
+  </si>
+  <si>
+    <t>Liar</t>
+  </si>
+  <si>
+    <t>Sília Kapsís</t>
+  </si>
+  <si>
+    <t>Sand</t>
+  </si>
+  <si>
+    <t>Saba</t>
+  </si>
+  <si>
+    <t>The Tower</t>
+  </si>
+  <si>
+    <t>Luna</t>
+  </si>
+  <si>
+    <t>Özünlə Apar</t>
+  </si>
+  <si>
+    <t>FAHREE feat. Ilkin Dovlatov</t>
+  </si>
+  <si>
+    <t>Veronika</t>
+  </si>
+  <si>
+    <t>Raiven</t>
+  </si>
+  <si>
+    <t>Ramonda</t>
+  </si>
+  <si>
+    <t>Teya Dora</t>
+  </si>
+  <si>
+    <t>Pedestal</t>
+  </si>
+  <si>
+    <t>Aiko</t>
+  </si>
+  <si>
+    <t>Scared of Heights</t>
+  </si>
+  <si>
+    <t>Hera Björk</t>
+  </si>
+  <si>
+    <t>Fighter</t>
+  </si>
+  <si>
+    <t>Tali</t>
+  </si>
+  <si>
+    <t>Titan</t>
+  </si>
+  <si>
+    <t>Besa Kokëdhima</t>
+  </si>
+  <si>
+    <t>Loop</t>
+  </si>
+  <si>
+    <t>Sarah Bonnici</t>
+  </si>
+  <si>
+    <t>One Milkali (One Blood)</t>
+  </si>
+  <si>
+    <t>Electric Fields</t>
+  </si>
+  <si>
+    <t>Grito</t>
+  </si>
+  <si>
+    <t>Iolanda</t>
+  </si>
+  <si>
+    <t>In The Middle</t>
+  </si>
+  <si>
+    <t>Natalia Barbu</t>
+  </si>
+  <si>
+    <t>Hollow</t>
+  </si>
+  <si>
+    <t>Dons</t>
+  </si>
+  <si>
+    <t>Always on the Run</t>
+  </si>
+  <si>
+    <t>Isaak</t>
+  </si>
+  <si>
+    <t>(Nendest) narkootikumidest ei tea me (küll) midagi</t>
+  </si>
+  <si>
+    <t>5miinust &amp; Puuluup</t>
+  </si>
+  <si>
+    <t>Megara</t>
   </si>
 </sst>
 </file>
@@ -919,7 +1145,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1063,6 +1289,13 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2152,7 +2385,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45392.728075231484" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45394.699878009262" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="H1:L37" sheet="Hoja 3"/>
   </cacheSource>
@@ -2604,7 +2837,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
   <location ref="A1:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="5">
     <pivotField name="code" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -3235,15 +3468,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL4"/>
+  <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" ht="13.2">
       <c r="B1" t="s">
         <v>151</v>
       </c>
@@ -3356,7 +3589,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" ht="13.2">
       <c r="A2" s="2">
         <v>45389</v>
       </c>
@@ -3472,7 +3705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" ht="13.2">
       <c r="A3" s="2">
         <v>45390</v>
       </c>
@@ -3701,6 +3934,238 @@
         <v>0</v>
       </c>
       <c r="AL4" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A5" s="2">
+        <v>45392</v>
+      </c>
+      <c r="B5">
+        <v>474</v>
+      </c>
+      <c r="C5">
+        <v>442</v>
+      </c>
+      <c r="D5">
+        <v>349</v>
+      </c>
+      <c r="E5">
+        <v>311</v>
+      </c>
+      <c r="F5">
+        <v>316</v>
+      </c>
+      <c r="G5">
+        <v>302</v>
+      </c>
+      <c r="H5">
+        <v>246</v>
+      </c>
+      <c r="I5">
+        <v>222</v>
+      </c>
+      <c r="J5">
+        <v>201</v>
+      </c>
+      <c r="K5">
+        <v>231</v>
+      </c>
+      <c r="L5">
+        <v>219</v>
+      </c>
+      <c r="M5">
+        <v>125</v>
+      </c>
+      <c r="N5">
+        <v>111</v>
+      </c>
+      <c r="O5">
+        <v>116</v>
+      </c>
+      <c r="P5">
+        <v>103</v>
+      </c>
+      <c r="Q5">
+        <v>103</v>
+      </c>
+      <c r="R5">
+        <v>80</v>
+      </c>
+      <c r="S5">
+        <v>82</v>
+      </c>
+      <c r="T5">
+        <v>72</v>
+      </c>
+      <c r="U5">
+        <v>46</v>
+      </c>
+      <c r="V5">
+        <v>42</v>
+      </c>
+      <c r="W5">
+        <v>29</v>
+      </c>
+      <c r="X5">
+        <v>30</v>
+      </c>
+      <c r="Y5">
+        <v>39</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="61">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="61">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="61">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="61">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="61">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="61">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="61">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="61">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="61">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="61">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="61">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A6" s="2">
+        <v>45393</v>
+      </c>
+      <c r="B6">
+        <v>459</v>
+      </c>
+      <c r="C6">
+        <v>403</v>
+      </c>
+      <c r="D6">
+        <v>530</v>
+      </c>
+      <c r="E6">
+        <v>294</v>
+      </c>
+      <c r="F6">
+        <v>281</v>
+      </c>
+      <c r="G6">
+        <v>280</v>
+      </c>
+      <c r="H6">
+        <v>228</v>
+      </c>
+      <c r="I6">
+        <v>201</v>
+      </c>
+      <c r="J6">
+        <v>206</v>
+      </c>
+      <c r="K6">
+        <v>203</v>
+      </c>
+      <c r="L6">
+        <v>186</v>
+      </c>
+      <c r="M6">
+        <v>128</v>
+      </c>
+      <c r="N6">
+        <v>117</v>
+      </c>
+      <c r="O6">
+        <v>113</v>
+      </c>
+      <c r="P6">
+        <v>113</v>
+      </c>
+      <c r="Q6">
+        <v>110</v>
+      </c>
+      <c r="R6">
+        <v>106</v>
+      </c>
+      <c r="S6">
+        <v>104</v>
+      </c>
+      <c r="T6">
+        <v>62</v>
+      </c>
+      <c r="U6">
+        <v>35</v>
+      </c>
+      <c r="V6">
+        <v>32</v>
+      </c>
+      <c r="W6">
+        <v>27</v>
+      </c>
+      <c r="X6">
+        <v>22</v>
+      </c>
+      <c r="Y6">
+        <v>45</v>
+      </c>
+      <c r="Z6">
+        <v>7</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
         <v>0</v>
       </c>
     </row>
@@ -3710,6 +4175,1146 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6301985-910C-46A2-BCA7-5B73125291C9}">
+  <dimension ref="A1:K38"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:K38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="13.8">
+      <c r="A1" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="67"/>
+    </row>
+    <row r="2" spans="1:11" ht="27.6">
+      <c r="A2" s="68">
+        <v>1</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="51">
+        <v>530</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2">
+        <f>VLOOKUP(G2,D:E,2,0)</f>
+        <v>459</v>
+      </c>
+      <c r="J2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="13.8">
+      <c r="A3" s="68">
+        <v>2</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="53">
+        <v>459</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H38" si="0">VLOOKUP(G3,D:E,2,0)</f>
+        <v>403</v>
+      </c>
+      <c r="J3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="41.4">
+      <c r="A4" s="68">
+        <v>3</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="55">
+        <v>403</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>530</v>
+      </c>
+      <c r="J4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="13.8">
+      <c r="A5" s="68">
+        <v>4</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="57">
+        <v>294</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>294</v>
+      </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27.6">
+      <c r="A6" s="68">
+        <v>5</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="57">
+        <v>281</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>281</v>
+      </c>
+      <c r="J6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="27.6">
+      <c r="A7" s="68">
+        <v>6</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="57">
+        <v>280</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="13.8">
+      <c r="A8" s="68">
+        <v>7</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="57">
+        <v>228</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>228</v>
+      </c>
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="27.6">
+      <c r="A9" s="68">
+        <v>8</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>205</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="57">
+        <v>206</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>201</v>
+      </c>
+      <c r="J9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="27.6">
+      <c r="A10" s="68">
+        <v>9</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="57">
+        <v>203</v>
+      </c>
+      <c r="G10" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>206</v>
+      </c>
+      <c r="J10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="13.8">
+      <c r="A11" s="68">
+        <v>10</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="57">
+        <v>201</v>
+      </c>
+      <c r="G11" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>203</v>
+      </c>
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="13.8">
+      <c r="A12" s="68">
+        <v>11</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="49">
+        <v>186</v>
+      </c>
+      <c r="G12" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>186</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="27.6">
+      <c r="A13" s="68">
+        <v>12</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="49">
+        <v>128</v>
+      </c>
+      <c r="G13" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="J13" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="13.8">
+      <c r="A14" s="68">
+        <v>13</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="49">
+        <v>117</v>
+      </c>
+      <c r="G14" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="J14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="27.6">
+      <c r="A15" s="68">
+        <v>14</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="49">
+        <v>113</v>
+      </c>
+      <c r="G15" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="J15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="13.8">
+      <c r="A16" s="68">
+        <v>15</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="49">
+        <v>113</v>
+      </c>
+      <c r="G16" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="J16" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="13.8">
+      <c r="A17" s="68">
+        <v>16</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="49">
+        <v>110</v>
+      </c>
+      <c r="G17" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="J17" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="27.6">
+      <c r="A18" s="68">
+        <v>17</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="D18" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="49">
+        <v>106</v>
+      </c>
+      <c r="G18" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="J18" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="27.6">
+      <c r="A19" s="68">
+        <v>18</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="49">
+        <v>104</v>
+      </c>
+      <c r="G19" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="27.6">
+      <c r="A20" s="68">
+        <v>19</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="49">
+        <v>62</v>
+      </c>
+      <c r="G20" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="J20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="13.8">
+      <c r="A21" s="68">
+        <v>20</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="49">
+        <v>45</v>
+      </c>
+      <c r="G21" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="J21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="13.8">
+      <c r="A22" s="68">
+        <v>21</v>
+      </c>
+      <c r="B22" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="49">
+        <v>35</v>
+      </c>
+      <c r="G22" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="J22" t="s">
+        <v>73</v>
+      </c>
+      <c r="K22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="13.8">
+      <c r="A23" s="68">
+        <v>22</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="49">
+        <v>32</v>
+      </c>
+      <c r="G23" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="J23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="27.6">
+      <c r="A24" s="68">
+        <v>23</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="49">
+        <v>27</v>
+      </c>
+      <c r="G24" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="J24" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="13.8">
+      <c r="A25" s="68">
+        <v>24</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>237</v>
+      </c>
+      <c r="D25" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="49">
+        <v>22</v>
+      </c>
+      <c r="G25" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="J25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="13.8">
+      <c r="A26" s="68">
+        <v>25</v>
+      </c>
+      <c r="B26" s="48" t="s">
+        <v>238</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="49">
+        <v>7</v>
+      </c>
+      <c r="G26" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J26" t="s">
+        <v>83</v>
+      </c>
+      <c r="K26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="13.8">
+      <c r="A27" s="68">
+        <v>26</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>240</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="49">
+        <v>0</v>
+      </c>
+      <c r="G27" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="27.6">
+      <c r="A28" s="68">
+        <v>27</v>
+      </c>
+      <c r="B28" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>243</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="49">
+        <v>0</v>
+      </c>
+      <c r="G28" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>45</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="27.6">
+      <c r="A29" s="68">
+        <v>28</v>
+      </c>
+      <c r="B29" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="D29" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29" s="49">
+        <v>0</v>
+      </c>
+      <c r="G29" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>59</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="27.6">
+      <c r="A30" s="68">
+        <v>29</v>
+      </c>
+      <c r="B30" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="D30" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="49">
+        <v>0</v>
+      </c>
+      <c r="G30" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="27.6">
+      <c r="A31" s="68">
+        <v>30</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="D31" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="49">
+        <v>0</v>
+      </c>
+      <c r="G31" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>65</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="27.6">
+      <c r="A32" s="68">
+        <v>31</v>
+      </c>
+      <c r="B32" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="C32" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="D32" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="49">
+        <v>0</v>
+      </c>
+      <c r="G32" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>75</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="13.8">
+      <c r="A33" s="68">
+        <v>32</v>
+      </c>
+      <c r="B33" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="D33" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="49">
+        <v>0</v>
+      </c>
+      <c r="G33" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>33</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="27.6">
+      <c r="A34" s="68">
+        <v>33</v>
+      </c>
+      <c r="B34" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="C34" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="D34" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="49">
+        <v>0</v>
+      </c>
+      <c r="G34" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="13.8">
+      <c r="A35" s="68">
+        <v>34</v>
+      </c>
+      <c r="B35" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="C35" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="D35" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="49">
+        <v>0</v>
+      </c>
+      <c r="G35" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>149</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="27.6">
+      <c r="A36" s="68">
+        <v>35</v>
+      </c>
+      <c r="B36" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="C36" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="D36" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="49">
+        <v>0</v>
+      </c>
+      <c r="G36" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>63</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="69">
+      <c r="A37" s="68">
+        <v>36</v>
+      </c>
+      <c r="B37" s="48" t="s">
+        <v>260</v>
+      </c>
+      <c r="C37" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="D37" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="49">
+        <v>0</v>
+      </c>
+      <c r="G37" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>51</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="27.6">
+      <c r="A38" s="68">
+        <v>37</v>
+      </c>
+      <c r="B38" s="69">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="C38" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="D38" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="49">
+        <v>0</v>
+      </c>
+      <c r="G38" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>81</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8324,7 +9929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D10933F-46F7-4042-BCD5-55B0B9B43EC9}">
   <dimension ref="A1:AX40"/>
   <sheetViews>
@@ -9850,7 +11455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -16426,7 +18031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -23855,7 +25460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>

--- a/data/prueba_predicc_dia_dia.xlsx
+++ b/data/prueba_predicc_dia_dia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/Desktop/adri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="328" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AA8441A-D0EE-4C24-9CEF-68872E9CFCD8}"/>
+  <xr:revisionPtr revIDLastSave="340" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E29AE99-365A-4175-8E97-0C43277737E7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId8"/>
+    <pivotCache cacheId="8" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1280,6 +1280,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1289,13 +1296,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2385,7 +2385,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45394.699878009262" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45397.573848495369" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="H1:L37" sheet="Hoja 3"/>
   </cacheSource>
@@ -2837,7 +2837,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
   <location ref="A1:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="5">
     <pivotField name="code" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -3468,10 +3468,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL6"/>
+  <dimension ref="A1:AL5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3589,9 +3589,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="13.2">
+    <row r="2" spans="1:38" ht="15.75" customHeight="1">
       <c r="A2" s="2">
-        <v>45389</v>
+        <v>45393</v>
       </c>
       <c r="B2">
         <v>463</v>
@@ -3705,84 +3705,84 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="13.2">
+    <row r="3" spans="1:38" ht="15.75" customHeight="1">
       <c r="A3" s="2">
-        <v>45390</v>
+        <v>45394</v>
       </c>
       <c r="B3" s="61">
-        <v>516</v>
+        <v>487</v>
       </c>
       <c r="C3" s="61">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="D3" s="61">
-        <v>455</v>
+        <v>354</v>
       </c>
       <c r="E3" s="61">
-        <v>366</v>
+        <v>315</v>
       </c>
       <c r="F3" s="61">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="G3" s="61">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="H3" s="61">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="I3" s="61">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="J3" s="61">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="K3" s="61">
-        <v>144</v>
+        <v>223</v>
       </c>
       <c r="L3" s="61">
-        <v>130</v>
+        <v>202</v>
       </c>
       <c r="M3" s="61">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N3" s="61">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="O3" s="61">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="P3" s="61">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="Q3" s="61">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="R3" s="61">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="S3" s="61">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="T3" s="61">
+        <v>80</v>
+      </c>
+      <c r="U3" s="61">
+        <v>45</v>
+      </c>
+      <c r="V3" s="61">
         <v>42</v>
       </c>
-      <c r="U3" s="61">
-        <v>38</v>
-      </c>
-      <c r="V3" s="61">
-        <v>36</v>
-      </c>
       <c r="W3" s="61">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X3" s="61">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Y3" s="61">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Z3" s="61">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AA3" s="61">
         <v>0</v>
@@ -3823,349 +3823,233 @@
     </row>
     <row r="4" spans="1:38" ht="15.75" customHeight="1">
       <c r="A4" s="2">
-        <v>45391</v>
-      </c>
-      <c r="B4" s="61">
-        <v>487</v>
-      </c>
-      <c r="C4" s="61">
-        <v>448</v>
-      </c>
-      <c r="D4" s="61">
-        <v>354</v>
-      </c>
-      <c r="E4" s="61">
-        <v>315</v>
-      </c>
-      <c r="F4" s="61">
-        <v>299</v>
-      </c>
-      <c r="G4" s="61">
-        <v>297</v>
-      </c>
-      <c r="H4" s="61">
-        <v>230</v>
-      </c>
-      <c r="I4" s="61">
-        <v>223</v>
-      </c>
-      <c r="J4" s="61">
+        <v>45395</v>
+      </c>
+      <c r="B4">
+        <v>459</v>
+      </c>
+      <c r="C4">
+        <v>403</v>
+      </c>
+      <c r="D4">
+        <v>530</v>
+      </c>
+      <c r="E4">
+        <v>294</v>
+      </c>
+      <c r="F4">
+        <v>281</v>
+      </c>
+      <c r="G4">
+        <v>280</v>
+      </c>
+      <c r="H4">
+        <v>228</v>
+      </c>
+      <c r="I4">
+        <v>201</v>
+      </c>
+      <c r="J4">
+        <v>206</v>
+      </c>
+      <c r="K4">
         <v>203</v>
       </c>
-      <c r="K4" s="61">
-        <v>223</v>
-      </c>
-      <c r="L4" s="61">
-        <v>202</v>
-      </c>
-      <c r="M4" s="61">
-        <v>126</v>
-      </c>
-      <c r="N4" s="61">
-        <v>111</v>
-      </c>
-      <c r="O4" s="61">
+      <c r="L4">
+        <v>186</v>
+      </c>
+      <c r="M4">
+        <v>128</v>
+      </c>
+      <c r="N4">
+        <v>117</v>
+      </c>
+      <c r="O4">
+        <v>113</v>
+      </c>
+      <c r="P4">
+        <v>113</v>
+      </c>
+      <c r="Q4">
+        <v>110</v>
+      </c>
+      <c r="R4">
         <v>106</v>
       </c>
-      <c r="P4" s="61">
-        <v>106</v>
-      </c>
-      <c r="Q4" s="61">
-        <v>103</v>
-      </c>
-      <c r="R4" s="61">
-        <v>98</v>
-      </c>
-      <c r="S4" s="61">
-        <v>93</v>
-      </c>
-      <c r="T4" s="61">
-        <v>80</v>
-      </c>
-      <c r="U4" s="61">
+      <c r="S4">
+        <v>104</v>
+      </c>
+      <c r="T4">
+        <v>62</v>
+      </c>
+      <c r="U4">
+        <v>35</v>
+      </c>
+      <c r="V4">
+        <v>32</v>
+      </c>
+      <c r="W4">
+        <v>27</v>
+      </c>
+      <c r="X4">
+        <v>22</v>
+      </c>
+      <c r="Y4">
         <v>45</v>
       </c>
-      <c r="V4" s="61">
-        <v>42</v>
-      </c>
-      <c r="W4" s="61">
-        <v>35</v>
-      </c>
-      <c r="X4" s="61">
-        <v>31</v>
-      </c>
-      <c r="Y4" s="61">
-        <v>24</v>
-      </c>
-      <c r="Z4" s="61">
-        <v>11</v>
-      </c>
-      <c r="AA4" s="61">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="61">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="61">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="61">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="61">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="61">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="61">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="61">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="61">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="61">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="61">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="61">
+      <c r="Z4">
+        <v>7</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="15.75" customHeight="1">
       <c r="A5" s="2">
-        <v>45392</v>
+        <v>45396</v>
       </c>
       <c r="B5">
-        <v>474</v>
+        <v>425</v>
       </c>
       <c r="C5">
-        <v>442</v>
+        <v>546</v>
       </c>
       <c r="D5">
-        <v>349</v>
+        <v>499</v>
       </c>
       <c r="E5">
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="F5">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="G5">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="H5">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="I5">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="J5">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K5">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="L5">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="M5">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="N5">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="O5">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P5">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="Q5">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="R5">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="S5">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="T5">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="U5">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W5">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="X5">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Y5">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Z5">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="61">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="61">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="61">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="61">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="61">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="61">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="61">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="61">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="61">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="61">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="61">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A6" s="2">
-        <v>45393</v>
-      </c>
-      <c r="B6">
-        <v>459</v>
-      </c>
-      <c r="C6">
-        <v>403</v>
-      </c>
-      <c r="D6">
-        <v>530</v>
-      </c>
-      <c r="E6">
-        <v>294</v>
-      </c>
-      <c r="F6">
-        <v>281</v>
-      </c>
-      <c r="G6">
-        <v>280</v>
-      </c>
-      <c r="H6">
-        <v>228</v>
-      </c>
-      <c r="I6">
-        <v>201</v>
-      </c>
-      <c r="J6">
-        <v>206</v>
-      </c>
-      <c r="K6">
-        <v>203</v>
-      </c>
-      <c r="L6">
-        <v>186</v>
-      </c>
-      <c r="M6">
-        <v>128</v>
-      </c>
-      <c r="N6">
-        <v>117</v>
-      </c>
-      <c r="O6">
-        <v>113</v>
-      </c>
-      <c r="P6">
-        <v>113</v>
-      </c>
-      <c r="Q6">
-        <v>110</v>
-      </c>
-      <c r="R6">
-        <v>106</v>
-      </c>
-      <c r="S6">
-        <v>104</v>
-      </c>
-      <c r="T6">
-        <v>62</v>
-      </c>
-      <c r="U6">
-        <v>35</v>
-      </c>
-      <c r="V6">
-        <v>32</v>
-      </c>
-      <c r="W6">
-        <v>27</v>
-      </c>
-      <c r="X6">
-        <v>22</v>
-      </c>
-      <c r="Y6">
-        <v>45</v>
-      </c>
-      <c r="Z6">
-        <v>7</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
         <v>0</v>
       </c>
     </row>
@@ -4178,8 +4062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6301985-910C-46A2-BCA7-5B73125291C9}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:K38"/>
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -4197,100 +4081,100 @@
       <c r="D1" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="67"/>
-    </row>
-    <row r="2" spans="1:11" ht="27.6">
-      <c r="A2" s="68">
+      <c r="E1" s="62"/>
+    </row>
+    <row r="2" spans="1:11" ht="41.4">
+      <c r="A2" s="63">
         <v>1</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E2" s="51">
-        <v>530</v>
+        <v>546</v>
       </c>
       <c r="G2" s="58" t="s">
         <v>55</v>
       </c>
       <c r="H2">
         <f>VLOOKUP(G2,D:E,2,0)</f>
-        <v>459</v>
+        <v>425</v>
       </c>
       <c r="J2" t="s">
         <v>55</v>
       </c>
       <c r="K2">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="13.8">
-      <c r="A3" s="68">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27.6">
+      <c r="A3" s="63">
         <v>2</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="E3" s="53">
-        <v>459</v>
+        <v>499</v>
       </c>
       <c r="G3" s="58" t="s">
         <v>92</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H38" si="0">VLOOKUP(G3,D:E,2,0)</f>
-        <v>403</v>
+        <f>VLOOKUP(G3,D:E,2,0)</f>
+        <v>546</v>
       </c>
       <c r="J3" t="s">
         <v>92</v>
       </c>
       <c r="K3">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="41.4">
-      <c r="A4" s="68">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="13.8">
+      <c r="A4" s="63">
         <v>3</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="E4" s="55">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="G4" s="58" t="s">
         <v>90</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
-        <v>530</v>
+        <f>VLOOKUP(G4,D:E,2,0)</f>
+        <v>499</v>
       </c>
       <c r="J4" t="s">
         <v>90</v>
       </c>
       <c r="K4">
-        <v>530</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="13.8">
-      <c r="A5" s="68">
+      <c r="A5" s="63">
         <v>4</v>
       </c>
       <c r="B5" s="56" t="s">
@@ -4303,24 +4187,24 @@
         <v>47</v>
       </c>
       <c r="E5" s="57">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="G5" s="58" t="s">
         <v>47</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
-        <v>294</v>
+        <f>VLOOKUP(G5,D:E,2,0)</f>
+        <v>273</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
-        <v>294</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="27.6">
-      <c r="A6" s="68">
+      <c r="A6" s="63">
         <v>5</v>
       </c>
       <c r="B6" s="56" t="s">
@@ -4333,24 +4217,24 @@
         <v>57</v>
       </c>
       <c r="E6" s="57">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="G6" s="58" t="s">
         <v>57</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
-        <v>281</v>
+        <f>VLOOKUP(G6,D:E,2,0)</f>
+        <v>272</v>
       </c>
       <c r="J6" t="s">
         <v>57</v>
       </c>
       <c r="K6">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="27.6">
-      <c r="A7" s="68">
+      <c r="A7" s="63">
         <v>6</v>
       </c>
       <c r="B7" s="56" t="s">
@@ -4363,24 +4247,24 @@
         <v>89</v>
       </c>
       <c r="E7" s="57">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="G7" s="58" t="s">
         <v>89</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
-        <v>280</v>
+        <f>VLOOKUP(G7,D:E,2,0)</f>
+        <v>270</v>
       </c>
       <c r="J7" t="s">
         <v>89</v>
       </c>
       <c r="K7">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="13.8">
-      <c r="A8" s="68">
+      <c r="A8" s="63">
         <v>7</v>
       </c>
       <c r="B8" s="56" t="s">
@@ -4393,24 +4277,24 @@
         <v>13</v>
       </c>
       <c r="E8" s="57">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G8" s="58" t="s">
         <v>13</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
-        <v>228</v>
+        <f>VLOOKUP(G8,D:E,2,0)</f>
+        <v>222</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="27.6">
-      <c r="A9" s="68">
+      <c r="A9" s="63">
         <v>8</v>
       </c>
       <c r="B9" s="56" t="s">
@@ -4423,24 +4307,24 @@
         <v>23</v>
       </c>
       <c r="E9" s="57">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G9" s="58" t="s">
         <v>61</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
-        <v>201</v>
+        <f>VLOOKUP(G9,D:E,2,0)</f>
+        <v>198</v>
       </c>
       <c r="J9" t="s">
         <v>61</v>
       </c>
       <c r="K9">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="27.6">
-      <c r="A10" s="68">
+      <c r="A10" s="63">
         <v>9</v>
       </c>
       <c r="B10" s="56" t="s">
@@ -4453,24 +4337,24 @@
         <v>29</v>
       </c>
       <c r="E10" s="57">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G10" s="58" t="s">
         <v>23</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
-        <v>206</v>
+        <f>VLOOKUP(G10,D:E,2,0)</f>
+        <v>203</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
       </c>
       <c r="K10">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="13.8">
-      <c r="A11" s="68">
+      <c r="A11" s="63">
         <v>10</v>
       </c>
       <c r="B11" s="56" t="s">
@@ -4483,24 +4367,24 @@
         <v>61</v>
       </c>
       <c r="E11" s="57">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G11" s="58" t="s">
         <v>29</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
-        <v>203</v>
+        <f>VLOOKUP(G11,D:E,2,0)</f>
+        <v>199</v>
       </c>
       <c r="J11" t="s">
         <v>29</v>
       </c>
       <c r="K11">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="13.8">
-      <c r="A12" s="68">
+      <c r="A12" s="63">
         <v>11</v>
       </c>
       <c r="B12" s="48" t="s">
@@ -4513,24 +4397,24 @@
         <v>41</v>
       </c>
       <c r="E12" s="49">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G12" s="58" t="s">
         <v>41</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
-        <v>186</v>
+        <f>VLOOKUP(G12,D:E,2,0)</f>
+        <v>184</v>
       </c>
       <c r="J12" t="s">
         <v>41</v>
       </c>
       <c r="K12">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.6">
-      <c r="A13" s="68">
+      <c r="A13" s="63">
         <v>12</v>
       </c>
       <c r="B13" s="48" t="s">
@@ -4543,34 +4427,34 @@
         <v>93</v>
       </c>
       <c r="E13" s="49">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G13" s="58" t="s">
         <v>93</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
-        <v>128</v>
+        <f>VLOOKUP(G13,D:E,2,0)</f>
+        <v>132</v>
       </c>
       <c r="J13" t="s">
         <v>93</v>
       </c>
       <c r="K13">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="13.8">
-      <c r="A14" s="68">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="27.6">
+      <c r="A14" s="63">
         <v>13</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="E14" s="49">
         <v>117</v>
@@ -4579,388 +4463,388 @@
         <v>17</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
-        <v>117</v>
+        <f>VLOOKUP(G14,D:E,2,0)</f>
+        <v>102</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
       </c>
       <c r="K14">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="13.8">
+      <c r="A15" s="63">
+        <v>14</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="49">
         <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="27.6">
-      <c r="A15" s="68">
-        <v>14</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>216</v>
-      </c>
-      <c r="C15" s="48" t="s">
-        <v>217</v>
-      </c>
-      <c r="D15" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="49">
-        <v>113</v>
       </c>
       <c r="G15" s="58" t="s">
         <v>53</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
-        <v>113</v>
+        <f>VLOOKUP(G15,D:E,2,0)</f>
+        <v>117</v>
       </c>
       <c r="J15" t="s">
         <v>53</v>
       </c>
       <c r="K15">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="13.8">
-      <c r="A16" s="68">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="27.6">
+      <c r="A16" s="63">
         <v>15</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="E16" s="49">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G16" s="58" t="s">
         <v>86</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
-        <v>113</v>
+        <f>VLOOKUP(G16,D:E,2,0)</f>
+        <v>117</v>
       </c>
       <c r="J16" t="s">
         <v>86</v>
       </c>
       <c r="K16">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="13.8">
-      <c r="A17" s="68">
+      <c r="A17" s="63">
         <v>16</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="E17" s="49">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G17" s="58" t="s">
         <v>71</v>
       </c>
       <c r="H17">
-        <f t="shared" si="0"/>
-        <v>110</v>
+        <f>VLOOKUP(G17,D:E,2,0)</f>
+        <v>95</v>
       </c>
       <c r="J17" t="s">
         <v>71</v>
       </c>
       <c r="K17">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="27.6">
-      <c r="A18" s="68">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="13.8">
+      <c r="A18" s="63">
         <v>17</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="E18" s="49">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="G18" s="58" t="s">
         <v>87</v>
       </c>
       <c r="H18">
-        <f t="shared" si="0"/>
-        <v>106</v>
+        <f>VLOOKUP(G18,D:E,2,0)</f>
+        <v>95</v>
       </c>
       <c r="J18" t="s">
         <v>87</v>
       </c>
       <c r="K18">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="27.6">
-      <c r="A19" s="68">
+      <c r="A19" s="63">
         <v>18</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E19" s="49">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G19" s="58" t="s">
         <v>43</v>
       </c>
       <c r="H19">
-        <f t="shared" si="0"/>
-        <v>104</v>
+        <f>VLOOKUP(G19,D:E,2,0)</f>
+        <v>108</v>
       </c>
       <c r="J19" t="s">
         <v>43</v>
       </c>
       <c r="K19">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="27.6">
-      <c r="A20" s="68">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="13.8">
+      <c r="A20" s="63">
         <v>19</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E20" s="49">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="G20" s="58" t="s">
         <v>39</v>
       </c>
       <c r="H20">
-        <f t="shared" si="0"/>
-        <v>62</v>
+        <f>VLOOKUP(G20,D:E,2,0)</f>
+        <v>38</v>
       </c>
       <c r="J20" t="s">
         <v>39</v>
       </c>
       <c r="K20">
-        <v>62</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="13.8">
-      <c r="A21" s="68">
+      <c r="A21" s="63">
         <v>20</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="E21" s="49">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G21" s="58" t="s">
         <v>35</v>
       </c>
       <c r="H21">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <f>VLOOKUP(G21,D:E,2,0)</f>
+        <v>45</v>
       </c>
       <c r="J21" t="s">
         <v>35</v>
       </c>
       <c r="K21">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="13.8">
-      <c r="A22" s="68">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="27.6">
+      <c r="A22" s="63">
         <v>21</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E22" s="49">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G22" s="58" t="s">
         <v>73</v>
       </c>
       <c r="H22">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <f>VLOOKUP(G22,D:E,2,0)</f>
+        <v>43</v>
       </c>
       <c r="J22" t="s">
         <v>73</v>
       </c>
       <c r="K22">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="13.8">
-      <c r="A23" s="68">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="27.6">
+      <c r="A23" s="63">
         <v>22</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E23" s="49">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G23" s="58" t="s">
         <v>19</v>
       </c>
       <c r="H23">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <f>VLOOKUP(G23,D:E,2,0)</f>
+        <v>38</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
       </c>
       <c r="K23">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="27.6">
-      <c r="A24" s="68">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="13.8">
+      <c r="A24" s="63">
         <v>23</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="E24" s="49">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G24" s="58" t="s">
         <v>85</v>
       </c>
       <c r="H24">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <f>VLOOKUP(G24,D:E,2,0)</f>
+        <v>36</v>
       </c>
       <c r="J24" t="s">
         <v>85</v>
       </c>
       <c r="K24">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="13.8">
-      <c r="A25" s="68">
+      <c r="A25" s="63">
         <v>24</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="E25" s="49">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G25" s="58" t="s">
         <v>31</v>
       </c>
       <c r="H25">
-        <f t="shared" si="0"/>
-        <v>45</v>
+        <f>VLOOKUP(G25,D:E,2,0)</f>
+        <v>35</v>
       </c>
       <c r="J25" t="s">
         <v>31</v>
       </c>
       <c r="K25">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="13.8">
-      <c r="A26" s="68">
+      <c r="A26" s="63">
         <v>25</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E26" s="49">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G26" s="58" t="s">
         <v>83</v>
       </c>
       <c r="H26">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>VLOOKUP(G26,D:E,2,0)</f>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
         <v>83</v>
       </c>
       <c r="K26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="13.8">
-      <c r="A27" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="27.6">
+      <c r="A27" s="63">
         <v>26</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E27" s="49">
         <v>0</v>
@@ -4969,7 +4853,7 @@
         <v>37</v>
       </c>
       <c r="H27">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(G27,D:E,2,0)</f>
         <v>0</v>
       </c>
       <c r="J27" t="s">
@@ -4980,7 +4864,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="27.6">
-      <c r="A28" s="68">
+      <c r="A28" s="63">
         <v>27</v>
       </c>
       <c r="B28" s="48" t="s">
@@ -4999,7 +4883,7 @@
         <v>45</v>
       </c>
       <c r="H28">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(G28,D:E,2,0)</f>
         <v>0</v>
       </c>
       <c r="J28" t="s">
@@ -5010,7 +4894,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="27.6">
-      <c r="A29" s="68">
+      <c r="A29" s="63">
         <v>28</v>
       </c>
       <c r="B29" s="48" t="s">
@@ -5029,7 +4913,7 @@
         <v>59</v>
       </c>
       <c r="H29">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(G29,D:E,2,0)</f>
         <v>0</v>
       </c>
       <c r="J29" t="s">
@@ -5040,17 +4924,17 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="27.6">
-      <c r="A30" s="68">
+      <c r="A30" s="63">
         <v>29</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="E30" s="49">
         <v>0</v>
@@ -5059,7 +4943,7 @@
         <v>15</v>
       </c>
       <c r="H30">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(G30,D:E,2,0)</f>
         <v>0</v>
       </c>
       <c r="J30" t="s">
@@ -5069,18 +4953,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="27.6">
-      <c r="A31" s="68">
+    <row r="31" spans="1:11" ht="13.8">
+      <c r="A31" s="63">
         <v>30</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="E31" s="49">
         <v>0</v>
@@ -5089,7 +4973,7 @@
         <v>65</v>
       </c>
       <c r="H31">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(G31,D:E,2,0)</f>
         <v>0</v>
       </c>
       <c r="J31" t="s">
@@ -5100,7 +4984,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="27.6">
-      <c r="A32" s="68">
+      <c r="A32" s="63">
         <v>31</v>
       </c>
       <c r="B32" s="48" t="s">
@@ -5119,7 +5003,7 @@
         <v>75</v>
       </c>
       <c r="H32">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(G32,D:E,2,0)</f>
         <v>0</v>
       </c>
       <c r="J32" t="s">
@@ -5129,18 +5013,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="13.8">
-      <c r="A33" s="68">
+    <row r="33" spans="1:11" ht="27.6">
+      <c r="A33" s="63">
         <v>32</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E33" s="49">
         <v>0</v>
@@ -5149,7 +5033,7 @@
         <v>33</v>
       </c>
       <c r="H33">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(G33,D:E,2,0)</f>
         <v>0</v>
       </c>
       <c r="J33" t="s">
@@ -5159,18 +5043,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="27.6">
-      <c r="A34" s="68">
+    <row r="34" spans="1:11" ht="13.8">
+      <c r="A34" s="63">
         <v>33</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E34" s="49">
         <v>0</v>
@@ -5179,7 +5063,7 @@
         <v>9</v>
       </c>
       <c r="H34">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(G34,D:E,2,0)</f>
         <v>0</v>
       </c>
       <c r="J34" t="s">
@@ -5189,18 +5073,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="13.8">
-      <c r="A35" s="68">
+    <row r="35" spans="1:11" ht="27.6">
+      <c r="A35" s="63">
         <v>34</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E35" s="49">
         <v>0</v>
@@ -5209,7 +5093,7 @@
         <v>149</v>
       </c>
       <c r="H35">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(G35,D:E,2,0)</f>
         <v>0</v>
       </c>
       <c r="J35" t="s">
@@ -5219,18 +5103,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="27.6">
-      <c r="A36" s="68">
+    <row r="36" spans="1:11" ht="69">
+      <c r="A36" s="63">
         <v>35</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D36" s="48" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E36" s="49">
         <v>0</v>
@@ -5239,7 +5123,7 @@
         <v>63</v>
       </c>
       <c r="H36">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(G36,D:E,2,0)</f>
         <v>0</v>
       </c>
       <c r="J36" t="s">
@@ -5249,18 +5133,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="69">
-      <c r="A37" s="68">
+    <row r="37" spans="1:11" ht="13.8">
+      <c r="A37" s="63">
         <v>36</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="D37" s="48" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="E37" s="49">
         <v>0</v>
@@ -5269,7 +5153,7 @@
         <v>51</v>
       </c>
       <c r="H37">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(G37,D:E,2,0)</f>
         <v>0</v>
       </c>
       <c r="J37" t="s">
@@ -5280,10 +5164,10 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="27.6">
-      <c r="A38" s="68">
+      <c r="A38" s="63">
         <v>37</v>
       </c>
-      <c r="B38" s="69">
+      <c r="B38" s="64">
         <v>0.46597222222222223</v>
       </c>
       <c r="C38" s="48" t="s">
@@ -5299,7 +5183,7 @@
         <v>81</v>
       </c>
       <c r="H38">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(G38,D:E,2,0)</f>
         <v>0</v>
       </c>
       <c r="J38" t="s">
@@ -5335,15 +5219,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="13.8">
-      <c r="A1" s="62">
+      <c r="A1" s="65">
         <v>45056.999305555553</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
       <c r="H1" s="6"/>
       <c r="I1" s="7" t="s">
         <v>0</v>
@@ -6659,15 +6543,15 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="13.8">
-      <c r="A43" s="64">
+      <c r="A43" s="67">
         <v>45057.5</v>
       </c>
-      <c r="B43" s="65"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="66"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="69"/>
       <c r="I43" s="6">
         <v>43</v>
       </c>
@@ -7617,15 +7501,15 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="13.2">
-      <c r="A85" s="64">
+      <c r="A85" s="67">
         <v>45057.999305555553</v>
       </c>
-      <c r="B85" s="65"/>
-      <c r="C85" s="65"/>
-      <c r="D85" s="65"/>
-      <c r="E85" s="65"/>
-      <c r="F85" s="65"/>
-      <c r="G85" s="66"/>
+      <c r="B85" s="68"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="68"/>
+      <c r="F85" s="68"/>
+      <c r="G85" s="69"/>
     </row>
     <row r="86" spans="1:7" ht="15.75" customHeight="1">
       <c r="A86" s="20" t="s">
@@ -8539,15 +8423,15 @@
       </c>
     </row>
     <row r="127" spans="1:10" ht="13.2">
-      <c r="A127" s="64">
+      <c r="A127" s="67">
         <v>45058.5</v>
       </c>
-      <c r="B127" s="65"/>
-      <c r="C127" s="65"/>
-      <c r="D127" s="65"/>
-      <c r="E127" s="65"/>
-      <c r="F127" s="65"/>
-      <c r="G127" s="66"/>
+      <c r="B127" s="68"/>
+      <c r="C127" s="68"/>
+      <c r="D127" s="68"/>
+      <c r="E127" s="68"/>
+      <c r="F127" s="68"/>
+      <c r="G127" s="69"/>
     </row>
     <row r="128" spans="1:10" ht="15.75" customHeight="1">
       <c r="A128" s="26" t="s">

--- a/data/prueba_predicc_dia_dia.xlsx
+++ b/data/prueba_predicc_dia_dia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/Desktop/adri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="340" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E29AE99-365A-4175-8E97-0C43277737E7}"/>
+  <xr:revisionPtr revIDLastSave="348" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51F3B61B-6EFC-451E-AF07-BE260F1EE214}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId8"/>
+    <pivotCache cacheId="26" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -857,12 +857,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -873,6 +875,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -893,29 +896,34 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2385,7 +2393,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45397.573848495369" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45398.353358449072" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="H1:L37" sheet="Hoja 3"/>
   </cacheSource>
@@ -2837,7 +2845,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
   <location ref="A1:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="5">
     <pivotField name="code" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -3468,10 +3476,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL5"/>
+  <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4050,6 +4058,122 @@
         <v>0</v>
       </c>
       <c r="AL5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A6" s="2">
+        <v>45397</v>
+      </c>
+      <c r="B6">
+        <v>434</v>
+      </c>
+      <c r="C6">
+        <v>383</v>
+      </c>
+      <c r="D6">
+        <v>496</v>
+      </c>
+      <c r="E6">
+        <v>285</v>
+      </c>
+      <c r="F6">
+        <v>274</v>
+      </c>
+      <c r="G6">
+        <v>273</v>
+      </c>
+      <c r="H6">
+        <v>227</v>
+      </c>
+      <c r="I6">
+        <v>203</v>
+      </c>
+      <c r="J6">
+        <v>207</v>
+      </c>
+      <c r="K6">
+        <v>204</v>
+      </c>
+      <c r="L6">
+        <v>190</v>
+      </c>
+      <c r="M6">
+        <v>137</v>
+      </c>
+      <c r="N6">
+        <v>126</v>
+      </c>
+      <c r="O6">
+        <v>124</v>
+      </c>
+      <c r="P6">
+        <v>124</v>
+      </c>
+      <c r="Q6">
+        <v>120</v>
+      </c>
+      <c r="R6">
+        <v>118</v>
+      </c>
+      <c r="S6">
+        <v>114</v>
+      </c>
+      <c r="T6">
+        <v>77</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>50</v>
+      </c>
+      <c r="W6">
+        <v>46</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>43</v>
+      </c>
+      <c r="Z6">
+        <v>30</v>
+      </c>
+      <c r="AA6">
+        <v>7</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
         <v>0</v>
       </c>
     </row>
@@ -4062,7 +4186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6301985-910C-46A2-BCA7-5B73125291C9}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K2" sqref="K2:K38"/>
     </sheetView>
   </sheetViews>
@@ -4083,94 +4207,94 @@
       </c>
       <c r="E1" s="62"/>
     </row>
-    <row r="2" spans="1:11" ht="41.4">
+    <row r="2" spans="1:11" ht="27.6">
       <c r="A2" s="63">
         <v>1</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E2" s="51">
-        <v>546</v>
+        <v>496</v>
       </c>
       <c r="G2" s="58" t="s">
         <v>55</v>
       </c>
       <c r="H2">
-        <f>VLOOKUP(G2,D:E,2,0)</f>
-        <v>425</v>
+        <f t="shared" ref="H2:H38" si="0">VLOOKUP(G2,D:E,2,0)</f>
+        <v>434</v>
       </c>
       <c r="J2" t="s">
         <v>55</v>
       </c>
       <c r="K2">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="27.6">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="13.8">
       <c r="A3" s="63">
         <v>2</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="E3" s="53">
-        <v>499</v>
+        <v>434</v>
       </c>
       <c r="G3" s="58" t="s">
         <v>92</v>
       </c>
       <c r="H3">
-        <f>VLOOKUP(G3,D:E,2,0)</f>
-        <v>546</v>
+        <f t="shared" si="0"/>
+        <v>383</v>
       </c>
       <c r="J3" t="s">
         <v>92</v>
       </c>
       <c r="K3">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="13.8">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="41.4">
       <c r="A4" s="63">
         <v>3</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="E4" s="55">
-        <v>425</v>
+        <v>383</v>
       </c>
       <c r="G4" s="58" t="s">
         <v>90</v>
       </c>
       <c r="H4">
-        <f>VLOOKUP(G4,D:E,2,0)</f>
-        <v>499</v>
+        <f t="shared" si="0"/>
+        <v>496</v>
       </c>
       <c r="J4" t="s">
         <v>90</v>
       </c>
       <c r="K4">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="13.8">
@@ -4187,20 +4311,20 @@
         <v>47</v>
       </c>
       <c r="E5" s="57">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="G5" s="58" t="s">
         <v>47</v>
       </c>
       <c r="H5">
-        <f>VLOOKUP(G5,D:E,2,0)</f>
-        <v>273</v>
+        <f t="shared" si="0"/>
+        <v>285</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
-        <v>273</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="27.6">
@@ -4217,20 +4341,20 @@
         <v>57</v>
       </c>
       <c r="E6" s="57">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G6" s="58" t="s">
         <v>57</v>
       </c>
       <c r="H6">
-        <f>VLOOKUP(G6,D:E,2,0)</f>
-        <v>272</v>
+        <f t="shared" si="0"/>
+        <v>274</v>
       </c>
       <c r="J6" t="s">
         <v>57</v>
       </c>
       <c r="K6">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="27.6">
@@ -4247,20 +4371,20 @@
         <v>89</v>
       </c>
       <c r="E7" s="57">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G7" s="58" t="s">
         <v>89</v>
       </c>
       <c r="H7">
-        <f>VLOOKUP(G7,D:E,2,0)</f>
-        <v>270</v>
+        <f t="shared" si="0"/>
+        <v>273</v>
       </c>
       <c r="J7" t="s">
         <v>89</v>
       </c>
       <c r="K7">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="13.8">
@@ -4277,20 +4401,20 @@
         <v>13</v>
       </c>
       <c r="E8" s="57">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="G8" s="58" t="s">
         <v>13</v>
       </c>
       <c r="H8">
-        <f>VLOOKUP(G8,D:E,2,0)</f>
-        <v>222</v>
+        <f t="shared" si="0"/>
+        <v>227</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="27.6">
@@ -4307,20 +4431,20 @@
         <v>23</v>
       </c>
       <c r="E9" s="57">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G9" s="58" t="s">
         <v>61</v>
       </c>
       <c r="H9">
-        <f>VLOOKUP(G9,D:E,2,0)</f>
-        <v>198</v>
+        <f t="shared" si="0"/>
+        <v>203</v>
       </c>
       <c r="J9" t="s">
         <v>61</v>
       </c>
       <c r="K9">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="27.6">
@@ -4337,20 +4461,20 @@
         <v>29</v>
       </c>
       <c r="E10" s="57">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G10" s="58" t="s">
         <v>23</v>
       </c>
       <c r="H10">
-        <f>VLOOKUP(G10,D:E,2,0)</f>
-        <v>203</v>
+        <f t="shared" si="0"/>
+        <v>207</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
       </c>
       <c r="K10">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="13.8">
@@ -4367,20 +4491,20 @@
         <v>61</v>
       </c>
       <c r="E11" s="57">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="G11" s="58" t="s">
         <v>29</v>
       </c>
       <c r="H11">
-        <f>VLOOKUP(G11,D:E,2,0)</f>
-        <v>199</v>
+        <f t="shared" si="0"/>
+        <v>204</v>
       </c>
       <c r="J11" t="s">
         <v>29</v>
       </c>
       <c r="K11">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="13.8">
@@ -4397,20 +4521,20 @@
         <v>41</v>
       </c>
       <c r="E12" s="49">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G12" s="58" t="s">
         <v>41</v>
       </c>
       <c r="H12">
-        <f>VLOOKUP(G12,D:E,2,0)</f>
-        <v>184</v>
+        <f t="shared" si="0"/>
+        <v>190</v>
       </c>
       <c r="J12" t="s">
         <v>41</v>
       </c>
       <c r="K12">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.6">
@@ -4427,110 +4551,110 @@
         <v>93</v>
       </c>
       <c r="E13" s="49">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G13" s="58" t="s">
         <v>93</v>
       </c>
       <c r="H13">
-        <f>VLOOKUP(G13,D:E,2,0)</f>
-        <v>132</v>
+        <f t="shared" si="0"/>
+        <v>137</v>
       </c>
       <c r="J13" t="s">
         <v>93</v>
       </c>
       <c r="K13">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="27.6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="13.8">
       <c r="A14" s="63">
         <v>13</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="E14" s="49">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G14" s="58" t="s">
         <v>17</v>
       </c>
       <c r="H14">
-        <f>VLOOKUP(G14,D:E,2,0)</f>
-        <v>102</v>
+        <f t="shared" si="0"/>
+        <v>126</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
       </c>
       <c r="K14">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="13.8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="27.6">
       <c r="A15" s="63">
         <v>14</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="E15" s="49">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G15" s="58" t="s">
         <v>53</v>
       </c>
       <c r="H15">
-        <f>VLOOKUP(G15,D:E,2,0)</f>
-        <v>117</v>
+        <f t="shared" si="0"/>
+        <v>124</v>
       </c>
       <c r="J15" t="s">
         <v>53</v>
       </c>
       <c r="K15">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="27.6">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="13.8">
       <c r="A16" s="63">
         <v>15</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="E16" s="49">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="G16" s="58" t="s">
         <v>86</v>
       </c>
       <c r="H16">
-        <f>VLOOKUP(G16,D:E,2,0)</f>
-        <v>117</v>
+        <f t="shared" si="0"/>
+        <v>124</v>
       </c>
       <c r="J16" t="s">
         <v>86</v>
       </c>
       <c r="K16">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="13.8">
@@ -4538,59 +4662,59 @@
         <v>16</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="E17" s="49">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="G17" s="58" t="s">
         <v>71</v>
       </c>
       <c r="H17">
-        <f>VLOOKUP(G17,D:E,2,0)</f>
-        <v>95</v>
+        <f t="shared" si="0"/>
+        <v>120</v>
       </c>
       <c r="J17" t="s">
         <v>71</v>
       </c>
       <c r="K17">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="13.8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="27.6">
       <c r="A18" s="63">
         <v>17</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="E18" s="49">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="G18" s="58" t="s">
         <v>87</v>
       </c>
       <c r="H18">
-        <f>VLOOKUP(G18,D:E,2,0)</f>
-        <v>95</v>
+        <f t="shared" si="0"/>
+        <v>118</v>
       </c>
       <c r="J18" t="s">
         <v>87</v>
       </c>
       <c r="K18">
-        <v>95</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="27.6">
@@ -4598,59 +4722,59 @@
         <v>18</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="E19" s="49">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="G19" s="58" t="s">
         <v>43</v>
       </c>
       <c r="H19">
-        <f>VLOOKUP(G19,D:E,2,0)</f>
-        <v>108</v>
+        <f t="shared" si="0"/>
+        <v>114</v>
       </c>
       <c r="J19" t="s">
         <v>43</v>
       </c>
       <c r="K19">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="13.8">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="27.6">
       <c r="A20" s="63">
         <v>19</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E20" s="49">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="G20" s="58" t="s">
         <v>39</v>
       </c>
       <c r="H20">
-        <f>VLOOKUP(G20,D:E,2,0)</f>
-        <v>38</v>
+        <f t="shared" si="0"/>
+        <v>77</v>
       </c>
       <c r="J20" t="s">
         <v>39</v>
       </c>
       <c r="K20">
-        <v>38</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="13.8">
@@ -4667,20 +4791,20 @@
         <v>73</v>
       </c>
       <c r="E21" s="49">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G21" s="58" t="s">
         <v>35</v>
       </c>
       <c r="H21">
-        <f>VLOOKUP(G21,D:E,2,0)</f>
-        <v>45</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
         <v>35</v>
       </c>
       <c r="K21">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="27.6">
@@ -4697,50 +4821,50 @@
         <v>19</v>
       </c>
       <c r="E22" s="49">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G22" s="58" t="s">
         <v>73</v>
       </c>
       <c r="H22">
-        <f>VLOOKUP(G22,D:E,2,0)</f>
-        <v>43</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="J22" t="s">
         <v>73</v>
       </c>
       <c r="K22">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="27.6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="13.8">
       <c r="A23" s="63">
         <v>22</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E23" s="49">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G23" s="58" t="s">
         <v>19</v>
       </c>
       <c r="H23">
-        <f>VLOOKUP(G23,D:E,2,0)</f>
-        <v>38</v>
+        <f t="shared" si="0"/>
+        <v>46</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
       </c>
       <c r="K23">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="13.8">
@@ -4748,59 +4872,59 @@
         <v>23</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E24" s="49">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G24" s="58" t="s">
         <v>85</v>
       </c>
       <c r="H24">
-        <f>VLOOKUP(G24,D:E,2,0)</f>
-        <v>36</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
         <v>85</v>
       </c>
       <c r="K24">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="13.8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="69">
       <c r="A25" s="63">
         <v>24</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E25" s="49">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="G25" s="58" t="s">
         <v>31</v>
       </c>
       <c r="H25">
-        <f>VLOOKUP(G25,D:E,2,0)</f>
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>43</v>
       </c>
       <c r="J25" t="s">
         <v>31</v>
       </c>
       <c r="K25">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="13.8">
@@ -4823,14 +4947,14 @@
         <v>83</v>
       </c>
       <c r="H26">
-        <f>VLOOKUP(G26,D:E,2,0)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="J26" t="s">
         <v>83</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="27.6">
@@ -4853,14 +4977,14 @@
         <v>37</v>
       </c>
       <c r="H27">
-        <f>VLOOKUP(G27,D:E,2,0)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="J27" t="s">
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="27.6">
@@ -4883,7 +5007,7 @@
         <v>45</v>
       </c>
       <c r="H28">
-        <f>VLOOKUP(G28,D:E,2,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J28" t="s">
@@ -4913,7 +5037,7 @@
         <v>59</v>
       </c>
       <c r="H29">
-        <f>VLOOKUP(G29,D:E,2,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J29" t="s">
@@ -4943,7 +5067,7 @@
         <v>15</v>
       </c>
       <c r="H30">
-        <f>VLOOKUP(G30,D:E,2,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J30" t="s">
@@ -4973,7 +5097,7 @@
         <v>65</v>
       </c>
       <c r="H31">
-        <f>VLOOKUP(G31,D:E,2,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J31" t="s">
@@ -5003,7 +5127,7 @@
         <v>75</v>
       </c>
       <c r="H32">
-        <f>VLOOKUP(G32,D:E,2,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J32" t="s">
@@ -5033,7 +5157,7 @@
         <v>33</v>
       </c>
       <c r="H33">
-        <f>VLOOKUP(G33,D:E,2,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J33" t="s">
@@ -5063,7 +5187,7 @@
         <v>9</v>
       </c>
       <c r="H34">
-        <f>VLOOKUP(G34,D:E,2,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J34" t="s">
@@ -5093,7 +5217,7 @@
         <v>149</v>
       </c>
       <c r="H35">
-        <f>VLOOKUP(G35,D:E,2,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J35" t="s">
@@ -5103,18 +5227,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="69">
+    <row r="36" spans="1:11" ht="13.8">
       <c r="A36" s="63">
         <v>35</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="D36" s="48" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E36" s="49">
         <v>0</v>
@@ -5123,7 +5247,7 @@
         <v>63</v>
       </c>
       <c r="H36">
-        <f>VLOOKUP(G36,D:E,2,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J36" t="s">
@@ -5138,13 +5262,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D37" s="48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E37" s="49">
         <v>0</v>
@@ -5153,7 +5277,7 @@
         <v>51</v>
       </c>
       <c r="H37">
-        <f>VLOOKUP(G37,D:E,2,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J37" t="s">
@@ -5183,7 +5307,7 @@
         <v>81</v>
       </c>
       <c r="H38">
-        <f>VLOOKUP(G38,D:E,2,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J38" t="s">

--- a/data/prueba_predicc_dia_dia.xlsx
+++ b/data/prueba_predicc_dia_dia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/Desktop/adri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="348" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51F3B61B-6EFC-451E-AF07-BE260F1EE214}"/>
+  <xr:revisionPtr revIDLastSave="358" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F732E00-83DE-4B7A-A2FB-D36C79292B97}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="26" r:id="rId8"/>
+    <pivotCache cacheId="8" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2393,7 +2393,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45398.353358449072" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45399.543810185183" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="H1:L37" sheet="Hoja 3"/>
   </cacheSource>
@@ -2845,7 +2845,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
   <location ref="A1:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="5">
     <pivotField name="code" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -3476,10 +3476,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL6"/>
+  <dimension ref="A1:AL7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4174,6 +4174,122 @@
         <v>0</v>
       </c>
       <c r="AL6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A7" s="2">
+        <v>45398</v>
+      </c>
+      <c r="B7">
+        <v>435</v>
+      </c>
+      <c r="C7">
+        <v>385</v>
+      </c>
+      <c r="D7">
+        <v>498</v>
+      </c>
+      <c r="E7">
+        <v>286</v>
+      </c>
+      <c r="F7">
+        <v>276</v>
+      </c>
+      <c r="G7">
+        <v>275</v>
+      </c>
+      <c r="H7">
+        <v>228</v>
+      </c>
+      <c r="I7">
+        <v>204</v>
+      </c>
+      <c r="J7">
+        <v>209</v>
+      </c>
+      <c r="K7">
+        <v>206</v>
+      </c>
+      <c r="L7">
+        <v>191</v>
+      </c>
+      <c r="M7">
+        <v>139</v>
+      </c>
+      <c r="N7">
+        <v>128</v>
+      </c>
+      <c r="O7">
+        <v>125</v>
+      </c>
+      <c r="P7">
+        <v>125</v>
+      </c>
+      <c r="Q7">
+        <v>122</v>
+      </c>
+      <c r="R7">
+        <v>119</v>
+      </c>
+      <c r="S7">
+        <v>116</v>
+      </c>
+      <c r="T7">
+        <v>80</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>52</v>
+      </c>
+      <c r="W7">
+        <v>48</v>
+      </c>
+      <c r="X7">
+        <v>2</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>31</v>
+      </c>
+      <c r="AA7">
+        <v>11</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
         <v>0</v>
       </c>
     </row>
@@ -4221,20 +4337,20 @@
         <v>90</v>
       </c>
       <c r="E2" s="51">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="G2" s="58" t="s">
         <v>55</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H38" si="0">VLOOKUP(G2,D:E,2,0)</f>
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="J2" t="s">
         <v>55</v>
       </c>
       <c r="K2">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.8">
@@ -4251,20 +4367,20 @@
         <v>55</v>
       </c>
       <c r="E3" s="53">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G3" s="58" t="s">
         <v>92</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="J3" t="s">
         <v>92</v>
       </c>
       <c r="K3">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="41.4">
@@ -4281,20 +4397,20 @@
         <v>92</v>
       </c>
       <c r="E4" s="55">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G4" s="58" t="s">
         <v>90</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="J4" t="s">
         <v>90</v>
       </c>
       <c r="K4">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="13.8">
@@ -4311,20 +4427,20 @@
         <v>47</v>
       </c>
       <c r="E5" s="57">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G5" s="58" t="s">
         <v>47</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="27.6">
@@ -4341,20 +4457,20 @@
         <v>57</v>
       </c>
       <c r="E6" s="57">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G6" s="58" t="s">
         <v>57</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J6" t="s">
         <v>57</v>
       </c>
       <c r="K6">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="27.6">
@@ -4371,20 +4487,20 @@
         <v>89</v>
       </c>
       <c r="E7" s="57">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G7" s="58" t="s">
         <v>89</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="J7" t="s">
         <v>89</v>
       </c>
       <c r="K7">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="13.8">
@@ -4401,20 +4517,20 @@
         <v>13</v>
       </c>
       <c r="E8" s="57">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G8" s="58" t="s">
         <v>13</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="27.6">
@@ -4431,20 +4547,20 @@
         <v>23</v>
       </c>
       <c r="E9" s="57">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G9" s="58" t="s">
         <v>61</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J9" t="s">
         <v>61</v>
       </c>
       <c r="K9">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="27.6">
@@ -4461,20 +4577,20 @@
         <v>29</v>
       </c>
       <c r="E10" s="57">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G10" s="58" t="s">
         <v>23</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
       </c>
       <c r="K10">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="13.8">
@@ -4491,20 +4607,20 @@
         <v>61</v>
       </c>
       <c r="E11" s="57">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G11" s="58" t="s">
         <v>29</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J11" t="s">
         <v>29</v>
       </c>
       <c r="K11">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="13.8">
@@ -4521,20 +4637,20 @@
         <v>41</v>
       </c>
       <c r="E12" s="49">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G12" s="58" t="s">
         <v>41</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J12" t="s">
         <v>41</v>
       </c>
       <c r="K12">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.6">
@@ -4551,20 +4667,20 @@
         <v>93</v>
       </c>
       <c r="E13" s="49">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G13" s="58" t="s">
         <v>93</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J13" t="s">
         <v>93</v>
       </c>
       <c r="K13">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="13.8">
@@ -4581,20 +4697,20 @@
         <v>17</v>
       </c>
       <c r="E14" s="49">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G14" s="58" t="s">
         <v>17</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
       </c>
       <c r="K14">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="27.6">
@@ -4611,20 +4727,20 @@
         <v>53</v>
       </c>
       <c r="E15" s="49">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G15" s="58" t="s">
         <v>53</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J15" t="s">
         <v>53</v>
       </c>
       <c r="K15">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="13.8">
@@ -4641,20 +4757,20 @@
         <v>86</v>
       </c>
       <c r="E16" s="49">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G16" s="58" t="s">
         <v>86</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J16" t="s">
         <v>86</v>
       </c>
       <c r="K16">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="13.8">
@@ -4671,20 +4787,20 @@
         <v>71</v>
       </c>
       <c r="E17" s="49">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G17" s="58" t="s">
         <v>71</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J17" t="s">
         <v>71</v>
       </c>
       <c r="K17">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="27.6">
@@ -4701,20 +4817,20 @@
         <v>87</v>
       </c>
       <c r="E18" s="49">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G18" s="58" t="s">
         <v>87</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J18" t="s">
         <v>87</v>
       </c>
       <c r="K18">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="27.6">
@@ -4731,20 +4847,20 @@
         <v>43</v>
       </c>
       <c r="E19" s="49">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G19" s="58" t="s">
         <v>43</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J19" t="s">
         <v>43</v>
       </c>
       <c r="K19">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="27.6">
@@ -4761,20 +4877,20 @@
         <v>39</v>
       </c>
       <c r="E20" s="49">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G20" s="58" t="s">
         <v>39</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J20" t="s">
         <v>39</v>
       </c>
       <c r="K20">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="13.8">
@@ -4791,20 +4907,20 @@
         <v>73</v>
       </c>
       <c r="E21" s="49">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G21" s="58" t="s">
         <v>35</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
         <v>35</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="27.6">
@@ -4821,20 +4937,20 @@
         <v>19</v>
       </c>
       <c r="E22" s="49">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G22" s="58" t="s">
         <v>73</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J22" t="s">
         <v>73</v>
       </c>
       <c r="K22">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="13.8">
@@ -4842,89 +4958,89 @@
         <v>22</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="D23" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="49">
         <v>31</v>
-      </c>
-      <c r="E23" s="49">
-        <v>43</v>
       </c>
       <c r="G23" s="58" t="s">
         <v>19</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
       </c>
       <c r="K23">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="13.8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="69">
       <c r="A24" s="63">
         <v>23</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="E24" s="49">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G24" s="58" t="s">
         <v>85</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
         <v>85</v>
       </c>
       <c r="K24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="13.8">
       <c r="A25" s="63">
         <v>24</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="E25" s="49">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G25" s="58" t="s">
         <v>31</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
         <v>31</v>
       </c>
       <c r="K25">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="13.8">
@@ -4932,43 +5048,43 @@
         <v>25</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="E26" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="58" t="s">
         <v>83</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J26" t="s">
         <v>83</v>
       </c>
       <c r="K26">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="27.6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="13.8">
       <c r="A27" s="63">
         <v>26</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E27" s="49">
         <v>0</v>
@@ -4978,13 +5094,13 @@
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J27" t="s">
         <v>37</v>
       </c>
       <c r="K27">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="27.6">
@@ -4992,13 +5108,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="E28" s="49">
         <v>0</v>
@@ -5022,13 +5138,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="48" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>149</v>
+        <v>51</v>
       </c>
       <c r="E29" s="49">
         <v>0</v>
@@ -5052,13 +5168,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="E30" s="49">
         <v>0</v>
@@ -5077,18 +5193,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="13.8">
+    <row r="31" spans="1:11" ht="27.6">
       <c r="A31" s="63">
         <v>30</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="E31" s="49">
         <v>0</v>
@@ -5137,18 +5253,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="27.6">
+    <row r="33" spans="1:11" ht="13.8">
       <c r="A33" s="63">
         <v>32</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E33" s="49">
         <v>0</v>
@@ -5167,18 +5283,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="13.8">
+    <row r="34" spans="1:11" ht="27.6">
       <c r="A34" s="63">
         <v>33</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E34" s="49">
         <v>0</v>
@@ -5197,18 +5313,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="27.6">
+    <row r="35" spans="1:11" ht="13.8">
       <c r="A35" s="63">
         <v>34</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E35" s="49">
         <v>0</v>
@@ -5232,13 +5348,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D36" s="48" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E36" s="49">
         <v>0</v>
@@ -5257,18 +5373,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="13.8">
+    <row r="37" spans="1:11" ht="27.6">
       <c r="A37" s="63">
         <v>36</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="D37" s="48" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="E37" s="49">
         <v>0</v>

--- a/data/prueba_predicc_dia_dia.xlsx
+++ b/data/prueba_predicc_dia_dia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/Desktop/adri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="358" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F732E00-83DE-4B7A-A2FB-D36C79292B97}"/>
+  <xr:revisionPtr revIDLastSave="387" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD864D34-8076-4204-A18E-C0C1F5346E95}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1153,7 +1153,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1288,7 +1288,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2393,7 +2392,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45399.543810185183" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45400.452085532408" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="H1:L37" sheet="Hoja 3"/>
   </cacheSource>
@@ -3476,10 +3475,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL7"/>
+  <dimension ref="A1:AL9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4290,6 +4289,238 @@
         <v>0</v>
       </c>
       <c r="AL7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A8" s="2">
+        <v>45399</v>
+      </c>
+      <c r="B8">
+        <v>427</v>
+      </c>
+      <c r="C8">
+        <v>385</v>
+      </c>
+      <c r="D8">
+        <v>504</v>
+      </c>
+      <c r="E8">
+        <v>290</v>
+      </c>
+      <c r="F8">
+        <v>282</v>
+      </c>
+      <c r="G8">
+        <v>280</v>
+      </c>
+      <c r="H8">
+        <v>231</v>
+      </c>
+      <c r="I8">
+        <v>205</v>
+      </c>
+      <c r="J8">
+        <v>203</v>
+      </c>
+      <c r="K8">
+        <v>210</v>
+      </c>
+      <c r="L8">
+        <v>198</v>
+      </c>
+      <c r="M8">
+        <v>130</v>
+      </c>
+      <c r="N8">
+        <v>124</v>
+      </c>
+      <c r="O8">
+        <v>133</v>
+      </c>
+      <c r="P8">
+        <v>129</v>
+      </c>
+      <c r="Q8">
+        <v>117</v>
+      </c>
+      <c r="R8">
+        <v>120</v>
+      </c>
+      <c r="S8">
+        <v>111</v>
+      </c>
+      <c r="T8">
+        <v>83</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>46</v>
+      </c>
+      <c r="W8">
+        <v>39</v>
+      </c>
+      <c r="X8">
+        <v>10</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>32</v>
+      </c>
+      <c r="AA8">
+        <v>3</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A9" s="2">
+        <v>45400</v>
+      </c>
+      <c r="B9">
+        <v>441</v>
+      </c>
+      <c r="C9">
+        <v>334</v>
+      </c>
+      <c r="D9">
+        <v>505</v>
+      </c>
+      <c r="E9">
+        <v>290</v>
+      </c>
+      <c r="F9">
+        <v>280</v>
+      </c>
+      <c r="G9">
+        <v>279</v>
+      </c>
+      <c r="H9">
+        <v>231</v>
+      </c>
+      <c r="I9">
+        <v>206</v>
+      </c>
+      <c r="J9">
+        <v>211</v>
+      </c>
+      <c r="K9">
+        <v>209</v>
+      </c>
+      <c r="L9">
+        <v>193</v>
+      </c>
+      <c r="M9">
+        <v>141</v>
+      </c>
+      <c r="N9">
+        <v>130</v>
+      </c>
+      <c r="O9">
+        <v>127</v>
+      </c>
+      <c r="P9">
+        <v>127</v>
+      </c>
+      <c r="Q9">
+        <v>123</v>
+      </c>
+      <c r="R9">
+        <v>121</v>
+      </c>
+      <c r="S9">
+        <v>117</v>
+      </c>
+      <c r="T9">
+        <v>81</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>53</v>
+      </c>
+      <c r="W9">
+        <v>49</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>32</v>
+      </c>
+      <c r="AA9">
+        <v>11</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
         <v>0</v>
       </c>
     </row>
@@ -4302,29 +4533,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6301985-910C-46A2-BCA7-5B73125291C9}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K2" sqref="K2:K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="13.8">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="62"/>
+      <c r="B1" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="C1" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="D1" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="E1" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="62"/>
     </row>
     <row r="2" spans="1:11" ht="27.6">
-      <c r="A2" s="63">
+      <c r="A2" s="62">
         <v>1</v>
       </c>
       <c r="B2" s="50" t="s">
@@ -4337,24 +4568,24 @@
         <v>90</v>
       </c>
       <c r="E2" s="51">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="G2" s="58" t="s">
         <v>55</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H38" si="0">VLOOKUP(G2,D:E,2,0)</f>
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="J2" t="s">
         <v>55</v>
       </c>
       <c r="K2">
-        <v>435</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.8">
-      <c r="A3" s="63">
+      <c r="A3" s="62">
         <v>2</v>
       </c>
       <c r="B3" s="52" t="s">
@@ -4367,24 +4598,24 @@
         <v>55</v>
       </c>
       <c r="E3" s="53">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="G3" s="58" t="s">
         <v>92</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>385</v>
+        <v>334</v>
       </c>
       <c r="J3" t="s">
         <v>92</v>
       </c>
       <c r="K3">
-        <v>385</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="41.4">
-      <c r="A4" s="63">
+      <c r="A4" s="62">
         <v>3</v>
       </c>
       <c r="B4" s="54" t="s">
@@ -4397,24 +4628,24 @@
         <v>92</v>
       </c>
       <c r="E4" s="55">
-        <v>385</v>
+        <v>334</v>
       </c>
       <c r="G4" s="58" t="s">
         <v>90</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="J4" t="s">
         <v>90</v>
       </c>
       <c r="K4">
-        <v>498</v>
+        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="13.8">
-      <c r="A5" s="63">
+      <c r="A5" s="62">
         <v>4</v>
       </c>
       <c r="B5" s="56" t="s">
@@ -4427,24 +4658,24 @@
         <v>47</v>
       </c>
       <c r="E5" s="57">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G5" s="58" t="s">
         <v>47</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="27.6">
-      <c r="A6" s="63">
+      <c r="A6" s="62">
         <v>5</v>
       </c>
       <c r="B6" s="56" t="s">
@@ -4457,24 +4688,24 @@
         <v>57</v>
       </c>
       <c r="E6" s="57">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G6" s="58" t="s">
         <v>57</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="J6" t="s">
         <v>57</v>
       </c>
       <c r="K6">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="27.6">
-      <c r="A7" s="63">
+      <c r="A7" s="62">
         <v>6</v>
       </c>
       <c r="B7" s="56" t="s">
@@ -4487,24 +4718,24 @@
         <v>89</v>
       </c>
       <c r="E7" s="57">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G7" s="58" t="s">
         <v>89</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="J7" t="s">
         <v>89</v>
       </c>
       <c r="K7">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="13.8">
-      <c r="A8" s="63">
+      <c r="A8" s="62">
         <v>7</v>
       </c>
       <c r="B8" s="56" t="s">
@@ -4517,24 +4748,24 @@
         <v>13</v>
       </c>
       <c r="E8" s="57">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G8" s="58" t="s">
         <v>13</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="27.6">
-      <c r="A9" s="63">
+      <c r="A9" s="62">
         <v>8</v>
       </c>
       <c r="B9" s="56" t="s">
@@ -4547,24 +4778,24 @@
         <v>23</v>
       </c>
       <c r="E9" s="57">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G9" s="58" t="s">
         <v>61</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J9" t="s">
         <v>61</v>
       </c>
       <c r="K9">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="27.6">
-      <c r="A10" s="63">
+      <c r="A10" s="62">
         <v>9</v>
       </c>
       <c r="B10" s="56" t="s">
@@ -4577,24 +4808,24 @@
         <v>29</v>
       </c>
       <c r="E10" s="57">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G10" s="58" t="s">
         <v>23</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
       </c>
       <c r="K10">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="13.8">
-      <c r="A11" s="63">
+      <c r="A11" s="62">
         <v>10</v>
       </c>
       <c r="B11" s="56" t="s">
@@ -4607,24 +4838,24 @@
         <v>61</v>
       </c>
       <c r="E11" s="57">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G11" s="58" t="s">
         <v>29</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="J11" t="s">
         <v>29</v>
       </c>
       <c r="K11">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="13.8">
-      <c r="A12" s="63">
+      <c r="A12" s="62">
         <v>11</v>
       </c>
       <c r="B12" s="48" t="s">
@@ -4637,24 +4868,24 @@
         <v>41</v>
       </c>
       <c r="E12" s="49">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G12" s="58" t="s">
         <v>41</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J12" t="s">
         <v>41</v>
       </c>
       <c r="K12">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.6">
-      <c r="A13" s="63">
+      <c r="A13" s="62">
         <v>12</v>
       </c>
       <c r="B13" s="48" t="s">
@@ -4667,24 +4898,24 @@
         <v>93</v>
       </c>
       <c r="E13" s="49">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G13" s="58" t="s">
         <v>93</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J13" t="s">
         <v>93</v>
       </c>
       <c r="K13">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="13.8">
-      <c r="A14" s="63">
+      <c r="A14" s="62">
         <v>13</v>
       </c>
       <c r="B14" s="48" t="s">
@@ -4697,24 +4928,24 @@
         <v>17</v>
       </c>
       <c r="E14" s="49">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G14" s="58" t="s">
         <v>17</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
       </c>
       <c r="K14">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="27.6">
-      <c r="A15" s="63">
+      <c r="A15" s="62">
         <v>14</v>
       </c>
       <c r="B15" s="48" t="s">
@@ -4727,24 +4958,24 @@
         <v>53</v>
       </c>
       <c r="E15" s="49">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G15" s="58" t="s">
         <v>53</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J15" t="s">
         <v>53</v>
       </c>
       <c r="K15">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="13.8">
-      <c r="A16" s="63">
+      <c r="A16" s="62">
         <v>15</v>
       </c>
       <c r="B16" s="48" t="s">
@@ -4757,24 +4988,24 @@
         <v>86</v>
       </c>
       <c r="E16" s="49">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G16" s="58" t="s">
         <v>86</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J16" t="s">
         <v>86</v>
       </c>
       <c r="K16">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="13.8">
-      <c r="A17" s="63">
+      <c r="A17" s="62">
         <v>16</v>
       </c>
       <c r="B17" s="48" t="s">
@@ -4787,24 +5018,24 @@
         <v>71</v>
       </c>
       <c r="E17" s="49">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G17" s="58" t="s">
         <v>71</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J17" t="s">
         <v>71</v>
       </c>
       <c r="K17">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="27.6">
-      <c r="A18" s="63">
+      <c r="A18" s="62">
         <v>17</v>
       </c>
       <c r="B18" s="48" t="s">
@@ -4817,24 +5048,24 @@
         <v>87</v>
       </c>
       <c r="E18" s="49">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G18" s="58" t="s">
         <v>87</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J18" t="s">
         <v>87</v>
       </c>
       <c r="K18">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="27.6">
-      <c r="A19" s="63">
+      <c r="A19" s="62">
         <v>18</v>
       </c>
       <c r="B19" s="48" t="s">
@@ -4847,24 +5078,24 @@
         <v>43</v>
       </c>
       <c r="E19" s="49">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G19" s="58" t="s">
         <v>43</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J19" t="s">
         <v>43</v>
       </c>
       <c r="K19">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="27.6">
-      <c r="A20" s="63">
+      <c r="A20" s="62">
         <v>19</v>
       </c>
       <c r="B20" s="48" t="s">
@@ -4877,24 +5108,24 @@
         <v>39</v>
       </c>
       <c r="E20" s="49">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G20" s="58" t="s">
         <v>39</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J20" t="s">
         <v>39</v>
       </c>
       <c r="K20">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="13.8">
-      <c r="A21" s="63">
+      <c r="A21" s="62">
         <v>20</v>
       </c>
       <c r="B21" s="48" t="s">
@@ -4907,24 +5138,24 @@
         <v>73</v>
       </c>
       <c r="E21" s="49">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G21" s="58" t="s">
         <v>35</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
         <v>35</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="27.6">
-      <c r="A22" s="63">
+      <c r="A22" s="62">
         <v>21</v>
       </c>
       <c r="B22" s="48" t="s">
@@ -4937,24 +5168,24 @@
         <v>19</v>
       </c>
       <c r="E22" s="49">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G22" s="58" t="s">
         <v>73</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J22" t="s">
         <v>73</v>
       </c>
       <c r="K22">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="13.8">
-      <c r="A23" s="63">
+      <c r="A23" s="62">
         <v>22</v>
       </c>
       <c r="B23" s="48" t="s">
@@ -4967,24 +5198,24 @@
         <v>83</v>
       </c>
       <c r="E23" s="49">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G23" s="58" t="s">
         <v>19</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
       </c>
       <c r="K23">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="69">
-      <c r="A24" s="63">
+      <c r="A24" s="62">
         <v>23</v>
       </c>
       <c r="B24" s="48" t="s">
@@ -5004,17 +5235,17 @@
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
         <v>85</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="13.8">
-      <c r="A25" s="63">
+      <c r="A25" s="62">
         <v>24</v>
       </c>
       <c r="B25" s="48" t="s">
@@ -5027,7 +5258,7 @@
         <v>85</v>
       </c>
       <c r="E25" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" s="58" t="s">
         <v>31</v>
@@ -5044,47 +5275,47 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="13.8">
-      <c r="A26" s="63">
+      <c r="A26" s="62">
         <v>25</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="E26" s="49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="58" t="s">
         <v>83</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J26" t="s">
         <v>83</v>
       </c>
       <c r="K26">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="13.8">
-      <c r="A27" s="63">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="27.6">
+      <c r="A27" s="62">
         <v>26</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E27" s="49">
         <v>0</v>
@@ -5104,17 +5335,17 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="27.6">
-      <c r="A28" s="63">
+      <c r="A28" s="62">
         <v>27</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E28" s="49">
         <v>0</v>
@@ -5134,17 +5365,17 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="27.6">
-      <c r="A29" s="63">
+      <c r="A29" s="62">
         <v>28</v>
       </c>
       <c r="B29" s="48" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="E29" s="49">
         <v>0</v>
@@ -5164,17 +5395,17 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="27.6">
-      <c r="A30" s="63">
+      <c r="A30" s="62">
         <v>29</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>149</v>
+        <v>63</v>
       </c>
       <c r="E30" s="49">
         <v>0</v>
@@ -5193,18 +5424,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="27.6">
-      <c r="A31" s="63">
+    <row r="31" spans="1:11" ht="13.8">
+      <c r="A31" s="62">
         <v>30</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="E31" s="49">
         <v>0</v>
@@ -5224,7 +5455,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="27.6">
-      <c r="A32" s="63">
+      <c r="A32" s="62">
         <v>31</v>
       </c>
       <c r="B32" s="48" t="s">
@@ -5253,18 +5484,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="13.8">
-      <c r="A33" s="63">
+    <row r="33" spans="1:11" ht="27.6">
+      <c r="A33" s="62">
         <v>32</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E33" s="49">
         <v>0</v>
@@ -5283,18 +5514,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="27.6">
-      <c r="A34" s="63">
+    <row r="34" spans="1:11" ht="13.8">
+      <c r="A34" s="62">
         <v>33</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E34" s="49">
         <v>0</v>
@@ -5314,17 +5545,17 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="13.8">
-      <c r="A35" s="63">
+      <c r="A35" s="62">
         <v>34</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="E35" s="49">
         <v>0</v>
@@ -5343,18 +5574,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="13.8">
-      <c r="A36" s="63">
+    <row r="36" spans="1:11" ht="27.6">
+      <c r="A36" s="62">
         <v>35</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="D36" s="48" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E36" s="49">
         <v>0</v>
@@ -5373,18 +5604,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="27.6">
-      <c r="A37" s="63">
+    <row r="37" spans="1:11" ht="13.8">
+      <c r="A37" s="62">
         <v>36</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="D37" s="48" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E37" s="49">
         <v>0</v>
@@ -5404,10 +5635,10 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="27.6">
-      <c r="A38" s="63">
+      <c r="A38" s="62">
         <v>37</v>
       </c>
-      <c r="B38" s="64">
+      <c r="B38" s="63">
         <v>0.46597222222222223</v>
       </c>
       <c r="C38" s="48" t="s">
@@ -5459,15 +5690,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="13.8">
-      <c r="A1" s="65">
+      <c r="A1" s="64">
         <v>45056.999305555553</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
       <c r="H1" s="6"/>
       <c r="I1" s="7" t="s">
         <v>0</v>
@@ -6783,15 +7014,15 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="13.8">
-      <c r="A43" s="67">
+      <c r="A43" s="66">
         <v>45057.5</v>
       </c>
-      <c r="B43" s="68"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="68"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="69"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="68"/>
       <c r="I43" s="6">
         <v>43</v>
       </c>
@@ -7741,15 +7972,15 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="13.2">
-      <c r="A85" s="67">
+      <c r="A85" s="66">
         <v>45057.999305555553</v>
       </c>
-      <c r="B85" s="68"/>
-      <c r="C85" s="68"/>
-      <c r="D85" s="68"/>
-      <c r="E85" s="68"/>
-      <c r="F85" s="68"/>
-      <c r="G85" s="69"/>
+      <c r="B85" s="67"/>
+      <c r="C85" s="67"/>
+      <c r="D85" s="67"/>
+      <c r="E85" s="67"/>
+      <c r="F85" s="67"/>
+      <c r="G85" s="68"/>
     </row>
     <row r="86" spans="1:7" ht="15.75" customHeight="1">
       <c r="A86" s="20" t="s">
@@ -8663,15 +8894,15 @@
       </c>
     </row>
     <row r="127" spans="1:10" ht="13.2">
-      <c r="A127" s="67">
+      <c r="A127" s="66">
         <v>45058.5</v>
       </c>
-      <c r="B127" s="68"/>
-      <c r="C127" s="68"/>
-      <c r="D127" s="68"/>
-      <c r="E127" s="68"/>
-      <c r="F127" s="68"/>
-      <c r="G127" s="69"/>
+      <c r="B127" s="67"/>
+      <c r="C127" s="67"/>
+      <c r="D127" s="67"/>
+      <c r="E127" s="67"/>
+      <c r="F127" s="67"/>
+      <c r="G127" s="68"/>
     </row>
     <row r="128" spans="1:10" ht="15.75" customHeight="1">
       <c r="A128" s="26" t="s">

--- a/data/prueba_predicc_dia_dia.xlsx
+++ b/data/prueba_predicc_dia_dia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/Desktop/adri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="387" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD864D34-8076-4204-A18E-C0C1F5346E95}"/>
+  <xr:revisionPtr revIDLastSave="394" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F26FCF2-301B-416E-83D1-DFDF1B1A48AA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId8"/>
+    <pivotCache cacheId="17" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2392,7 +2392,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45400.452085532408" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45401.946418055559" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="H1:L37" sheet="Hoja 3"/>
   </cacheSource>
@@ -2844,7 +2844,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
   <location ref="A1:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="5">
     <pivotField name="code" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -3475,10 +3475,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL9"/>
+  <dimension ref="A1:AL10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4521,6 +4521,122 @@
         <v>0</v>
       </c>
       <c r="AL9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A10" s="2">
+        <v>45401</v>
+      </c>
+      <c r="B10">
+        <v>453</v>
+      </c>
+      <c r="C10">
+        <v>342</v>
+      </c>
+      <c r="D10">
+        <v>582</v>
+      </c>
+      <c r="E10">
+        <v>296</v>
+      </c>
+      <c r="F10">
+        <v>286</v>
+      </c>
+      <c r="G10">
+        <v>285</v>
+      </c>
+      <c r="H10">
+        <v>236</v>
+      </c>
+      <c r="I10">
+        <v>210</v>
+      </c>
+      <c r="J10">
+        <v>215</v>
+      </c>
+      <c r="K10">
+        <v>213</v>
+      </c>
+      <c r="L10">
+        <v>53</v>
+      </c>
+      <c r="M10">
+        <v>142</v>
+      </c>
+      <c r="N10">
+        <v>108</v>
+      </c>
+      <c r="O10">
+        <v>128</v>
+      </c>
+      <c r="P10">
+        <v>128</v>
+      </c>
+      <c r="Q10">
+        <v>124</v>
+      </c>
+      <c r="R10">
+        <v>122</v>
+      </c>
+      <c r="S10">
+        <v>73</v>
+      </c>
+      <c r="T10">
+        <v>56</v>
+      </c>
+      <c r="U10">
+        <v>55</v>
+      </c>
+      <c r="V10">
+        <v>51</v>
+      </c>
+      <c r="W10">
+        <v>47</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>43</v>
+      </c>
+      <c r="Z10">
+        <v>34</v>
+      </c>
+      <c r="AA10">
+        <v>9</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
         <v>0</v>
       </c>
     </row>
@@ -4568,20 +4684,20 @@
         <v>90</v>
       </c>
       <c r="E2" s="51">
-        <v>505</v>
+        <v>582</v>
       </c>
       <c r="G2" s="58" t="s">
         <v>55</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H38" si="0">VLOOKUP(G2,D:E,2,0)</f>
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="J2" t="s">
         <v>55</v>
       </c>
       <c r="K2">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.8">
@@ -4598,20 +4714,20 @@
         <v>55</v>
       </c>
       <c r="E3" s="53">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="G3" s="58" t="s">
         <v>92</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="J3" t="s">
         <v>92</v>
       </c>
       <c r="K3">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="41.4">
@@ -4628,20 +4744,20 @@
         <v>92</v>
       </c>
       <c r="E4" s="55">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="G4" s="58" t="s">
         <v>90</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>505</v>
+        <v>582</v>
       </c>
       <c r="J4" t="s">
         <v>90</v>
       </c>
       <c r="K4">
-        <v>505</v>
+        <v>582</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="13.8">
@@ -4658,20 +4774,20 @@
         <v>47</v>
       </c>
       <c r="E5" s="57">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="G5" s="58" t="s">
         <v>47</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="27.6">
@@ -4688,20 +4804,20 @@
         <v>57</v>
       </c>
       <c r="E6" s="57">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="G6" s="58" t="s">
         <v>57</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="J6" t="s">
         <v>57</v>
       </c>
       <c r="K6">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="27.6">
@@ -4718,20 +4834,20 @@
         <v>89</v>
       </c>
       <c r="E7" s="57">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="G7" s="58" t="s">
         <v>89</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="J7" t="s">
         <v>89</v>
       </c>
       <c r="K7">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="13.8">
@@ -4748,20 +4864,20 @@
         <v>13</v>
       </c>
       <c r="E8" s="57">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="G8" s="58" t="s">
         <v>13</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="27.6">
@@ -4778,20 +4894,20 @@
         <v>23</v>
       </c>
       <c r="E9" s="57">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G9" s="58" t="s">
         <v>61</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="J9" t="s">
         <v>61</v>
       </c>
       <c r="K9">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="27.6">
@@ -4808,20 +4924,20 @@
         <v>29</v>
       </c>
       <c r="E10" s="57">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G10" s="58" t="s">
         <v>23</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
       </c>
       <c r="K10">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="13.8">
@@ -4838,50 +4954,50 @@
         <v>61</v>
       </c>
       <c r="E11" s="57">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G11" s="58" t="s">
         <v>29</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="J11" t="s">
         <v>29</v>
       </c>
       <c r="K11">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="13.8">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="27.6">
       <c r="A12" s="62">
         <v>11</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="E12" s="49">
-        <v>193</v>
+        <v>142</v>
       </c>
       <c r="G12" s="58" t="s">
         <v>41</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>193</v>
+        <v>53</v>
       </c>
       <c r="J12" t="s">
         <v>41</v>
       </c>
       <c r="K12">
-        <v>193</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.6">
@@ -4889,29 +5005,29 @@
         <v>12</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="E13" s="49">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="G13" s="58" t="s">
         <v>93</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J13" t="s">
         <v>93</v>
       </c>
       <c r="K13">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="13.8">
@@ -4919,89 +5035,89 @@
         <v>13</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="E14" s="49">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G14" s="58" t="s">
         <v>17</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
       </c>
       <c r="K14">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="27.6">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="13.8">
       <c r="A15" s="62">
         <v>14</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="E15" s="49">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G15" s="58" t="s">
         <v>53</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J15" t="s">
         <v>53</v>
       </c>
       <c r="K15">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="13.8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="27.6">
       <c r="A16" s="62">
         <v>15</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E16" s="49">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G16" s="58" t="s">
         <v>86</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J16" t="s">
         <v>86</v>
       </c>
       <c r="K16">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="13.8">
@@ -5009,29 +5125,29 @@
         <v>16</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="E17" s="49">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="G17" s="58" t="s">
         <v>71</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J17" t="s">
         <v>71</v>
       </c>
       <c r="K17">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="27.6">
@@ -5039,29 +5155,29 @@
         <v>17</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="E18" s="49">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="G18" s="58" t="s">
         <v>87</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J18" t="s">
         <v>87</v>
       </c>
       <c r="K18">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="27.6">
@@ -5069,59 +5185,59 @@
         <v>18</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E19" s="49">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="G19" s="58" t="s">
         <v>43</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="J19" t="s">
         <v>43</v>
       </c>
       <c r="K19">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="27.6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="13.8">
       <c r="A20" s="62">
         <v>19</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E20" s="49">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="G20" s="58" t="s">
         <v>39</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="J20" t="s">
         <v>39</v>
       </c>
       <c r="K20">
-        <v>81</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="13.8">
@@ -5129,13 +5245,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="E21" s="49">
         <v>53</v>
@@ -5145,90 +5261,90 @@
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="J21" t="s">
         <v>35</v>
       </c>
       <c r="K21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="27.6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="13.8">
       <c r="A22" s="62">
         <v>21</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="E22" s="49">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G22" s="58" t="s">
         <v>73</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J22" t="s">
         <v>73</v>
       </c>
       <c r="K22">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="13.8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="27.6">
       <c r="A23" s="62">
         <v>22</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="E23" s="49">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G23" s="58" t="s">
         <v>19</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
       </c>
       <c r="K23">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="69">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="13.8">
       <c r="A24" s="62">
         <v>23</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E24" s="49">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G24" s="58" t="s">
         <v>85</v>
@@ -5249,103 +5365,103 @@
         <v>24</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E25" s="49">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="G25" s="58" t="s">
         <v>31</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="J25" t="s">
         <v>31</v>
       </c>
       <c r="K25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="13.8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="69">
       <c r="A26" s="62">
         <v>25</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="E26" s="49">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G26" s="58" t="s">
         <v>83</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J26" t="s">
         <v>83</v>
       </c>
       <c r="K26">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="27.6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="13.8">
       <c r="A27" s="62">
         <v>26</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="E27" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="58" t="s">
         <v>37</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J27" t="s">
         <v>37</v>
       </c>
       <c r="K27">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="27.6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="13.8">
       <c r="A28" s="62">
         <v>27</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="E28" s="49">
         <v>0</v>
@@ -5369,13 +5485,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="48" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>149</v>
+        <v>9</v>
       </c>
       <c r="E29" s="49">
         <v>0</v>
@@ -5399,13 +5515,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E30" s="49">
         <v>0</v>
@@ -5459,13 +5575,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C32" s="48" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="E32" s="49">
         <v>0</v>
@@ -5489,13 +5605,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="E33" s="49">
         <v>0</v>
@@ -5514,18 +5630,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="13.8">
+    <row r="34" spans="1:11" ht="27.6">
       <c r="A34" s="62">
         <v>33</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E34" s="49">
         <v>0</v>
@@ -5544,18 +5660,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="13.8">
+    <row r="35" spans="1:11" ht="27.6">
       <c r="A35" s="62">
         <v>34</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E35" s="49">
         <v>0</v>
@@ -5574,18 +5690,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="27.6">
+    <row r="36" spans="1:11" ht="13.8">
       <c r="A36" s="62">
         <v>35</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D36" s="48" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E36" s="49">
         <v>0</v>
@@ -5604,18 +5720,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="13.8">
+    <row r="37" spans="1:11" ht="27.6">
       <c r="A37" s="62">
         <v>36</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="D37" s="48" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E37" s="49">
         <v>0</v>

--- a/data/prueba_predicc_dia_dia.xlsx
+++ b/data/prueba_predicc_dia_dia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/Desktop/adri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="394" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F26FCF2-301B-416E-83D1-DFDF1B1A48AA}"/>
+  <xr:revisionPtr revIDLastSave="419" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D59742EB-4A74-4A59-A25E-5EF82D6B28EC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="17" r:id="rId8"/>
+    <pivotCache cacheId="26" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2392,7 +2392,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45401.946418055559" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45402.989211458334" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="H1:L37" sheet="Hoja 3"/>
   </cacheSource>
@@ -2844,7 +2844,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
   <location ref="A1:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="5">
     <pivotField name="code" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -3475,10 +3475,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL10"/>
+  <dimension ref="A1:AL11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4529,28 +4529,28 @@
         <v>45401</v>
       </c>
       <c r="B10">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="C10">
         <v>342</v>
       </c>
       <c r="D10">
-        <v>582</v>
+        <v>555</v>
       </c>
       <c r="E10">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="F10">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G10">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="H10">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="I10">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J10">
         <v>215</v>
@@ -4559,7 +4559,7 @@
         <v>213</v>
       </c>
       <c r="L10">
-        <v>53</v>
+        <v>195</v>
       </c>
       <c r="M10">
         <v>142</v>
@@ -4580,13 +4580,13 @@
         <v>122</v>
       </c>
       <c r="S10">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="T10">
         <v>56</v>
       </c>
       <c r="U10">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="V10">
         <v>51</v>
@@ -4598,10 +4598,10 @@
         <v>1</v>
       </c>
       <c r="Y10">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="Z10">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="AA10">
         <v>9</v>
@@ -4637,6 +4637,122 @@
         <v>0</v>
       </c>
       <c r="AL10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A11" s="2">
+        <v>45402</v>
+      </c>
+      <c r="B11">
+        <v>416</v>
+      </c>
+      <c r="C11">
+        <v>367</v>
+      </c>
+      <c r="D11">
+        <v>534</v>
+      </c>
+      <c r="E11">
+        <v>273</v>
+      </c>
+      <c r="F11">
+        <v>263</v>
+      </c>
+      <c r="G11">
+        <v>298</v>
+      </c>
+      <c r="H11">
+        <v>218</v>
+      </c>
+      <c r="I11">
+        <v>195</v>
+      </c>
+      <c r="J11">
+        <v>199</v>
+      </c>
+      <c r="K11">
+        <v>196</v>
+      </c>
+      <c r="L11">
+        <v>212</v>
+      </c>
+      <c r="M11">
+        <v>133</v>
+      </c>
+      <c r="N11">
+        <v>122</v>
+      </c>
+      <c r="O11">
+        <v>120</v>
+      </c>
+      <c r="P11">
+        <v>120</v>
+      </c>
+      <c r="Q11">
+        <v>116</v>
+      </c>
+      <c r="R11">
+        <v>114</v>
+      </c>
+      <c r="S11">
+        <v>111</v>
+      </c>
+      <c r="T11">
+        <v>75</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>49</v>
+      </c>
+      <c r="W11">
+        <v>46</v>
+      </c>
+      <c r="X11">
+        <v>2</v>
+      </c>
+      <c r="Y11">
+        <v>42</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>69</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
         <v>0</v>
       </c>
     </row>
@@ -4684,20 +4800,20 @@
         <v>90</v>
       </c>
       <c r="E2" s="51">
-        <v>582</v>
+        <v>534</v>
       </c>
       <c r="G2" s="58" t="s">
         <v>55</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H38" si="0">VLOOKUP(G2,D:E,2,0)</f>
-        <v>453</v>
+        <v>416</v>
       </c>
       <c r="J2" t="s">
         <v>55</v>
       </c>
       <c r="K2">
-        <v>453</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.8">
@@ -4714,20 +4830,20 @@
         <v>55</v>
       </c>
       <c r="E3" s="53">
-        <v>453</v>
+        <v>416</v>
       </c>
       <c r="G3" s="58" t="s">
         <v>92</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="J3" t="s">
         <v>92</v>
       </c>
       <c r="K3">
-        <v>342</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="41.4">
@@ -4744,80 +4860,80 @@
         <v>92</v>
       </c>
       <c r="E4" s="55">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="G4" s="58" t="s">
         <v>90</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>582</v>
+        <v>534</v>
       </c>
       <c r="J4" t="s">
         <v>90</v>
       </c>
       <c r="K4">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="13.8">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27.6">
       <c r="A5" s="62">
         <v>4</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="E5" s="57">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G5" s="58" t="s">
         <v>47</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="27.6">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="13.8">
       <c r="A6" s="62">
         <v>5</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D6" s="56" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E6" s="57">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="G6" s="58" t="s">
         <v>57</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="J6" t="s">
         <v>57</v>
       </c>
       <c r="K6">
-        <v>286</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="27.6">
@@ -4825,29 +4941,29 @@
         <v>6</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="E7" s="57">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="G7" s="58" t="s">
         <v>89</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="J7" t="s">
         <v>89</v>
       </c>
       <c r="K7">
-        <v>285</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="13.8">
@@ -4864,50 +4980,50 @@
         <v>13</v>
       </c>
       <c r="E8" s="57">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="G8" s="58" t="s">
         <v>13</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="27.6">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="13.8">
       <c r="A9" s="62">
         <v>8</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E9" s="57">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G9" s="58" t="s">
         <v>61</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="J9" t="s">
         <v>61</v>
       </c>
       <c r="K9">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="27.6">
@@ -4915,89 +5031,89 @@
         <v>9</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E10" s="57">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="G10" s="58" t="s">
         <v>23</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
       </c>
       <c r="K10">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="13.8">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="27.6">
       <c r="A11" s="62">
         <v>10</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D11" s="56" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="E11" s="57">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="G11" s="58" t="s">
         <v>29</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="J11" t="s">
         <v>29</v>
       </c>
       <c r="K11">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="27.6">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="13.8">
       <c r="A12" s="62">
         <v>11</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="E12" s="49">
-        <v>142</v>
+        <v>195</v>
       </c>
       <c r="G12" s="58" t="s">
         <v>41</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>212</v>
       </c>
       <c r="J12" t="s">
         <v>41</v>
       </c>
       <c r="K12">
-        <v>53</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.6">
@@ -5005,29 +5121,29 @@
         <v>12</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="E13" s="49">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G13" s="58" t="s">
         <v>93</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
         <v>93</v>
       </c>
       <c r="K13">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="13.8">
@@ -5035,89 +5151,89 @@
         <v>13</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="E14" s="49">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G14" s="58" t="s">
         <v>17</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
       </c>
       <c r="K14">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="13.8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="27.6">
       <c r="A15" s="62">
         <v>14</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E15" s="49">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G15" s="58" t="s">
         <v>53</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="J15" t="s">
         <v>53</v>
       </c>
       <c r="K15">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="27.6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="13.8">
       <c r="A16" s="62">
         <v>15</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E16" s="49">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G16" s="58" t="s">
         <v>86</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="J16" t="s">
         <v>86</v>
       </c>
       <c r="K16">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="13.8">
@@ -5125,29 +5241,29 @@
         <v>16</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="E17" s="49">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G17" s="58" t="s">
         <v>71</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J17" t="s">
         <v>71</v>
       </c>
       <c r="K17">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="27.6">
@@ -5155,29 +5271,29 @@
         <v>17</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E18" s="49">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="G18" s="58" t="s">
         <v>87</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J18" t="s">
         <v>87</v>
       </c>
       <c r="K18">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="27.6">
@@ -5185,89 +5301,89 @@
         <v>18</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E19" s="49">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="G19" s="58" t="s">
         <v>43</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="J19" t="s">
         <v>43</v>
       </c>
       <c r="K19">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="13.8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="27.6">
       <c r="A20" s="62">
         <v>19</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E20" s="49">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G20" s="58" t="s">
         <v>39</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="J20" t="s">
         <v>39</v>
       </c>
       <c r="K20">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="13.8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="69">
       <c r="A21" s="62">
         <v>20</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E21" s="49">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="G21" s="58" t="s">
         <v>35</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
         <v>35</v>
       </c>
       <c r="K21">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="13.8">
@@ -5284,20 +5400,20 @@
         <v>73</v>
       </c>
       <c r="E22" s="49">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G22" s="58" t="s">
         <v>73</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J22" t="s">
         <v>73</v>
       </c>
       <c r="K22">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="27.6">
@@ -5314,20 +5430,20 @@
         <v>19</v>
       </c>
       <c r="E23" s="49">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G23" s="58" t="s">
         <v>19</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
       </c>
       <c r="K23">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="13.8">
@@ -5344,20 +5460,20 @@
         <v>31</v>
       </c>
       <c r="E24" s="49">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G24" s="58" t="s">
         <v>85</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
         <v>85</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="13.8">
@@ -5365,73 +5481,73 @@
         <v>24</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E25" s="49">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="G25" s="58" t="s">
         <v>31</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J25" t="s">
         <v>31</v>
       </c>
       <c r="K25">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="69">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="13.8">
       <c r="A26" s="62">
         <v>25</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E26" s="49">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G26" s="58" t="s">
         <v>83</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
         <v>83</v>
       </c>
       <c r="K26">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="13.8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="27.6">
       <c r="A27" s="62">
         <v>26</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="E27" s="49">
         <v>1</v>
@@ -5441,13 +5557,13 @@
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="J27" t="s">
         <v>37</v>
       </c>
       <c r="K27">
-        <v>9</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="13.8">
@@ -5455,13 +5571,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="E28" s="49">
         <v>0</v>
@@ -5471,13 +5587,13 @@
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
         <v>45</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="27.6">
@@ -5540,18 +5656,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="13.8">
+    <row r="31" spans="1:11" ht="27.6">
       <c r="A31" s="62">
         <v>30</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="E31" s="49">
         <v>0</v>
@@ -5605,13 +5721,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c r="E33" s="49">
         <v>0</v>
@@ -5630,18 +5746,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="27.6">
+    <row r="34" spans="1:11" ht="13.8">
       <c r="A34" s="62">
         <v>33</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E34" s="49">
         <v>0</v>
@@ -5665,13 +5781,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="E35" s="49">
         <v>0</v>
@@ -5695,13 +5811,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="D36" s="48" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="E36" s="49">
         <v>0</v>
@@ -5720,18 +5836,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="27.6">
+    <row r="37" spans="1:11" ht="13.8">
       <c r="A37" s="62">
         <v>36</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D37" s="48" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E37" s="49">
         <v>0</v>

--- a/data/prueba_predicc_dia_dia.xlsx
+++ b/data/prueba_predicc_dia_dia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/Desktop/adri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="419" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D59742EB-4A74-4A59-A25E-5EF82D6B28EC}"/>
+  <xr:revisionPtr revIDLastSave="424" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1D6389D-F9FF-4B0C-A4C5-5DF96D1DDC1B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="26" r:id="rId8"/>
+    <pivotCache cacheId="37" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2392,7 +2392,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45402.989211458334" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45404.585722453703" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="H1:L37" sheet="Hoja 3"/>
   </cacheSource>
@@ -2844,7 +2844,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
   <location ref="A1:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="5">
     <pivotField name="code" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -3475,10 +3475,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL11"/>
+  <dimension ref="A1:AL12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4753,6 +4753,122 @@
         <v>0</v>
       </c>
       <c r="AL11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A12" s="2">
+        <v>45403</v>
+      </c>
+      <c r="B12">
+        <v>417</v>
+      </c>
+      <c r="C12">
+        <v>446</v>
+      </c>
+      <c r="D12">
+        <v>535</v>
+      </c>
+      <c r="E12">
+        <v>274</v>
+      </c>
+      <c r="F12">
+        <v>264</v>
+      </c>
+      <c r="G12">
+        <v>298</v>
+      </c>
+      <c r="H12">
+        <v>218</v>
+      </c>
+      <c r="I12">
+        <v>196</v>
+      </c>
+      <c r="J12">
+        <v>199</v>
+      </c>
+      <c r="K12">
+        <v>197</v>
+      </c>
+      <c r="L12">
+        <v>212</v>
+      </c>
+      <c r="M12">
+        <v>133</v>
+      </c>
+      <c r="N12">
+        <v>123</v>
+      </c>
+      <c r="O12">
+        <v>120</v>
+      </c>
+      <c r="P12">
+        <v>120</v>
+      </c>
+      <c r="Q12">
+        <v>117</v>
+      </c>
+      <c r="R12">
+        <v>114</v>
+      </c>
+      <c r="S12">
+        <v>111</v>
+      </c>
+      <c r="T12">
+        <v>46</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <v>50</v>
+      </c>
+      <c r="W12">
+        <v>46</v>
+      </c>
+      <c r="X12">
+        <v>2</v>
+      </c>
+      <c r="Y12">
+        <v>42</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>9</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
         <v>0</v>
       </c>
     </row>
@@ -4800,80 +4916,80 @@
         <v>90</v>
       </c>
       <c r="E2" s="51">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G2" s="58" t="s">
         <v>55</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H38" si="0">VLOOKUP(G2,D:E,2,0)</f>
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="J2" t="s">
         <v>55</v>
       </c>
       <c r="K2">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="13.8">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="41.4">
       <c r="A3" s="62">
         <v>2</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="E3" s="53">
-        <v>416</v>
+        <v>446</v>
       </c>
       <c r="G3" s="58" t="s">
         <v>92</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>367</v>
+        <v>446</v>
       </c>
       <c r="J3" t="s">
         <v>92</v>
       </c>
       <c r="K3">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="41.4">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="13.8">
       <c r="A4" s="62">
         <v>3</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="E4" s="55">
-        <v>367</v>
+        <v>417</v>
       </c>
       <c r="G4" s="58" t="s">
         <v>90</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="J4" t="s">
         <v>90</v>
       </c>
       <c r="K4">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="27.6">
@@ -4897,13 +5013,13 @@
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="13.8">
@@ -4920,20 +5036,20 @@
         <v>47</v>
       </c>
       <c r="E6" s="57">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G6" s="58" t="s">
         <v>57</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J6" t="s">
         <v>57</v>
       </c>
       <c r="K6">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="27.6">
@@ -4950,7 +5066,7 @@
         <v>57</v>
       </c>
       <c r="E7" s="57">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G7" s="58" t="s">
         <v>89</v>
@@ -5017,13 +5133,13 @@
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J9" t="s">
         <v>61</v>
       </c>
       <c r="K9">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="27.6">
@@ -5070,20 +5186,20 @@
         <v>29</v>
       </c>
       <c r="E11" s="57">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G11" s="58" t="s">
         <v>29</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J11" t="s">
         <v>29</v>
       </c>
       <c r="K11">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="13.8">
@@ -5100,7 +5216,7 @@
         <v>61</v>
       </c>
       <c r="E12" s="49">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G12" s="58" t="s">
         <v>41</v>
@@ -5160,20 +5276,20 @@
         <v>17</v>
       </c>
       <c r="E14" s="49">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G14" s="58" t="s">
         <v>17</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
       </c>
       <c r="K14">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="27.6">
@@ -5250,20 +5366,20 @@
         <v>71</v>
       </c>
       <c r="E17" s="49">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="58" t="s">
         <v>71</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J17" t="s">
         <v>71</v>
       </c>
       <c r="K17">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="27.6">
@@ -5326,111 +5442,111 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="27.6">
+    <row r="20" spans="1:11" ht="13.8">
       <c r="A20" s="62">
         <v>19</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E20" s="49">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G20" s="58" t="s">
         <v>39</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="J20" t="s">
         <v>39</v>
       </c>
       <c r="K20">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="69">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="27.6">
       <c r="A21" s="62">
         <v>20</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E21" s="49">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="G21" s="58" t="s">
         <v>35</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
         <v>35</v>
       </c>
       <c r="K21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="13.8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="27.6">
       <c r="A22" s="62">
         <v>21</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E22" s="49">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G22" s="58" t="s">
         <v>73</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J22" t="s">
         <v>73</v>
       </c>
       <c r="K22">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="27.6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="13.8">
       <c r="A23" s="62">
         <v>22</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E23" s="49">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G23" s="58" t="s">
         <v>19</v>
@@ -5446,21 +5562,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="13.8">
+    <row r="24" spans="1:11" ht="69">
       <c r="A24" s="62">
         <v>23</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E24" s="49">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="G24" s="58" t="s">
         <v>85</v>
@@ -5520,7 +5636,7 @@
         <v>35</v>
       </c>
       <c r="E26" s="49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="58" t="s">
         <v>83</v>
@@ -5557,13 +5673,13 @@
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="J27" t="s">
         <v>37</v>
       </c>
       <c r="K27">
-        <v>69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="13.8">

--- a/data/prueba_predicc_dia_dia.xlsx
+++ b/data/prueba_predicc_dia_dia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/Desktop/adri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="424" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1D6389D-F9FF-4B0C-A4C5-5DF96D1DDC1B}"/>
+  <xr:revisionPtr revIDLastSave="436" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BA72CD2-26F0-4F72-BBB9-F626CCE4A537}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="37" r:id="rId8"/>
+    <pivotCache cacheId="46" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2392,7 +2392,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45404.585722453703" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45405.385926157411" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="H1:L37" sheet="Hoja 3"/>
   </cacheSource>
@@ -2844,7 +2844,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
   <location ref="A1:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="5">
     <pivotField name="code" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -3475,10 +3475,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL12"/>
+  <dimension ref="A1:AL13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4869,6 +4869,122 @@
         <v>0</v>
       </c>
       <c r="AL12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A13" s="2">
+        <v>45404</v>
+      </c>
+      <c r="B13">
+        <v>423</v>
+      </c>
+      <c r="C13">
+        <v>433</v>
+      </c>
+      <c r="D13">
+        <v>542</v>
+      </c>
+      <c r="E13">
+        <v>277</v>
+      </c>
+      <c r="F13">
+        <v>268</v>
+      </c>
+      <c r="G13">
+        <v>302</v>
+      </c>
+      <c r="H13">
+        <v>221</v>
+      </c>
+      <c r="I13">
+        <v>160</v>
+      </c>
+      <c r="J13">
+        <v>202</v>
+      </c>
+      <c r="K13">
+        <v>200</v>
+      </c>
+      <c r="L13">
+        <v>215</v>
+      </c>
+      <c r="M13">
+        <v>135</v>
+      </c>
+      <c r="N13">
+        <v>124</v>
+      </c>
+      <c r="O13">
+        <v>122</v>
+      </c>
+      <c r="P13">
+        <v>122</v>
+      </c>
+      <c r="Q13">
+        <v>118</v>
+      </c>
+      <c r="R13">
+        <v>116</v>
+      </c>
+      <c r="S13">
+        <v>112</v>
+      </c>
+      <c r="T13">
+        <v>47</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>50</v>
+      </c>
+      <c r="W13">
+        <v>47</v>
+      </c>
+      <c r="X13">
+        <v>2</v>
+      </c>
+      <c r="Y13">
+        <v>43</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>10</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
         <v>0</v>
       </c>
     </row>
@@ -4916,20 +5032,20 @@
         <v>90</v>
       </c>
       <c r="E2" s="51">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="G2" s="58" t="s">
         <v>55</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H38" si="0">VLOOKUP(G2,D:E,2,0)</f>
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="J2" t="s">
         <v>55</v>
       </c>
       <c r="K2">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="41.4">
@@ -4946,20 +5062,20 @@
         <v>92</v>
       </c>
       <c r="E3" s="53">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="G3" s="58" t="s">
         <v>92</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="J3" t="s">
         <v>92</v>
       </c>
       <c r="K3">
-        <v>446</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.8">
@@ -4976,20 +5092,20 @@
         <v>55</v>
       </c>
       <c r="E4" s="55">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="G4" s="58" t="s">
         <v>90</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="J4" t="s">
         <v>90</v>
       </c>
       <c r="K4">
-        <v>535</v>
+        <v>542</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="27.6">
@@ -5006,20 +5122,20 @@
         <v>89</v>
       </c>
       <c r="E5" s="57">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="G5" s="58" t="s">
         <v>47</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="13.8">
@@ -5036,20 +5152,20 @@
         <v>47</v>
       </c>
       <c r="E6" s="57">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G6" s="58" t="s">
         <v>57</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="J6" t="s">
         <v>57</v>
       </c>
       <c r="K6">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="27.6">
@@ -5066,20 +5182,20 @@
         <v>57</v>
       </c>
       <c r="E7" s="57">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G7" s="58" t="s">
         <v>89</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="J7" t="s">
         <v>89</v>
       </c>
       <c r="K7">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="13.8">
@@ -5096,20 +5212,20 @@
         <v>13</v>
       </c>
       <c r="E8" s="57">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G8" s="58" t="s">
         <v>13</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="13.8">
@@ -5126,20 +5242,20 @@
         <v>41</v>
       </c>
       <c r="E9" s="57">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G9" s="58" t="s">
         <v>61</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="J9" t="s">
         <v>61</v>
       </c>
       <c r="K9">
-        <v>196</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="27.6">
@@ -5156,20 +5272,20 @@
         <v>23</v>
       </c>
       <c r="E10" s="57">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G10" s="58" t="s">
         <v>23</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
       </c>
       <c r="K10">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="27.6">
@@ -5186,20 +5302,20 @@
         <v>29</v>
       </c>
       <c r="E11" s="57">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G11" s="58" t="s">
         <v>29</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="J11" t="s">
         <v>29</v>
       </c>
       <c r="K11">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="13.8">
@@ -5216,20 +5332,20 @@
         <v>61</v>
       </c>
       <c r="E12" s="49">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="G12" s="58" t="s">
         <v>41</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="J12" t="s">
         <v>41</v>
       </c>
       <c r="K12">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.6">
@@ -5246,20 +5362,20 @@
         <v>93</v>
       </c>
       <c r="E13" s="49">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G13" s="58" t="s">
         <v>93</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J13" t="s">
         <v>93</v>
       </c>
       <c r="K13">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="13.8">
@@ -5276,20 +5392,20 @@
         <v>17</v>
       </c>
       <c r="E14" s="49">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G14" s="58" t="s">
         <v>17</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
       </c>
       <c r="K14">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="27.6">
@@ -5306,20 +5422,20 @@
         <v>53</v>
       </c>
       <c r="E15" s="49">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G15" s="58" t="s">
         <v>53</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J15" t="s">
         <v>53</v>
       </c>
       <c r="K15">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="13.8">
@@ -5336,20 +5452,20 @@
         <v>86</v>
       </c>
       <c r="E16" s="49">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G16" s="58" t="s">
         <v>86</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J16" t="s">
         <v>86</v>
       </c>
       <c r="K16">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="13.8">
@@ -5366,20 +5482,20 @@
         <v>71</v>
       </c>
       <c r="E17" s="49">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G17" s="58" t="s">
         <v>71</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J17" t="s">
         <v>71</v>
       </c>
       <c r="K17">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="27.6">
@@ -5396,20 +5512,20 @@
         <v>87</v>
       </c>
       <c r="E18" s="49">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G18" s="58" t="s">
         <v>87</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J18" t="s">
         <v>87</v>
       </c>
       <c r="K18">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="27.6">
@@ -5426,20 +5542,20 @@
         <v>43</v>
       </c>
       <c r="E19" s="49">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G19" s="58" t="s">
         <v>43</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J19" t="s">
         <v>43</v>
       </c>
       <c r="K19">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="13.8">
@@ -5463,13 +5579,13 @@
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J20" t="s">
         <v>39</v>
       </c>
       <c r="K20">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="27.6">
@@ -5486,20 +5602,20 @@
         <v>19</v>
       </c>
       <c r="E21" s="49">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G21" s="58" t="s">
         <v>35</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
         <v>35</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="27.6">
@@ -5516,7 +5632,7 @@
         <v>39</v>
       </c>
       <c r="E22" s="49">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G22" s="58" t="s">
         <v>73</v>
@@ -5546,20 +5662,20 @@
         <v>31</v>
       </c>
       <c r="E23" s="49">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G23" s="58" t="s">
         <v>19</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
       </c>
       <c r="K23">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="69">
@@ -5576,7 +5692,7 @@
         <v>37</v>
       </c>
       <c r="E24" s="49">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G24" s="58" t="s">
         <v>85</v>
@@ -5613,13 +5729,13 @@
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J25" t="s">
         <v>31</v>
       </c>
       <c r="K25">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="13.8">
@@ -5636,7 +5752,7 @@
         <v>35</v>
       </c>
       <c r="E26" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" s="58" t="s">
         <v>83</v>
@@ -5652,48 +5768,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="27.6">
+    <row r="27" spans="1:11" ht="13.8">
       <c r="A27" s="62">
         <v>26</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E27" s="49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="58" t="s">
         <v>37</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J27" t="s">
         <v>37</v>
       </c>
       <c r="K27">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="13.8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="27.6">
       <c r="A28" s="62">
         <v>27</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E28" s="49">
         <v>0</v>
@@ -5703,13 +5819,13 @@
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
         <v>45</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="27.6">
@@ -5717,13 +5833,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="48" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E29" s="49">
         <v>0</v>
@@ -5747,13 +5863,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E30" s="49">
         <v>0</v>
@@ -5772,18 +5888,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="27.6">
+    <row r="31" spans="1:11" ht="13.8">
       <c r="A31" s="62">
         <v>30</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>149</v>
+        <v>33</v>
       </c>
       <c r="E31" s="49">
         <v>0</v>
@@ -5802,18 +5918,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="27.6">
+    <row r="32" spans="1:11" ht="13.8">
       <c r="A32" s="62">
         <v>31</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C32" s="48" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E32" s="49">
         <v>0</v>
@@ -5837,13 +5953,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="E33" s="49">
         <v>0</v>
@@ -5862,18 +5978,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="13.8">
+    <row r="34" spans="1:11" ht="27.6">
       <c r="A34" s="62">
         <v>33</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="E34" s="49">
         <v>0</v>
@@ -5897,13 +6013,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="E35" s="49">
         <v>0</v>
@@ -5927,13 +6043,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="D36" s="48" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E36" s="49">
         <v>0</v>
@@ -5952,18 +6068,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="13.8">
+    <row r="37" spans="1:11" ht="27.6">
       <c r="A37" s="62">
         <v>36</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D37" s="48" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E37" s="49">
         <v>0</v>

--- a/data/prueba_predicc_dia_dia.xlsx
+++ b/data/prueba_predicc_dia_dia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/Desktop/adri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="436" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BA72CD2-26F0-4F72-BBB9-F626CCE4A537}"/>
+  <xr:revisionPtr revIDLastSave="441" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F3D6DDD-39AF-4FC1-922B-9B3C7A7A4EC9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1776" windowWidth="17256" windowHeight="8868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="46" r:id="rId8"/>
+    <pivotCache cacheId="55" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2392,7 +2392,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45405.385926157411" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45406.792102893516" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="H1:L37" sheet="Hoja 3"/>
   </cacheSource>
@@ -2844,7 +2844,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="55" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
   <location ref="A1:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="5">
     <pivotField name="code" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -3475,10 +3475,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL13"/>
+  <dimension ref="A1:AL14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4985,6 +4985,122 @@
         <v>0</v>
       </c>
       <c r="AL13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A14" s="2">
+        <v>45405</v>
+      </c>
+      <c r="B14">
+        <v>431</v>
+      </c>
+      <c r="C14">
+        <v>451</v>
+      </c>
+      <c r="D14">
+        <v>565</v>
+      </c>
+      <c r="E14">
+        <v>280</v>
+      </c>
+      <c r="F14">
+        <v>279</v>
+      </c>
+      <c r="G14">
+        <v>278</v>
+      </c>
+      <c r="H14">
+        <v>230</v>
+      </c>
+      <c r="I14">
+        <v>202</v>
+      </c>
+      <c r="J14">
+        <v>210</v>
+      </c>
+      <c r="K14">
+        <v>244</v>
+      </c>
+      <c r="L14">
+        <v>213</v>
+      </c>
+      <c r="M14">
+        <v>116</v>
+      </c>
+      <c r="N14">
+        <v>112</v>
+      </c>
+      <c r="O14">
+        <v>107</v>
+      </c>
+      <c r="P14">
+        <v>127</v>
+      </c>
+      <c r="Q14">
+        <v>105</v>
+      </c>
+      <c r="R14">
+        <v>80</v>
+      </c>
+      <c r="S14">
+        <v>73</v>
+      </c>
+      <c r="T14">
+        <v>24</v>
+      </c>
+      <c r="U14">
+        <v>5</v>
+      </c>
+      <c r="V14">
+        <v>52</v>
+      </c>
+      <c r="W14">
+        <v>51</v>
+      </c>
+      <c r="X14">
+        <v>2</v>
+      </c>
+      <c r="Y14">
+        <v>45</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>10</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
         <v>0</v>
       </c>
     </row>
@@ -4997,7 +5113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6301985-910C-46A2-BCA7-5B73125291C9}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K2" sqref="K2:K38"/>
     </sheetView>
   </sheetViews>
@@ -5032,20 +5148,20 @@
         <v>90</v>
       </c>
       <c r="E2" s="51">
-        <v>542</v>
+        <v>565</v>
       </c>
       <c r="G2" s="58" t="s">
         <v>55</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H38" si="0">VLOOKUP(G2,D:E,2,0)</f>
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="J2" t="s">
         <v>55</v>
       </c>
       <c r="K2">
-        <v>423</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="41.4">
@@ -5062,20 +5178,20 @@
         <v>92</v>
       </c>
       <c r="E3" s="53">
-        <v>433</v>
+        <v>451</v>
       </c>
       <c r="G3" s="58" t="s">
         <v>92</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>433</v>
+        <v>451</v>
       </c>
       <c r="J3" t="s">
         <v>92</v>
       </c>
       <c r="K3">
-        <v>433</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.8">
@@ -5092,80 +5208,80 @@
         <v>55</v>
       </c>
       <c r="E4" s="55">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="G4" s="58" t="s">
         <v>90</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>542</v>
+        <v>565</v>
       </c>
       <c r="J4" t="s">
         <v>90</v>
       </c>
       <c r="K4">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="27.6">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="13.8">
       <c r="A5" s="62">
         <v>4</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="E5" s="57">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="G5" s="58" t="s">
         <v>47</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="13.8">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27.6">
       <c r="A6" s="62">
         <v>5</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D6" s="56" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E6" s="57">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G6" s="58" t="s">
         <v>57</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="J6" t="s">
         <v>57</v>
       </c>
       <c r="K6">
-        <v>268</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="27.6">
@@ -5173,59 +5289,59 @@
         <v>6</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="E7" s="57">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="G7" s="58" t="s">
         <v>89</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="J7" t="s">
         <v>89</v>
       </c>
       <c r="K7">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="13.8">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27.6">
       <c r="A8" s="62">
         <v>7</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D8" s="56" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E8" s="57">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="G8" s="58" t="s">
         <v>13</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8">
-        <v>221</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="13.8">
@@ -5233,59 +5349,59 @@
         <v>8</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E9" s="57">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="G9" s="58" t="s">
         <v>61</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="J9" t="s">
         <v>61</v>
       </c>
       <c r="K9">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="27.6">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="13.8">
       <c r="A10" s="62">
         <v>9</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E10" s="57">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="G10" s="58" t="s">
         <v>23</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
       </c>
       <c r="K10">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="27.6">
@@ -5293,29 +5409,29 @@
         <v>10</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D11" s="56" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E11" s="57">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="G11" s="58" t="s">
         <v>29</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>244</v>
       </c>
       <c r="J11" t="s">
         <v>29</v>
       </c>
       <c r="K11">
-        <v>200</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="13.8">
@@ -5332,140 +5448,140 @@
         <v>61</v>
       </c>
       <c r="E12" s="49">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="G12" s="58" t="s">
         <v>41</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J12" t="s">
         <v>41</v>
       </c>
       <c r="K12">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="27.6">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="13.8">
       <c r="A13" s="62">
         <v>12</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E13" s="49">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G13" s="58" t="s">
         <v>93</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="J13" t="s">
         <v>93</v>
       </c>
       <c r="K13">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="13.8">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="27.6">
       <c r="A14" s="62">
         <v>13</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="E14" s="49">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G14" s="58" t="s">
         <v>17</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
       </c>
       <c r="K14">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="27.6">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="13.8">
       <c r="A15" s="62">
         <v>14</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="E15" s="49">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G15" s="58" t="s">
         <v>53</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="J15" t="s">
         <v>53</v>
       </c>
       <c r="K15">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="13.8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="27.6">
       <c r="A16" s="62">
         <v>15</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="E16" s="49">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="G16" s="58" t="s">
         <v>86</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="J16" t="s">
         <v>86</v>
       </c>
       <c r="K16">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="13.8">
@@ -5482,20 +5598,20 @@
         <v>71</v>
       </c>
       <c r="E17" s="49">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="G17" s="58" t="s">
         <v>71</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J17" t="s">
         <v>71</v>
       </c>
       <c r="K17">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="27.6">
@@ -5512,20 +5628,20 @@
         <v>87</v>
       </c>
       <c r="E18" s="49">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="G18" s="58" t="s">
         <v>87</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="J18" t="s">
         <v>87</v>
       </c>
       <c r="K18">
-        <v>116</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="27.6">
@@ -5542,20 +5658,20 @@
         <v>43</v>
       </c>
       <c r="E19" s="49">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="G19" s="58" t="s">
         <v>43</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="J19" t="s">
         <v>43</v>
       </c>
       <c r="K19">
-        <v>112</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="13.8">
@@ -5572,20 +5688,20 @@
         <v>73</v>
       </c>
       <c r="E20" s="49">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G20" s="58" t="s">
         <v>39</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="J20" t="s">
         <v>39</v>
       </c>
       <c r="K20">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="27.6">
@@ -5602,80 +5718,80 @@
         <v>19</v>
       </c>
       <c r="E21" s="49">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G21" s="58" t="s">
         <v>35</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J21" t="s">
         <v>35</v>
       </c>
       <c r="K21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="27.6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="13.8">
       <c r="A22" s="62">
         <v>21</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E22" s="49">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G22" s="58" t="s">
         <v>73</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J22" t="s">
         <v>73</v>
       </c>
       <c r="K22">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="13.8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="27.6">
       <c r="A23" s="62">
         <v>22</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E23" s="49">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G23" s="58" t="s">
         <v>19</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
       </c>
       <c r="K23">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="69">
@@ -5713,29 +5829,29 @@
         <v>24</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="E25" s="49">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G25" s="58" t="s">
         <v>31</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J25" t="s">
         <v>31</v>
       </c>
       <c r="K25">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="13.8">
@@ -5743,16 +5859,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="E26" s="49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="58" t="s">
         <v>83</v>
@@ -5773,13 +5889,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="E27" s="49">
         <v>0</v>
@@ -5858,18 +5974,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="27.6">
+    <row r="30" spans="1:11" ht="13.8">
       <c r="A30" s="62">
         <v>29</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E30" s="49">
         <v>0</v>
@@ -5888,18 +6004,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="13.8">
+    <row r="31" spans="1:11" ht="27.6">
       <c r="A31" s="62">
         <v>30</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="E31" s="49">
         <v>0</v>
@@ -5918,18 +6034,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="13.8">
+    <row r="32" spans="1:11" ht="27.6">
       <c r="A32" s="62">
         <v>31</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="C32" s="48" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E32" s="49">
         <v>0</v>
@@ -5948,18 +6064,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="27.6">
+    <row r="33" spans="1:11" ht="13.8">
       <c r="A33" s="62">
         <v>32</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E33" s="49">
         <v>0</v>
@@ -5983,13 +6099,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="E34" s="49">
         <v>0</v>
@@ -6013,13 +6129,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c r="E35" s="49">
         <v>0</v>

--- a/data/prueba_predicc_dia_dia.xlsx
+++ b/data/prueba_predicc_dia_dia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/Desktop/adri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="441" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F3D6DDD-39AF-4FC1-922B-9B3C7A7A4EC9}"/>
+  <xr:revisionPtr revIDLastSave="446" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5648C76A-91F8-473D-B545-153B7C1ADC8D}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1776" windowWidth="17256" windowHeight="8868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-6315" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="55" r:id="rId8"/>
+    <pivotCache cacheId="64" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2392,7 +2392,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45406.792102893516" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45407.439815277779" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="H1:L37" sheet="Hoja 3"/>
   </cacheSource>
@@ -2844,7 +2844,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="55" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="64" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
   <location ref="A1:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="5">
     <pivotField name="code" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -3475,10 +3475,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL14"/>
+  <dimension ref="A1:AL15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5101,6 +5101,122 @@
         <v>0</v>
       </c>
       <c r="AL14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A15" s="2">
+        <v>45406</v>
+      </c>
+      <c r="B15">
+        <v>447</v>
+      </c>
+      <c r="C15">
+        <v>345</v>
+      </c>
+      <c r="D15">
+        <v>586</v>
+      </c>
+      <c r="E15">
+        <v>289</v>
+      </c>
+      <c r="F15">
+        <v>288</v>
+      </c>
+      <c r="G15">
+        <v>287</v>
+      </c>
+      <c r="H15">
+        <v>238</v>
+      </c>
+      <c r="I15">
+        <v>136</v>
+      </c>
+      <c r="J15">
+        <v>217</v>
+      </c>
+      <c r="K15">
+        <v>252</v>
+      </c>
+      <c r="L15">
+        <v>218</v>
+      </c>
+      <c r="M15">
+        <v>118</v>
+      </c>
+      <c r="N15">
+        <v>89</v>
+      </c>
+      <c r="O15">
+        <v>108</v>
+      </c>
+      <c r="P15">
+        <v>129</v>
+      </c>
+      <c r="Q15">
+        <v>106</v>
+      </c>
+      <c r="R15">
+        <v>80</v>
+      </c>
+      <c r="S15">
+        <v>74</v>
+      </c>
+      <c r="T15">
+        <v>21</v>
+      </c>
+      <c r="U15">
+        <v>56</v>
+      </c>
+      <c r="V15">
+        <v>52</v>
+      </c>
+      <c r="W15">
+        <v>50</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>43</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>7</v>
+      </c>
+      <c r="AB15">
+        <v>56</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
         <v>0</v>
       </c>
     </row>
@@ -5148,80 +5264,80 @@
         <v>90</v>
       </c>
       <c r="E2" s="51">
-        <v>565</v>
+        <v>586</v>
       </c>
       <c r="G2" s="58" t="s">
         <v>55</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H38" si="0">VLOOKUP(G2,D:E,2,0)</f>
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="J2" t="s">
         <v>55</v>
       </c>
       <c r="K2">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="41.4">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="13.8">
       <c r="A3" s="62">
         <v>2</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="E3" s="53">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G3" s="58" t="s">
         <v>92</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>451</v>
+        <v>345</v>
       </c>
       <c r="J3" t="s">
         <v>92</v>
       </c>
       <c r="K3">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="13.8">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="41.4">
       <c r="A4" s="62">
         <v>3</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="E4" s="55">
-        <v>431</v>
+        <v>345</v>
       </c>
       <c r="G4" s="58" t="s">
         <v>90</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>565</v>
+        <v>586</v>
       </c>
       <c r="J4" t="s">
         <v>90</v>
       </c>
       <c r="K4">
-        <v>565</v>
+        <v>586</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="13.8">
@@ -5238,20 +5354,20 @@
         <v>47</v>
       </c>
       <c r="E5" s="57">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="G5" s="58" t="s">
         <v>47</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
-        <v>280</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="27.6">
@@ -5268,20 +5384,20 @@
         <v>57</v>
       </c>
       <c r="E6" s="57">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="G6" s="58" t="s">
         <v>57</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="J6" t="s">
         <v>57</v>
       </c>
       <c r="K6">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="27.6">
@@ -5298,20 +5414,20 @@
         <v>89</v>
       </c>
       <c r="E7" s="57">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="G7" s="58" t="s">
         <v>89</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="J7" t="s">
         <v>89</v>
       </c>
       <c r="K7">
-        <v>278</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="27.6">
@@ -5328,20 +5444,20 @@
         <v>29</v>
       </c>
       <c r="E8" s="57">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="G8" s="58" t="s">
         <v>13</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="13.8">
@@ -5358,20 +5474,20 @@
         <v>13</v>
       </c>
       <c r="E9" s="57">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="G9" s="58" t="s">
         <v>61</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>202</v>
+        <v>136</v>
       </c>
       <c r="J9" t="s">
         <v>61</v>
       </c>
       <c r="K9">
-        <v>202</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="13.8">
@@ -5388,20 +5504,20 @@
         <v>41</v>
       </c>
       <c r="E10" s="57">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="G10" s="58" t="s">
         <v>23</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
       </c>
       <c r="K10">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="27.6">
@@ -5418,20 +5534,20 @@
         <v>23</v>
       </c>
       <c r="E11" s="57">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="G11" s="58" t="s">
         <v>29</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="J11" t="s">
         <v>29</v>
       </c>
       <c r="K11">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="13.8">
@@ -5448,20 +5564,20 @@
         <v>61</v>
       </c>
       <c r="E12" s="49">
-        <v>202</v>
+        <v>136</v>
       </c>
       <c r="G12" s="58" t="s">
         <v>41</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="J12" t="s">
         <v>41</v>
       </c>
       <c r="K12">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="13.8">
@@ -5478,20 +5594,20 @@
         <v>86</v>
       </c>
       <c r="E13" s="49">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G13" s="58" t="s">
         <v>93</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J13" t="s">
         <v>93</v>
       </c>
       <c r="K13">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="27.6">
@@ -5508,80 +5624,80 @@
         <v>93</v>
       </c>
       <c r="E14" s="49">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G14" s="58" t="s">
         <v>17</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
       </c>
       <c r="K14">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="13.8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="27.6">
       <c r="A15" s="62">
         <v>14</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="E15" s="49">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G15" s="58" t="s">
         <v>53</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J15" t="s">
         <v>53</v>
       </c>
       <c r="K15">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="27.6">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="13.8">
       <c r="A16" s="62">
         <v>15</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="E16" s="49">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G16" s="58" t="s">
         <v>86</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J16" t="s">
         <v>86</v>
       </c>
       <c r="K16">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="13.8">
@@ -5589,29 +5705,29 @@
         <v>16</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="E17" s="49">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="G17" s="58" t="s">
         <v>71</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J17" t="s">
         <v>71</v>
       </c>
       <c r="K17">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="27.6">
@@ -5658,80 +5774,80 @@
         <v>43</v>
       </c>
       <c r="E19" s="49">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G19" s="58" t="s">
         <v>43</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J19" t="s">
         <v>43</v>
       </c>
       <c r="K19">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="13.8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="27.6">
       <c r="A20" s="62">
         <v>19</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="E20" s="49">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G20" s="58" t="s">
         <v>39</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J20" t="s">
         <v>39</v>
       </c>
       <c r="K20">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="27.6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="13.8">
       <c r="A21" s="62">
         <v>20</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E21" s="49">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G21" s="58" t="s">
         <v>35</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="J21" t="s">
         <v>35</v>
       </c>
       <c r="K21">
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="13.8">
@@ -5739,16 +5855,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="E22" s="49">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G22" s="58" t="s">
         <v>73</v>
@@ -5769,106 +5885,106 @@
         <v>22</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E23" s="49">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G23" s="58" t="s">
         <v>19</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
       </c>
       <c r="K23">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="69">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="13.8">
       <c r="A24" s="62">
         <v>23</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E24" s="49">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="G24" s="58" t="s">
         <v>85</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
         <v>85</v>
       </c>
       <c r="K24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="13.8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="27.6">
       <c r="A25" s="62">
         <v>24</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E25" s="49">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G25" s="58" t="s">
         <v>31</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J25" t="s">
         <v>31</v>
       </c>
       <c r="K25">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="13.8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="69">
       <c r="A26" s="62">
         <v>25</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="E26" s="49">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G26" s="58" t="s">
         <v>83</v>
@@ -5889,13 +6005,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="E27" s="49">
         <v>0</v>
@@ -5905,13 +6021,13 @@
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J27" t="s">
         <v>37</v>
       </c>
       <c r="K27">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="27.6">
@@ -5935,13 +6051,13 @@
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="J28" t="s">
         <v>45</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="27.6">
@@ -5974,18 +6090,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="13.8">
+    <row r="30" spans="1:11" ht="27.6">
       <c r="A30" s="62">
         <v>29</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="E30" s="49">
         <v>0</v>
@@ -6004,18 +6120,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="27.6">
+    <row r="31" spans="1:11" ht="13.8">
       <c r="A31" s="62">
         <v>30</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="E31" s="49">
         <v>0</v>
@@ -6039,13 +6155,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C32" s="48" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E32" s="49">
         <v>0</v>
@@ -6064,18 +6180,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="13.8">
+    <row r="33" spans="1:11" ht="27.6">
       <c r="A33" s="62">
         <v>32</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="E33" s="49">
         <v>0</v>
@@ -6099,13 +6215,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="E34" s="49">
         <v>0</v>
@@ -6124,18 +6240,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="27.6">
+    <row r="35" spans="1:11" ht="13.8">
       <c r="A35" s="62">
         <v>34</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="E35" s="49">
         <v>0</v>
@@ -6184,18 +6300,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="27.6">
+    <row r="37" spans="1:11" ht="13.8">
       <c r="A37" s="62">
         <v>36</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="D37" s="48" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="E37" s="49">
         <v>0</v>

--- a/data/prueba_predicc_dia_dia.xlsx
+++ b/data/prueba_predicc_dia_dia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/Desktop/adri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="446" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5648C76A-91F8-473D-B545-153B7C1ADC8D}"/>
+  <xr:revisionPtr revIDLastSave="453" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83DA8634-B4CC-4FB0-BA59-028B6470BE04}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6315" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="64" r:id="rId8"/>
+    <pivotCache cacheId="73" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2392,7 +2392,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45407.439815277779" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45408.484126967589" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="H1:L37" sheet="Hoja 3"/>
   </cacheSource>
@@ -2844,7 +2844,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="64" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="73" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
   <location ref="A1:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="5">
     <pivotField name="code" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -3475,10 +3475,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL15"/>
+  <dimension ref="A1:AL16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5217,6 +5217,122 @@
         <v>0</v>
       </c>
       <c r="AL15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A16" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B16">
+        <v>472</v>
+      </c>
+      <c r="C16">
+        <v>363</v>
+      </c>
+      <c r="D16">
+        <v>380</v>
+      </c>
+      <c r="E16">
+        <v>305</v>
+      </c>
+      <c r="F16">
+        <v>304</v>
+      </c>
+      <c r="G16">
+        <v>303</v>
+      </c>
+      <c r="H16">
+        <v>251</v>
+      </c>
+      <c r="I16">
+        <v>144</v>
+      </c>
+      <c r="J16">
+        <v>229</v>
+      </c>
+      <c r="K16">
+        <v>266</v>
+      </c>
+      <c r="L16">
+        <v>232</v>
+      </c>
+      <c r="M16">
+        <v>124</v>
+      </c>
+      <c r="N16">
+        <v>94</v>
+      </c>
+      <c r="O16">
+        <v>115</v>
+      </c>
+      <c r="P16">
+        <v>136</v>
+      </c>
+      <c r="Q16">
+        <v>111</v>
+      </c>
+      <c r="R16">
+        <v>85</v>
+      </c>
+      <c r="S16">
+        <v>78</v>
+      </c>
+      <c r="T16">
+        <v>23</v>
+      </c>
+      <c r="U16">
+        <v>58</v>
+      </c>
+      <c r="V16">
+        <v>54</v>
+      </c>
+      <c r="W16">
+        <v>50</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>47</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>9</v>
+      </c>
+      <c r="AB16">
+        <v>58</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
         <v>0</v>
       </c>
     </row>
@@ -5229,7 +5345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6301985-910C-46A2-BCA7-5B73125291C9}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K2" sqref="K2:K38"/>
     </sheetView>
   </sheetViews>
@@ -5250,64 +5366,64 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="27.6">
+    <row r="2" spans="1:11" ht="13.8">
       <c r="A2" s="62">
         <v>1</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="E2" s="51">
-        <v>586</v>
+        <v>472</v>
       </c>
       <c r="G2" s="58" t="s">
         <v>55</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H38" si="0">VLOOKUP(G2,D:E,2,0)</f>
-        <v>447</v>
+        <v>472</v>
       </c>
       <c r="J2" t="s">
         <v>55</v>
       </c>
       <c r="K2">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="13.8">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27.6">
       <c r="A3" s="62">
         <v>2</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="E3" s="53">
-        <v>447</v>
+        <v>380</v>
       </c>
       <c r="G3" s="58" t="s">
         <v>92</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="J3" t="s">
         <v>92</v>
       </c>
       <c r="K3">
-        <v>345</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="41.4">
@@ -5324,20 +5440,20 @@
         <v>92</v>
       </c>
       <c r="E4" s="55">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="G4" s="58" t="s">
         <v>90</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>586</v>
+        <v>380</v>
       </c>
       <c r="J4" t="s">
         <v>90</v>
       </c>
       <c r="K4">
-        <v>586</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="13.8">
@@ -5354,20 +5470,20 @@
         <v>47</v>
       </c>
       <c r="E5" s="57">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="G5" s="58" t="s">
         <v>47</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
-        <v>289</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="27.6">
@@ -5384,20 +5500,20 @@
         <v>57</v>
       </c>
       <c r="E6" s="57">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="G6" s="58" t="s">
         <v>57</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="J6" t="s">
         <v>57</v>
       </c>
       <c r="K6">
-        <v>288</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="27.6">
@@ -5414,20 +5530,20 @@
         <v>89</v>
       </c>
       <c r="E7" s="57">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="G7" s="58" t="s">
         <v>89</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="J7" t="s">
         <v>89</v>
       </c>
       <c r="K7">
-        <v>287</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="27.6">
@@ -5444,20 +5560,20 @@
         <v>29</v>
       </c>
       <c r="E8" s="57">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="G8" s="58" t="s">
         <v>13</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8">
-        <v>238</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="13.8">
@@ -5474,20 +5590,20 @@
         <v>13</v>
       </c>
       <c r="E9" s="57">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="G9" s="58" t="s">
         <v>61</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="J9" t="s">
         <v>61</v>
       </c>
       <c r="K9">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="13.8">
@@ -5504,20 +5620,20 @@
         <v>41</v>
       </c>
       <c r="E10" s="57">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="G10" s="58" t="s">
         <v>23</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
       </c>
       <c r="K10">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="27.6">
@@ -5534,20 +5650,20 @@
         <v>23</v>
       </c>
       <c r="E11" s="57">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="G11" s="58" t="s">
         <v>29</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="J11" t="s">
         <v>29</v>
       </c>
       <c r="K11">
-        <v>252</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="13.8">
@@ -5564,20 +5680,20 @@
         <v>61</v>
       </c>
       <c r="E12" s="49">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="G12" s="58" t="s">
         <v>41</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="J12" t="s">
         <v>41</v>
       </c>
       <c r="K12">
-        <v>218</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="13.8">
@@ -5594,20 +5710,20 @@
         <v>86</v>
       </c>
       <c r="E13" s="49">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="G13" s="58" t="s">
         <v>93</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="J13" t="s">
         <v>93</v>
       </c>
       <c r="K13">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="27.6">
@@ -5624,20 +5740,20 @@
         <v>93</v>
       </c>
       <c r="E14" s="49">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G14" s="58" t="s">
         <v>17</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
       </c>
       <c r="K14">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="27.6">
@@ -5654,20 +5770,20 @@
         <v>53</v>
       </c>
       <c r="E15" s="49">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="G15" s="58" t="s">
         <v>53</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="J15" t="s">
         <v>53</v>
       </c>
       <c r="K15">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="13.8">
@@ -5684,20 +5800,20 @@
         <v>71</v>
       </c>
       <c r="E16" s="49">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G16" s="58" t="s">
         <v>86</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="J16" t="s">
         <v>86</v>
       </c>
       <c r="K16">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="13.8">
@@ -5714,20 +5830,20 @@
         <v>17</v>
       </c>
       <c r="E17" s="49">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G17" s="58" t="s">
         <v>71</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J17" t="s">
         <v>71</v>
       </c>
       <c r="K17">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="27.6">
@@ -5744,20 +5860,20 @@
         <v>87</v>
       </c>
       <c r="E18" s="49">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G18" s="58" t="s">
         <v>87</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J18" t="s">
         <v>87</v>
       </c>
       <c r="K18">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="27.6">
@@ -5774,20 +5890,20 @@
         <v>43</v>
       </c>
       <c r="E19" s="49">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G19" s="58" t="s">
         <v>43</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J19" t="s">
         <v>43</v>
       </c>
       <c r="K19">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="27.6">
@@ -5804,20 +5920,20 @@
         <v>45</v>
       </c>
       <c r="E20" s="49">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G20" s="58" t="s">
         <v>39</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J20" t="s">
         <v>39</v>
       </c>
       <c r="K20">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="13.8">
@@ -5834,20 +5950,20 @@
         <v>35</v>
       </c>
       <c r="E21" s="49">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G21" s="58" t="s">
         <v>35</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J21" t="s">
         <v>35</v>
       </c>
       <c r="K21">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="13.8">
@@ -5864,20 +5980,20 @@
         <v>73</v>
       </c>
       <c r="E22" s="49">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G22" s="58" t="s">
         <v>73</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J22" t="s">
         <v>73</v>
       </c>
       <c r="K22">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="27.6">
@@ -5924,20 +6040,20 @@
         <v>31</v>
       </c>
       <c r="E24" s="49">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G24" s="58" t="s">
         <v>85</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
         <v>85</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="27.6">
@@ -5954,20 +6070,20 @@
         <v>39</v>
       </c>
       <c r="E25" s="49">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G25" s="58" t="s">
         <v>31</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J25" t="s">
         <v>31</v>
       </c>
       <c r="K25">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="69">
@@ -5984,7 +6100,7 @@
         <v>37</v>
       </c>
       <c r="E26" s="49">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G26" s="58" t="s">
         <v>83</v>
@@ -6005,43 +6121,43 @@
         <v>26</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E27" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="58" t="s">
         <v>37</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J27" t="s">
         <v>37</v>
       </c>
       <c r="K27">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="27.6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="13.8">
       <c r="A28" s="62">
         <v>27</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E28" s="49">
         <v>0</v>
@@ -6051,13 +6167,13 @@
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J28" t="s">
         <v>45</v>
       </c>
       <c r="K28">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="27.6">
@@ -6065,13 +6181,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="48" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="E29" s="49">
         <v>0</v>
@@ -6095,13 +6211,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E30" s="49">
         <v>0</v>
@@ -6120,18 +6236,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="13.8">
+    <row r="31" spans="1:11" ht="27.6">
       <c r="A31" s="62">
         <v>30</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="E31" s="49">
         <v>0</v>
@@ -6150,18 +6266,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="27.6">
+    <row r="32" spans="1:11" ht="13.8">
       <c r="A32" s="62">
         <v>31</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C32" s="48" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E32" s="49">
         <v>0</v>
@@ -6185,13 +6301,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c r="E33" s="49">
         <v>0</v>
@@ -6215,13 +6331,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="E34" s="49">
         <v>0</v>
@@ -6240,18 +6356,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="13.8">
+    <row r="35" spans="1:11" ht="27.6">
       <c r="A35" s="62">
         <v>34</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E35" s="49">
         <v>0</v>
@@ -6275,13 +6391,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="D36" s="48" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="E36" s="49">
         <v>0</v>
@@ -6305,13 +6421,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="D37" s="48" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="E37" s="49">
         <v>0</v>

--- a/data/prueba_predicc_dia_dia.xlsx
+++ b/data/prueba_predicc_dia_dia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/Desktop/adri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="453" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83DA8634-B4CC-4FB0-BA59-028B6470BE04}"/>
+  <xr:revisionPtr revIDLastSave="459" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3481ED36-E5AD-4179-A296-9CAA57AACFA4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36720" yWindow="1020" windowWidth="17250" windowHeight="8865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="73" r:id="rId8"/>
+    <pivotCache cacheId="82" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2392,7 +2392,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45408.484126967589" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45409.063983449072" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="H1:L37" sheet="Hoja 3"/>
   </cacheSource>
@@ -2844,7 +2844,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="73" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="82" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
   <location ref="A1:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="5">
     <pivotField name="code" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -3475,10 +3475,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL16"/>
+  <dimension ref="A1:AL17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5333,6 +5333,122 @@
         <v>0</v>
       </c>
       <c r="AL16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A17" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B17">
+        <v>446</v>
+      </c>
+      <c r="C17">
+        <v>349</v>
+      </c>
+      <c r="D17">
+        <v>364</v>
+      </c>
+      <c r="E17">
+        <v>298</v>
+      </c>
+      <c r="F17">
+        <v>297</v>
+      </c>
+      <c r="G17">
+        <v>294</v>
+      </c>
+      <c r="H17">
+        <v>249</v>
+      </c>
+      <c r="I17">
+        <v>153</v>
+      </c>
+      <c r="J17">
+        <v>230</v>
+      </c>
+      <c r="K17">
+        <v>263</v>
+      </c>
+      <c r="L17">
+        <v>231</v>
+      </c>
+      <c r="M17">
+        <v>137</v>
+      </c>
+      <c r="N17">
+        <v>110</v>
+      </c>
+      <c r="O17">
+        <v>127</v>
+      </c>
+      <c r="P17">
+        <v>147</v>
+      </c>
+      <c r="Q17">
+        <v>100</v>
+      </c>
+      <c r="R17">
+        <v>100</v>
+      </c>
+      <c r="S17">
+        <v>95</v>
+      </c>
+      <c r="T17">
+        <v>46</v>
+      </c>
+      <c r="U17">
+        <v>23</v>
+      </c>
+      <c r="V17">
+        <v>75</v>
+      </c>
+      <c r="W17">
+        <v>98</v>
+      </c>
+      <c r="X17">
+        <v>26</v>
+      </c>
+      <c r="Y17">
+        <v>12</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>22</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
         <v>0</v>
       </c>
     </row>
@@ -5380,20 +5496,20 @@
         <v>55</v>
       </c>
       <c r="E2" s="51">
-        <v>472</v>
+        <v>446</v>
       </c>
       <c r="G2" s="58" t="s">
         <v>55</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H38" si="0">VLOOKUP(G2,D:E,2,0)</f>
-        <v>472</v>
+        <v>446</v>
       </c>
       <c r="J2" t="s">
         <v>55</v>
       </c>
       <c r="K2">
-        <v>472</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="27.6">
@@ -5410,20 +5526,20 @@
         <v>90</v>
       </c>
       <c r="E3" s="53">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="G3" s="58" t="s">
         <v>92</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="J3" t="s">
         <v>92</v>
       </c>
       <c r="K3">
-        <v>363</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="41.4">
@@ -5440,20 +5556,20 @@
         <v>92</v>
       </c>
       <c r="E4" s="55">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="G4" s="58" t="s">
         <v>90</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="J4" t="s">
         <v>90</v>
       </c>
       <c r="K4">
-        <v>380</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="13.8">
@@ -5470,20 +5586,20 @@
         <v>47</v>
       </c>
       <c r="E5" s="57">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="G5" s="58" t="s">
         <v>47</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="27.6">
@@ -5500,20 +5616,20 @@
         <v>57</v>
       </c>
       <c r="E6" s="57">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G6" s="58" t="s">
         <v>57</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="J6" t="s">
         <v>57</v>
       </c>
       <c r="K6">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="27.6">
@@ -5530,20 +5646,20 @@
         <v>89</v>
       </c>
       <c r="E7" s="57">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="G7" s="58" t="s">
         <v>89</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="J7" t="s">
         <v>89</v>
       </c>
       <c r="K7">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="27.6">
@@ -5560,20 +5676,20 @@
         <v>29</v>
       </c>
       <c r="E8" s="57">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G8" s="58" t="s">
         <v>13</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="13.8">
@@ -5590,20 +5706,20 @@
         <v>13</v>
       </c>
       <c r="E9" s="57">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G9" s="58" t="s">
         <v>61</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="J9" t="s">
         <v>61</v>
       </c>
       <c r="K9">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="13.8">
@@ -5620,20 +5736,20 @@
         <v>41</v>
       </c>
       <c r="E10" s="57">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G10" s="58" t="s">
         <v>23</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
       </c>
       <c r="K10">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="27.6">
@@ -5650,20 +5766,20 @@
         <v>23</v>
       </c>
       <c r="E11" s="57">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G11" s="58" t="s">
         <v>29</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J11" t="s">
         <v>29</v>
       </c>
       <c r="K11">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="13.8">
@@ -5680,20 +5796,20 @@
         <v>61</v>
       </c>
       <c r="E12" s="49">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="G12" s="58" t="s">
         <v>41</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J12" t="s">
         <v>41</v>
       </c>
       <c r="K12">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="13.8">
@@ -5710,20 +5826,20 @@
         <v>86</v>
       </c>
       <c r="E13" s="49">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G13" s="58" t="s">
         <v>93</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="J13" t="s">
         <v>93</v>
       </c>
       <c r="K13">
-        <v>124</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="27.6">
@@ -5740,20 +5856,20 @@
         <v>93</v>
       </c>
       <c r="E14" s="49">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="G14" s="58" t="s">
         <v>17</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
       </c>
       <c r="K14">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="27.6">
@@ -5770,20 +5886,20 @@
         <v>53</v>
       </c>
       <c r="E15" s="49">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G15" s="58" t="s">
         <v>53</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="J15" t="s">
         <v>53</v>
       </c>
       <c r="K15">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="13.8">
@@ -5791,89 +5907,89 @@
         <v>15</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="E16" s="49">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G16" s="58" t="s">
         <v>86</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="J16" t="s">
         <v>86</v>
       </c>
       <c r="K16">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="13.8">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="27.6">
       <c r="A17" s="62">
         <v>16</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="E17" s="49">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G17" s="58" t="s">
         <v>71</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="J17" t="s">
         <v>71</v>
       </c>
       <c r="K17">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="27.6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="13.8">
       <c r="A18" s="62">
         <v>17</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="E18" s="49">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="G18" s="58" t="s">
         <v>87</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="J18" t="s">
         <v>87</v>
       </c>
       <c r="K18">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="27.6">
@@ -5881,29 +5997,29 @@
         <v>18</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E19" s="49">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="G19" s="58" t="s">
         <v>43</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="J19" t="s">
         <v>43</v>
       </c>
       <c r="K19">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="27.6">
@@ -5911,29 +6027,29 @@
         <v>19</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E20" s="49">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="G20" s="58" t="s">
         <v>39</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="J20" t="s">
         <v>39</v>
       </c>
       <c r="K20">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="13.8">
@@ -5941,89 +6057,89 @@
         <v>20</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="E21" s="49">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="G21" s="58" t="s">
         <v>35</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="J21" t="s">
         <v>35</v>
       </c>
       <c r="K21">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="13.8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="27.6">
       <c r="A22" s="62">
         <v>21</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E22" s="49">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G22" s="58" t="s">
         <v>73</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="J22" t="s">
         <v>73</v>
       </c>
       <c r="K22">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="27.6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="13.8">
       <c r="A23" s="62">
         <v>22</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="E23" s="49">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="G23" s="58" t="s">
         <v>19</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
       </c>
       <c r="K23">
-        <v>50</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="13.8">
@@ -6031,29 +6147,29 @@
         <v>23</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E24" s="49">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="G24" s="58" t="s">
         <v>85</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="J24" t="s">
         <v>85</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="27.6">
@@ -6061,46 +6177,46 @@
         <v>24</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E25" s="49">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G25" s="58" t="s">
         <v>31</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="J25" t="s">
         <v>31</v>
       </c>
       <c r="K25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="69">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="13.8">
       <c r="A26" s="62">
         <v>25</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E26" s="49">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G26" s="58" t="s">
         <v>83</v>
@@ -6116,34 +6232,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="13.8">
+    <row r="27" spans="1:11" ht="27.6">
       <c r="A27" s="62">
         <v>26</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="E27" s="49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="58" t="s">
         <v>37</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
         <v>37</v>
       </c>
       <c r="K27">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="13.8">
@@ -6151,13 +6267,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E28" s="49">
         <v>0</v>
@@ -6167,13 +6283,13 @@
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="J28" t="s">
         <v>45</v>
       </c>
       <c r="K28">
-        <v>58</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="27.6">
@@ -6236,18 +6352,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="27.6">
+    <row r="31" spans="1:11" ht="69">
       <c r="A31" s="62">
         <v>30</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="E31" s="49">
         <v>0</v>
@@ -6266,18 +6382,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="13.8">
+    <row r="32" spans="1:11" ht="27.6">
       <c r="A32" s="62">
         <v>31</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C32" s="48" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="E32" s="49">
         <v>0</v>
@@ -6296,18 +6412,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="27.6">
+    <row r="33" spans="1:11" ht="13.8">
       <c r="A33" s="62">
         <v>32</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E33" s="49">
         <v>0</v>
@@ -6326,18 +6442,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="27.6">
+    <row r="34" spans="1:11" ht="13.8">
       <c r="A34" s="62">
         <v>33</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="E34" s="49">
         <v>0</v>
@@ -6386,18 +6502,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="13.8">
+    <row r="36" spans="1:11" ht="27.6">
       <c r="A36" s="62">
         <v>35</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="D36" s="48" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="E36" s="49">
         <v>0</v>
@@ -6421,13 +6537,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="D37" s="48" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="E37" s="49">
         <v>0</v>

--- a/data/prueba_predicc_dia_dia.xlsx
+++ b/data/prueba_predicc_dia_dia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/Desktop/adri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="459" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3481ED36-E5AD-4179-A296-9CAA57AACFA4}"/>
+  <xr:revisionPtr revIDLastSave="464" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65F3FCB1-F9F6-4479-B80F-6979A12DE998}"/>
   <bookViews>
-    <workbookView xWindow="36720" yWindow="1020" windowWidth="17250" windowHeight="8865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="82" r:id="rId8"/>
+    <pivotCache cacheId="91" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2392,7 +2392,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45409.063983449072" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45410.051136458336" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="H1:L37" sheet="Hoja 3"/>
   </cacheSource>
@@ -2844,7 +2844,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="82" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="91" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
   <location ref="A1:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="5">
     <pivotField name="code" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -3475,10 +3475,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL17"/>
+  <dimension ref="A1:AL18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5449,6 +5449,122 @@
         <v>0</v>
       </c>
       <c r="AL17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A18" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B18">
+        <v>478</v>
+      </c>
+      <c r="C18">
+        <v>372</v>
+      </c>
+      <c r="D18">
+        <v>388</v>
+      </c>
+      <c r="E18">
+        <v>235</v>
+      </c>
+      <c r="F18">
+        <v>313</v>
+      </c>
+      <c r="G18">
+        <v>312</v>
+      </c>
+      <c r="H18">
+        <v>261</v>
+      </c>
+      <c r="I18">
+        <v>155</v>
+      </c>
+      <c r="J18">
+        <v>239</v>
+      </c>
+      <c r="K18">
+        <v>275</v>
+      </c>
+      <c r="L18">
+        <v>241</v>
+      </c>
+      <c r="M18">
+        <v>136</v>
+      </c>
+      <c r="N18">
+        <v>106</v>
+      </c>
+      <c r="O18">
+        <v>126</v>
+      </c>
+      <c r="P18">
+        <v>147</v>
+      </c>
+      <c r="Q18">
+        <v>97</v>
+      </c>
+      <c r="R18">
+        <v>97</v>
+      </c>
+      <c r="S18">
+        <v>90</v>
+      </c>
+      <c r="T18">
+        <v>37</v>
+      </c>
+      <c r="U18">
+        <v>12</v>
+      </c>
+      <c r="V18">
+        <v>67</v>
+      </c>
+      <c r="W18">
+        <v>63</v>
+      </c>
+      <c r="X18">
+        <v>13</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>21</v>
+      </c>
+      <c r="AB18">
+        <v>10</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
         <v>0</v>
       </c>
     </row>
@@ -5496,20 +5612,20 @@
         <v>55</v>
       </c>
       <c r="E2" s="51">
-        <v>446</v>
+        <v>478</v>
       </c>
       <c r="G2" s="58" t="s">
         <v>55</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H38" si="0">VLOOKUP(G2,D:E,2,0)</f>
-        <v>446</v>
+        <v>478</v>
       </c>
       <c r="J2" t="s">
         <v>55</v>
       </c>
       <c r="K2">
-        <v>446</v>
+        <v>478</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="27.6">
@@ -5526,20 +5642,20 @@
         <v>90</v>
       </c>
       <c r="E3" s="53">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="G3" s="58" t="s">
         <v>92</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="J3" t="s">
         <v>92</v>
       </c>
       <c r="K3">
-        <v>349</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="41.4">
@@ -5556,50 +5672,50 @@
         <v>92</v>
       </c>
       <c r="E4" s="55">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="G4" s="58" t="s">
         <v>90</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="J4" t="s">
         <v>90</v>
       </c>
       <c r="K4">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="13.8">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27.6">
       <c r="A5" s="62">
         <v>4</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E5" s="57">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="G5" s="58" t="s">
         <v>47</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>298</v>
+        <v>235</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
-        <v>298</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="27.6">
@@ -5607,29 +5723,29 @@
         <v>5</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D6" s="56" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="E6" s="57">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="G6" s="58" t="s">
         <v>57</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="J6" t="s">
         <v>57</v>
       </c>
       <c r="K6">
-        <v>297</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="27.6">
@@ -5637,59 +5753,59 @@
         <v>6</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="E7" s="57">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="G7" s="58" t="s">
         <v>89</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="J7" t="s">
         <v>89</v>
       </c>
       <c r="K7">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="27.6">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="13.8">
       <c r="A8" s="62">
         <v>7</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D8" s="56" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E8" s="57">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G8" s="58" t="s">
         <v>13</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="13.8">
@@ -5697,89 +5813,89 @@
         <v>8</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E9" s="57">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G9" s="58" t="s">
         <v>61</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J9" t="s">
         <v>61</v>
       </c>
       <c r="K9">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="13.8">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="27.6">
       <c r="A10" s="62">
         <v>9</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E10" s="57">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="G10" s="58" t="s">
         <v>23</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
       </c>
       <c r="K10">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="27.6">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="13.8">
       <c r="A11" s="62">
         <v>10</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D11" s="56" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E11" s="57">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="G11" s="58" t="s">
         <v>29</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="J11" t="s">
         <v>29</v>
       </c>
       <c r="K11">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="13.8">
@@ -5796,20 +5912,20 @@
         <v>61</v>
       </c>
       <c r="E12" s="49">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G12" s="58" t="s">
         <v>41</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="J12" t="s">
         <v>41</v>
       </c>
       <c r="K12">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="13.8">
@@ -5833,13 +5949,13 @@
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J13" t="s">
         <v>93</v>
       </c>
       <c r="K13">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="27.6">
@@ -5856,20 +5972,20 @@
         <v>93</v>
       </c>
       <c r="E14" s="49">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G14" s="58" t="s">
         <v>17</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
       </c>
       <c r="K14">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="27.6">
@@ -5886,20 +6002,20 @@
         <v>53</v>
       </c>
       <c r="E15" s="49">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G15" s="58" t="s">
         <v>53</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J15" t="s">
         <v>53</v>
       </c>
       <c r="K15">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="13.8">
@@ -5916,7 +6032,7 @@
         <v>17</v>
       </c>
       <c r="E16" s="49">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G16" s="58" t="s">
         <v>86</v>
@@ -5946,20 +6062,20 @@
         <v>87</v>
       </c>
       <c r="E17" s="49">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G17" s="58" t="s">
         <v>71</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J17" t="s">
         <v>71</v>
       </c>
       <c r="K17">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="13.8">
@@ -5976,20 +6092,20 @@
         <v>71</v>
       </c>
       <c r="E18" s="49">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G18" s="58" t="s">
         <v>87</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J18" t="s">
         <v>87</v>
       </c>
       <c r="K18">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="27.6">
@@ -5997,89 +6113,89 @@
         <v>18</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="E19" s="49">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G19" s="58" t="s">
         <v>43</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="J19" t="s">
         <v>43</v>
       </c>
       <c r="K19">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="27.6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="13.8">
       <c r="A20" s="62">
         <v>19</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E20" s="49">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="G20" s="58" t="s">
         <v>39</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J20" t="s">
         <v>39</v>
       </c>
       <c r="K20">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="13.8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="27.6">
       <c r="A21" s="62">
         <v>20</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E21" s="49">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="G21" s="58" t="s">
         <v>35</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J21" t="s">
         <v>35</v>
       </c>
       <c r="K21">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="27.6">
@@ -6096,50 +6212,50 @@
         <v>39</v>
       </c>
       <c r="E22" s="49">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G22" s="58" t="s">
         <v>73</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J22" t="s">
         <v>73</v>
       </c>
       <c r="K22">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="13.8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="69">
       <c r="A23" s="62">
         <v>22</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="E23" s="49">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G23" s="58" t="s">
         <v>19</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
       </c>
       <c r="K23">
-        <v>98</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="13.8">
@@ -6147,76 +6263,76 @@
         <v>23</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="E24" s="49">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G24" s="58" t="s">
         <v>85</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J24" t="s">
         <v>85</v>
       </c>
       <c r="K24">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="27.6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="13.8">
       <c r="A25" s="62">
         <v>24</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E25" s="49">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G25" s="58" t="s">
         <v>31</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
         <v>31</v>
       </c>
       <c r="K25">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="13.8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="27.6">
       <c r="A26" s="62">
         <v>25</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E26" s="49">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G26" s="58" t="s">
         <v>83</v>
@@ -6232,34 +6348,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="27.6">
+    <row r="27" spans="1:11" ht="13.8">
       <c r="A27" s="62">
         <v>26</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="E27" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="58" t="s">
         <v>37</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J27" t="s">
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="13.8">
@@ -6267,13 +6383,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="E28" s="49">
         <v>0</v>
@@ -6283,27 +6399,27 @@
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J28" t="s">
         <v>45</v>
       </c>
       <c r="K28">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="27.6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="13.8">
       <c r="A29" s="62">
         <v>28</v>
       </c>
       <c r="B29" s="48" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="E29" s="49">
         <v>0</v>
@@ -6327,13 +6443,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="E30" s="49">
         <v>0</v>
@@ -6352,18 +6468,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="69">
+    <row r="31" spans="1:11" ht="27.6">
       <c r="A31" s="62">
         <v>30</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="E31" s="49">
         <v>0</v>
@@ -6387,13 +6503,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C32" s="48" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>149</v>
+        <v>63</v>
       </c>
       <c r="E32" s="49">
         <v>0</v>
@@ -6412,18 +6528,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="13.8">
+    <row r="33" spans="1:11" ht="27.6">
       <c r="A33" s="62">
         <v>32</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E33" s="49">
         <v>0</v>
@@ -6477,13 +6593,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="E35" s="49">
         <v>0</v>

--- a/data/prueba_predicc_dia_dia.xlsx
+++ b/data/prueba_predicc_dia_dia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/Desktop/adri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="464" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65F3FCB1-F9F6-4479-B80F-6979A12DE998}"/>
+  <xr:revisionPtr revIDLastSave="469" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE7BD34E-6C97-464D-B30D-63FBD45E800E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-6315" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="91" r:id="rId8"/>
+    <pivotCache cacheId="102" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2392,7 +2392,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45410.051136458336" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45411.664063773147" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="H1:L37" sheet="Hoja 3"/>
   </cacheSource>
@@ -2844,7 +2844,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="91" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="102" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
   <location ref="A1:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="5">
     <pivotField name="code" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -3475,10 +3475,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL18"/>
+  <dimension ref="A1:AL19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5565,6 +5565,122 @@
         <v>0</v>
       </c>
       <c r="AL18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A19" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B19">
+        <v>450</v>
+      </c>
+      <c r="C19">
+        <v>354</v>
+      </c>
+      <c r="D19">
+        <v>369</v>
+      </c>
+      <c r="E19">
+        <v>231</v>
+      </c>
+      <c r="F19">
+        <v>302</v>
+      </c>
+      <c r="G19">
+        <v>300</v>
+      </c>
+      <c r="H19">
+        <v>254</v>
+      </c>
+      <c r="I19">
+        <v>159</v>
+      </c>
+      <c r="J19">
+        <v>236</v>
+      </c>
+      <c r="K19">
+        <v>268</v>
+      </c>
+      <c r="L19">
+        <v>237</v>
+      </c>
+      <c r="M19">
+        <v>143</v>
+      </c>
+      <c r="N19">
+        <v>116</v>
+      </c>
+      <c r="O19">
+        <v>134</v>
+      </c>
+      <c r="P19">
+        <v>100</v>
+      </c>
+      <c r="Q19">
+        <v>107</v>
+      </c>
+      <c r="R19">
+        <v>107</v>
+      </c>
+      <c r="S19">
+        <v>101</v>
+      </c>
+      <c r="T19">
+        <v>53</v>
+      </c>
+      <c r="U19">
+        <v>31</v>
+      </c>
+      <c r="V19">
+        <v>81</v>
+      </c>
+      <c r="W19">
+        <v>76</v>
+      </c>
+      <c r="X19">
+        <v>32</v>
+      </c>
+      <c r="Y19">
+        <v>21</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>30</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
         <v>0</v>
       </c>
     </row>
@@ -5612,20 +5728,20 @@
         <v>55</v>
       </c>
       <c r="E2" s="51">
-        <v>478</v>
+        <v>450</v>
       </c>
       <c r="G2" s="58" t="s">
         <v>55</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H38" si="0">VLOOKUP(G2,D:E,2,0)</f>
-        <v>478</v>
+        <v>450</v>
       </c>
       <c r="J2" t="s">
         <v>55</v>
       </c>
       <c r="K2">
-        <v>478</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="27.6">
@@ -5642,20 +5758,20 @@
         <v>90</v>
       </c>
       <c r="E3" s="53">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="G3" s="58" t="s">
         <v>92</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="J3" t="s">
         <v>92</v>
       </c>
       <c r="K3">
-        <v>372</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="41.4">
@@ -5672,20 +5788,20 @@
         <v>92</v>
       </c>
       <c r="E4" s="55">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="G4" s="58" t="s">
         <v>90</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="J4" t="s">
         <v>90</v>
       </c>
       <c r="K4">
-        <v>388</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="27.6">
@@ -5702,20 +5818,20 @@
         <v>57</v>
       </c>
       <c r="E5" s="57">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="G5" s="58" t="s">
         <v>47</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="27.6">
@@ -5732,20 +5848,20 @@
         <v>89</v>
       </c>
       <c r="E6" s="57">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="G6" s="58" t="s">
         <v>57</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="J6" t="s">
         <v>57</v>
       </c>
       <c r="K6">
-        <v>313</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="27.6">
@@ -5762,20 +5878,20 @@
         <v>29</v>
       </c>
       <c r="E7" s="57">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="G7" s="58" t="s">
         <v>89</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="J7" t="s">
         <v>89</v>
       </c>
       <c r="K7">
-        <v>312</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="13.8">
@@ -5792,20 +5908,20 @@
         <v>13</v>
       </c>
       <c r="E8" s="57">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G8" s="58" t="s">
         <v>13</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="13.8">
@@ -5822,20 +5938,20 @@
         <v>41</v>
       </c>
       <c r="E9" s="57">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G9" s="58" t="s">
         <v>61</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="J9" t="s">
         <v>61</v>
       </c>
       <c r="K9">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="27.6">
@@ -5852,20 +5968,20 @@
         <v>23</v>
       </c>
       <c r="E10" s="57">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G10" s="58" t="s">
         <v>23</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
       </c>
       <c r="K10">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="13.8">
@@ -5882,20 +5998,20 @@
         <v>47</v>
       </c>
       <c r="E11" s="57">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G11" s="58" t="s">
         <v>29</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="J11" t="s">
         <v>29</v>
       </c>
       <c r="K11">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="13.8">
@@ -5912,50 +6028,50 @@
         <v>61</v>
       </c>
       <c r="E12" s="49">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G12" s="58" t="s">
         <v>41</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J12" t="s">
         <v>41</v>
       </c>
       <c r="K12">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="13.8">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="27.6">
       <c r="A13" s="62">
         <v>12</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E13" s="49">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G13" s="58" t="s">
         <v>93</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="J13" t="s">
         <v>93</v>
       </c>
       <c r="K13">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="27.6">
@@ -5963,179 +6079,179 @@
         <v>13</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="E14" s="49">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G14" s="58" t="s">
         <v>17</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
       </c>
       <c r="K14">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="27.6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="13.8">
       <c r="A15" s="62">
         <v>14</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="E15" s="49">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="G15" s="58" t="s">
         <v>53</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="J15" t="s">
         <v>53</v>
       </c>
       <c r="K15">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="13.8">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="27.6">
       <c r="A16" s="62">
         <v>15</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="E16" s="49">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G16" s="58" t="s">
         <v>86</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="J16" t="s">
         <v>86</v>
       </c>
       <c r="K16">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="27.6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="13.8">
       <c r="A17" s="62">
         <v>16</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="E17" s="49">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G17" s="58" t="s">
         <v>71</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="J17" t="s">
         <v>71</v>
       </c>
       <c r="K17">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="13.8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="27.6">
       <c r="A18" s="62">
         <v>17</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="E18" s="49">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G18" s="58" t="s">
         <v>87</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="J18" t="s">
         <v>87</v>
       </c>
       <c r="K18">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="27.6">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="13.8">
       <c r="A19" s="62">
         <v>18</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="E19" s="49">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G19" s="58" t="s">
         <v>43</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="J19" t="s">
         <v>43</v>
       </c>
       <c r="K19">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="13.8">
@@ -6152,20 +6268,20 @@
         <v>73</v>
       </c>
       <c r="E20" s="49">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="G20" s="58" t="s">
         <v>39</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="J20" t="s">
         <v>39</v>
       </c>
       <c r="K20">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="27.6">
@@ -6182,20 +6298,20 @@
         <v>19</v>
       </c>
       <c r="E21" s="49">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="G21" s="58" t="s">
         <v>35</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="J21" t="s">
         <v>35</v>
       </c>
       <c r="K21">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="27.6">
@@ -6212,50 +6328,50 @@
         <v>39</v>
       </c>
       <c r="E22" s="49">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="G22" s="58" t="s">
         <v>73</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="J22" t="s">
         <v>73</v>
       </c>
       <c r="K22">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="69">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="13.8">
       <c r="A23" s="62">
         <v>22</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="E23" s="49">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G23" s="58" t="s">
         <v>19</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
       </c>
       <c r="K23">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="13.8">
@@ -6263,76 +6379,76 @@
         <v>23</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="E24" s="49">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="G24" s="58" t="s">
         <v>85</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="J24" t="s">
         <v>85</v>
       </c>
       <c r="K24">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="13.8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="27.6">
       <c r="A25" s="62">
         <v>24</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E25" s="49">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G25" s="58" t="s">
         <v>31</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="J25" t="s">
         <v>31</v>
       </c>
       <c r="K25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="27.6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="13.8">
       <c r="A26" s="62">
         <v>25</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E26" s="49">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G26" s="58" t="s">
         <v>83</v>
@@ -6348,34 +6464,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="13.8">
+    <row r="27" spans="1:11" ht="69">
       <c r="A27" s="62">
         <v>26</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E27" s="49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="58" t="s">
         <v>37</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
         <v>37</v>
       </c>
       <c r="K27">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="13.8">
@@ -6383,13 +6499,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="E28" s="49">
         <v>0</v>
@@ -6399,27 +6515,27 @@
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J28" t="s">
         <v>45</v>
       </c>
       <c r="K28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="13.8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="27.6">
       <c r="A29" s="62">
         <v>28</v>
       </c>
       <c r="B29" s="48" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="E29" s="49">
         <v>0</v>
@@ -6443,13 +6559,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E30" s="49">
         <v>0</v>
@@ -6468,18 +6584,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="27.6">
+    <row r="31" spans="1:11" ht="13.8">
       <c r="A31" s="62">
         <v>30</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="E31" s="49">
         <v>0</v>
@@ -6498,18 +6614,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="27.6">
+    <row r="32" spans="1:11" ht="13.8">
       <c r="A32" s="62">
         <v>31</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C32" s="48" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E32" s="49">
         <v>0</v>
@@ -6533,13 +6649,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E33" s="49">
         <v>0</v>
@@ -6563,13 +6679,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="E34" s="49">
         <v>0</v>
@@ -6623,13 +6739,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D36" s="48" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="E36" s="49">
         <v>0</v>
@@ -6648,18 +6764,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="13.8">
+    <row r="37" spans="1:11" ht="27.6">
       <c r="A37" s="62">
         <v>36</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="D37" s="48" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="E37" s="49">
         <v>0</v>

--- a/data/prueba_predicc_dia_dia.xlsx
+++ b/data/prueba_predicc_dia_dia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/Desktop/adri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="469" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE7BD34E-6C97-464D-B30D-63FBD45E800E}"/>
+  <xr:revisionPtr revIDLastSave="493" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40B8494A-33EA-4C62-843C-913CEA8B8886}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6315" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="102" r:id="rId8"/>
+    <pivotCache cacheId="111" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="264">
   <si>
     <t>Code</t>
   </si>
@@ -836,6 +836,9 @@
   <si>
     <t>Megara</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
@@ -1153,7 +1156,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1303,6 +1306,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2392,7 +2396,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45411.664063773147" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45412.049675578703" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="H1:L37" sheet="Hoja 3"/>
   </cacheSource>
@@ -2844,7 +2848,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="102" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="111" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
   <location ref="A1:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="5">
     <pivotField name="code" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -3475,10 +3479,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL19"/>
+  <dimension ref="A1:AL26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5682,6 +5686,132 @@
       </c>
       <c r="AL19">
         <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A20" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B20">
+        <v>457</v>
+      </c>
+      <c r="C20">
+        <v>367</v>
+      </c>
+      <c r="D20">
+        <v>357</v>
+      </c>
+      <c r="E20">
+        <v>231</v>
+      </c>
+      <c r="F20">
+        <v>290</v>
+      </c>
+      <c r="G20">
+        <v>300</v>
+      </c>
+      <c r="H20">
+        <v>253</v>
+      </c>
+      <c r="I20">
+        <v>159</v>
+      </c>
+      <c r="J20">
+        <v>242</v>
+      </c>
+      <c r="K20">
+        <v>272</v>
+      </c>
+      <c r="L20">
+        <v>242</v>
+      </c>
+      <c r="M20">
+        <v>135</v>
+      </c>
+      <c r="N20">
+        <v>127</v>
+      </c>
+      <c r="O20">
+        <v>128</v>
+      </c>
+      <c r="P20">
+        <v>104</v>
+      </c>
+      <c r="Q20">
+        <v>102</v>
+      </c>
+      <c r="R20">
+        <v>116</v>
+      </c>
+      <c r="S20">
+        <v>115</v>
+      </c>
+      <c r="T20">
+        <v>41</v>
+      </c>
+      <c r="U20">
+        <v>28</v>
+      </c>
+      <c r="V20">
+        <v>67</v>
+      </c>
+      <c r="W20">
+        <v>85</v>
+      </c>
+      <c r="X20">
+        <v>33</v>
+      </c>
+      <c r="Y20">
+        <v>10</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>8</v>
+      </c>
+      <c r="AB20">
+        <v>23</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" ht="15.75" customHeight="1">
+      <c r="B25" s="69" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" ht="15.75" customHeight="1">
+      <c r="B26" s="69" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -5694,7 +5824,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K38"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>

--- a/data/prueba_predicc_dia_dia.xlsx
+++ b/data/prueba_predicc_dia_dia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/Desktop/adri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="493" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40B8494A-33EA-4C62-843C-913CEA8B8886}"/>
+  <xr:revisionPtr revIDLastSave="495" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE0D0270-591F-40EB-AC98-090902BE69E1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="111" r:id="rId8"/>
+    <pivotCache cacheId="120" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="263">
   <si>
     <t>Code</t>
   </si>
@@ -836,9 +836,6 @@
   <si>
     <t>Megara</t>
   </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
 </sst>
 </file>
 
@@ -1297,6 +1294,7 @@
     <xf numFmtId="20" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1306,7 +1304,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2396,7 +2393,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45412.049675578703" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45412.067131597221" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="H1:L37" sheet="Hoja 3"/>
   </cacheSource>
@@ -2848,7 +2845,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="111" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="120" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
   <location ref="A1:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="5">
     <pivotField name="code" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -3481,7 +3478,7 @@
   </sheetPr>
   <dimension ref="A1:AL26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -5805,14 +5802,10 @@
       </c>
     </row>
     <row r="25" spans="1:38" ht="15.75" customHeight="1">
-      <c r="B25" s="69" t="s">
-        <v>263</v>
-      </c>
+      <c r="B25" s="64"/>
     </row>
     <row r="26" spans="1:38" ht="15.75" customHeight="1">
-      <c r="B26" s="69" t="s">
-        <v>263</v>
-      </c>
+      <c r="B26" s="64"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6980,15 +6973,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="13.8">
-      <c r="A1" s="64">
+      <c r="A1" s="65">
         <v>45056.999305555553</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
       <c r="H1" s="6"/>
       <c r="I1" s="7" t="s">
         <v>0</v>
@@ -8304,15 +8297,15 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="13.8">
-      <c r="A43" s="66">
+      <c r="A43" s="67">
         <v>45057.5</v>
       </c>
-      <c r="B43" s="67"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="68"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="69"/>
       <c r="I43" s="6">
         <v>43</v>
       </c>
@@ -9262,15 +9255,15 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="13.2">
-      <c r="A85" s="66">
+      <c r="A85" s="67">
         <v>45057.999305555553</v>
       </c>
-      <c r="B85" s="67"/>
-      <c r="C85" s="67"/>
-      <c r="D85" s="67"/>
-      <c r="E85" s="67"/>
-      <c r="F85" s="67"/>
-      <c r="G85" s="68"/>
+      <c r="B85" s="68"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="68"/>
+      <c r="F85" s="68"/>
+      <c r="G85" s="69"/>
     </row>
     <row r="86" spans="1:7" ht="15.75" customHeight="1">
       <c r="A86" s="20" t="s">
@@ -10184,15 +10177,15 @@
       </c>
     </row>
     <row r="127" spans="1:10" ht="13.2">
-      <c r="A127" s="66">
+      <c r="A127" s="67">
         <v>45058.5</v>
       </c>
-      <c r="B127" s="67"/>
-      <c r="C127" s="67"/>
-      <c r="D127" s="67"/>
-      <c r="E127" s="67"/>
-      <c r="F127" s="67"/>
-      <c r="G127" s="68"/>
+      <c r="B127" s="68"/>
+      <c r="C127" s="68"/>
+      <c r="D127" s="68"/>
+      <c r="E127" s="68"/>
+      <c r="F127" s="68"/>
+      <c r="G127" s="69"/>
     </row>
     <row r="128" spans="1:10" ht="15.75" customHeight="1">
       <c r="A128" s="26" t="s">

--- a/data/prueba_predicc_dia_dia.xlsx
+++ b/data/prueba_predicc_dia_dia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/Desktop/adri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="495" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE0D0270-591F-40EB-AC98-090902BE69E1}"/>
+  <xr:revisionPtr revIDLastSave="511" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69FDDC66-FC85-46FA-909F-92A44A48C596}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="21456" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="120" r:id="rId8"/>
+    <pivotCache cacheId="129" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2393,7 +2393,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45412.067131597221" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45414.725543981483" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="H1:L37" sheet="Hoja 3"/>
   </cacheSource>
@@ -2845,7 +2845,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="120" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="129" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
   <location ref="A1:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="5">
     <pivotField name="code" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -3479,7 +3479,7 @@
   <dimension ref="A1:AL26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5801,8 +5801,263 @@
         <v>0</v>
       </c>
     </row>
+    <row r="21" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A21" s="2">
+        <v>45412</v>
+      </c>
+      <c r="B21">
+        <v>494</v>
+      </c>
+      <c r="C21">
+        <v>384</v>
+      </c>
+      <c r="D21">
+        <v>401</v>
+      </c>
+      <c r="E21">
+        <v>242</v>
+      </c>
+      <c r="F21">
+        <v>323</v>
+      </c>
+      <c r="G21">
+        <v>322</v>
+      </c>
+      <c r="H21">
+        <v>269</v>
+      </c>
+      <c r="I21">
+        <v>160</v>
+      </c>
+      <c r="J21">
+        <v>246</v>
+      </c>
+      <c r="K21">
+        <v>244</v>
+      </c>
+      <c r="L21">
+        <v>249</v>
+      </c>
+      <c r="M21">
+        <v>141</v>
+      </c>
+      <c r="N21">
+        <v>110</v>
+      </c>
+      <c r="O21">
+        <v>152</v>
+      </c>
+      <c r="P21">
+        <v>92</v>
+      </c>
+      <c r="Q21">
+        <v>100</v>
+      </c>
+      <c r="R21">
+        <v>100</v>
+      </c>
+      <c r="S21">
+        <v>93</v>
+      </c>
+      <c r="T21">
+        <v>38</v>
+      </c>
+      <c r="U21">
+        <v>12</v>
+      </c>
+      <c r="V21">
+        <v>69</v>
+      </c>
+      <c r="W21">
+        <v>26</v>
+      </c>
+      <c r="X21">
+        <v>14</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>11</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A22" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B22">
+        <v>505</v>
+      </c>
+      <c r="C22">
+        <v>410</v>
+      </c>
+      <c r="D22">
+        <v>375</v>
+      </c>
+      <c r="E22">
+        <v>248</v>
+      </c>
+      <c r="F22">
+        <v>331</v>
+      </c>
+      <c r="G22">
+        <v>329</v>
+      </c>
+      <c r="H22">
+        <v>275</v>
+      </c>
+      <c r="I22">
+        <v>163</v>
+      </c>
+      <c r="J22">
+        <v>173</v>
+      </c>
+      <c r="K22">
+        <v>249</v>
+      </c>
+      <c r="L22">
+        <v>255</v>
+      </c>
+      <c r="M22">
+        <v>144</v>
+      </c>
+      <c r="N22">
+        <v>112</v>
+      </c>
+      <c r="O22">
+        <v>155</v>
+      </c>
+      <c r="P22">
+        <v>94</v>
+      </c>
+      <c r="Q22">
+        <v>102</v>
+      </c>
+      <c r="R22">
+        <v>102</v>
+      </c>
+      <c r="S22">
+        <v>95</v>
+      </c>
+      <c r="T22">
+        <v>39</v>
+      </c>
+      <c r="U22">
+        <v>12</v>
+      </c>
+      <c r="V22">
+        <v>71</v>
+      </c>
+      <c r="W22">
+        <v>26</v>
+      </c>
+      <c r="X22">
+        <v>14</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>11</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>1</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+    </row>
     <row r="25" spans="1:38" ht="15.75" customHeight="1">
       <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="64"/>
+      <c r="Q25" s="64"/>
+      <c r="R25" s="64"/>
+      <c r="S25" s="64"/>
+      <c r="T25" s="64"/>
+      <c r="U25" s="64"/>
+      <c r="V25" s="64"/>
+      <c r="W25" s="64"/>
+      <c r="X25" s="64"/>
+      <c r="Y25" s="64"/>
     </row>
     <row r="26" spans="1:38" ht="15.75" customHeight="1">
       <c r="B26" s="64"/>
@@ -5816,8 +6071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6301985-910C-46A2-BCA7-5B73125291C9}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -5851,80 +6106,80 @@
         <v>55</v>
       </c>
       <c r="E2" s="51">
-        <v>450</v>
+        <v>505</v>
       </c>
       <c r="G2" s="58" t="s">
         <v>55</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H38" si="0">VLOOKUP(G2,D:E,2,0)</f>
-        <v>450</v>
+        <v>505</v>
       </c>
       <c r="J2" t="s">
         <v>55</v>
       </c>
       <c r="K2">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="27.6">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="41.4">
       <c r="A3" s="62">
         <v>2</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E3" s="53">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="G3" s="58" t="s">
         <v>92</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>354</v>
+        <v>410</v>
       </c>
       <c r="J3" t="s">
         <v>92</v>
       </c>
       <c r="K3">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="41.4">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27.6">
       <c r="A4" s="62">
         <v>3</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E4" s="55">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="G4" s="58" t="s">
         <v>90</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="J4" t="s">
         <v>90</v>
       </c>
       <c r="K4">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="27.6">
@@ -5941,20 +6196,20 @@
         <v>57</v>
       </c>
       <c r="E5" s="57">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="G5" s="58" t="s">
         <v>47</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
-        <v>231</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="27.6">
@@ -5971,50 +6226,50 @@
         <v>89</v>
       </c>
       <c r="E6" s="57">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="G6" s="58" t="s">
         <v>57</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="J6" t="s">
         <v>57</v>
       </c>
       <c r="K6">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="27.6">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="13.8">
       <c r="A7" s="62">
         <v>6</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E7" s="57">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="G7" s="58" t="s">
         <v>89</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="J7" t="s">
         <v>89</v>
       </c>
       <c r="K7">
-        <v>300</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="13.8">
@@ -6022,119 +6277,119 @@
         <v>7</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D8" s="56" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E8" s="57">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G8" s="58" t="s">
         <v>13</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="13.8">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="27.6">
       <c r="A9" s="62">
         <v>8</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E9" s="57">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="G9" s="58" t="s">
         <v>61</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="J9" t="s">
         <v>61</v>
       </c>
       <c r="K9">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="27.6">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="13.8">
       <c r="A10" s="62">
         <v>9</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E10" s="57">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="G10" s="58" t="s">
         <v>23</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
       </c>
       <c r="K10">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="13.8">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="27.6">
       <c r="A11" s="62">
         <v>10</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D11" s="56" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="E11" s="57">
-        <v>231</v>
+        <v>173</v>
       </c>
       <c r="G11" s="58" t="s">
         <v>29</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="J11" t="s">
         <v>29</v>
       </c>
       <c r="K11">
-        <v>268</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="13.8">
@@ -6151,20 +6406,20 @@
         <v>61</v>
       </c>
       <c r="E12" s="49">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G12" s="58" t="s">
         <v>41</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="J12" t="s">
         <v>41</v>
       </c>
       <c r="K12">
-        <v>237</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.6">
@@ -6172,29 +6427,29 @@
         <v>12</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="E13" s="49">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="G13" s="58" t="s">
         <v>93</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J13" t="s">
         <v>93</v>
       </c>
       <c r="K13">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="27.6">
@@ -6202,29 +6457,29 @@
         <v>13</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="E14" s="49">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="G14" s="58" t="s">
         <v>17</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
       </c>
       <c r="K14">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="13.8">
@@ -6241,20 +6496,20 @@
         <v>17</v>
       </c>
       <c r="E15" s="49">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G15" s="58" t="s">
         <v>53</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="J15" t="s">
         <v>53</v>
       </c>
       <c r="K15">
-        <v>134</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="27.6">
@@ -6271,20 +6526,20 @@
         <v>87</v>
       </c>
       <c r="E16" s="49">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G16" s="58" t="s">
         <v>86</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J16" t="s">
         <v>86</v>
       </c>
       <c r="K16">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="13.8">
@@ -6301,20 +6556,20 @@
         <v>71</v>
       </c>
       <c r="E17" s="49">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G17" s="58" t="s">
         <v>71</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="J17" t="s">
         <v>71</v>
       </c>
       <c r="K17">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="27.6">
@@ -6331,20 +6586,20 @@
         <v>43</v>
       </c>
       <c r="E18" s="49">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G18" s="58" t="s">
         <v>87</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="J18" t="s">
         <v>87</v>
       </c>
       <c r="K18">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="13.8">
@@ -6361,20 +6616,20 @@
         <v>86</v>
       </c>
       <c r="E19" s="49">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G19" s="58" t="s">
         <v>43</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J19" t="s">
         <v>43</v>
       </c>
       <c r="K19">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="13.8">
@@ -6391,20 +6646,20 @@
         <v>73</v>
       </c>
       <c r="E20" s="49">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G20" s="58" t="s">
         <v>39</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="J20" t="s">
         <v>39</v>
       </c>
       <c r="K20">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="27.6">
@@ -6412,29 +6667,29 @@
         <v>20</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E21" s="49">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="G21" s="58" t="s">
         <v>35</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="J21" t="s">
         <v>35</v>
       </c>
       <c r="K21">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="27.6">
@@ -6442,29 +6697,29 @@
         <v>21</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E22" s="49">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="G22" s="58" t="s">
         <v>73</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="J22" t="s">
         <v>73</v>
       </c>
       <c r="K22">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="13.8">
@@ -6481,20 +6736,20 @@
         <v>85</v>
       </c>
       <c r="E23" s="49">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G23" s="58" t="s">
         <v>19</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
       </c>
       <c r="K23">
-        <v>76</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="13.8">
@@ -6511,20 +6766,20 @@
         <v>35</v>
       </c>
       <c r="E24" s="49">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G24" s="58" t="s">
         <v>85</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="J24" t="s">
         <v>85</v>
       </c>
       <c r="K24">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="27.6">
@@ -6541,20 +6796,20 @@
         <v>45</v>
       </c>
       <c r="E25" s="49">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G25" s="58" t="s">
         <v>31</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
         <v>31</v>
       </c>
       <c r="K25">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="13.8">
@@ -6562,16 +6817,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E26" s="49">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G26" s="58" t="s">
         <v>83</v>
@@ -6587,21 +6842,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="69">
+    <row r="27" spans="1:11" ht="13.8">
       <c r="A27" s="62">
         <v>26</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E27" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="58" t="s">
         <v>37</v>
@@ -6617,18 +6872,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="13.8">
+    <row r="28" spans="1:11" ht="27.6">
       <c r="A28" s="62">
         <v>27</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="E28" s="49">
         <v>0</v>
@@ -6638,27 +6893,27 @@
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="J28" t="s">
         <v>45</v>
       </c>
       <c r="K28">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="27.6">
       <c r="A29" s="62">
         <v>28</v>
       </c>
-      <c r="B29" s="48" t="s">
-        <v>246</v>
+      <c r="B29" s="63">
+        <v>0.46597222222222223</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="E29" s="49">
         <v>0</v>
@@ -6712,13 +6967,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E31" s="49">
         <v>0</v>
@@ -6737,18 +6992,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="13.8">
+    <row r="32" spans="1:11" ht="27.6">
       <c r="A32" s="62">
         <v>31</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C32" s="48" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="E32" s="49">
         <v>0</v>
@@ -6767,18 +7022,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="27.6">
+    <row r="33" spans="1:11" ht="13.8">
       <c r="A33" s="62">
         <v>32</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E33" s="49">
         <v>0</v>
@@ -6788,13 +7043,13 @@
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
         <v>33</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="13.8">
@@ -6802,13 +7057,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="E34" s="49">
         <v>0</v>
@@ -6827,18 +7082,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="27.6">
+    <row r="35" spans="1:11" ht="69">
       <c r="A35" s="62">
         <v>34</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="E35" s="49">
         <v>0</v>
@@ -6921,14 +7176,14 @@
       <c r="A38" s="62">
         <v>37</v>
       </c>
-      <c r="B38" s="63">
-        <v>0.46597222222222223</v>
+      <c r="B38" s="48" t="s">
+        <v>248</v>
       </c>
       <c r="C38" s="48" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="D38" s="48" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E38" s="49">
         <v>0</v>

--- a/data/prueba_predicc_dia_dia.xlsx
+++ b/data/prueba_predicc_dia_dia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/Desktop/adri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="511" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69FDDC66-FC85-46FA-909F-92A44A48C596}"/>
+  <xr:revisionPtr revIDLastSave="516" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78FB5E76-F6B4-48C7-BF9D-B2B3E0D25DAB}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="21456" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17256" windowHeight="8868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="129" r:id="rId8"/>
+    <pivotCache cacheId="138" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2393,7 +2393,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45414.725543981483" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45415.507026620369" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="H1:L37" sheet="Hoja 3"/>
   </cacheSource>
@@ -2845,7 +2845,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="129" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="138" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
   <location ref="A1:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="5">
     <pivotField name="code" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -3478,7 +3478,7 @@
   </sheetPr>
   <dimension ref="A1:AL26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -6030,6 +6030,122 @@
         <v>0</v>
       </c>
       <c r="AL22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A23" s="2">
+        <v>45414</v>
+      </c>
+      <c r="B23">
+        <v>518</v>
+      </c>
+      <c r="C23">
+        <v>420</v>
+      </c>
+      <c r="D23">
+        <v>385</v>
+      </c>
+      <c r="E23">
+        <v>254</v>
+      </c>
+      <c r="F23">
+        <v>339</v>
+      </c>
+      <c r="G23">
+        <v>338</v>
+      </c>
+      <c r="H23">
+        <v>145</v>
+      </c>
+      <c r="I23">
+        <v>168</v>
+      </c>
+      <c r="J23">
+        <v>177</v>
+      </c>
+      <c r="K23">
+        <v>256</v>
+      </c>
+      <c r="L23">
+        <v>261</v>
+      </c>
+      <c r="M23">
+        <v>176</v>
+      </c>
+      <c r="N23">
+        <v>115</v>
+      </c>
+      <c r="O23">
+        <v>159</v>
+      </c>
+      <c r="P23">
+        <v>97</v>
+      </c>
+      <c r="Q23">
+        <v>102</v>
+      </c>
+      <c r="R23">
+        <v>105</v>
+      </c>
+      <c r="S23">
+        <v>98</v>
+      </c>
+      <c r="T23">
+        <v>40</v>
+      </c>
+      <c r="U23">
+        <v>13</v>
+      </c>
+      <c r="V23">
+        <v>72</v>
+      </c>
+      <c r="W23">
+        <v>27</v>
+      </c>
+      <c r="X23">
+        <v>14</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>11</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>1</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
         <v>0</v>
       </c>
     </row>
@@ -6071,7 +6187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6301985-910C-46A2-BCA7-5B73125291C9}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K2" sqref="K2:K38"/>
     </sheetView>
   </sheetViews>
@@ -6106,20 +6222,20 @@
         <v>55</v>
       </c>
       <c r="E2" s="51">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="G2" s="58" t="s">
         <v>55</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H38" si="0">VLOOKUP(G2,D:E,2,0)</f>
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="J2" t="s">
         <v>55</v>
       </c>
       <c r="K2">
-        <v>505</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="41.4">
@@ -6136,20 +6252,20 @@
         <v>92</v>
       </c>
       <c r="E3" s="53">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="G3" s="58" t="s">
         <v>92</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="J3" t="s">
         <v>92</v>
       </c>
       <c r="K3">
-        <v>410</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="27.6">
@@ -6166,20 +6282,20 @@
         <v>90</v>
       </c>
       <c r="E4" s="55">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="G4" s="58" t="s">
         <v>90</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="J4" t="s">
         <v>90</v>
       </c>
       <c r="K4">
-        <v>375</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="27.6">
@@ -6196,20 +6312,20 @@
         <v>57</v>
       </c>
       <c r="E5" s="57">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="G5" s="58" t="s">
         <v>47</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="27.6">
@@ -6226,20 +6342,20 @@
         <v>89</v>
       </c>
       <c r="E6" s="57">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="G6" s="58" t="s">
         <v>57</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="J6" t="s">
         <v>57</v>
       </c>
       <c r="K6">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="13.8">
@@ -6247,119 +6363,119 @@
         <v>6</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E7" s="57">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="G7" s="58" t="s">
         <v>89</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="J7" t="s">
         <v>89</v>
       </c>
       <c r="K7">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="13.8">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27.6">
       <c r="A8" s="62">
         <v>7</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D8" s="56" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E8" s="57">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G8" s="58" t="s">
         <v>13</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>275</v>
+        <v>145</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="27.6">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="13.8">
       <c r="A9" s="62">
         <v>8</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E9" s="57">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G9" s="58" t="s">
         <v>61</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="J9" t="s">
         <v>61</v>
       </c>
       <c r="K9">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="13.8">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="27.6">
       <c r="A10" s="62">
         <v>9</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="E10" s="57">
-        <v>248</v>
+        <v>177</v>
       </c>
       <c r="G10" s="58" t="s">
         <v>23</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
       </c>
       <c r="K10">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="27.6">
@@ -6367,29 +6483,29 @@
         <v>10</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="D11" s="56" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="E11" s="57">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G11" s="58" t="s">
         <v>29</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="J11" t="s">
         <v>29</v>
       </c>
       <c r="K11">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="13.8">
@@ -6406,20 +6522,20 @@
         <v>61</v>
       </c>
       <c r="E12" s="49">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G12" s="58" t="s">
         <v>41</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="J12" t="s">
         <v>41</v>
       </c>
       <c r="K12">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.6">
@@ -6436,50 +6552,50 @@
         <v>53</v>
       </c>
       <c r="E13" s="49">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G13" s="58" t="s">
         <v>93</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="J13" t="s">
         <v>93</v>
       </c>
       <c r="K13">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="27.6">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="13.8">
       <c r="A14" s="62">
         <v>13</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E14" s="49">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G14" s="58" t="s">
         <v>17</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
       </c>
       <c r="K14">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="13.8">
@@ -6496,20 +6612,20 @@
         <v>17</v>
       </c>
       <c r="E15" s="49">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G15" s="58" t="s">
         <v>53</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="J15" t="s">
         <v>53</v>
       </c>
       <c r="K15">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="27.6">
@@ -6526,20 +6642,20 @@
         <v>87</v>
       </c>
       <c r="E16" s="49">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G16" s="58" t="s">
         <v>86</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="J16" t="s">
         <v>86</v>
       </c>
       <c r="K16">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="13.8">
@@ -6586,20 +6702,20 @@
         <v>43</v>
       </c>
       <c r="E18" s="49">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G18" s="58" t="s">
         <v>87</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J18" t="s">
         <v>87</v>
       </c>
       <c r="K18">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="13.8">
@@ -6616,20 +6732,20 @@
         <v>86</v>
       </c>
       <c r="E19" s="49">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G19" s="58" t="s">
         <v>43</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J19" t="s">
         <v>43</v>
       </c>
       <c r="K19">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="13.8">
@@ -6646,20 +6762,20 @@
         <v>73</v>
       </c>
       <c r="E20" s="49">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G20" s="58" t="s">
         <v>39</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J20" t="s">
         <v>39</v>
       </c>
       <c r="K20">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="27.6">
@@ -6676,20 +6792,20 @@
         <v>39</v>
       </c>
       <c r="E21" s="49">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G21" s="58" t="s">
         <v>35</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J21" t="s">
         <v>35</v>
       </c>
       <c r="K21">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="27.6">
@@ -6706,20 +6822,20 @@
         <v>19</v>
       </c>
       <c r="E22" s="49">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G22" s="58" t="s">
         <v>73</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J22" t="s">
         <v>73</v>
       </c>
       <c r="K22">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="13.8">
@@ -6743,13 +6859,13 @@
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
       </c>
       <c r="K23">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="13.8">
@@ -6766,7 +6882,7 @@
         <v>35</v>
       </c>
       <c r="E24" s="49">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" s="58" t="s">
         <v>85</v>
@@ -6877,13 +6993,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="E28" s="49">
         <v>0</v>
@@ -7117,13 +7233,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D36" s="48" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="E36" s="49">
         <v>0</v>

--- a/data/prueba_predicc_dia_dia.xlsx
+++ b/data/prueba_predicc_dia_dia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/Desktop/adri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="516" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78FB5E76-F6B4-48C7-BF9D-B2B3E0D25DAB}"/>
+  <xr:revisionPtr revIDLastSave="521" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{753460B7-CC16-4312-A5AA-6A6C150A6085}"/>
   <bookViews>
     <workbookView xWindow="1536" yWindow="1536" windowWidth="17256" windowHeight="8868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="138" r:id="rId8"/>
+    <pivotCache cacheId="147" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2393,7 +2393,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45415.507026620369" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45416.478883564814" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="H1:L37" sheet="Hoja 3"/>
   </cacheSource>
@@ -2845,7 +2845,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="138" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="147" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
   <location ref="A1:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="5">
     <pivotField name="code" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -3479,7 +3479,7 @@
   <dimension ref="A1:AL26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6146,6 +6146,122 @@
         <v>0</v>
       </c>
       <c r="AL23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A24" s="2">
+        <v>45415</v>
+      </c>
+      <c r="B24">
+        <v>516</v>
+      </c>
+      <c r="C24">
+        <v>418</v>
+      </c>
+      <c r="D24">
+        <v>383</v>
+      </c>
+      <c r="E24">
+        <v>253</v>
+      </c>
+      <c r="F24">
+        <v>338</v>
+      </c>
+      <c r="G24">
+        <v>336</v>
+      </c>
+      <c r="H24">
+        <v>144</v>
+      </c>
+      <c r="I24">
+        <v>167</v>
+      </c>
+      <c r="J24">
+        <v>177</v>
+      </c>
+      <c r="K24">
+        <v>254</v>
+      </c>
+      <c r="L24">
+        <v>260</v>
+      </c>
+      <c r="M24">
+        <v>175</v>
+      </c>
+      <c r="N24">
+        <v>136</v>
+      </c>
+      <c r="O24">
+        <v>158</v>
+      </c>
+      <c r="P24">
+        <v>96</v>
+      </c>
+      <c r="Q24">
+        <v>105</v>
+      </c>
+      <c r="R24">
+        <v>99</v>
+      </c>
+      <c r="S24">
+        <v>98</v>
+      </c>
+      <c r="T24">
+        <v>40</v>
+      </c>
+      <c r="U24">
+        <v>13</v>
+      </c>
+      <c r="V24">
+        <v>72</v>
+      </c>
+      <c r="W24">
+        <v>27</v>
+      </c>
+      <c r="X24">
+        <v>14</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>11</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>1</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
         <v>0</v>
       </c>
     </row>
@@ -6222,20 +6338,20 @@
         <v>55</v>
       </c>
       <c r="E2" s="51">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G2" s="58" t="s">
         <v>55</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H38" si="0">VLOOKUP(G2,D:E,2,0)</f>
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J2" t="s">
         <v>55</v>
       </c>
       <c r="K2">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="41.4">
@@ -6252,20 +6368,20 @@
         <v>92</v>
       </c>
       <c r="E3" s="53">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G3" s="58" t="s">
         <v>92</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J3" t="s">
         <v>92</v>
       </c>
       <c r="K3">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="27.6">
@@ -6282,20 +6398,20 @@
         <v>90</v>
       </c>
       <c r="E4" s="55">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G4" s="58" t="s">
         <v>90</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="J4" t="s">
         <v>90</v>
       </c>
       <c r="K4">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="27.6">
@@ -6312,20 +6428,20 @@
         <v>57</v>
       </c>
       <c r="E5" s="57">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G5" s="58" t="s">
         <v>47</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="27.6">
@@ -6342,20 +6458,20 @@
         <v>89</v>
       </c>
       <c r="E6" s="57">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G6" s="58" t="s">
         <v>57</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J6" t="s">
         <v>57</v>
       </c>
       <c r="K6">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="13.8">
@@ -6372,20 +6488,20 @@
         <v>41</v>
       </c>
       <c r="E7" s="57">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G7" s="58" t="s">
         <v>89</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J7" t="s">
         <v>89</v>
       </c>
       <c r="K7">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="27.6">
@@ -6402,20 +6518,20 @@
         <v>29</v>
       </c>
       <c r="E8" s="57">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G8" s="58" t="s">
         <v>13</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="13.8">
@@ -6432,20 +6548,20 @@
         <v>47</v>
       </c>
       <c r="E9" s="57">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G9" s="58" t="s">
         <v>61</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J9" t="s">
         <v>61</v>
       </c>
       <c r="K9">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="27.6">
@@ -6492,20 +6608,20 @@
         <v>93</v>
       </c>
       <c r="E11" s="57">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G11" s="58" t="s">
         <v>29</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J11" t="s">
         <v>29</v>
       </c>
       <c r="K11">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="13.8">
@@ -6522,20 +6638,20 @@
         <v>61</v>
       </c>
       <c r="E12" s="49">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G12" s="58" t="s">
         <v>41</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J12" t="s">
         <v>41</v>
       </c>
       <c r="K12">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.6">
@@ -6552,20 +6668,20 @@
         <v>53</v>
       </c>
       <c r="E13" s="49">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G13" s="58" t="s">
         <v>93</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J13" t="s">
         <v>93</v>
       </c>
       <c r="K13">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="13.8">
@@ -6582,20 +6698,20 @@
         <v>13</v>
       </c>
       <c r="E14" s="49">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G14" s="58" t="s">
         <v>17</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
       </c>
       <c r="K14">
-        <v>115</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="13.8">
@@ -6612,34 +6728,34 @@
         <v>17</v>
       </c>
       <c r="E15" s="49">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="G15" s="58" t="s">
         <v>53</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J15" t="s">
         <v>53</v>
       </c>
       <c r="K15">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="27.6">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="13.8">
       <c r="A16" s="62">
         <v>15</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="E16" s="49">
         <v>105</v>
@@ -6649,43 +6765,43 @@
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J16" t="s">
         <v>86</v>
       </c>
       <c r="K16">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="13.8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="27.6">
       <c r="A17" s="62">
         <v>16</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="E17" s="49">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G17" s="58" t="s">
         <v>71</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J17" t="s">
         <v>71</v>
       </c>
       <c r="K17">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="27.6">
@@ -6709,13 +6825,13 @@
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J18" t="s">
         <v>87</v>
       </c>
       <c r="K18">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="13.8">
@@ -6732,7 +6848,7 @@
         <v>86</v>
       </c>
       <c r="E19" s="49">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G19" s="58" t="s">
         <v>43</v>
@@ -7138,18 +7254,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="13.8">
+    <row r="33" spans="1:11" ht="27.6">
       <c r="A33" s="62">
         <v>32</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="E33" s="49">
         <v>0</v>
@@ -7198,18 +7314,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="69">
+    <row r="35" spans="1:11" ht="13.8">
       <c r="A35" s="62">
         <v>34</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="E35" s="49">
         <v>0</v>
@@ -7233,13 +7349,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D36" s="48" t="s">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c r="E36" s="49">
         <v>0</v>
@@ -7258,18 +7374,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="27.6">
+    <row r="37" spans="1:11" ht="69">
       <c r="A37" s="62">
         <v>36</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D37" s="48" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E37" s="49">
         <v>0</v>

--- a/data/prueba_predicc_dia_dia.xlsx
+++ b/data/prueba_predicc_dia_dia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/Desktop/adri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="521" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{753460B7-CC16-4312-A5AA-6A6C150A6085}"/>
+  <xr:revisionPtr revIDLastSave="526" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{038C4FDC-4885-42C7-8CF6-86A012274AD0}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17256" windowHeight="8868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17256" windowHeight="8868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="147" r:id="rId8"/>
+    <pivotCache cacheId="156" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2393,7 +2393,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45416.478883564814" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45417.76313078704" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="H1:L37" sheet="Hoja 3"/>
   </cacheSource>
@@ -2845,7 +2845,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="147" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="156" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
   <location ref="A1:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="5">
     <pivotField name="code" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -3479,7 +3479,7 @@
   <dimension ref="A1:AL26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A24" sqref="A24:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6266,30 +6266,120 @@
       </c>
     </row>
     <row r="25" spans="1:38" ht="15.75" customHeight="1">
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="64"/>
-      <c r="O25" s="64"/>
-      <c r="P25" s="64"/>
-      <c r="Q25" s="64"/>
-      <c r="R25" s="64"/>
-      <c r="S25" s="64"/>
-      <c r="T25" s="64"/>
-      <c r="U25" s="64"/>
-      <c r="V25" s="64"/>
-      <c r="W25" s="64"/>
-      <c r="X25" s="64"/>
-      <c r="Y25" s="64"/>
+      <c r="A25" s="2">
+        <v>45416</v>
+      </c>
+      <c r="B25">
+        <v>506</v>
+      </c>
+      <c r="C25">
+        <v>410</v>
+      </c>
+      <c r="D25">
+        <v>376</v>
+      </c>
+      <c r="E25">
+        <v>333</v>
+      </c>
+      <c r="F25">
+        <v>305</v>
+      </c>
+      <c r="G25">
+        <v>329</v>
+      </c>
+      <c r="H25">
+        <v>141</v>
+      </c>
+      <c r="I25">
+        <v>162</v>
+      </c>
+      <c r="J25">
+        <v>172</v>
+      </c>
+      <c r="K25">
+        <v>269</v>
+      </c>
+      <c r="L25">
+        <v>276</v>
+      </c>
+      <c r="M25">
+        <v>171</v>
+      </c>
+      <c r="N25">
+        <v>132</v>
+      </c>
+      <c r="O25">
+        <v>155</v>
+      </c>
+      <c r="P25">
+        <v>92</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>115</v>
+      </c>
+      <c r="S25">
+        <v>94</v>
+      </c>
+      <c r="T25">
+        <v>36</v>
+      </c>
+      <c r="U25">
+        <v>11</v>
+      </c>
+      <c r="V25">
+        <v>69</v>
+      </c>
+      <c r="W25">
+        <v>25</v>
+      </c>
+      <c r="X25">
+        <v>12</v>
+      </c>
+      <c r="Y25">
+        <v>60</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>8</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>1</v>
+      </c>
+      <c r="AH25">
+        <v>32</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:38" ht="15.75" customHeight="1">
       <c r="B26" s="64"/>
@@ -6338,20 +6428,20 @@
         <v>55</v>
       </c>
       <c r="E2" s="51">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="G2" s="58" t="s">
         <v>55</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H38" si="0">VLOOKUP(G2,D:E,2,0)</f>
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="J2" t="s">
         <v>55</v>
       </c>
       <c r="K2">
-        <v>516</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="41.4">
@@ -6368,20 +6458,20 @@
         <v>92</v>
       </c>
       <c r="E3" s="53">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="G3" s="58" t="s">
         <v>92</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="J3" t="s">
         <v>92</v>
       </c>
       <c r="K3">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="27.6">
@@ -6398,50 +6488,50 @@
         <v>90</v>
       </c>
       <c r="E4" s="55">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="G4" s="58" t="s">
         <v>90</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="J4" t="s">
         <v>90</v>
       </c>
       <c r="K4">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="27.6">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="13.8">
       <c r="A5" s="62">
         <v>4</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E5" s="57">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G5" s="58" t="s">
         <v>47</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>253</v>
+        <v>333</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
-        <v>253</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="27.6">
@@ -6458,110 +6548,110 @@
         <v>89</v>
       </c>
       <c r="E6" s="57">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G6" s="58" t="s">
         <v>57</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="J6" t="s">
         <v>57</v>
       </c>
       <c r="K6">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="13.8">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="27.6">
       <c r="A7" s="62">
         <v>6</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E7" s="57">
-        <v>260</v>
+        <v>305</v>
       </c>
       <c r="G7" s="58" t="s">
         <v>89</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="J7" t="s">
         <v>89</v>
       </c>
       <c r="K7">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="27.6">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="13.8">
       <c r="A8" s="62">
         <v>7</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D8" s="56" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E8" s="57">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="G8" s="58" t="s">
         <v>13</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="13.8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="27.6">
       <c r="A9" s="62">
         <v>8</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E9" s="57">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="G9" s="58" t="s">
         <v>61</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="J9" t="s">
         <v>61</v>
       </c>
       <c r="K9">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="27.6">
@@ -6578,20 +6668,20 @@
         <v>23</v>
       </c>
       <c r="E10" s="57">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G10" s="58" t="s">
         <v>23</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
       </c>
       <c r="K10">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="27.6">
@@ -6608,20 +6698,20 @@
         <v>93</v>
       </c>
       <c r="E11" s="57">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G11" s="58" t="s">
         <v>29</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="J11" t="s">
         <v>29</v>
       </c>
       <c r="K11">
-        <v>254</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="13.8">
@@ -6638,20 +6728,20 @@
         <v>61</v>
       </c>
       <c r="E12" s="49">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G12" s="58" t="s">
         <v>41</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="J12" t="s">
         <v>41</v>
       </c>
       <c r="K12">
-        <v>260</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.6">
@@ -6668,20 +6758,20 @@
         <v>53</v>
       </c>
       <c r="E13" s="49">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G13" s="58" t="s">
         <v>93</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J13" t="s">
         <v>93</v>
       </c>
       <c r="K13">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="13.8">
@@ -6698,20 +6788,20 @@
         <v>13</v>
       </c>
       <c r="E14" s="49">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G14" s="58" t="s">
         <v>17</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
       </c>
       <c r="K14">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="13.8">
@@ -6728,50 +6818,50 @@
         <v>17</v>
       </c>
       <c r="E15" s="49">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G15" s="58" t="s">
         <v>53</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J15" t="s">
         <v>53</v>
       </c>
       <c r="K15">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="13.8">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="27.6">
       <c r="A16" s="62">
         <v>15</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="E16" s="49">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G16" s="58" t="s">
         <v>86</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J16" t="s">
         <v>86</v>
       </c>
       <c r="K16">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="27.6">
@@ -6779,59 +6869,59 @@
         <v>16</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="E17" s="49">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G17" s="58" t="s">
         <v>71</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
         <v>71</v>
       </c>
       <c r="K17">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="27.6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="13.8">
       <c r="A18" s="62">
         <v>17</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="E18" s="49">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G18" s="58" t="s">
         <v>87</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="J18" t="s">
         <v>87</v>
       </c>
       <c r="K18">
-        <v>99</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="13.8">
@@ -6839,29 +6929,29 @@
         <v>18</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E19" s="49">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="G19" s="58" t="s">
         <v>43</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J19" t="s">
         <v>43</v>
       </c>
       <c r="K19">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="13.8">
@@ -6869,29 +6959,29 @@
         <v>19</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="E20" s="49">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="G20" s="58" t="s">
         <v>39</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J20" t="s">
         <v>39</v>
       </c>
       <c r="K20">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="27.6">
@@ -6908,20 +6998,20 @@
         <v>39</v>
       </c>
       <c r="E21" s="49">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G21" s="58" t="s">
         <v>35</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J21" t="s">
         <v>35</v>
       </c>
       <c r="K21">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="27.6">
@@ -6929,59 +7019,59 @@
         <v>21</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E22" s="49">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G22" s="58" t="s">
         <v>73</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J22" t="s">
         <v>73</v>
       </c>
       <c r="K22">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="13.8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="27.6">
       <c r="A23" s="62">
         <v>22</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="E23" s="49">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G23" s="58" t="s">
         <v>19</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
       </c>
       <c r="K23">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="13.8">
@@ -6989,43 +7079,43 @@
         <v>23</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="E24" s="49">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G24" s="58" t="s">
         <v>85</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J24" t="s">
         <v>85</v>
       </c>
       <c r="K24">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="27.6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="13.8">
       <c r="A25" s="62">
         <v>24</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E25" s="49">
         <v>11</v>
@@ -7035,30 +7125,30 @@
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="J25" t="s">
         <v>31</v>
       </c>
       <c r="K25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="13.8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="27.6">
       <c r="A26" s="62">
         <v>25</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E26" s="49">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G26" s="58" t="s">
         <v>83</v>
@@ -7079,13 +7169,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E27" s="49">
         <v>1</v>
@@ -7104,18 +7194,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="27.6">
+    <row r="28" spans="1:11" ht="13.8">
       <c r="A28" s="62">
         <v>27</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E28" s="49">
         <v>0</v>
@@ -7125,13 +7215,13 @@
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J28" t="s">
         <v>45</v>
       </c>
       <c r="K28">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="27.6">
@@ -7164,18 +7254,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="27.6">
+    <row r="30" spans="1:11" ht="13.8">
       <c r="A30" s="62">
         <v>29</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E30" s="49">
         <v>0</v>
@@ -7194,18 +7284,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="13.8">
+    <row r="31" spans="1:11" ht="27.6">
       <c r="A31" s="62">
         <v>30</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E31" s="49">
         <v>0</v>
@@ -7229,13 +7319,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="C32" s="48" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="E32" s="49">
         <v>0</v>
@@ -7305,13 +7395,13 @@
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J34" t="s">
         <v>9</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="13.8">

--- a/data/prueba_predicc_dia_dia.xlsx
+++ b/data/prueba_predicc_dia_dia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/Desktop/adri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="526" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{038C4FDC-4885-42C7-8CF6-86A012274AD0}"/>
+  <xr:revisionPtr revIDLastSave="531" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CD4E231-81F5-41B8-B6A4-2C66A41CC0FE}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17256" windowHeight="8868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="156" r:id="rId8"/>
+    <pivotCache cacheId="167" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1153,7 +1153,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1294,7 +1294,6 @@
     <xf numFmtId="20" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2393,7 +2392,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45417.76313078704" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45418.465393749997" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="H1:L37" sheet="Hoja 3"/>
   </cacheSource>
@@ -2845,7 +2844,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="156" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="167" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
   <location ref="A1:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="5">
     <pivotField name="code" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -3479,7 +3478,7 @@
   <dimension ref="A1:AL26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:A25"/>
+      <selection activeCell="A25" sqref="A25:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6382,7 +6381,120 @@
       </c>
     </row>
     <row r="26" spans="1:38" ht="15.75" customHeight="1">
-      <c r="B26" s="64"/>
+      <c r="A26" s="2">
+        <v>45417</v>
+      </c>
+      <c r="B26">
+        <v>472</v>
+      </c>
+      <c r="C26">
+        <v>386</v>
+      </c>
+      <c r="D26">
+        <v>320</v>
+      </c>
+      <c r="E26">
+        <v>238</v>
+      </c>
+      <c r="F26">
+        <v>313</v>
+      </c>
+      <c r="G26">
+        <v>312</v>
+      </c>
+      <c r="H26">
+        <v>263</v>
+      </c>
+      <c r="I26">
+        <v>160</v>
+      </c>
+      <c r="J26">
+        <v>170</v>
+      </c>
+      <c r="K26">
+        <v>259</v>
+      </c>
+      <c r="L26">
+        <v>245</v>
+      </c>
+      <c r="M26">
+        <v>168</v>
+      </c>
+      <c r="N26">
+        <v>133</v>
+      </c>
+      <c r="O26">
+        <v>154</v>
+      </c>
+      <c r="P26">
+        <v>97</v>
+      </c>
+      <c r="Q26">
+        <v>106</v>
+      </c>
+      <c r="R26">
+        <v>118</v>
+      </c>
+      <c r="S26">
+        <v>145</v>
+      </c>
+      <c r="T26">
+        <v>47</v>
+      </c>
+      <c r="U26">
+        <v>23</v>
+      </c>
+      <c r="V26">
+        <v>78</v>
+      </c>
+      <c r="W26">
+        <v>36</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>13</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>22</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>14</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6428,20 +6540,20 @@
         <v>55</v>
       </c>
       <c r="E2" s="51">
-        <v>506</v>
+        <v>472</v>
       </c>
       <c r="G2" s="58" t="s">
         <v>55</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H38" si="0">VLOOKUP(G2,D:E,2,0)</f>
-        <v>506</v>
+        <v>472</v>
       </c>
       <c r="J2" t="s">
         <v>55</v>
       </c>
       <c r="K2">
-        <v>506</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="41.4">
@@ -6458,20 +6570,20 @@
         <v>92</v>
       </c>
       <c r="E3" s="53">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="G3" s="58" t="s">
         <v>92</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="J3" t="s">
         <v>92</v>
       </c>
       <c r="K3">
-        <v>410</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="27.6">
@@ -6488,50 +6600,50 @@
         <v>90</v>
       </c>
       <c r="E4" s="55">
-        <v>376</v>
+        <v>320</v>
       </c>
       <c r="G4" s="58" t="s">
         <v>90</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>376</v>
+        <v>320</v>
       </c>
       <c r="J4" t="s">
         <v>90</v>
       </c>
       <c r="K4">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="13.8">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27.6">
       <c r="A5" s="62">
         <v>4</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E5" s="57">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="G5" s="58" t="s">
         <v>47</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>333</v>
+        <v>238</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
-        <v>333</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="27.6">
@@ -6548,140 +6660,140 @@
         <v>89</v>
       </c>
       <c r="E6" s="57">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="G6" s="58" t="s">
         <v>57</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="J6" t="s">
         <v>57</v>
       </c>
       <c r="K6">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="27.6">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="13.8">
       <c r="A7" s="62">
         <v>6</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E7" s="57">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="G7" s="58" t="s">
         <v>89</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="J7" t="s">
         <v>89</v>
       </c>
       <c r="K7">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="13.8">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27.6">
       <c r="A8" s="62">
         <v>7</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D8" s="56" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E8" s="57">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="G8" s="58" t="s">
         <v>13</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>141</v>
+        <v>263</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="27.6">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="13.8">
       <c r="A9" s="62">
         <v>8</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E9" s="57">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="G9" s="58" t="s">
         <v>61</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J9" t="s">
         <v>61</v>
       </c>
       <c r="K9">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="27.6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="13.8">
       <c r="A10" s="62">
         <v>9</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E10" s="57">
-        <v>172</v>
+        <v>238</v>
       </c>
       <c r="G10" s="58" t="s">
         <v>23</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
       </c>
       <c r="K10">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="27.6">
@@ -6689,179 +6801,179 @@
         <v>10</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D11" s="56" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="E11" s="57">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G11" s="58" t="s">
         <v>29</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="J11" t="s">
         <v>29</v>
       </c>
       <c r="K11">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="13.8">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="27.6">
       <c r="A12" s="62">
         <v>11</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="E12" s="49">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="G12" s="58" t="s">
         <v>41</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="J12" t="s">
         <v>41</v>
       </c>
       <c r="K12">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="27.6">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="13.8">
       <c r="A13" s="62">
         <v>12</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E13" s="49">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G13" s="58" t="s">
         <v>93</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J13" t="s">
         <v>93</v>
       </c>
       <c r="K13">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="13.8">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="27.6">
       <c r="A14" s="62">
         <v>13</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="E14" s="49">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="G14" s="58" t="s">
         <v>17</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
       </c>
       <c r="K14">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="13.8">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="27.6">
       <c r="A15" s="62">
         <v>14</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E15" s="49">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="G15" s="58" t="s">
         <v>53</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J15" t="s">
         <v>53</v>
       </c>
       <c r="K15">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="27.6">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="13.8">
       <c r="A16" s="62">
         <v>15</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="E16" s="49">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="G16" s="58" t="s">
         <v>86</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="J16" t="s">
         <v>86</v>
       </c>
       <c r="K16">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="27.6">
@@ -6869,29 +6981,29 @@
         <v>16</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E17" s="49">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="G17" s="58" t="s">
         <v>71</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="J17" t="s">
         <v>71</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="13.8">
@@ -6899,29 +7011,29 @@
         <v>17</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="E18" s="49">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="G18" s="58" t="s">
         <v>87</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J18" t="s">
         <v>87</v>
       </c>
       <c r="K18">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="13.8">
@@ -6929,29 +7041,29 @@
         <v>18</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E19" s="49">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="G19" s="58" t="s">
         <v>43</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="J19" t="s">
         <v>43</v>
       </c>
       <c r="K19">
-        <v>94</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="13.8">
@@ -6959,29 +7071,29 @@
         <v>19</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="E20" s="49">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="G20" s="58" t="s">
         <v>39</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="J20" t="s">
         <v>39</v>
       </c>
       <c r="K20">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="27.6">
@@ -6998,20 +7110,20 @@
         <v>39</v>
       </c>
       <c r="E21" s="49">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G21" s="58" t="s">
         <v>35</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J21" t="s">
         <v>35</v>
       </c>
       <c r="K21">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="27.6">
@@ -7019,89 +7131,89 @@
         <v>21</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E22" s="49">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G22" s="58" t="s">
         <v>73</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J22" t="s">
         <v>73</v>
       </c>
       <c r="K22">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="27.6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="13.8">
       <c r="A23" s="62">
         <v>22</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E23" s="49">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G23" s="58" t="s">
         <v>19</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
       </c>
       <c r="K23">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="13.8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="27.6">
       <c r="A24" s="62">
         <v>23</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="E24" s="49">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G24" s="58" t="s">
         <v>85</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
         <v>85</v>
       </c>
       <c r="K24">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="13.8">
@@ -7109,46 +7221,46 @@
         <v>24</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E25" s="49">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G25" s="58" t="s">
         <v>31</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="J25" t="s">
         <v>31</v>
       </c>
       <c r="K25">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="27.6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="13.8">
       <c r="A26" s="62">
         <v>25</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E26" s="49">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G26" s="58" t="s">
         <v>83</v>
@@ -7164,21 +7276,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="13.8">
+    <row r="27" spans="1:11" ht="27.6">
       <c r="A27" s="62">
         <v>26</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E27" s="49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="58" t="s">
         <v>37</v>
@@ -7194,18 +7306,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="13.8">
+    <row r="28" spans="1:11" ht="27.6">
       <c r="A28" s="62">
         <v>27</v>
       </c>
-      <c r="B28" s="48" t="s">
-        <v>220</v>
+      <c r="B28" s="63">
+        <v>0.46597222222222223</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>221</v>
+        <v>262</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E28" s="49">
         <v>0</v>
@@ -7215,27 +7327,27 @@
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="J28" t="s">
         <v>45</v>
       </c>
       <c r="K28">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="27.6">
       <c r="A29" s="62">
         <v>28</v>
       </c>
-      <c r="B29" s="63">
-        <v>0.46597222222222223</v>
+      <c r="B29" s="48" t="s">
+        <v>242</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="E29" s="49">
         <v>0</v>
@@ -7289,13 +7401,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="E31" s="49">
         <v>0</v>
@@ -7314,18 +7426,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="27.6">
+    <row r="32" spans="1:11" ht="13.8">
       <c r="A32" s="62">
         <v>31</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C32" s="48" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E32" s="49">
         <v>0</v>
@@ -7344,18 +7456,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="27.6">
+    <row r="33" spans="1:11" ht="13.8">
       <c r="A33" s="62">
         <v>32</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="E33" s="49">
         <v>0</v>
@@ -7365,13 +7477,13 @@
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J33" t="s">
         <v>33</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="13.8">
@@ -7395,27 +7507,27 @@
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
         <v>9</v>
       </c>
       <c r="K34">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="13.8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="27.6">
       <c r="A35" s="62">
         <v>34</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="E35" s="49">
         <v>0</v>
@@ -7550,15 +7662,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="13.8">
-      <c r="A1" s="65">
+      <c r="A1" s="64">
         <v>45056.999305555553</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
       <c r="H1" s="6"/>
       <c r="I1" s="7" t="s">
         <v>0</v>
@@ -8874,15 +8986,15 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="13.8">
-      <c r="A43" s="67">
+      <c r="A43" s="66">
         <v>45057.5</v>
       </c>
-      <c r="B43" s="68"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="68"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="69"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="68"/>
       <c r="I43" s="6">
         <v>43</v>
       </c>
@@ -9832,15 +9944,15 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="13.2">
-      <c r="A85" s="67">
+      <c r="A85" s="66">
         <v>45057.999305555553</v>
       </c>
-      <c r="B85" s="68"/>
-      <c r="C85" s="68"/>
-      <c r="D85" s="68"/>
-      <c r="E85" s="68"/>
-      <c r="F85" s="68"/>
-      <c r="G85" s="69"/>
+      <c r="B85" s="67"/>
+      <c r="C85" s="67"/>
+      <c r="D85" s="67"/>
+      <c r="E85" s="67"/>
+      <c r="F85" s="67"/>
+      <c r="G85" s="68"/>
     </row>
     <row r="86" spans="1:7" ht="15.75" customHeight="1">
       <c r="A86" s="20" t="s">
@@ -10754,15 +10866,15 @@
       </c>
     </row>
     <row r="127" spans="1:10" ht="13.2">
-      <c r="A127" s="67">
+      <c r="A127" s="66">
         <v>45058.5</v>
       </c>
-      <c r="B127" s="68"/>
-      <c r="C127" s="68"/>
-      <c r="D127" s="68"/>
-      <c r="E127" s="68"/>
-      <c r="F127" s="68"/>
-      <c r="G127" s="69"/>
+      <c r="B127" s="67"/>
+      <c r="C127" s="67"/>
+      <c r="D127" s="67"/>
+      <c r="E127" s="67"/>
+      <c r="F127" s="67"/>
+      <c r="G127" s="68"/>
     </row>
     <row r="128" spans="1:10" ht="15.75" customHeight="1">
       <c r="A128" s="26" t="s">

--- a/data/prueba_predicc_dia_dia.xlsx
+++ b/data/prueba_predicc_dia_dia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/Desktop/adri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="531" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CD4E231-81F5-41B8-B6A4-2C66A41CC0FE}"/>
+  <xr:revisionPtr revIDLastSave="536" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC304B78-0C7C-452D-9D79-730F2CA436E0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="167" r:id="rId8"/>
+    <pivotCache cacheId="176" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2392,7 +2392,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45418.465393749997" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45419.35954351852" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="H1:L37" sheet="Hoja 3"/>
   </cacheSource>
@@ -2844,7 +2844,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="167" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="176" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
   <location ref="A1:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="5">
     <pivotField name="code" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -3475,10 +3475,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL26"/>
+  <dimension ref="A1:AL27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:A26"/>
+      <selection activeCell="A26" sqref="A26:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6493,6 +6493,122 @@
         <v>0</v>
       </c>
       <c r="AL26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A27" s="2">
+        <v>45418</v>
+      </c>
+      <c r="B27">
+        <v>475</v>
+      </c>
+      <c r="C27">
+        <v>388</v>
+      </c>
+      <c r="D27">
+        <v>321</v>
+      </c>
+      <c r="E27">
+        <v>239</v>
+      </c>
+      <c r="F27">
+        <v>292</v>
+      </c>
+      <c r="G27">
+        <v>314</v>
+      </c>
+      <c r="H27">
+        <v>264</v>
+      </c>
+      <c r="I27">
+        <v>161</v>
+      </c>
+      <c r="J27">
+        <v>170</v>
+      </c>
+      <c r="K27">
+        <v>260</v>
+      </c>
+      <c r="L27">
+        <v>246</v>
+      </c>
+      <c r="M27">
+        <v>169</v>
+      </c>
+      <c r="N27">
+        <v>134</v>
+      </c>
+      <c r="O27">
+        <v>155</v>
+      </c>
+      <c r="P27">
+        <v>98</v>
+      </c>
+      <c r="Q27">
+        <v>107</v>
+      </c>
+      <c r="R27">
+        <v>118</v>
+      </c>
+      <c r="S27">
+        <v>146</v>
+      </c>
+      <c r="T27">
+        <v>47</v>
+      </c>
+      <c r="U27">
+        <v>23</v>
+      </c>
+      <c r="V27">
+        <v>78</v>
+      </c>
+      <c r="W27">
+        <v>36</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>14</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>1</v>
+      </c>
+      <c r="AB27">
+        <v>22</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>14</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
         <v>0</v>
       </c>
     </row>
@@ -6540,20 +6656,20 @@
         <v>55</v>
       </c>
       <c r="E2" s="51">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="G2" s="58" t="s">
         <v>55</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H38" si="0">VLOOKUP(G2,D:E,2,0)</f>
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="J2" t="s">
         <v>55</v>
       </c>
       <c r="K2">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="41.4">
@@ -6570,20 +6686,20 @@
         <v>92</v>
       </c>
       <c r="E3" s="53">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G3" s="58" t="s">
         <v>92</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="J3" t="s">
         <v>92</v>
       </c>
       <c r="K3">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="27.6">
@@ -6600,20 +6716,20 @@
         <v>90</v>
       </c>
       <c r="E4" s="55">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G4" s="58" t="s">
         <v>90</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J4" t="s">
         <v>90</v>
       </c>
       <c r="K4">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="27.6">
@@ -6621,29 +6737,29 @@
         <v>4</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="E5" s="57">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G5" s="58" t="s">
         <v>47</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="27.6">
@@ -6651,29 +6767,29 @@
         <v>5</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D6" s="56" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="E6" s="57">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="G6" s="58" t="s">
         <v>57</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="J6" t="s">
         <v>57</v>
       </c>
       <c r="K6">
-        <v>313</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="13.8">
@@ -6690,20 +6806,20 @@
         <v>13</v>
       </c>
       <c r="E7" s="57">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G7" s="58" t="s">
         <v>89</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="J7" t="s">
         <v>89</v>
       </c>
       <c r="K7">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="27.6">
@@ -6720,20 +6836,20 @@
         <v>29</v>
       </c>
       <c r="E8" s="57">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G8" s="58" t="s">
         <v>13</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="13.8">
@@ -6750,20 +6866,20 @@
         <v>41</v>
       </c>
       <c r="E9" s="57">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G9" s="58" t="s">
         <v>61</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J9" t="s">
         <v>61</v>
       </c>
       <c r="K9">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="13.8">
@@ -6780,7 +6896,7 @@
         <v>47</v>
       </c>
       <c r="E10" s="57">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G10" s="58" t="s">
         <v>23</v>
@@ -6817,13 +6933,13 @@
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J11" t="s">
         <v>29</v>
       </c>
       <c r="K11">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="27.6">
@@ -6840,20 +6956,20 @@
         <v>93</v>
       </c>
       <c r="E12" s="49">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G12" s="58" t="s">
         <v>41</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J12" t="s">
         <v>41</v>
       </c>
       <c r="K12">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="13.8">
@@ -6870,20 +6986,20 @@
         <v>61</v>
       </c>
       <c r="E13" s="49">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G13" s="58" t="s">
         <v>93</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J13" t="s">
         <v>93</v>
       </c>
       <c r="K13">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="27.6">
@@ -6900,20 +7016,20 @@
         <v>53</v>
       </c>
       <c r="E14" s="49">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G14" s="58" t="s">
         <v>17</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
       </c>
       <c r="K14">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="27.6">
@@ -6930,20 +7046,20 @@
         <v>43</v>
       </c>
       <c r="E15" s="49">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G15" s="58" t="s">
         <v>53</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J15" t="s">
         <v>53</v>
       </c>
       <c r="K15">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="13.8">
@@ -6960,20 +7076,20 @@
         <v>17</v>
       </c>
       <c r="E16" s="49">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G16" s="58" t="s">
         <v>86</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J16" t="s">
         <v>86</v>
       </c>
       <c r="K16">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="27.6">
@@ -6997,13 +7113,13 @@
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J17" t="s">
         <v>71</v>
       </c>
       <c r="K17">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="13.8">
@@ -7020,7 +7136,7 @@
         <v>71</v>
       </c>
       <c r="E18" s="49">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G18" s="58" t="s">
         <v>87</v>
@@ -7050,20 +7166,20 @@
         <v>86</v>
       </c>
       <c r="E19" s="49">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G19" s="58" t="s">
         <v>43</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J19" t="s">
         <v>43</v>
       </c>
       <c r="K19">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="13.8">
@@ -7237,13 +7353,13 @@
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J25" t="s">
         <v>31</v>
       </c>
       <c r="K25">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="13.8">
@@ -7260,7 +7376,7 @@
         <v>31</v>
       </c>
       <c r="E26" s="49">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G26" s="58" t="s">
         <v>83</v>
@@ -7276,48 +7392,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="27.6">
+    <row r="27" spans="1:11" ht="69">
       <c r="A27" s="62">
         <v>26</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="E27" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="58" t="s">
         <v>37</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="27.6">
       <c r="A28" s="62">
         <v>27</v>
       </c>
-      <c r="B28" s="63">
-        <v>0.46597222222222223</v>
+      <c r="B28" s="48" t="s">
+        <v>254</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="E28" s="49">
         <v>0</v>
@@ -7340,14 +7456,14 @@
       <c r="A29" s="62">
         <v>28</v>
       </c>
-      <c r="B29" s="48" t="s">
-        <v>242</v>
+      <c r="B29" s="63">
+        <v>0.46597222222222223</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="E29" s="49">
         <v>0</v>
@@ -7366,18 +7482,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="13.8">
+    <row r="30" spans="1:11" ht="27.6">
       <c r="A30" s="62">
         <v>29</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E30" s="49">
         <v>0</v>
@@ -7396,18 +7512,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="27.6">
+    <row r="31" spans="1:11" ht="13.8">
       <c r="A31" s="62">
         <v>30</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="E31" s="49">
         <v>0</v>
@@ -7426,18 +7542,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="13.8">
+    <row r="32" spans="1:11" ht="27.6">
       <c r="A32" s="62">
         <v>31</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C32" s="48" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="E32" s="49">
         <v>0</v>
@@ -7461,13 +7577,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E33" s="49">
         <v>0</v>
@@ -7486,18 +7602,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="13.8">
+    <row r="34" spans="1:11" ht="27.6">
       <c r="A34" s="62">
         <v>33</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="E34" s="49">
         <v>0</v>
@@ -7516,18 +7632,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="27.6">
+    <row r="35" spans="1:11" ht="13.8">
       <c r="A35" s="62">
         <v>34</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="E35" s="49">
         <v>0</v>
@@ -7546,18 +7662,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="27.6">
+    <row r="36" spans="1:11" ht="13.8">
       <c r="A36" s="62">
         <v>35</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D36" s="48" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="E36" s="49">
         <v>0</v>
@@ -7576,18 +7692,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="69">
+    <row r="37" spans="1:11" ht="27.6">
       <c r="A37" s="62">
         <v>36</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D37" s="48" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E37" s="49">
         <v>0</v>

--- a/data/prueba_predicc_dia_dia.xlsx
+++ b/data/prueba_predicc_dia_dia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/Desktop/adri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="536" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC304B78-0C7C-452D-9D79-730F2CA436E0}"/>
+  <xr:revisionPtr revIDLastSave="541" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A933141-2A21-4A5F-923F-EDB37A874B31}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="176" r:id="rId8"/>
+    <pivotCache cacheId="185" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2392,7 +2392,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45419.35954351852" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45420.572629745373" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="H1:L37" sheet="Hoja 3"/>
   </cacheSource>
@@ -2844,7 +2844,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="176" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="185" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
   <location ref="A1:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="5">
     <pivotField name="code" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -3475,10 +3475,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL27"/>
+  <dimension ref="A1:AL28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:A27"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6609,6 +6609,122 @@
         <v>0</v>
       </c>
       <c r="AL27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A28" s="2">
+        <v>45419</v>
+      </c>
+      <c r="B28">
+        <v>510</v>
+      </c>
+      <c r="C28">
+        <v>397</v>
+      </c>
+      <c r="D28">
+        <v>243</v>
+      </c>
+      <c r="E28">
+        <v>250</v>
+      </c>
+      <c r="F28">
+        <v>307</v>
+      </c>
+      <c r="G28">
+        <v>333</v>
+      </c>
+      <c r="H28">
+        <v>278</v>
+      </c>
+      <c r="I28">
+        <v>169</v>
+      </c>
+      <c r="J28">
+        <v>176</v>
+      </c>
+      <c r="K28">
+        <v>274</v>
+      </c>
+      <c r="L28">
+        <v>257</v>
+      </c>
+      <c r="M28">
+        <v>175</v>
+      </c>
+      <c r="N28">
+        <v>87</v>
+      </c>
+      <c r="O28">
+        <v>191</v>
+      </c>
+      <c r="P28">
+        <v>29</v>
+      </c>
+      <c r="Q28">
+        <v>105</v>
+      </c>
+      <c r="R28">
+        <v>141</v>
+      </c>
+      <c r="S28">
+        <v>148</v>
+      </c>
+      <c r="T28">
+        <v>78</v>
+      </c>
+      <c r="U28">
+        <v>17</v>
+      </c>
+      <c r="V28">
+        <v>73</v>
+      </c>
+      <c r="W28">
+        <v>8</v>
+      </c>
+      <c r="X28">
+        <v>38</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>6</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>2</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
         <v>0</v>
       </c>
     </row>
@@ -6656,20 +6772,20 @@
         <v>55</v>
       </c>
       <c r="E2" s="51">
-        <v>475</v>
+        <v>510</v>
       </c>
       <c r="G2" s="58" t="s">
         <v>55</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H38" si="0">VLOOKUP(G2,D:E,2,0)</f>
-        <v>475</v>
+        <v>510</v>
       </c>
       <c r="J2" t="s">
         <v>55</v>
       </c>
       <c r="K2">
-        <v>475</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="41.4">
@@ -6686,20 +6802,20 @@
         <v>92</v>
       </c>
       <c r="E3" s="53">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="G3" s="58" t="s">
         <v>92</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="J3" t="s">
         <v>92</v>
       </c>
       <c r="K3">
-        <v>388</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="27.6">
@@ -6707,29 +6823,29 @@
         <v>3</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E4" s="55">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="G4" s="58" t="s">
         <v>90</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>321</v>
+        <v>243</v>
       </c>
       <c r="J4" t="s">
         <v>90</v>
       </c>
       <c r="K4">
-        <v>321</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="27.6">
@@ -6737,119 +6853,119 @@
         <v>4</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="E5" s="57">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G5" s="58" t="s">
         <v>47</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="27.6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="13.8">
       <c r="A6" s="62">
         <v>5</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D6" s="56" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E6" s="57">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="G6" s="58" t="s">
         <v>57</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="J6" t="s">
         <v>57</v>
       </c>
       <c r="K6">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="13.8">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="27.6">
       <c r="A7" s="62">
         <v>6</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E7" s="57">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="G7" s="58" t="s">
         <v>89</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="J7" t="s">
         <v>89</v>
       </c>
       <c r="K7">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="27.6">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="13.8">
       <c r="A8" s="62">
         <v>7</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D8" s="56" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E8" s="57">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G8" s="58" t="s">
         <v>13</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="13.8">
@@ -6857,59 +6973,59 @@
         <v>8</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E9" s="57">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G9" s="58" t="s">
         <v>61</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="J9" t="s">
         <v>61</v>
       </c>
       <c r="K9">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="13.8">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="27.6">
       <c r="A10" s="62">
         <v>9</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="E10" s="57">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G10" s="58" t="s">
         <v>23</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
       </c>
       <c r="K10">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="27.6">
@@ -6917,29 +7033,29 @@
         <v>10</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="D11" s="56" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="E11" s="57">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="G11" s="58" t="s">
         <v>29</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="J11" t="s">
         <v>29</v>
       </c>
       <c r="K11">
-        <v>260</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="27.6">
@@ -6947,89 +7063,89 @@
         <v>11</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="E12" s="49">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="G12" s="58" t="s">
         <v>41</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="J12" t="s">
         <v>41</v>
       </c>
       <c r="K12">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="13.8">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="27.6">
       <c r="A13" s="62">
         <v>12</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="E13" s="49">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="G13" s="58" t="s">
         <v>93</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="J13" t="s">
         <v>93</v>
       </c>
       <c r="K13">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="27.6">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="13.8">
       <c r="A14" s="62">
         <v>13</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E14" s="49">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="G14" s="58" t="s">
         <v>17</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
       </c>
       <c r="K14">
-        <v>134</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="27.6">
@@ -7046,80 +7162,80 @@
         <v>43</v>
       </c>
       <c r="E15" s="49">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G15" s="58" t="s">
         <v>53</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="J15" t="s">
         <v>53</v>
       </c>
       <c r="K15">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="13.8">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="27.6">
       <c r="A16" s="62">
         <v>15</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="E16" s="49">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="G16" s="58" t="s">
         <v>86</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="J16" t="s">
         <v>86</v>
       </c>
       <c r="K16">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="27.6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="13.8">
       <c r="A17" s="62">
         <v>16</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="E17" s="49">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="G17" s="58" t="s">
         <v>71</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J17" t="s">
         <v>71</v>
       </c>
       <c r="K17">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="13.8">
@@ -7127,59 +7243,59 @@
         <v>17</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="E18" s="49">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="G18" s="58" t="s">
         <v>87</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="J18" t="s">
         <v>87</v>
       </c>
       <c r="K18">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="13.8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="27.6">
       <c r="A19" s="62">
         <v>18</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="E19" s="49">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="G19" s="58" t="s">
         <v>43</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J19" t="s">
         <v>43</v>
       </c>
       <c r="K19">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="13.8">
@@ -7196,80 +7312,80 @@
         <v>73</v>
       </c>
       <c r="E20" s="49">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G20" s="58" t="s">
         <v>39</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="J20" t="s">
         <v>39</v>
       </c>
       <c r="K20">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="27.6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="13.8">
       <c r="A21" s="62">
         <v>20</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="E21" s="49">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G21" s="58" t="s">
         <v>35</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J21" t="s">
         <v>35</v>
       </c>
       <c r="K21">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="27.6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="13.8">
       <c r="A22" s="62">
         <v>21</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="E22" s="49">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G22" s="58" t="s">
         <v>73</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J22" t="s">
         <v>73</v>
       </c>
       <c r="K22">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="13.8">
@@ -7286,20 +7402,20 @@
         <v>35</v>
       </c>
       <c r="E23" s="49">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G23" s="58" t="s">
         <v>19</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
       </c>
       <c r="K23">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="27.6">
@@ -7307,59 +7423,59 @@
         <v>23</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="E24" s="49">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G24" s="58" t="s">
         <v>85</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J24" t="s">
         <v>85</v>
       </c>
       <c r="K24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="13.8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="27.6">
       <c r="A25" s="62">
         <v>24</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E25" s="49">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G25" s="58" t="s">
         <v>31</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
         <v>31</v>
       </c>
       <c r="K25">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="13.8">
@@ -7367,16 +7483,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E26" s="49">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G26" s="58" t="s">
         <v>83</v>
@@ -7392,48 +7508,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="69">
+    <row r="27" spans="1:11" ht="27.6">
       <c r="A27" s="62">
         <v>26</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="E27" s="49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="58" t="s">
         <v>37</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
         <v>37</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="27.6">
       <c r="A28" s="62">
         <v>27</v>
       </c>
-      <c r="B28" s="48" t="s">
-        <v>254</v>
+      <c r="B28" s="63">
+        <v>0.46597222222222223</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E28" s="49">
         <v>0</v>
@@ -7443,27 +7559,27 @@
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
         <v>45</v>
       </c>
       <c r="K28">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="27.6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="13.8">
       <c r="A29" s="62">
         <v>28</v>
       </c>
-      <c r="B29" s="63">
-        <v>0.46597222222222223</v>
+      <c r="B29" s="48" t="s">
+        <v>256</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="E29" s="49">
         <v>0</v>
@@ -7487,13 +7603,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="E30" s="49">
         <v>0</v>
@@ -7503,27 +7619,27 @@
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J30" t="s">
         <v>15</v>
       </c>
       <c r="K30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="13.8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="27.6">
       <c r="A31" s="62">
         <v>30</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E31" s="49">
         <v>0</v>
@@ -7542,18 +7658,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="27.6">
+    <row r="32" spans="1:11" ht="69">
       <c r="A32" s="62">
         <v>31</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="C32" s="48" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E32" s="49">
         <v>0</v>
@@ -7572,18 +7688,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="13.8">
+    <row r="33" spans="1:11" ht="27.6">
       <c r="A33" s="62">
         <v>32</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="E33" s="49">
         <v>0</v>
@@ -7593,27 +7709,27 @@
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
         <v>33</v>
       </c>
       <c r="K33">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="27.6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="13.8">
       <c r="A34" s="62">
         <v>33</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="E34" s="49">
         <v>0</v>
@@ -7637,13 +7753,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E35" s="49">
         <v>0</v>
@@ -7667,13 +7783,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="D36" s="48" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="E36" s="49">
         <v>0</v>
@@ -7697,13 +7813,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D37" s="48" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E37" s="49">
         <v>0</v>

--- a/data/prueba_predicc_dia_dia.xlsx
+++ b/data/prueba_predicc_dia_dia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/Desktop/adri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="541" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A933141-2A21-4A5F-923F-EDB37A874B31}"/>
+  <xr:revisionPtr revIDLastSave="554" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB7F32DD-6E4E-48C9-B283-79B7BE6CD7A3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="185" r:id="rId8"/>
+    <pivotCache cacheId="194" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="253">
   <si>
     <t>Code</t>
   </si>
@@ -744,18 +744,6 @@
     <t>Saba</t>
   </si>
   <si>
-    <t>The Tower</t>
-  </si>
-  <si>
-    <t>Luna</t>
-  </si>
-  <si>
-    <t>Özünlə Apar</t>
-  </si>
-  <si>
-    <t>FAHREE feat. Ilkin Dovlatov</t>
-  </si>
-  <si>
     <t>Veronika</t>
   </si>
   <si>
@@ -772,12 +760,6 @@
   </si>
   <si>
     <t>Aiko</t>
-  </si>
-  <si>
-    <t>Scared of Heights</t>
-  </si>
-  <si>
-    <t>Hera Björk</t>
   </si>
   <si>
     <t>Fighter</t>
@@ -798,22 +780,10 @@
     <t>Sarah Bonnici</t>
   </si>
   <si>
-    <t>One Milkali (One Blood)</t>
-  </si>
-  <si>
-    <t>Electric Fields</t>
-  </si>
-  <si>
     <t>Grito</t>
   </si>
   <si>
     <t>Iolanda</t>
-  </si>
-  <si>
-    <t>In The Middle</t>
-  </si>
-  <si>
-    <t>Natalia Barbu</t>
   </si>
   <si>
     <t>Hollow</t>
@@ -846,7 +816,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy\ h:mm:ss"/>
     <numFmt numFmtId="166" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -942,6 +912,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1153,7 +1130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1303,6 +1280,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2392,7 +2370,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45420.572629745373" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45421.458032175928" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="H1:L37" sheet="Hoja 3"/>
   </cacheSource>
@@ -2844,7 +2822,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="185" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="194" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
   <location ref="A1:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="5">
     <pivotField name="code" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -3475,10 +3453,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL28"/>
+  <dimension ref="A1:AL29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AJ7" sqref="AJ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3544,10 +3522,10 @@
       <c r="U1" t="s">
         <v>170</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="69" t="s">
         <v>171</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="69" t="s">
         <v>172</v>
       </c>
       <c r="X1" t="s">
@@ -3568,10 +3546,10 @@
       <c r="AC1" t="s">
         <v>178</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="69" t="s">
         <v>180</v>
       </c>
       <c r="AF1" t="s">
@@ -3589,7 +3567,7 @@
       <c r="AJ1" t="s">
         <v>185</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="69" t="s">
         <v>186</v>
       </c>
       <c r="AL1" t="s">
@@ -6725,6 +6703,122 @@
         <v>0</v>
       </c>
       <c r="AL28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A29" s="2">
+        <v>45420</v>
+      </c>
+      <c r="B29">
+        <v>486</v>
+      </c>
+      <c r="C29">
+        <v>382</v>
+      </c>
+      <c r="D29">
+        <v>330</v>
+      </c>
+      <c r="E29">
+        <v>327</v>
+      </c>
+      <c r="F29">
+        <v>255</v>
+      </c>
+      <c r="G29">
+        <v>407</v>
+      </c>
+      <c r="H29">
+        <v>147</v>
+      </c>
+      <c r="I29">
+        <v>170</v>
+      </c>
+      <c r="J29">
+        <v>132</v>
+      </c>
+      <c r="K29">
+        <v>266</v>
+      </c>
+      <c r="L29">
+        <v>272</v>
+      </c>
+      <c r="M29">
+        <v>150</v>
+      </c>
+      <c r="N29">
+        <v>132</v>
+      </c>
+      <c r="O29">
+        <v>187</v>
+      </c>
+      <c r="P29">
+        <v>33</v>
+      </c>
+      <c r="Q29">
+        <v>63</v>
+      </c>
+      <c r="R29">
+        <v>187</v>
+      </c>
+      <c r="S29">
+        <v>105</v>
+      </c>
+      <c r="T29">
+        <v>98</v>
+      </c>
+      <c r="U29">
+        <v>26</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>68</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
+      <c r="AA29">
+        <v>15</v>
+      </c>
+      <c r="AB29">
+        <v>12</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>12</v>
+      </c>
+      <c r="AG29">
+        <v>29</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
         <v>0</v>
       </c>
     </row>
@@ -6737,8 +6831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6301985-910C-46A2-BCA7-5B73125291C9}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K38"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -6772,80 +6866,80 @@
         <v>55</v>
       </c>
       <c r="E2" s="51">
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="G2" s="58" t="s">
         <v>55</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H38" si="0">VLOOKUP(G2,D:E,2,0)</f>
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="J2" t="s">
         <v>55</v>
       </c>
       <c r="K2">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="41.4">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27.6">
       <c r="A3" s="62">
         <v>2</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E3" s="53">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="G3" s="58" t="s">
         <v>92</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="J3" t="s">
         <v>92</v>
       </c>
       <c r="K3">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="27.6">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="41.4">
       <c r="A4" s="62">
         <v>3</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E4" s="55">
-        <v>333</v>
+        <v>382</v>
       </c>
       <c r="G4" s="58" t="s">
         <v>90</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>243</v>
+        <v>330</v>
       </c>
       <c r="J4" t="s">
         <v>90</v>
       </c>
       <c r="K4">
-        <v>243</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="27.6">
@@ -6853,29 +6947,29 @@
         <v>4</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="E5" s="57">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="G5" s="58" t="s">
         <v>47</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>327</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
-        <v>250</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="13.8">
@@ -6883,119 +6977,119 @@
         <v>5</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D6" s="56" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E6" s="57">
-        <v>278</v>
+        <v>327</v>
       </c>
       <c r="G6" s="58" t="s">
         <v>57</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="J6" t="s">
         <v>57</v>
       </c>
       <c r="K6">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="27.6">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="13.8">
       <c r="A7" s="62">
         <v>6</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E7" s="57">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G7" s="58" t="s">
         <v>89</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>333</v>
+        <v>407</v>
       </c>
       <c r="J7" t="s">
         <v>89</v>
       </c>
       <c r="K7">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="13.8">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27.6">
       <c r="A8" s="62">
         <v>7</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D8" s="56" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E8" s="57">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="G8" s="58" t="s">
         <v>13</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>278</v>
+        <v>147</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="13.8">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="27.6">
       <c r="A9" s="62">
         <v>8</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E9" s="57">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G9" s="58" t="s">
         <v>61</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J9" t="s">
         <v>61</v>
       </c>
       <c r="K9">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="27.6">
@@ -7003,29 +7097,29 @@
         <v>9</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E10" s="57">
-        <v>243</v>
+        <v>187</v>
       </c>
       <c r="G10" s="58" t="s">
         <v>23</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
       </c>
       <c r="K10">
-        <v>176</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="27.6">
@@ -7042,50 +7136,50 @@
         <v>53</v>
       </c>
       <c r="E11" s="57">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G11" s="58" t="s">
         <v>29</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="J11" t="s">
         <v>29</v>
       </c>
       <c r="K11">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="27.6">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="13.8">
       <c r="A12" s="62">
         <v>11</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="E12" s="49">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G12" s="58" t="s">
         <v>41</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="J12" t="s">
         <v>41</v>
       </c>
       <c r="K12">
-        <v>257</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.6">
@@ -7102,20 +7196,20 @@
         <v>93</v>
       </c>
       <c r="E13" s="49">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="G13" s="58" t="s">
         <v>93</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="J13" t="s">
         <v>93</v>
       </c>
       <c r="K13">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="13.8">
@@ -7123,59 +7217,59 @@
         <v>13</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="E14" s="49">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="G14" s="58" t="s">
         <v>17</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
       </c>
       <c r="K14">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="27.6">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="13.8">
       <c r="A15" s="62">
         <v>14</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E15" s="49">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="G15" s="58" t="s">
         <v>53</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J15" t="s">
         <v>53</v>
       </c>
       <c r="K15">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="27.6">
@@ -7183,43 +7277,43 @@
         <v>15</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="E16" s="49">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G16" s="58" t="s">
         <v>86</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J16" t="s">
         <v>86</v>
       </c>
       <c r="K16">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="13.8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="27.6">
       <c r="A17" s="62">
         <v>16</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="E17" s="49">
         <v>105</v>
@@ -7229,73 +7323,73 @@
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="J17" t="s">
         <v>71</v>
       </c>
       <c r="K17">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="13.8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="27.6">
       <c r="A18" s="62">
         <v>17</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="E18" s="49">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="G18" s="58" t="s">
         <v>87</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="J18" t="s">
         <v>87</v>
       </c>
       <c r="K18">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="27.6">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="13.8">
       <c r="A19" s="62">
         <v>18</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E19" s="49">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G19" s="58" t="s">
         <v>43</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="J19" t="s">
         <v>43</v>
       </c>
       <c r="K19">
-        <v>148</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="13.8">
@@ -7303,29 +7397,29 @@
         <v>19</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E20" s="49">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G20" s="58" t="s">
         <v>39</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="J20" t="s">
         <v>39</v>
       </c>
       <c r="K20">
-        <v>78</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="13.8">
@@ -7333,29 +7427,29 @@
         <v>20</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E21" s="49">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G21" s="58" t="s">
         <v>35</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J21" t="s">
         <v>35</v>
       </c>
       <c r="K21">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="13.8">
@@ -7363,13 +7457,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="E22" s="49">
         <v>29</v>
@@ -7377,15 +7471,15 @@
       <c r="G22" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="H22">
+      <c r="H22" t="e">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>#N/A</v>
       </c>
       <c r="J22" t="s">
         <v>73</v>
       </c>
       <c r="K22">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="13.8">
@@ -7402,50 +7496,50 @@
         <v>35</v>
       </c>
       <c r="E23" s="49">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G23" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="H23">
+      <c r="H23" t="e">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>#N/A</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
       </c>
       <c r="K23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="27.6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="69">
       <c r="A24" s="62">
         <v>23</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E24" s="49">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G24" s="58" t="s">
         <v>85</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
         <v>85</v>
       </c>
       <c r="K24">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="27.6">
@@ -7453,29 +7547,29 @@
         <v>24</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E25" s="49">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G25" s="58" t="s">
         <v>31</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J25" t="s">
         <v>31</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="13.8">
@@ -7483,73 +7577,73 @@
         <v>25</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="E26" s="49">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G26" s="58" t="s">
         <v>83</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
         <v>83</v>
       </c>
       <c r="K26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="27.6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="13.8">
       <c r="A27" s="62">
         <v>26</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="E27" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="58" t="s">
         <v>37</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J27" t="s">
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="27.6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="13.8">
       <c r="A28" s="62">
         <v>27</v>
       </c>
-      <c r="B28" s="63">
-        <v>0.46597222222222223</v>
+      <c r="B28" s="48" t="s">
+        <v>232</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E28" s="49">
         <v>0</v>
@@ -7559,27 +7653,27 @@
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J28" t="s">
         <v>45</v>
       </c>
       <c r="K28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="13.8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="27.6">
       <c r="A29" s="62">
         <v>28</v>
       </c>
       <c r="B29" s="48" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="E29" s="49">
         <v>0</v>
@@ -7603,13 +7697,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="E30" s="49">
         <v>0</v>
@@ -7617,15 +7711,15 @@
       <c r="G30" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="H30">
+      <c r="H30" t="e">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>#N/A</v>
       </c>
       <c r="J30" t="s">
         <v>15</v>
       </c>
       <c r="K30">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="27.6">
@@ -7633,13 +7727,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="E31" s="49">
         <v>0</v>
@@ -7647,9 +7741,9 @@
       <c r="G31" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="H31">
+      <c r="H31" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="J31" t="s">
         <v>65</v>
@@ -7658,18 +7752,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="69">
+    <row r="32" spans="1:11" ht="27.6">
       <c r="A32" s="62">
         <v>31</v>
       </c>
-      <c r="B32" s="48" t="s">
-        <v>260</v>
+      <c r="B32" s="63">
+        <v>0.46597222222222223</v>
       </c>
       <c r="C32" s="48" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E32" s="49">
         <v>0</v>
@@ -7679,27 +7773,27 @@
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J32" t="s">
         <v>75</v>
       </c>
       <c r="K32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="27.6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="13.8">
       <c r="A33" s="62">
         <v>32</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="E33" s="49">
         <v>0</v>
@@ -7709,13 +7803,13 @@
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="J33" t="s">
         <v>33</v>
       </c>
       <c r="K33">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="13.8">
@@ -7723,10 +7817,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D34" s="48" t="s">
         <v>83</v>
@@ -7753,10 +7847,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D35" s="48" t="s">
         <v>75</v>
@@ -7813,10 +7907,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D37" s="48" t="s">
         <v>45</v>
@@ -7827,9 +7921,9 @@
       <c r="G37" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="H37">
+      <c r="H37" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="J37" t="s">
         <v>51</v>
@@ -7843,10 +7937,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="48" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C38" s="48" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D38" s="48" t="s">
         <v>63</v>

--- a/data/prueba_predicc_dia_dia.xlsx
+++ b/data/prueba_predicc_dia_dia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/Desktop/adri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="554" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB7F32DD-6E4E-48C9-B283-79B7BE6CD7A3}"/>
+  <xr:revisionPtr revIDLastSave="560" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30CF51C7-9FFA-4528-8B3A-9302B8522B75}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="194" r:id="rId8"/>
+    <pivotCache cacheId="203" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1271,6 +1271,7 @@
     <xf numFmtId="20" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1280,7 +1281,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2370,7 +2370,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45421.458032175928" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45421.462698726849" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="H1:L37" sheet="Hoja 3"/>
   </cacheSource>
@@ -2822,7 +2822,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="194" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="203" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
   <location ref="A1:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="5">
     <pivotField name="code" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -3456,7 +3456,7 @@
   <dimension ref="A1:AL29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ7" sqref="AJ7"/>
+      <selection activeCell="AJ26" sqref="AJ26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3522,10 +3522,10 @@
       <c r="U1" t="s">
         <v>170</v>
       </c>
-      <c r="V1" s="69" t="s">
+      <c r="V1" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="W1" s="69" t="s">
+      <c r="W1" s="64" t="s">
         <v>172</v>
       </c>
       <c r="X1" t="s">
@@ -3546,10 +3546,10 @@
       <c r="AC1" t="s">
         <v>178</v>
       </c>
-      <c r="AD1" s="69" t="s">
+      <c r="AD1" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="AE1" s="69" t="s">
+      <c r="AE1" s="64" t="s">
         <v>180</v>
       </c>
       <c r="AF1" t="s">
@@ -3567,7 +3567,7 @@
       <c r="AJ1" t="s">
         <v>185</v>
       </c>
-      <c r="AK1" s="69" t="s">
+      <c r="AK1" s="64" t="s">
         <v>186</v>
       </c>
       <c r="AL1" t="s">
@@ -6770,12 +6770,6 @@
       <c r="U29">
         <v>26</v>
       </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
       <c r="X29">
         <v>0</v>
       </c>
@@ -6794,12 +6788,6 @@
       <c r="AC29">
         <v>0</v>
       </c>
-      <c r="AD29">
-        <v>0</v>
-      </c>
-      <c r="AE29">
-        <v>0</v>
-      </c>
       <c r="AF29">
         <v>12</v>
       </c>
@@ -6813,9 +6801,6 @@
         <v>0</v>
       </c>
       <c r="AJ29">
-        <v>0</v>
-      </c>
-      <c r="AK29">
         <v>0</v>
       </c>
       <c r="AL29">
@@ -6831,8 +6816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6301985-910C-46A2-BCA7-5B73125291C9}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30:G31"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -7478,8 +7463,8 @@
       <c r="J22" t="s">
         <v>73</v>
       </c>
-      <c r="K22">
-        <v>0</v>
+      <c r="K22" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="13.8">
@@ -7508,8 +7493,8 @@
       <c r="J23" t="s">
         <v>19</v>
       </c>
-      <c r="K23">
-        <v>0</v>
+      <c r="K23" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="69">
@@ -7718,8 +7703,8 @@
       <c r="J30" t="s">
         <v>15</v>
       </c>
-      <c r="K30">
-        <v>0</v>
+      <c r="K30" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="27.6">
@@ -7748,8 +7733,8 @@
       <c r="J31" t="s">
         <v>65</v>
       </c>
-      <c r="K31">
-        <v>0</v>
+      <c r="K31" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="27.6">
@@ -7928,8 +7913,8 @@
       <c r="J37" t="s">
         <v>51</v>
       </c>
-      <c r="K37">
-        <v>0</v>
+      <c r="K37" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="27.6">
@@ -7988,15 +7973,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="13.8">
-      <c r="A1" s="64">
+      <c r="A1" s="65">
         <v>45056.999305555553</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
       <c r="H1" s="6"/>
       <c r="I1" s="7" t="s">
         <v>0</v>
@@ -9312,15 +9297,15 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="13.8">
-      <c r="A43" s="66">
+      <c r="A43" s="67">
         <v>45057.5</v>
       </c>
-      <c r="B43" s="67"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="68"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="69"/>
       <c r="I43" s="6">
         <v>43</v>
       </c>
@@ -10270,15 +10255,15 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="13.2">
-      <c r="A85" s="66">
+      <c r="A85" s="67">
         <v>45057.999305555553</v>
       </c>
-      <c r="B85" s="67"/>
-      <c r="C85" s="67"/>
-      <c r="D85" s="67"/>
-      <c r="E85" s="67"/>
-      <c r="F85" s="67"/>
-      <c r="G85" s="68"/>
+      <c r="B85" s="68"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="68"/>
+      <c r="F85" s="68"/>
+      <c r="G85" s="69"/>
     </row>
     <row r="86" spans="1:7" ht="15.75" customHeight="1">
       <c r="A86" s="20" t="s">
@@ -11192,15 +11177,15 @@
       </c>
     </row>
     <row r="127" spans="1:10" ht="13.2">
-      <c r="A127" s="66">
+      <c r="A127" s="67">
         <v>45058.5</v>
       </c>
-      <c r="B127" s="67"/>
-      <c r="C127" s="67"/>
-      <c r="D127" s="67"/>
-      <c r="E127" s="67"/>
-      <c r="F127" s="67"/>
-      <c r="G127" s="68"/>
+      <c r="B127" s="68"/>
+      <c r="C127" s="68"/>
+      <c r="D127" s="68"/>
+      <c r="E127" s="68"/>
+      <c r="F127" s="68"/>
+      <c r="G127" s="69"/>
     </row>
     <row r="128" spans="1:10" ht="15.75" customHeight="1">
       <c r="A128" s="26" t="s">

--- a/data/prueba_predicc_dia_dia.xlsx
+++ b/data/prueba_predicc_dia_dia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/Desktop/adri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="560" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30CF51C7-9FFA-4528-8B3A-9302B8522B75}"/>
+  <xr:revisionPtr revIDLastSave="578" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19F45286-EE1B-4CDC-B6FF-87CB61D9285A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2316" yWindow="372" windowWidth="17256" windowHeight="12192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="203" r:id="rId8"/>
+    <pivotCache cacheId="212" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2370,7 +2370,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45421.462698726849" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45421.969729282406" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="H1:L37" sheet="Hoja 3"/>
   </cacheSource>
@@ -2822,7 +2822,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="203" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="212" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
   <location ref="A1:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="5">
     <pivotField name="code" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -3453,10 +3453,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL29"/>
+  <dimension ref="A1:AL30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ26" sqref="AJ26"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6770,6 +6770,12 @@
       <c r="U29">
         <v>26</v>
       </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
       <c r="X29">
         <v>0</v>
       </c>
@@ -6788,6 +6794,12 @@
       <c r="AC29">
         <v>0</v>
       </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
       <c r="AF29">
         <v>12</v>
       </c>
@@ -6803,7 +6815,126 @@
       <c r="AJ29">
         <v>0</v>
       </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
       <c r="AL29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A30" s="2">
+        <v>45421</v>
+      </c>
+      <c r="B30">
+        <v>527</v>
+      </c>
+      <c r="C30">
+        <v>420</v>
+      </c>
+      <c r="D30">
+        <v>267</v>
+      </c>
+      <c r="E30">
+        <v>282</v>
+      </c>
+      <c r="F30">
+        <v>228</v>
+      </c>
+      <c r="G30">
+        <v>488</v>
+      </c>
+      <c r="H30">
+        <v>94</v>
+      </c>
+      <c r="I30">
+        <v>149</v>
+      </c>
+      <c r="J30">
+        <v>81</v>
+      </c>
+      <c r="K30">
+        <v>297</v>
+      </c>
+      <c r="L30">
+        <v>302</v>
+      </c>
+      <c r="M30">
+        <v>175</v>
+      </c>
+      <c r="N30">
+        <v>81</v>
+      </c>
+      <c r="O30">
+        <v>215</v>
+      </c>
+      <c r="P30">
+        <v>35</v>
+      </c>
+      <c r="Q30">
+        <v>84</v>
+      </c>
+      <c r="R30">
+        <v>164</v>
+      </c>
+      <c r="S30">
+        <v>82</v>
+      </c>
+      <c r="T30">
+        <v>119</v>
+      </c>
+      <c r="U30">
+        <v>27</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>89</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>15</v>
+      </c>
+      <c r="AB30">
+        <v>32</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>12</v>
+      </c>
+      <c r="AG30">
+        <v>27</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
         <v>0</v>
       </c>
     </row>
@@ -6851,20 +6982,20 @@
         <v>55</v>
       </c>
       <c r="E2" s="51">
-        <v>486</v>
+        <v>527</v>
       </c>
       <c r="G2" s="58" t="s">
         <v>55</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H38" si="0">VLOOKUP(G2,D:E,2,0)</f>
-        <v>486</v>
+        <v>527</v>
       </c>
       <c r="J2" t="s">
         <v>55</v>
       </c>
       <c r="K2">
-        <v>486</v>
+        <v>527</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="27.6">
@@ -6881,20 +7012,20 @@
         <v>89</v>
       </c>
       <c r="E3" s="53">
-        <v>407</v>
+        <v>488</v>
       </c>
       <c r="G3" s="58" t="s">
         <v>92</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>382</v>
+        <v>420</v>
       </c>
       <c r="J3" t="s">
         <v>92</v>
       </c>
       <c r="K3">
-        <v>382</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="41.4">
@@ -6911,80 +7042,80 @@
         <v>92</v>
       </c>
       <c r="E4" s="55">
-        <v>382</v>
+        <v>420</v>
       </c>
       <c r="G4" s="58" t="s">
         <v>90</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>330</v>
+        <v>267</v>
       </c>
       <c r="J4" t="s">
         <v>90</v>
       </c>
       <c r="K4">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="27.6">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="13.8">
       <c r="A5" s="62">
         <v>4</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="E5" s="57">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="G5" s="58" t="s">
         <v>47</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>327</v>
+        <v>282</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="13.8">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27.6">
       <c r="A6" s="62">
         <v>5</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="D6" s="56" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E6" s="57">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="G6" s="58" t="s">
         <v>57</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="J6" t="s">
         <v>57</v>
       </c>
       <c r="K6">
-        <v>255</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="13.8">
@@ -6992,29 +7123,29 @@
         <v>6</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E7" s="57">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="G7" s="58" t="s">
         <v>89</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>407</v>
+        <v>488</v>
       </c>
       <c r="J7" t="s">
         <v>89</v>
       </c>
       <c r="K7">
-        <v>407</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="27.6">
@@ -7022,29 +7153,29 @@
         <v>7</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="D8" s="56" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="E8" s="57">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G8" s="58" t="s">
         <v>13</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8">
-        <v>147</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="27.6">
@@ -7061,20 +7192,20 @@
         <v>57</v>
       </c>
       <c r="E9" s="57">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="G9" s="58" t="s">
         <v>61</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="J9" t="s">
         <v>61</v>
       </c>
       <c r="K9">
-        <v>170</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="27.6">
@@ -7082,29 +7213,29 @@
         <v>9</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="E10" s="57">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="G10" s="58" t="s">
         <v>23</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
       </c>
       <c r="K10">
-        <v>132</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="27.6">
@@ -7112,119 +7243,119 @@
         <v>10</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D11" s="56" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="E11" s="57">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="G11" s="58" t="s">
         <v>29</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="J11" t="s">
         <v>29</v>
       </c>
       <c r="K11">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="13.8">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="27.6">
       <c r="A12" s="62">
         <v>11</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E12" s="49">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G12" s="58" t="s">
         <v>41</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="J12" t="s">
         <v>41</v>
       </c>
       <c r="K12">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="27.6">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="13.8">
       <c r="A13" s="62">
         <v>12</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="E13" s="49">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G13" s="58" t="s">
         <v>93</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="J13" t="s">
         <v>93</v>
       </c>
       <c r="K13">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="13.8">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="27.6">
       <c r="A14" s="62">
         <v>13</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E14" s="49">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="G14" s="58" t="s">
         <v>17</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
       </c>
       <c r="K14">
-        <v>132</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="13.8">
@@ -7232,89 +7363,89 @@
         <v>14</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E15" s="49">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="G15" s="58" t="s">
         <v>53</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="J15" t="s">
         <v>53</v>
       </c>
       <c r="K15">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="27.6">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="13.8">
       <c r="A16" s="62">
         <v>15</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E16" s="49">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="G16" s="58" t="s">
         <v>86</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J16" t="s">
         <v>86</v>
       </c>
       <c r="K16">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="27.6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="13.8">
       <c r="A17" s="62">
         <v>16</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="E17" s="49">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="G17" s="58" t="s">
         <v>71</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="J17" t="s">
         <v>71</v>
       </c>
       <c r="K17">
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="27.6">
@@ -7322,59 +7453,59 @@
         <v>17</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E18" s="49">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="G18" s="58" t="s">
         <v>87</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="J18" t="s">
         <v>87</v>
       </c>
       <c r="K18">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="13.8">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="27.6">
       <c r="A19" s="62">
         <v>18</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E19" s="49">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="G19" s="58" t="s">
         <v>43</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="J19" t="s">
         <v>43</v>
       </c>
       <c r="K19">
-        <v>105</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="13.8">
@@ -7382,29 +7513,29 @@
         <v>19</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="E20" s="49">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="G20" s="58" t="s">
         <v>39</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="J20" t="s">
         <v>39</v>
       </c>
       <c r="K20">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="13.8">
@@ -7421,37 +7552,37 @@
         <v>86</v>
       </c>
       <c r="E21" s="49">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G21" s="58" t="s">
         <v>35</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J21" t="s">
         <v>35</v>
       </c>
       <c r="K21">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="13.8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="27.6">
       <c r="A22" s="62">
         <v>21</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E22" s="49">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G22" s="58" t="s">
         <v>73</v>
@@ -7481,7 +7612,7 @@
         <v>35</v>
       </c>
       <c r="E23" s="49">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G23" s="58" t="s">
         <v>19</v>
@@ -7497,21 +7628,21 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="69">
+    <row r="24" spans="1:11" ht="13.8">
       <c r="A24" s="62">
         <v>23</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E24" s="49">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G24" s="58" t="s">
         <v>85</v>
@@ -7527,34 +7658,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="27.6">
+    <row r="25" spans="1:11" ht="69">
       <c r="A25" s="62">
         <v>24</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E25" s="49">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G25" s="58" t="s">
         <v>31</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="J25" t="s">
         <v>31</v>
       </c>
       <c r="K25">
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="13.8">
@@ -7578,13 +7709,13 @@
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
         <v>83</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="13.8">
@@ -7601,7 +7732,7 @@
         <v>83</v>
       </c>
       <c r="E27" s="49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="58" t="s">
         <v>37</v>
@@ -7617,18 +7748,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="13.8">
+    <row r="28" spans="1:11" ht="27.6">
       <c r="A28" s="62">
         <v>27</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="E28" s="49">
         <v>0</v>
@@ -7638,27 +7769,27 @@
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="J28" t="s">
         <v>45</v>
       </c>
       <c r="K28">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="27.6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="13.8">
       <c r="A29" s="62">
         <v>28</v>
       </c>
       <c r="B29" s="48" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="E29" s="49">
         <v>0</v>
@@ -7677,18 +7808,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="27.6">
+    <row r="30" spans="1:11" ht="13.8">
       <c r="A30" s="62">
         <v>29</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E30" s="49">
         <v>0</v>
@@ -7712,13 +7843,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="E31" s="49">
         <v>0</v>
@@ -7741,14 +7872,14 @@
       <c r="A32" s="62">
         <v>31</v>
       </c>
-      <c r="B32" s="63">
-        <v>0.46597222222222223</v>
+      <c r="B32" s="48" t="s">
+        <v>240</v>
       </c>
       <c r="C32" s="48" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="E32" s="49">
         <v>0</v>
@@ -7767,18 +7898,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="13.8">
+    <row r="33" spans="1:11" ht="27.6">
       <c r="A33" s="62">
         <v>32</v>
       </c>
-      <c r="B33" s="48" t="s">
-        <v>246</v>
+      <c r="B33" s="63">
+        <v>0.46597222222222223</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="E33" s="49">
         <v>0</v>
@@ -7788,13 +7919,13 @@
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J33" t="s">
         <v>33</v>
       </c>
       <c r="K33">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="13.8">

--- a/data/prueba_predicc_dia_dia.xlsx
+++ b/data/prueba_predicc_dia_dia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/Desktop/adri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="578" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19F45286-EE1B-4CDC-B6FF-87CB61D9285A}"/>
+  <xr:revisionPtr revIDLastSave="607" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9C14D8E-E3D5-49F6-908C-0AD4AADE55CD}"/>
   <bookViews>
-    <workbookView xWindow="2316" yWindow="372" windowWidth="17256" windowHeight="12192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="12" windowWidth="17256" windowHeight="12192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="212" r:id="rId8"/>
+    <pivotCache cacheId="221" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="247">
   <si>
     <t>Code</t>
   </si>
@@ -660,12 +660,6 @@
     <t>Ladaniva</t>
   </si>
   <si>
-    <t>Before The Party is Over</t>
-  </si>
-  <si>
-    <t>Mustii</t>
-  </si>
-  <si>
     <t>Rim Tim Tagi Dim</t>
   </si>
   <si>
@@ -738,12 +732,6 @@
     <t>Sília Kapsís</t>
   </si>
   <si>
-    <t>Sand</t>
-  </si>
-  <si>
-    <t>Saba</t>
-  </si>
-  <si>
     <t>Veronika</t>
   </si>
   <si>
@@ -754,12 +742,6 @@
   </si>
   <si>
     <t>Teya Dora</t>
-  </si>
-  <si>
-    <t>Pedestal</t>
-  </si>
-  <si>
-    <t>Aiko</t>
   </si>
   <si>
     <t>Fighter</t>
@@ -2370,7 +2352,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45421.969729282406" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45422.023759490738" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="H1:L37" sheet="Hoja 3"/>
   </cacheSource>
@@ -2822,7 +2804,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="212" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="221" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
   <location ref="A1:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="5">
     <pivotField name="code" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -3453,10 +3435,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL30"/>
+  <dimension ref="A1:AL32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3486,7 +3468,7 @@
       <c r="I1" t="s">
         <v>158</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="64" t="s">
         <v>159</v>
       </c>
       <c r="K1" t="s">
@@ -3519,7 +3501,7 @@
       <c r="T1" t="s">
         <v>169</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="64" t="s">
         <v>170</v>
       </c>
       <c r="V1" s="64" t="s">
@@ -3555,22 +3537,22 @@
       <c r="AF1" t="s">
         <v>181</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="64" t="s">
         <v>183</v>
       </c>
       <c r="AI1" t="s">
         <v>184</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="64" t="s">
         <v>185</v>
       </c>
       <c r="AK1" s="64" t="s">
         <v>186</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="64" t="s">
         <v>187</v>
       </c>
     </row>
@@ -6935,6 +6917,238 @@
         <v>0</v>
       </c>
       <c r="AL30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A31" s="2">
+        <v>45422</v>
+      </c>
+      <c r="B31">
+        <v>134</v>
+      </c>
+      <c r="C31">
+        <v>430</v>
+      </c>
+      <c r="D31">
+        <v>159</v>
+      </c>
+      <c r="E31">
+        <v>175</v>
+      </c>
+      <c r="F31">
+        <v>168</v>
+      </c>
+      <c r="G31">
+        <v>278</v>
+      </c>
+      <c r="H31">
+        <v>105</v>
+      </c>
+      <c r="I31">
+        <v>159</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>640</v>
+      </c>
+      <c r="L31">
+        <v>128</v>
+      </c>
+      <c r="M31">
+        <v>184</v>
+      </c>
+      <c r="N31">
+        <v>89</v>
+      </c>
+      <c r="O31">
+        <v>590</v>
+      </c>
+      <c r="P31">
+        <v>118</v>
+      </c>
+      <c r="Q31">
+        <v>75</v>
+      </c>
+      <c r="R31">
+        <v>137</v>
+      </c>
+      <c r="S31">
+        <v>89</v>
+      </c>
+      <c r="T31">
+        <v>175</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>73</v>
+      </c>
+      <c r="Y31">
+        <v>59</v>
+      </c>
+      <c r="Z31">
+        <v>48</v>
+      </c>
+      <c r="AA31">
+        <v>52</v>
+      </c>
+      <c r="AB31">
+        <v>100</v>
+      </c>
+      <c r="AC31">
+        <v>1</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>46</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>80</v>
+      </c>
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A32" s="2">
+        <v>45423</v>
+      </c>
+      <c r="B32">
+        <v>369</v>
+      </c>
+      <c r="C32">
+        <v>472</v>
+      </c>
+      <c r="D32">
+        <v>235</v>
+      </c>
+      <c r="E32">
+        <v>254</v>
+      </c>
+      <c r="F32">
+        <v>280</v>
+      </c>
+      <c r="G32">
+        <v>342</v>
+      </c>
+      <c r="H32">
+        <v>85</v>
+      </c>
+      <c r="I32">
+        <v>128</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>529</v>
+      </c>
+      <c r="L32">
+        <v>267</v>
+      </c>
+      <c r="M32">
+        <v>156</v>
+      </c>
+      <c r="N32">
+        <v>32</v>
+      </c>
+      <c r="O32">
+        <v>487</v>
+      </c>
+      <c r="P32">
+        <v>77</v>
+      </c>
+      <c r="Q32">
+        <v>68</v>
+      </c>
+      <c r="R32">
+        <v>117</v>
+      </c>
+      <c r="S32">
+        <v>32</v>
+      </c>
+      <c r="T32">
+        <v>141</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>75</v>
+      </c>
+      <c r="Z32">
+        <v>30</v>
+      </c>
+      <c r="AA32">
+        <v>36</v>
+      </c>
+      <c r="AB32">
+        <v>64</v>
+      </c>
+      <c r="AC32">
+        <v>4</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>9</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>3</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
         <v>0</v>
       </c>
     </row>
@@ -6947,7 +7161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6301985-910C-46A2-BCA7-5B73125291C9}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K2" sqref="K2:K38"/>
     </sheetView>
   </sheetViews>
@@ -6968,34 +7182,34 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.8">
+    <row r="2" spans="1:11" ht="27.6">
       <c r="A2" s="62">
         <v>1</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E2" s="51">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="G2" s="58" t="s">
         <v>55</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H38" si="0">VLOOKUP(G2,D:E,2,0)</f>
-        <v>527</v>
+        <v>369</v>
       </c>
       <c r="J2" t="s">
         <v>55</v>
       </c>
       <c r="K2">
-        <v>527</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="27.6">
@@ -7003,29 +7217,29 @@
         <v>2</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="E3" s="53">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G3" s="58" t="s">
         <v>92</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>420</v>
+        <v>472</v>
       </c>
       <c r="J3" t="s">
         <v>92</v>
       </c>
       <c r="K3">
-        <v>420</v>
+        <v>472</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="41.4">
@@ -7042,20 +7256,20 @@
         <v>92</v>
       </c>
       <c r="E4" s="55">
-        <v>420</v>
+        <v>472</v>
       </c>
       <c r="G4" s="58" t="s">
         <v>90</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="J4" t="s">
         <v>90</v>
       </c>
       <c r="K4">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="13.8">
@@ -7063,29 +7277,29 @@
         <v>4</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E5" s="57">
-        <v>302</v>
+        <v>369</v>
       </c>
       <c r="G5" s="58" t="s">
         <v>47</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
-        <v>282</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="27.6">
@@ -7093,73 +7307,73 @@
         <v>5</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D6" s="56" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="E6" s="57">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="G6" s="58" t="s">
         <v>57</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>228</v>
+        <v>280</v>
       </c>
       <c r="J6" t="s">
         <v>57</v>
       </c>
       <c r="K6">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="13.8">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="27.6">
       <c r="A7" s="62">
         <v>6</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E7" s="57">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G7" s="58" t="s">
         <v>89</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>488</v>
+        <v>342</v>
       </c>
       <c r="J7" t="s">
         <v>89</v>
       </c>
       <c r="K7">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="27.6">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="13.8">
       <c r="A8" s="62">
         <v>7</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="D8" s="56" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="E8" s="57">
         <v>267</v>
@@ -7169,43 +7383,43 @@
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="27.6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="13.8">
       <c r="A9" s="62">
         <v>8</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E9" s="57">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="G9" s="58" t="s">
         <v>61</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="J9" t="s">
         <v>61</v>
       </c>
       <c r="K9">
-        <v>149</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="27.6">
@@ -7213,29 +7427,29 @@
         <v>9</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="E10" s="57">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="G10" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="e">
         <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-      <c r="J10" t="s">
+        <v>#N/A</v>
+      </c>
+      <c r="J10" s="64" t="s">
         <v>23</v>
       </c>
       <c r="K10">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="27.6">
@@ -7243,29 +7457,29 @@
         <v>10</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D11" s="56" t="s">
         <v>93</v>
       </c>
       <c r="E11" s="57">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="G11" s="58" t="s">
         <v>29</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>297</v>
+        <v>529</v>
       </c>
       <c r="J11" t="s">
         <v>29</v>
       </c>
       <c r="K11">
-        <v>297</v>
+        <v>529</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="27.6">
@@ -7273,29 +7487,29 @@
         <v>11</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="E12" s="49">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="G12" s="58" t="s">
         <v>41</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="J12" t="s">
         <v>41</v>
       </c>
       <c r="K12">
-        <v>302</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="13.8">
@@ -7303,29 +7517,29 @@
         <v>12</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D13" s="48" t="s">
         <v>61</v>
       </c>
       <c r="E13" s="49">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="G13" s="58" t="s">
         <v>93</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="J13" t="s">
         <v>93</v>
       </c>
       <c r="K13">
-        <v>175</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="27.6">
@@ -7333,29 +7547,29 @@
         <v>13</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="E14" s="49">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G14" s="58" t="s">
         <v>17</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
       </c>
       <c r="K14">
-        <v>81</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="13.8">
@@ -7372,20 +7586,20 @@
         <v>13</v>
       </c>
       <c r="E15" s="49">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G15" s="58" t="s">
         <v>53</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>215</v>
+        <v>487</v>
       </c>
       <c r="J15" t="s">
         <v>53</v>
       </c>
       <c r="K15">
-        <v>215</v>
+        <v>487</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="13.8">
@@ -7393,29 +7607,29 @@
         <v>15</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="E16" s="49">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G16" s="58" t="s">
         <v>86</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="J16" t="s">
         <v>86</v>
       </c>
       <c r="K16">
-        <v>35</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="13.8">
@@ -7423,59 +7637,59 @@
         <v>16</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="E17" s="49">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G17" s="58" t="s">
         <v>71</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="J17" t="s">
         <v>71</v>
       </c>
       <c r="K17">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="27.6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="13.8">
       <c r="A18" s="62">
         <v>17</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="E18" s="49">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="G18" s="58" t="s">
         <v>87</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="J18" t="s">
         <v>87</v>
       </c>
       <c r="K18">
-        <v>164</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="27.6">
@@ -7483,103 +7697,103 @@
         <v>18</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E19" s="49">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="G19" s="58" t="s">
         <v>43</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="J19" t="s">
         <v>43</v>
       </c>
       <c r="K19">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="13.8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="69">
       <c r="A20" s="62">
         <v>19</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E20" s="49">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="G20" s="58" t="s">
         <v>39</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="J20" t="s">
         <v>39</v>
       </c>
       <c r="K20">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="13.8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="27.6">
       <c r="A21" s="62">
         <v>20</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="E21" s="49">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G21" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="e">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="J21" t="s">
+        <v>#N/A</v>
+      </c>
+      <c r="J21" s="64" t="s">
         <v>35</v>
       </c>
       <c r="K21">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="27.6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="13.8">
       <c r="A22" s="62">
         <v>21</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E22" s="49">
         <v>32</v>
@@ -7591,11 +7805,11 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="K22" t="e">
-        <v>#N/A</v>
+      <c r="K22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="13.8">
@@ -7609,10 +7823,10 @@
         <v>231</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="E23" s="49">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G23" s="58" t="s">
         <v>19</v>
@@ -7621,11 +7835,11 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="K23" t="e">
-        <v>#N/A</v>
+      <c r="K23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="13.8">
@@ -7633,16 +7847,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="E24" s="49">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="G24" s="58" t="s">
         <v>85</v>
@@ -7658,64 +7872,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="69">
+    <row r="25" spans="1:11" ht="13.8">
       <c r="A25" s="62">
         <v>24</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="E25" s="49">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G25" s="58" t="s">
         <v>31</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="J25" t="s">
         <v>31</v>
       </c>
       <c r="K25">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="13.8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="27.6">
       <c r="A26" s="62">
         <v>25</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="E26" s="49">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G26" s="58" t="s">
         <v>83</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J26" t="s">
         <v>83</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="13.8">
@@ -7723,13 +7937,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E27" s="49">
         <v>0</v>
@@ -7739,13 +7953,13 @@
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="J27" t="s">
         <v>37</v>
       </c>
       <c r="K27">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="27.6">
@@ -7753,10 +7967,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D28" s="48" t="s">
         <v>149</v>
@@ -7769,13 +7983,13 @@
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J28" t="s">
         <v>45</v>
       </c>
       <c r="K28">
-        <v>32</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="13.8">
@@ -7783,10 +7997,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="48" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D29" s="48" t="s">
         <v>85</v>
@@ -7799,13 +8013,13 @@
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J29" t="s">
         <v>59</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="13.8">
@@ -7813,10 +8027,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D30" s="48" t="s">
         <v>59</v>
@@ -7831,11 +8045,11 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="K30" t="e">
-        <v>#N/A</v>
+      <c r="K30">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="27.6">
@@ -7843,10 +8057,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D31" s="48" t="s">
         <v>63</v>
@@ -7861,11 +8075,11 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="K31" t="e">
-        <v>#N/A</v>
+      <c r="K31">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="27.6">
@@ -7873,10 +8087,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C32" s="48" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D32" s="48" t="s">
         <v>9</v>
@@ -7889,13 +8103,13 @@
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J32" t="s">
         <v>75</v>
       </c>
       <c r="K32">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="27.6">
@@ -7906,7 +8120,7 @@
         <v>0.46597222222222223</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D33" s="48" t="s">
         <v>81</v>
@@ -7917,15 +8131,15 @@
       <c r="G33" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="H33">
+      <c r="H33" t="e">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="J33" t="s">
+        <v>#N/A</v>
+      </c>
+      <c r="J33" s="64" t="s">
         <v>33</v>
       </c>
       <c r="K33">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="13.8">
@@ -7933,10 +8147,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D34" s="48" t="s">
         <v>83</v>
@@ -7963,10 +8177,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D35" s="48" t="s">
         <v>75</v>
@@ -7979,13 +8193,13 @@
       </c>
       <c r="H35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J35" t="s">
         <v>149</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="13.8">
@@ -7993,10 +8207,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D36" s="48" t="s">
         <v>31</v>
@@ -8023,10 +8237,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D37" s="48" t="s">
         <v>45</v>
@@ -8041,11 +8255,11 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="K37" t="e">
-        <v>#N/A</v>
+      <c r="K37">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="27.6">
@@ -8053,10 +8267,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="48" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C38" s="48" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D38" s="48" t="s">
         <v>63</v>
@@ -8080,6 +8294,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/prueba_predicc_dia_dia.xlsx
+++ b/data/prueba_predicc_dia_dia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/Desktop/adri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="607" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9C14D8E-E3D5-49F6-908C-0AD4AADE55CD}"/>
+  <xr:revisionPtr revIDLastSave="610" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4B7B6D9-7480-45B3-B569-7A2A953E364F}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="12" windowWidth="17256" windowHeight="12192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="504" yWindow="120" windowWidth="17256" windowHeight="12192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="221" r:id="rId8"/>
+    <pivotCache cacheId="230" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2352,7 +2352,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45422.023759490738" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45423.750143865742" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="H1:L37" sheet="Hoja 3"/>
   </cacheSource>
@@ -2804,7 +2804,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="221" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="230" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
   <location ref="A1:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="5">
     <pivotField name="code" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -3437,8 +3437,8 @@
   </sheetPr>
   <dimension ref="A1:AL32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6925,88 +6925,88 @@
         <v>45422</v>
       </c>
       <c r="B31">
-        <v>134</v>
+        <v>369</v>
       </c>
       <c r="C31">
-        <v>430</v>
+        <v>472</v>
       </c>
       <c r="D31">
-        <v>159</v>
+        <v>235</v>
       </c>
       <c r="E31">
-        <v>175</v>
+        <v>254</v>
       </c>
       <c r="F31">
-        <v>168</v>
+        <v>280</v>
       </c>
       <c r="G31">
-        <v>278</v>
+        <v>342</v>
       </c>
       <c r="H31">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="I31">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>640</v>
+        <v>529</v>
       </c>
       <c r="L31">
-        <v>128</v>
+        <v>267</v>
       </c>
       <c r="M31">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="N31">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="O31">
-        <v>590</v>
+        <v>487</v>
       </c>
       <c r="P31">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="Q31">
+        <v>68</v>
+      </c>
+      <c r="R31">
+        <v>117</v>
+      </c>
+      <c r="S31">
+        <v>32</v>
+      </c>
+      <c r="T31">
+        <v>141</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
         <v>75</v>
       </c>
-      <c r="R31">
-        <v>137</v>
-      </c>
-      <c r="S31">
-        <v>89</v>
-      </c>
-      <c r="T31">
-        <v>175</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>73</v>
-      </c>
-      <c r="Y31">
-        <v>59</v>
-      </c>
       <c r="Z31">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="AA31">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="AB31">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="AC31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AD31">
         <v>0</v>
@@ -7015,7 +7015,7 @@
         <v>0</v>
       </c>
       <c r="AF31">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="AG31">
         <v>0</v>
@@ -7024,7 +7024,7 @@
         <v>0</v>
       </c>
       <c r="AI31">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="AJ31">
         <v>0</v>
@@ -7037,120 +7037,7 @@
       </c>
     </row>
     <row r="32" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A32" s="2">
-        <v>45423</v>
-      </c>
-      <c r="B32">
-        <v>369</v>
-      </c>
-      <c r="C32">
-        <v>472</v>
-      </c>
-      <c r="D32">
-        <v>235</v>
-      </c>
-      <c r="E32">
-        <v>254</v>
-      </c>
-      <c r="F32">
-        <v>280</v>
-      </c>
-      <c r="G32">
-        <v>342</v>
-      </c>
-      <c r="H32">
-        <v>85</v>
-      </c>
-      <c r="I32">
-        <v>128</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>529</v>
-      </c>
-      <c r="L32">
-        <v>267</v>
-      </c>
-      <c r="M32">
-        <v>156</v>
-      </c>
-      <c r="N32">
-        <v>32</v>
-      </c>
-      <c r="O32">
-        <v>487</v>
-      </c>
-      <c r="P32">
-        <v>77</v>
-      </c>
-      <c r="Q32">
-        <v>68</v>
-      </c>
-      <c r="R32">
-        <v>117</v>
-      </c>
-      <c r="S32">
-        <v>32</v>
-      </c>
-      <c r="T32">
-        <v>141</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
-      <c r="Y32">
-        <v>75</v>
-      </c>
-      <c r="Z32">
-        <v>30</v>
-      </c>
-      <c r="AA32">
-        <v>36</v>
-      </c>
-      <c r="AB32">
-        <v>64</v>
-      </c>
-      <c r="AC32">
-        <v>4</v>
-      </c>
-      <c r="AD32">
-        <v>0</v>
-      </c>
-      <c r="AE32">
-        <v>0</v>
-      </c>
-      <c r="AF32">
-        <v>9</v>
-      </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-      <c r="AH32">
-        <v>0</v>
-      </c>
-      <c r="AI32">
-        <v>3</v>
-      </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
-      <c r="AK32">
-        <v>0</v>
-      </c>
-      <c r="AL32">
-        <v>0</v>
-      </c>
+      <c r="A32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/prueba_predicc_dia_dia.xlsx
+++ b/data/prueba_predicc_dia_dia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/Desktop/adri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="610" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4B7B6D9-7480-45B3-B569-7A2A953E364F}"/>
+  <xr:revisionPtr revIDLastSave="643" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE0F6E4C-F7C6-43FC-B4A0-A3B90327A1CA}"/>
   <bookViews>
-    <workbookView xWindow="504" yWindow="120" windowWidth="17256" windowHeight="12192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="144" windowWidth="17256" windowHeight="12192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="230" r:id="rId8"/>
+    <pivotCache cacheId="239" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2352,7 +2352,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45423.750143865742" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45425.469556018521" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="H1:L37" sheet="Hoja 3"/>
   </cacheSource>
@@ -2804,7 +2804,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="230" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="239" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
   <location ref="A1:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="5">
     <pivotField name="code" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -3438,7 +3438,7 @@
   <dimension ref="A1:AL32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -7037,7 +7037,120 @@
       </c>
     </row>
     <row r="32" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A32" s="2"/>
+      <c r="A32" s="2">
+        <v>45423</v>
+      </c>
+      <c r="B32">
+        <v>375</v>
+      </c>
+      <c r="C32">
+        <v>453</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>126</v>
+      </c>
+      <c r="F32">
+        <v>268</v>
+      </c>
+      <c r="G32">
+        <v>591</v>
+      </c>
+      <c r="H32">
+        <v>183</v>
+      </c>
+      <c r="I32">
+        <v>90</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>547</v>
+      </c>
+      <c r="L32">
+        <v>445</v>
+      </c>
+      <c r="M32">
+        <v>46</v>
+      </c>
+      <c r="N32">
+        <v>24</v>
+      </c>
+      <c r="O32">
+        <v>278</v>
+      </c>
+      <c r="P32">
+        <v>30</v>
+      </c>
+      <c r="Q32">
+        <v>16</v>
+      </c>
+      <c r="R32">
+        <v>174</v>
+      </c>
+      <c r="S32">
+        <v>34</v>
+      </c>
+      <c r="T32">
+        <v>38</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>27</v>
+      </c>
+      <c r="Y32">
+        <v>78</v>
+      </c>
+      <c r="Z32">
+        <v>54</v>
+      </c>
+      <c r="AA32">
+        <v>37</v>
+      </c>
+      <c r="AB32">
+        <v>117</v>
+      </c>
+      <c r="AC32">
+        <v>64</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>152</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>103</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7096,7 +7209,7 @@
         <v>55</v>
       </c>
       <c r="K2">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="27.6">
@@ -7126,7 +7239,7 @@
         <v>92</v>
       </c>
       <c r="K3">
-        <v>472</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="41.4">
@@ -7152,11 +7265,11 @@
         <f t="shared" si="0"/>
         <v>235</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="64" t="s">
         <v>90</v>
       </c>
       <c r="K4">
-        <v>235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="13.8">
@@ -7186,7 +7299,7 @@
         <v>47</v>
       </c>
       <c r="K5">
-        <v>254</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="27.6">
@@ -7216,7 +7329,7 @@
         <v>57</v>
       </c>
       <c r="K6">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="27.6">
@@ -7246,7 +7359,7 @@
         <v>89</v>
       </c>
       <c r="K7">
-        <v>342</v>
+        <v>591</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="13.8">
@@ -7276,7 +7389,7 @@
         <v>13</v>
       </c>
       <c r="K8">
-        <v>85</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="13.8">
@@ -7306,7 +7419,7 @@
         <v>61</v>
       </c>
       <c r="K9">
-        <v>128</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="27.6">
@@ -7366,7 +7479,7 @@
         <v>29</v>
       </c>
       <c r="K11">
-        <v>529</v>
+        <v>547</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="27.6">
@@ -7396,7 +7509,7 @@
         <v>41</v>
       </c>
       <c r="K12">
-        <v>267</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="13.8">
@@ -7426,7 +7539,7 @@
         <v>93</v>
       </c>
       <c r="K13">
-        <v>156</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="27.6">
@@ -7456,7 +7569,7 @@
         <v>17</v>
       </c>
       <c r="K14">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="13.8">
@@ -7486,7 +7599,7 @@
         <v>53</v>
       </c>
       <c r="K15">
-        <v>487</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="13.8">
@@ -7516,7 +7629,7 @@
         <v>86</v>
       </c>
       <c r="K16">
-        <v>77</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="13.8">
@@ -7546,7 +7659,7 @@
         <v>71</v>
       </c>
       <c r="K17">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="13.8">
@@ -7576,7 +7689,7 @@
         <v>87</v>
       </c>
       <c r="K18">
-        <v>117</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="27.6">
@@ -7606,7 +7719,7 @@
         <v>43</v>
       </c>
       <c r="K19">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="69">
@@ -7636,7 +7749,7 @@
         <v>39</v>
       </c>
       <c r="K20">
-        <v>141</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="27.6">
@@ -7756,7 +7869,7 @@
         <v>85</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="13.8">
@@ -7786,7 +7899,7 @@
         <v>31</v>
       </c>
       <c r="K25">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="27.6">
@@ -7816,7 +7929,7 @@
         <v>83</v>
       </c>
       <c r="K26">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="13.8">
@@ -7846,7 +7959,7 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="27.6">
@@ -7876,7 +7989,7 @@
         <v>45</v>
       </c>
       <c r="K28">
-        <v>64</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="13.8">
@@ -7906,7 +8019,7 @@
         <v>59</v>
       </c>
       <c r="K29">
-        <v>4</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="13.8">
@@ -7996,7 +8109,7 @@
         <v>75</v>
       </c>
       <c r="K32">
-        <v>9</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="27.6">
@@ -8052,7 +8165,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34" s="64" t="s">
         <v>9</v>
       </c>
       <c r="K34">
@@ -8086,7 +8199,7 @@
         <v>149</v>
       </c>
       <c r="K35">
-        <v>3</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="13.8">
@@ -8112,7 +8225,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J36" s="64" t="s">
         <v>63</v>
       </c>
       <c r="K36">
@@ -8172,7 +8285,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" s="64" t="s">
         <v>81</v>
       </c>
       <c r="K38">

--- a/data/prueba_predicc_dia_dia.xlsx
+++ b/data/prueba_predicc_dia_dia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/Desktop/adri/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="643" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE0F6E4C-F7C6-43FC-B4A0-A3B90327A1CA}"/>
+  <xr:revisionPtr revIDLastSave="655" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17273DCD-1B2B-4BED-BBAA-7388DD7E2839}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="144" windowWidth="17256" windowHeight="12192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12108" yWindow="12492" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="239" r:id="rId8"/>
+    <pivotCache cacheId="9" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="227">
   <si>
     <t>Code</t>
   </si>
@@ -501,292 +501,232 @@
     <t>a restar</t>
   </si>
   <si>
-    <t xml:space="preserve">Israel 🇮🇱 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ukraine 🇺🇦 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netherlands 🇳🇱 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greece 🇬🇷 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy 🇮🇹 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland 🇨🇭 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armenia 🇦🇲 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lithuania 🇱🇹 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belgium 🇧🇪 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Croatia 🇭🇷 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">France 🇫🇷 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom 🇬🇧 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austria 🇦🇹 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ireland 🇮🇪 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain 🇪🇸 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norway 🇳🇴 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweden 🇸🇪 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgia 🇬🇪 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finland 🇫🇮 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denmark 🇩🇰 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poland 🇵🇱 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azerbaijan 🇦🇿 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovenia 🇸🇮 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyprus 🇨🇾 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serbia 🇷🇸 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estonia 🇪🇪 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany 🇩🇪 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latvia 🇱🇻 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australia 🇦🇺 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moldova 🇲🇩 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portugal 🇵🇹 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Czechia 🇨🇿 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Albania 🇦🇱 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luxemburgo 🇱🇺 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malta 🇲🇹 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iceland 🇮🇸 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Marino 🇸🇲 </t>
-  </si>
-  <si>
     <t>song</t>
   </si>
   <si>
     <t>singer</t>
   </si>
   <si>
-    <t>Europapa</t>
+    <t>Bara Bada Bastu</t>
   </si>
   <si>
-    <t>Joost Klein</t>
+    <t>KAJ</t>
   </si>
   <si>
-    <t>Hurricane</t>
+    <t>Wasted Love</t>
   </si>
   <si>
-    <t>Eden Golan</t>
+    <t>JJ</t>
   </si>
   <si>
-    <t>Teresa &amp; Maria</t>
+    <t>Maman</t>
   </si>
   <si>
-    <t>Alyona Alyona &amp; Jerry Heil</t>
+    <t>Louane</t>
   </si>
   <si>
-    <t>Zari» («ζάρι»)</t>
+    <t>Zjerm</t>
   </si>
   <si>
-    <t>Marina Satti</t>
+    <t>Shkodra Elektronike</t>
   </si>
   <si>
-    <t>La noia</t>
+    <t>Espresso macchiato</t>
   </si>
   <si>
-    <t>Angelina Mango</t>
+    <t>Tommy Cash</t>
   </si>
   <si>
-    <t>The Code</t>
+    <t>Strobe Lights</t>
   </si>
   <si>
-    <t>Nemo</t>
+    <t>Red Sebastian</t>
   </si>
   <si>
-    <t>Jako</t>
+    <t>Ich komme</t>
   </si>
   <si>
-    <t>Ladaniva</t>
+    <t>Erika Vikman</t>
   </si>
   <si>
-    <t>Rim Tim Tagi Dim</t>
+    <t>Kiss Kiss Goodbye</t>
   </si>
   <si>
-    <t>Baby Lasagna</t>
+    <t>Adonxs</t>
   </si>
   <si>
-    <t>Luktelk</t>
+    <t>Shh</t>
   </si>
   <si>
-    <t>Silvester Belt</t>
+    <t>Theo Evan</t>
   </si>
   <si>
-    <t>Mon Amour</t>
+    <t>New Day Will Rise</t>
   </si>
   <si>
-    <t>Slimane</t>
+    <t>Yuval Raphael</t>
   </si>
   <si>
-    <t>Dizzy</t>
+    <t>Kant</t>
   </si>
   <si>
-    <t>Olly Alexander</t>
+    <t>Miriana Conte</t>
   </si>
   <si>
-    <t>We Will Rave</t>
+    <t>C'est La Vie</t>
   </si>
   <si>
-    <t>Kaleen</t>
+    <t>Claude</t>
   </si>
   <si>
-    <t>Doomsday Blue</t>
+    <t>Volevo Essere Un Duro</t>
   </si>
   <si>
-    <t>Bambie Thug</t>
+    <t>Lucio Corsi</t>
   </si>
   <si>
-    <t>Zorra</t>
+    <t>Lighter</t>
   </si>
   <si>
-    <t>Nebulossa</t>
+    <t>Kyle Alessandro</t>
   </si>
   <si>
-    <t>Ulveham</t>
+    <t>Laika Party</t>
   </si>
   <si>
-    <t>Gåte</t>
+    <t>Emmy</t>
   </si>
   <si>
-    <t>Unforgettable</t>
+    <t>Baller</t>
   </si>
   <si>
-    <t>Marcus &amp; Martinus</t>
+    <t>Abor &amp; Tynna</t>
   </si>
   <si>
-    <t>Firefighter</t>
+    <t>Milkshake Man</t>
   </si>
   <si>
-    <t>Nutsa Buzaladze</t>
+    <t>Go-Jo</t>
   </si>
   <si>
-    <t>No Rules!</t>
+    <t>Asteromata</t>
   </si>
   <si>
-    <t>Windows95man</t>
+    <t>Klavdia</t>
   </si>
   <si>
-    <t>Liar</t>
+    <t>Tutta L'Italia</t>
   </si>
   <si>
-    <t>Sília Kapsís</t>
+    <t>Gabry Ponte</t>
   </si>
   <si>
-    <t>Veronika</t>
+    <t>Esa diva</t>
   </si>
   <si>
-    <t>Raiven</t>
+    <t>Melody</t>
   </si>
   <si>
-    <t>Ramonda</t>
+    <t>What The Hell Just Happened?</t>
   </si>
   <si>
-    <t>Teya Dora</t>
+    <t>Remember Monday</t>
   </si>
   <si>
-    <t>Fighter</t>
+    <t>Bird of Pray</t>
   </si>
   <si>
-    <t>Tali</t>
+    <t>Ziferblat</t>
   </si>
   <si>
-    <t>Titan</t>
+    <t>Voyage</t>
   </si>
   <si>
-    <t>Besa Kokëdhima</t>
+    <t>Zoë Më</t>
   </si>
   <si>
-    <t>Loop</t>
+    <t>Run With U</t>
   </si>
   <si>
-    <t>Sarah Bonnici</t>
+    <t>Mamagama</t>
   </si>
   <si>
-    <t>Grito</t>
+    <t>Poison Cake</t>
   </si>
   <si>
-    <t>Iolanda</t>
+    <t>Marko Bošnjak</t>
   </si>
   <si>
-    <t>Hollow</t>
+    <t>Dobrodošli</t>
   </si>
   <si>
-    <t>Dons</t>
+    <t>Nina Žižić</t>
   </si>
   <si>
-    <t>Always on the Run</t>
+    <t>RÓA</t>
   </si>
   <si>
-    <t>Isaak</t>
+    <t>VÆB</t>
   </si>
   <si>
-    <t>(Nendest) narkootikumidest ei tea me (küll) midagi</t>
+    <t>Freedom</t>
   </si>
   <si>
-    <t>5miinust &amp; Puuluup</t>
+    <t>Mariam Shengelia</t>
   </si>
   <si>
-    <t>Megara</t>
+    <t>Survivor</t>
+  </si>
+  <si>
+    <t>Parg</t>
+  </si>
+  <si>
+    <t>Bur man laimi</t>
+  </si>
+  <si>
+    <t>Tautumeitas</t>
+  </si>
+  <si>
+    <t>La poupée monte le son</t>
+  </si>
+  <si>
+    <t>Laura Thorn</t>
+  </si>
+  <si>
+    <t>Deslocado</t>
+  </si>
+  <si>
+    <t>NAPA</t>
+  </si>
+  <si>
+    <t>Mila</t>
+  </si>
+  <si>
+    <t>Princ</t>
+  </si>
+  <si>
+    <t>Gaja</t>
+  </si>
+  <si>
+    <t>Justyna Steczkowska</t>
+  </si>
+  <si>
+    <t>Hallucination</t>
+  </si>
+  <si>
+    <t>Sissal</t>
+  </si>
+  <si>
+    <t>How Much Time Do We Have Left</t>
+  </si>
+  <si>
+    <t>Klemen</t>
+  </si>
+  <si>
+    <t>Tavo akys</t>
+  </si>
+  <si>
+    <t>Katarsis</t>
   </si>
 </sst>
 </file>
@@ -798,7 +738,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy\ h:mm:ss"/>
     <numFmt numFmtId="166" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -901,6 +841,18 @@
     <font>
       <sz val="10"/>
       <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF31333F"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1112,7 +1064,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1247,12 +1199,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1263,6 +1209,41 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2347,12 +2328,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45425.469556018521" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45777.756601041663" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="H1:L37" sheet="Hoja 3"/>
   </cacheSource>
@@ -2804,7 +2781,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="239" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
   <location ref="A1:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="5">
     <pivotField name="code" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -3435,3722 +3412,362 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL32"/>
+  <dimension ref="A1:AK32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:38" ht="13.2">
+    <row r="1" spans="1:37" ht="12.75">
       <c r="B1" t="s">
-        <v>151</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="W1" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y1" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA1" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB1" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD1" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE1" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF1" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG1" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH1" s="80" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI1" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ1" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK1" s="80" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" ht="15.75" customHeight="1">
+      <c r="A2" s="2">
+        <v>45777</v>
+      </c>
+      <c r="B2">
+        <v>201</v>
+      </c>
+      <c r="C2">
+        <v>97</v>
+      </c>
+      <c r="D2">
+        <v>175</v>
+      </c>
+      <c r="E2">
+        <v>171</v>
+      </c>
+      <c r="F2">
+        <v>171</v>
+      </c>
+      <c r="G2">
+        <v>97</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>205</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>212</v>
+      </c>
+      <c r="M2">
+        <v>97</v>
+      </c>
+      <c r="N2">
+        <v>227</v>
+      </c>
+      <c r="O2">
+        <v>171</v>
+      </c>
+      <c r="P2">
+        <v>138</v>
+      </c>
+      <c r="Q2">
+        <v>171</v>
+      </c>
+      <c r="R2">
+        <v>440</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>205</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>205</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>205</v>
+      </c>
+      <c r="AB2">
+        <v>171</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>171</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>205</v>
+      </c>
+      <c r="AG2">
+        <v>205</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>201</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
         <v>153</v>
       </c>
-      <c r="E1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1" s="64" t="s">
-        <v>159</v>
-      </c>
-      <c r="K1" t="s">
-        <v>160</v>
-      </c>
-      <c r="L1" t="s">
-        <v>161</v>
-      </c>
-      <c r="M1" t="s">
-        <v>162</v>
-      </c>
-      <c r="N1" t="s">
-        <v>163</v>
-      </c>
-      <c r="O1" t="s">
-        <v>164</v>
-      </c>
-      <c r="P1" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>166</v>
-      </c>
-      <c r="R1" t="s">
-        <v>167</v>
-      </c>
-      <c r="S1" t="s">
-        <v>168</v>
-      </c>
-      <c r="T1" t="s">
-        <v>169</v>
-      </c>
-      <c r="U1" s="64" t="s">
-        <v>170</v>
-      </c>
-      <c r="V1" s="64" t="s">
-        <v>171</v>
-      </c>
-      <c r="W1" s="64" t="s">
-        <v>172</v>
-      </c>
-      <c r="X1" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>174</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AD1" s="64" t="s">
-        <v>179</v>
-      </c>
-      <c r="AE1" s="64" t="s">
-        <v>180</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AG1" s="64" t="s">
-        <v>182</v>
-      </c>
-      <c r="AH1" s="64" t="s">
-        <v>183</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AJ1" s="64" t="s">
-        <v>185</v>
-      </c>
-      <c r="AK1" s="64" t="s">
-        <v>186</v>
-      </c>
-      <c r="AL1" s="64" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A2" s="2">
-        <v>45393</v>
-      </c>
-      <c r="B2">
-        <v>463</v>
-      </c>
-      <c r="C2">
-        <v>406</v>
-      </c>
-      <c r="D2">
-        <v>345</v>
-      </c>
-      <c r="E2">
-        <v>299</v>
-      </c>
-      <c r="F2">
-        <v>293</v>
-      </c>
-      <c r="G2">
-        <v>285</v>
-      </c>
-      <c r="H2">
-        <v>234</v>
-      </c>
-      <c r="I2">
-        <v>229</v>
-      </c>
-      <c r="J2">
-        <v>213</v>
-      </c>
-      <c r="K2">
-        <v>216</v>
-      </c>
-      <c r="L2">
-        <v>194</v>
-      </c>
-      <c r="M2">
-        <v>136</v>
-      </c>
-      <c r="N2">
-        <v>124</v>
-      </c>
-      <c r="O2">
-        <v>120</v>
-      </c>
-      <c r="P2">
-        <v>123</v>
-      </c>
-      <c r="Q2">
-        <v>118</v>
-      </c>
-      <c r="R2">
-        <v>116</v>
-      </c>
-      <c r="S2">
-        <v>110</v>
-      </c>
-      <c r="T2">
-        <v>70</v>
-      </c>
-      <c r="U2">
-        <v>43</v>
-      </c>
-      <c r="V2">
-        <v>41</v>
-      </c>
-      <c r="W2">
-        <v>36</v>
-      </c>
-      <c r="X2">
-        <v>32</v>
-      </c>
-      <c r="Y2">
-        <v>28</v>
-      </c>
-      <c r="Z2">
-        <v>18</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A3" s="2">
-        <v>45394</v>
-      </c>
-      <c r="B3" s="61">
-        <v>487</v>
-      </c>
-      <c r="C3" s="61">
-        <v>448</v>
-      </c>
-      <c r="D3" s="61">
-        <v>354</v>
-      </c>
-      <c r="E3" s="61">
-        <v>315</v>
-      </c>
-      <c r="F3" s="61">
-        <v>299</v>
-      </c>
-      <c r="G3" s="61">
-        <v>297</v>
-      </c>
-      <c r="H3" s="61">
-        <v>230</v>
-      </c>
-      <c r="I3" s="61">
-        <v>223</v>
-      </c>
-      <c r="J3" s="61">
-        <v>203</v>
-      </c>
-      <c r="K3" s="61">
-        <v>223</v>
-      </c>
-      <c r="L3" s="61">
-        <v>202</v>
-      </c>
-      <c r="M3" s="61">
-        <v>126</v>
-      </c>
-      <c r="N3" s="61">
-        <v>111</v>
-      </c>
-      <c r="O3" s="61">
-        <v>106</v>
-      </c>
-      <c r="P3" s="61">
-        <v>106</v>
-      </c>
-      <c r="Q3" s="61">
-        <v>103</v>
-      </c>
-      <c r="R3" s="61">
-        <v>98</v>
-      </c>
-      <c r="S3" s="61">
-        <v>93</v>
-      </c>
-      <c r="T3" s="61">
-        <v>80</v>
-      </c>
-      <c r="U3" s="61">
-        <v>45</v>
-      </c>
-      <c r="V3" s="61">
-        <v>42</v>
-      </c>
-      <c r="W3" s="61">
-        <v>35</v>
-      </c>
-      <c r="X3" s="61">
-        <v>31</v>
-      </c>
-      <c r="Y3" s="61">
-        <v>24</v>
-      </c>
-      <c r="Z3" s="61">
-        <v>11</v>
-      </c>
-      <c r="AA3" s="61">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="61">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="61">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="61">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="61">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="61">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="61">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="61">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="61">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="61">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="61">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A4" s="2">
-        <v>45395</v>
-      </c>
-      <c r="B4">
-        <v>459</v>
-      </c>
-      <c r="C4">
-        <v>403</v>
-      </c>
-      <c r="D4">
-        <v>530</v>
-      </c>
-      <c r="E4">
-        <v>294</v>
-      </c>
-      <c r="F4">
-        <v>281</v>
-      </c>
-      <c r="G4">
-        <v>280</v>
-      </c>
-      <c r="H4">
-        <v>228</v>
-      </c>
-      <c r="I4">
-        <v>201</v>
-      </c>
-      <c r="J4">
-        <v>206</v>
-      </c>
-      <c r="K4">
-        <v>203</v>
-      </c>
-      <c r="L4">
-        <v>186</v>
-      </c>
-      <c r="M4">
-        <v>128</v>
-      </c>
-      <c r="N4">
-        <v>117</v>
-      </c>
-      <c r="O4">
-        <v>113</v>
-      </c>
-      <c r="P4">
-        <v>113</v>
-      </c>
-      <c r="Q4">
-        <v>110</v>
-      </c>
-      <c r="R4">
-        <v>106</v>
-      </c>
-      <c r="S4">
-        <v>104</v>
-      </c>
-      <c r="T4">
-        <v>62</v>
-      </c>
-      <c r="U4">
-        <v>35</v>
-      </c>
-      <c r="V4">
-        <v>32</v>
-      </c>
-      <c r="W4">
-        <v>27</v>
-      </c>
-      <c r="X4">
-        <v>22</v>
-      </c>
-      <c r="Y4">
-        <v>45</v>
-      </c>
-      <c r="Z4">
-        <v>7</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A5" s="2">
-        <v>45396</v>
-      </c>
-      <c r="B5">
-        <v>425</v>
-      </c>
-      <c r="C5">
-        <v>546</v>
-      </c>
-      <c r="D5">
-        <v>499</v>
-      </c>
-      <c r="E5">
-        <v>273</v>
-      </c>
-      <c r="F5">
-        <v>272</v>
-      </c>
-      <c r="G5">
-        <v>270</v>
-      </c>
-      <c r="H5">
-        <v>222</v>
-      </c>
-      <c r="I5">
-        <v>198</v>
-      </c>
-      <c r="J5">
-        <v>203</v>
-      </c>
-      <c r="K5">
-        <v>199</v>
-      </c>
-      <c r="L5">
-        <v>184</v>
-      </c>
-      <c r="M5">
-        <v>132</v>
-      </c>
-      <c r="N5">
-        <v>102</v>
-      </c>
-      <c r="O5">
-        <v>117</v>
-      </c>
-      <c r="P5">
-        <v>117</v>
-      </c>
-      <c r="Q5">
-        <v>95</v>
-      </c>
-      <c r="R5">
-        <v>95</v>
-      </c>
-      <c r="S5">
-        <v>108</v>
-      </c>
-      <c r="T5">
-        <v>38</v>
-      </c>
-      <c r="U5">
-        <v>45</v>
-      </c>
-      <c r="V5">
-        <v>43</v>
-      </c>
-      <c r="W5">
-        <v>38</v>
-      </c>
-      <c r="X5">
-        <v>36</v>
-      </c>
-      <c r="Y5">
-        <v>35</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A6" s="2">
-        <v>45397</v>
-      </c>
-      <c r="B6">
-        <v>434</v>
-      </c>
-      <c r="C6">
-        <v>383</v>
-      </c>
-      <c r="D6">
-        <v>496</v>
-      </c>
-      <c r="E6">
-        <v>285</v>
-      </c>
-      <c r="F6">
-        <v>274</v>
-      </c>
-      <c r="G6">
-        <v>273</v>
-      </c>
-      <c r="H6">
-        <v>227</v>
-      </c>
-      <c r="I6">
-        <v>203</v>
-      </c>
-      <c r="J6">
-        <v>207</v>
-      </c>
-      <c r="K6">
-        <v>204</v>
-      </c>
-      <c r="L6">
-        <v>190</v>
-      </c>
-      <c r="M6">
-        <v>137</v>
-      </c>
-      <c r="N6">
-        <v>126</v>
-      </c>
-      <c r="O6">
-        <v>124</v>
-      </c>
-      <c r="P6">
-        <v>124</v>
-      </c>
-      <c r="Q6">
-        <v>120</v>
-      </c>
-      <c r="R6">
-        <v>118</v>
-      </c>
-      <c r="S6">
-        <v>114</v>
-      </c>
-      <c r="T6">
-        <v>77</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>50</v>
-      </c>
-      <c r="W6">
-        <v>46</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>43</v>
-      </c>
-      <c r="Z6">
-        <v>30</v>
-      </c>
-      <c r="AA6">
-        <v>7</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A7" s="2">
-        <v>45398</v>
-      </c>
-      <c r="B7">
-        <v>435</v>
-      </c>
-      <c r="C7">
-        <v>385</v>
-      </c>
-      <c r="D7">
-        <v>498</v>
-      </c>
-      <c r="E7">
-        <v>286</v>
-      </c>
-      <c r="F7">
-        <v>276</v>
-      </c>
-      <c r="G7">
-        <v>275</v>
-      </c>
-      <c r="H7">
-        <v>228</v>
-      </c>
-      <c r="I7">
-        <v>204</v>
-      </c>
-      <c r="J7">
-        <v>209</v>
-      </c>
-      <c r="K7">
-        <v>206</v>
-      </c>
-      <c r="L7">
-        <v>191</v>
-      </c>
-      <c r="M7">
-        <v>139</v>
-      </c>
-      <c r="N7">
-        <v>128</v>
-      </c>
-      <c r="O7">
-        <v>125</v>
-      </c>
-      <c r="P7">
-        <v>125</v>
-      </c>
-      <c r="Q7">
-        <v>122</v>
-      </c>
-      <c r="R7">
-        <v>119</v>
-      </c>
-      <c r="S7">
-        <v>116</v>
-      </c>
-      <c r="T7">
-        <v>80</v>
-      </c>
-      <c r="U7">
-        <v>1</v>
-      </c>
-      <c r="V7">
-        <v>52</v>
-      </c>
-      <c r="W7">
-        <v>48</v>
-      </c>
-      <c r="X7">
-        <v>2</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>31</v>
-      </c>
-      <c r="AA7">
-        <v>11</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A8" s="2">
-        <v>45399</v>
-      </c>
-      <c r="B8">
-        <v>427</v>
-      </c>
-      <c r="C8">
-        <v>385</v>
-      </c>
-      <c r="D8">
-        <v>504</v>
-      </c>
-      <c r="E8">
-        <v>290</v>
-      </c>
-      <c r="F8">
-        <v>282</v>
-      </c>
-      <c r="G8">
-        <v>280</v>
-      </c>
-      <c r="H8">
-        <v>231</v>
-      </c>
-      <c r="I8">
-        <v>205</v>
-      </c>
-      <c r="J8">
-        <v>203</v>
-      </c>
-      <c r="K8">
-        <v>210</v>
-      </c>
-      <c r="L8">
-        <v>198</v>
-      </c>
-      <c r="M8">
-        <v>130</v>
-      </c>
-      <c r="N8">
-        <v>124</v>
-      </c>
-      <c r="O8">
-        <v>133</v>
-      </c>
-      <c r="P8">
-        <v>129</v>
-      </c>
-      <c r="Q8">
-        <v>117</v>
-      </c>
-      <c r="R8">
-        <v>120</v>
-      </c>
-      <c r="S8">
-        <v>111</v>
-      </c>
-      <c r="T8">
-        <v>83</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>46</v>
-      </c>
-      <c r="W8">
-        <v>39</v>
-      </c>
-      <c r="X8">
-        <v>10</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>32</v>
-      </c>
-      <c r="AA8">
-        <v>3</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A9" s="2">
-        <v>45400</v>
-      </c>
-      <c r="B9">
-        <v>441</v>
-      </c>
-      <c r="C9">
-        <v>334</v>
-      </c>
-      <c r="D9">
-        <v>505</v>
-      </c>
-      <c r="E9">
-        <v>290</v>
-      </c>
-      <c r="F9">
-        <v>280</v>
-      </c>
-      <c r="G9">
-        <v>279</v>
-      </c>
-      <c r="H9">
-        <v>231</v>
-      </c>
-      <c r="I9">
-        <v>206</v>
-      </c>
-      <c r="J9">
-        <v>211</v>
-      </c>
-      <c r="K9">
-        <v>209</v>
-      </c>
-      <c r="L9">
-        <v>193</v>
-      </c>
-      <c r="M9">
-        <v>141</v>
-      </c>
-      <c r="N9">
-        <v>130</v>
-      </c>
-      <c r="O9">
-        <v>127</v>
-      </c>
-      <c r="P9">
-        <v>127</v>
-      </c>
-      <c r="Q9">
-        <v>123</v>
-      </c>
-      <c r="R9">
-        <v>121</v>
-      </c>
-      <c r="S9">
-        <v>117</v>
-      </c>
-      <c r="T9">
-        <v>81</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>53</v>
-      </c>
-      <c r="W9">
-        <v>49</v>
-      </c>
-      <c r="X9">
-        <v>1</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>32</v>
-      </c>
-      <c r="AA9">
-        <v>11</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A10" s="2">
-        <v>45401</v>
-      </c>
-      <c r="B10">
-        <v>435</v>
-      </c>
-      <c r="C10">
-        <v>342</v>
-      </c>
-      <c r="D10">
-        <v>555</v>
-      </c>
-      <c r="E10">
-        <v>285</v>
-      </c>
-      <c r="F10">
-        <v>281</v>
-      </c>
-      <c r="G10">
-        <v>275</v>
-      </c>
-      <c r="H10">
-        <v>232</v>
-      </c>
-      <c r="I10">
-        <v>207</v>
-      </c>
-      <c r="J10">
-        <v>215</v>
-      </c>
-      <c r="K10">
-        <v>213</v>
-      </c>
-      <c r="L10">
-        <v>195</v>
-      </c>
-      <c r="M10">
-        <v>142</v>
-      </c>
-      <c r="N10">
-        <v>108</v>
-      </c>
-      <c r="O10">
-        <v>128</v>
-      </c>
-      <c r="P10">
-        <v>128</v>
-      </c>
-      <c r="Q10">
-        <v>124</v>
-      </c>
-      <c r="R10">
-        <v>122</v>
-      </c>
-      <c r="S10">
-        <v>90</v>
-      </c>
-      <c r="T10">
-        <v>56</v>
-      </c>
-      <c r="U10">
-        <v>1</v>
-      </c>
-      <c r="V10">
-        <v>51</v>
-      </c>
-      <c r="W10">
-        <v>47</v>
-      </c>
-      <c r="X10">
-        <v>1</v>
-      </c>
-      <c r="Y10">
-        <v>30</v>
-      </c>
-      <c r="Z10">
-        <v>20</v>
-      </c>
-      <c r="AA10">
-        <v>9</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A11" s="2">
-        <v>45402</v>
-      </c>
-      <c r="B11">
-        <v>416</v>
-      </c>
-      <c r="C11">
-        <v>367</v>
-      </c>
-      <c r="D11">
-        <v>534</v>
-      </c>
-      <c r="E11">
-        <v>273</v>
-      </c>
-      <c r="F11">
-        <v>263</v>
-      </c>
-      <c r="G11">
-        <v>298</v>
-      </c>
-      <c r="H11">
-        <v>218</v>
-      </c>
-      <c r="I11">
-        <v>195</v>
-      </c>
-      <c r="J11">
-        <v>199</v>
-      </c>
-      <c r="K11">
-        <v>196</v>
-      </c>
-      <c r="L11">
-        <v>212</v>
-      </c>
-      <c r="M11">
-        <v>133</v>
-      </c>
-      <c r="N11">
-        <v>122</v>
-      </c>
-      <c r="O11">
-        <v>120</v>
-      </c>
-      <c r="P11">
-        <v>120</v>
-      </c>
-      <c r="Q11">
-        <v>116</v>
-      </c>
-      <c r="R11">
-        <v>114</v>
-      </c>
-      <c r="S11">
-        <v>111</v>
-      </c>
-      <c r="T11">
-        <v>75</v>
-      </c>
-      <c r="U11">
-        <v>1</v>
-      </c>
-      <c r="V11">
-        <v>49</v>
-      </c>
-      <c r="W11">
-        <v>46</v>
-      </c>
-      <c r="X11">
-        <v>2</v>
-      </c>
-      <c r="Y11">
-        <v>42</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>69</v>
-      </c>
-      <c r="AB11">
-        <v>1</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A12" s="2">
-        <v>45403</v>
-      </c>
-      <c r="B12">
-        <v>417</v>
-      </c>
-      <c r="C12">
-        <v>446</v>
-      </c>
-      <c r="D12">
-        <v>535</v>
-      </c>
-      <c r="E12">
-        <v>274</v>
-      </c>
-      <c r="F12">
-        <v>264</v>
-      </c>
-      <c r="G12">
-        <v>298</v>
-      </c>
-      <c r="H12">
-        <v>218</v>
-      </c>
-      <c r="I12">
-        <v>196</v>
-      </c>
-      <c r="J12">
-        <v>199</v>
-      </c>
-      <c r="K12">
-        <v>197</v>
-      </c>
-      <c r="L12">
-        <v>212</v>
-      </c>
-      <c r="M12">
-        <v>133</v>
-      </c>
-      <c r="N12">
-        <v>123</v>
-      </c>
-      <c r="O12">
-        <v>120</v>
-      </c>
-      <c r="P12">
-        <v>120</v>
-      </c>
-      <c r="Q12">
-        <v>117</v>
-      </c>
-      <c r="R12">
-        <v>114</v>
-      </c>
-      <c r="S12">
-        <v>111</v>
-      </c>
-      <c r="T12">
-        <v>46</v>
-      </c>
-      <c r="U12">
-        <v>2</v>
-      </c>
-      <c r="V12">
-        <v>50</v>
-      </c>
-      <c r="W12">
-        <v>46</v>
-      </c>
-      <c r="X12">
-        <v>2</v>
-      </c>
-      <c r="Y12">
-        <v>42</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>9</v>
-      </c>
-      <c r="AB12">
-        <v>1</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A13" s="2">
-        <v>45404</v>
-      </c>
-      <c r="B13">
-        <v>423</v>
-      </c>
-      <c r="C13">
-        <v>433</v>
-      </c>
-      <c r="D13">
-        <v>542</v>
-      </c>
-      <c r="E13">
-        <v>277</v>
-      </c>
-      <c r="F13">
-        <v>268</v>
-      </c>
-      <c r="G13">
-        <v>302</v>
-      </c>
-      <c r="H13">
-        <v>221</v>
-      </c>
-      <c r="I13">
-        <v>160</v>
-      </c>
-      <c r="J13">
-        <v>202</v>
-      </c>
-      <c r="K13">
-        <v>200</v>
-      </c>
-      <c r="L13">
-        <v>215</v>
-      </c>
-      <c r="M13">
-        <v>135</v>
-      </c>
-      <c r="N13">
-        <v>124</v>
-      </c>
-      <c r="O13">
-        <v>122</v>
-      </c>
-      <c r="P13">
-        <v>122</v>
-      </c>
-      <c r="Q13">
-        <v>118</v>
-      </c>
-      <c r="R13">
-        <v>116</v>
-      </c>
-      <c r="S13">
-        <v>112</v>
-      </c>
-      <c r="T13">
-        <v>47</v>
-      </c>
-      <c r="U13">
-        <v>1</v>
-      </c>
-      <c r="V13">
-        <v>50</v>
-      </c>
-      <c r="W13">
-        <v>47</v>
-      </c>
-      <c r="X13">
-        <v>2</v>
-      </c>
-      <c r="Y13">
-        <v>43</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>10</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A14" s="2">
-        <v>45405</v>
-      </c>
-      <c r="B14">
-        <v>431</v>
-      </c>
-      <c r="C14">
-        <v>451</v>
-      </c>
-      <c r="D14">
-        <v>565</v>
-      </c>
-      <c r="E14">
-        <v>280</v>
-      </c>
-      <c r="F14">
-        <v>279</v>
-      </c>
-      <c r="G14">
-        <v>278</v>
-      </c>
-      <c r="H14">
-        <v>230</v>
-      </c>
-      <c r="I14">
-        <v>202</v>
-      </c>
-      <c r="J14">
-        <v>210</v>
-      </c>
-      <c r="K14">
-        <v>244</v>
-      </c>
-      <c r="L14">
-        <v>213</v>
-      </c>
-      <c r="M14">
-        <v>116</v>
-      </c>
-      <c r="N14">
-        <v>112</v>
-      </c>
-      <c r="O14">
-        <v>107</v>
-      </c>
-      <c r="P14">
-        <v>127</v>
-      </c>
-      <c r="Q14">
-        <v>105</v>
-      </c>
-      <c r="R14">
-        <v>80</v>
-      </c>
-      <c r="S14">
-        <v>73</v>
-      </c>
-      <c r="T14">
-        <v>24</v>
-      </c>
-      <c r="U14">
-        <v>5</v>
-      </c>
-      <c r="V14">
-        <v>52</v>
-      </c>
-      <c r="W14">
-        <v>51</v>
-      </c>
-      <c r="X14">
-        <v>2</v>
-      </c>
-      <c r="Y14">
-        <v>45</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>10</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A15" s="2">
-        <v>45406</v>
-      </c>
-      <c r="B15">
-        <v>447</v>
-      </c>
-      <c r="C15">
-        <v>345</v>
-      </c>
-      <c r="D15">
-        <v>586</v>
-      </c>
-      <c r="E15">
-        <v>289</v>
-      </c>
-      <c r="F15">
-        <v>288</v>
-      </c>
-      <c r="G15">
-        <v>287</v>
-      </c>
-      <c r="H15">
-        <v>238</v>
-      </c>
-      <c r="I15">
-        <v>136</v>
-      </c>
-      <c r="J15">
-        <v>217</v>
-      </c>
-      <c r="K15">
-        <v>252</v>
-      </c>
-      <c r="L15">
-        <v>218</v>
-      </c>
-      <c r="M15">
-        <v>118</v>
-      </c>
-      <c r="N15">
-        <v>89</v>
-      </c>
-      <c r="O15">
-        <v>108</v>
-      </c>
-      <c r="P15">
-        <v>129</v>
-      </c>
-      <c r="Q15">
-        <v>106</v>
-      </c>
-      <c r="R15">
-        <v>80</v>
-      </c>
-      <c r="S15">
-        <v>74</v>
-      </c>
-      <c r="T15">
-        <v>21</v>
-      </c>
-      <c r="U15">
-        <v>56</v>
-      </c>
-      <c r="V15">
-        <v>52</v>
-      </c>
-      <c r="W15">
-        <v>50</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>43</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>7</v>
-      </c>
-      <c r="AB15">
-        <v>56</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <v>0</v>
-      </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A16" s="2">
-        <v>45407</v>
-      </c>
-      <c r="B16">
-        <v>472</v>
-      </c>
-      <c r="C16">
-        <v>363</v>
-      </c>
-      <c r="D16">
-        <v>380</v>
-      </c>
-      <c r="E16">
-        <v>305</v>
-      </c>
-      <c r="F16">
-        <v>304</v>
-      </c>
-      <c r="G16">
-        <v>303</v>
-      </c>
-      <c r="H16">
-        <v>251</v>
-      </c>
-      <c r="I16">
-        <v>144</v>
-      </c>
-      <c r="J16">
-        <v>229</v>
-      </c>
-      <c r="K16">
-        <v>266</v>
-      </c>
-      <c r="L16">
-        <v>232</v>
-      </c>
-      <c r="M16">
-        <v>124</v>
-      </c>
-      <c r="N16">
-        <v>94</v>
-      </c>
-      <c r="O16">
-        <v>115</v>
-      </c>
-      <c r="P16">
-        <v>136</v>
-      </c>
-      <c r="Q16">
-        <v>111</v>
-      </c>
-      <c r="R16">
-        <v>85</v>
-      </c>
-      <c r="S16">
-        <v>78</v>
-      </c>
-      <c r="T16">
-        <v>23</v>
-      </c>
-      <c r="U16">
-        <v>58</v>
-      </c>
-      <c r="V16">
-        <v>54</v>
-      </c>
-      <c r="W16">
-        <v>50</v>
-      </c>
-      <c r="X16">
-        <v>1</v>
-      </c>
-      <c r="Y16">
-        <v>47</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>9</v>
-      </c>
-      <c r="AB16">
-        <v>58</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A17" s="2">
-        <v>45408</v>
-      </c>
-      <c r="B17">
-        <v>446</v>
-      </c>
-      <c r="C17">
-        <v>349</v>
-      </c>
-      <c r="D17">
-        <v>364</v>
-      </c>
-      <c r="E17">
-        <v>298</v>
-      </c>
-      <c r="F17">
-        <v>297</v>
-      </c>
-      <c r="G17">
-        <v>294</v>
-      </c>
-      <c r="H17">
-        <v>249</v>
-      </c>
-      <c r="I17">
-        <v>153</v>
-      </c>
-      <c r="J17">
-        <v>230</v>
-      </c>
-      <c r="K17">
-        <v>263</v>
-      </c>
-      <c r="L17">
-        <v>231</v>
-      </c>
-      <c r="M17">
-        <v>137</v>
-      </c>
-      <c r="N17">
-        <v>110</v>
-      </c>
-      <c r="O17">
-        <v>127</v>
-      </c>
-      <c r="P17">
-        <v>147</v>
-      </c>
-      <c r="Q17">
-        <v>100</v>
-      </c>
-      <c r="R17">
-        <v>100</v>
-      </c>
-      <c r="S17">
-        <v>95</v>
-      </c>
-      <c r="T17">
-        <v>46</v>
-      </c>
-      <c r="U17">
-        <v>23</v>
-      </c>
-      <c r="V17">
-        <v>75</v>
-      </c>
-      <c r="W17">
-        <v>98</v>
-      </c>
-      <c r="X17">
-        <v>26</v>
-      </c>
-      <c r="Y17">
-        <v>12</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>22</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A18" s="2">
-        <v>45409</v>
-      </c>
-      <c r="B18">
-        <v>478</v>
-      </c>
-      <c r="C18">
-        <v>372</v>
-      </c>
-      <c r="D18">
-        <v>388</v>
-      </c>
-      <c r="E18">
-        <v>235</v>
-      </c>
-      <c r="F18">
-        <v>313</v>
-      </c>
-      <c r="G18">
-        <v>312</v>
-      </c>
-      <c r="H18">
-        <v>261</v>
-      </c>
-      <c r="I18">
-        <v>155</v>
-      </c>
-      <c r="J18">
-        <v>239</v>
-      </c>
-      <c r="K18">
-        <v>275</v>
-      </c>
-      <c r="L18">
-        <v>241</v>
-      </c>
-      <c r="M18">
-        <v>136</v>
-      </c>
-      <c r="N18">
-        <v>106</v>
-      </c>
-      <c r="O18">
-        <v>126</v>
-      </c>
-      <c r="P18">
-        <v>147</v>
-      </c>
-      <c r="Q18">
-        <v>97</v>
-      </c>
-      <c r="R18">
-        <v>97</v>
-      </c>
-      <c r="S18">
-        <v>90</v>
-      </c>
-      <c r="T18">
-        <v>37</v>
-      </c>
-      <c r="U18">
-        <v>12</v>
-      </c>
-      <c r="V18">
-        <v>67</v>
-      </c>
-      <c r="W18">
-        <v>63</v>
-      </c>
-      <c r="X18">
-        <v>13</v>
-      </c>
-      <c r="Y18">
-        <v>1</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>21</v>
-      </c>
-      <c r="AB18">
-        <v>10</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A19" s="2">
-        <v>45410</v>
-      </c>
-      <c r="B19">
-        <v>450</v>
-      </c>
-      <c r="C19">
-        <v>354</v>
-      </c>
-      <c r="D19">
-        <v>369</v>
-      </c>
-      <c r="E19">
-        <v>231</v>
-      </c>
-      <c r="F19">
-        <v>302</v>
-      </c>
-      <c r="G19">
-        <v>300</v>
-      </c>
-      <c r="H19">
-        <v>254</v>
-      </c>
-      <c r="I19">
-        <v>159</v>
-      </c>
-      <c r="J19">
-        <v>236</v>
-      </c>
-      <c r="K19">
-        <v>268</v>
-      </c>
-      <c r="L19">
-        <v>237</v>
-      </c>
-      <c r="M19">
-        <v>143</v>
-      </c>
-      <c r="N19">
-        <v>116</v>
-      </c>
-      <c r="O19">
-        <v>134</v>
-      </c>
-      <c r="P19">
-        <v>100</v>
-      </c>
-      <c r="Q19">
-        <v>107</v>
-      </c>
-      <c r="R19">
-        <v>107</v>
-      </c>
-      <c r="S19">
-        <v>101</v>
-      </c>
-      <c r="T19">
-        <v>53</v>
-      </c>
-      <c r="U19">
-        <v>31</v>
-      </c>
-      <c r="V19">
-        <v>81</v>
-      </c>
-      <c r="W19">
-        <v>76</v>
-      </c>
-      <c r="X19">
-        <v>32</v>
-      </c>
-      <c r="Y19">
-        <v>21</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>30</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
-      <c r="AK19">
-        <v>0</v>
-      </c>
-      <c r="AL19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A20" s="2">
-        <v>45411</v>
-      </c>
-      <c r="B20">
-        <v>457</v>
-      </c>
-      <c r="C20">
-        <v>367</v>
-      </c>
-      <c r="D20">
-        <v>357</v>
-      </c>
-      <c r="E20">
-        <v>231</v>
-      </c>
-      <c r="F20">
-        <v>290</v>
-      </c>
-      <c r="G20">
-        <v>300</v>
-      </c>
-      <c r="H20">
-        <v>253</v>
-      </c>
-      <c r="I20">
-        <v>159</v>
-      </c>
-      <c r="J20">
-        <v>242</v>
-      </c>
-      <c r="K20">
-        <v>272</v>
-      </c>
-      <c r="L20">
-        <v>242</v>
-      </c>
-      <c r="M20">
-        <v>135</v>
-      </c>
-      <c r="N20">
-        <v>127</v>
-      </c>
-      <c r="O20">
-        <v>128</v>
-      </c>
-      <c r="P20">
-        <v>104</v>
-      </c>
-      <c r="Q20">
-        <v>102</v>
-      </c>
-      <c r="R20">
-        <v>116</v>
-      </c>
-      <c r="S20">
-        <v>115</v>
-      </c>
-      <c r="T20">
-        <v>41</v>
-      </c>
-      <c r="U20">
-        <v>28</v>
-      </c>
-      <c r="V20">
-        <v>67</v>
-      </c>
-      <c r="W20">
-        <v>85</v>
-      </c>
-      <c r="X20">
-        <v>33</v>
-      </c>
-      <c r="Y20">
-        <v>10</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>8</v>
-      </c>
-      <c r="AB20">
-        <v>23</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <v>0</v>
-      </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
-      <c r="AK20">
-        <v>0</v>
-      </c>
-      <c r="AL20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A21" s="2">
-        <v>45412</v>
-      </c>
-      <c r="B21">
-        <v>494</v>
-      </c>
-      <c r="C21">
-        <v>384</v>
-      </c>
-      <c r="D21">
-        <v>401</v>
-      </c>
-      <c r="E21">
-        <v>242</v>
-      </c>
-      <c r="F21">
-        <v>323</v>
-      </c>
-      <c r="G21">
-        <v>322</v>
-      </c>
-      <c r="H21">
-        <v>269</v>
-      </c>
-      <c r="I21">
-        <v>160</v>
-      </c>
-      <c r="J21">
-        <v>246</v>
-      </c>
-      <c r="K21">
-        <v>244</v>
-      </c>
-      <c r="L21">
-        <v>249</v>
-      </c>
-      <c r="M21">
-        <v>141</v>
-      </c>
-      <c r="N21">
-        <v>110</v>
-      </c>
-      <c r="O21">
-        <v>152</v>
-      </c>
-      <c r="P21">
-        <v>92</v>
-      </c>
-      <c r="Q21">
-        <v>100</v>
-      </c>
-      <c r="R21">
-        <v>100</v>
-      </c>
-      <c r="S21">
-        <v>93</v>
-      </c>
-      <c r="T21">
-        <v>38</v>
-      </c>
-      <c r="U21">
-        <v>12</v>
-      </c>
-      <c r="V21">
-        <v>69</v>
-      </c>
-      <c r="W21">
-        <v>26</v>
-      </c>
-      <c r="X21">
-        <v>14</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>11</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21">
-        <v>0</v>
-      </c>
-      <c r="AI21">
-        <v>0</v>
-      </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
-      <c r="AK21">
-        <v>0</v>
-      </c>
-      <c r="AL21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A22" s="2">
-        <v>45413</v>
-      </c>
-      <c r="B22">
-        <v>505</v>
-      </c>
-      <c r="C22">
-        <v>410</v>
-      </c>
-      <c r="D22">
-        <v>375</v>
-      </c>
-      <c r="E22">
-        <v>248</v>
-      </c>
-      <c r="F22">
-        <v>331</v>
-      </c>
-      <c r="G22">
-        <v>329</v>
-      </c>
-      <c r="H22">
-        <v>275</v>
-      </c>
-      <c r="I22">
-        <v>163</v>
-      </c>
-      <c r="J22">
-        <v>173</v>
-      </c>
-      <c r="K22">
-        <v>249</v>
-      </c>
-      <c r="L22">
-        <v>255</v>
-      </c>
-      <c r="M22">
-        <v>144</v>
-      </c>
-      <c r="N22">
-        <v>112</v>
-      </c>
-      <c r="O22">
-        <v>155</v>
-      </c>
-      <c r="P22">
-        <v>94</v>
-      </c>
-      <c r="Q22">
-        <v>102</v>
-      </c>
-      <c r="R22">
-        <v>102</v>
-      </c>
-      <c r="S22">
-        <v>95</v>
-      </c>
-      <c r="T22">
-        <v>39</v>
-      </c>
-      <c r="U22">
-        <v>12</v>
-      </c>
-      <c r="V22">
-        <v>71</v>
-      </c>
-      <c r="W22">
-        <v>26</v>
-      </c>
-      <c r="X22">
-        <v>14</v>
-      </c>
-      <c r="Y22">
-        <v>1</v>
-      </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <v>11</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
-      <c r="AG22">
-        <v>1</v>
-      </c>
-      <c r="AH22">
-        <v>0</v>
-      </c>
-      <c r="AI22">
-        <v>0</v>
-      </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
-      <c r="AK22">
-        <v>0</v>
-      </c>
-      <c r="AL22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A23" s="2">
-        <v>45414</v>
-      </c>
-      <c r="B23">
-        <v>518</v>
-      </c>
-      <c r="C23">
-        <v>420</v>
-      </c>
-      <c r="D23">
-        <v>385</v>
-      </c>
-      <c r="E23">
-        <v>254</v>
-      </c>
-      <c r="F23">
-        <v>339</v>
-      </c>
-      <c r="G23">
-        <v>338</v>
-      </c>
-      <c r="H23">
-        <v>145</v>
-      </c>
-      <c r="I23">
-        <v>168</v>
-      </c>
-      <c r="J23">
-        <v>177</v>
-      </c>
-      <c r="K23">
-        <v>256</v>
-      </c>
-      <c r="L23">
-        <v>261</v>
-      </c>
-      <c r="M23">
-        <v>176</v>
-      </c>
-      <c r="N23">
-        <v>115</v>
-      </c>
-      <c r="O23">
-        <v>159</v>
-      </c>
-      <c r="P23">
-        <v>97</v>
-      </c>
-      <c r="Q23">
-        <v>102</v>
-      </c>
-      <c r="R23">
-        <v>105</v>
-      </c>
-      <c r="S23">
-        <v>98</v>
-      </c>
-      <c r="T23">
-        <v>40</v>
-      </c>
-      <c r="U23">
-        <v>13</v>
-      </c>
-      <c r="V23">
-        <v>72</v>
-      </c>
-      <c r="W23">
-        <v>27</v>
-      </c>
-      <c r="X23">
-        <v>14</v>
-      </c>
-      <c r="Y23">
-        <v>1</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>11</v>
-      </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <v>0</v>
-      </c>
-      <c r="AG23">
-        <v>1</v>
-      </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
-      <c r="AL23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A24" s="2">
-        <v>45415</v>
-      </c>
-      <c r="B24">
-        <v>516</v>
-      </c>
-      <c r="C24">
-        <v>418</v>
-      </c>
-      <c r="D24">
-        <v>383</v>
-      </c>
-      <c r="E24">
-        <v>253</v>
-      </c>
-      <c r="F24">
-        <v>338</v>
-      </c>
-      <c r="G24">
-        <v>336</v>
-      </c>
-      <c r="H24">
-        <v>144</v>
-      </c>
-      <c r="I24">
-        <v>167</v>
-      </c>
-      <c r="J24">
-        <v>177</v>
-      </c>
-      <c r="K24">
-        <v>254</v>
-      </c>
-      <c r="L24">
-        <v>260</v>
-      </c>
-      <c r="M24">
-        <v>175</v>
-      </c>
-      <c r="N24">
-        <v>136</v>
-      </c>
-      <c r="O24">
-        <v>158</v>
-      </c>
-      <c r="P24">
-        <v>96</v>
-      </c>
-      <c r="Q24">
-        <v>105</v>
-      </c>
-      <c r="R24">
-        <v>99</v>
-      </c>
-      <c r="S24">
-        <v>98</v>
-      </c>
-      <c r="T24">
-        <v>40</v>
-      </c>
-      <c r="U24">
-        <v>13</v>
-      </c>
-      <c r="V24">
-        <v>72</v>
-      </c>
-      <c r="W24">
-        <v>27</v>
-      </c>
-      <c r="X24">
-        <v>14</v>
-      </c>
-      <c r="Y24">
-        <v>1</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>11</v>
-      </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-      <c r="AF24">
-        <v>0</v>
-      </c>
-      <c r="AG24">
-        <v>1</v>
-      </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
-      <c r="AI24">
-        <v>0</v>
-      </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
-      <c r="AK24">
-        <v>0</v>
-      </c>
-      <c r="AL24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A25" s="2">
-        <v>45416</v>
-      </c>
-      <c r="B25">
-        <v>506</v>
-      </c>
-      <c r="C25">
-        <v>410</v>
-      </c>
-      <c r="D25">
-        <v>376</v>
-      </c>
-      <c r="E25">
-        <v>333</v>
-      </c>
-      <c r="F25">
-        <v>305</v>
-      </c>
-      <c r="G25">
-        <v>329</v>
-      </c>
-      <c r="H25">
-        <v>141</v>
-      </c>
-      <c r="I25">
-        <v>162</v>
-      </c>
-      <c r="J25">
-        <v>172</v>
-      </c>
-      <c r="K25">
-        <v>269</v>
-      </c>
-      <c r="L25">
-        <v>276</v>
-      </c>
-      <c r="M25">
-        <v>171</v>
-      </c>
-      <c r="N25">
-        <v>132</v>
-      </c>
-      <c r="O25">
-        <v>155</v>
-      </c>
-      <c r="P25">
-        <v>92</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>115</v>
-      </c>
-      <c r="S25">
-        <v>94</v>
-      </c>
-      <c r="T25">
-        <v>36</v>
-      </c>
-      <c r="U25">
-        <v>11</v>
-      </c>
-      <c r="V25">
-        <v>69</v>
-      </c>
-      <c r="W25">
-        <v>25</v>
-      </c>
-      <c r="X25">
-        <v>12</v>
-      </c>
-      <c r="Y25">
-        <v>60</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>8</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-      <c r="AF25">
-        <v>0</v>
-      </c>
-      <c r="AG25">
-        <v>1</v>
-      </c>
-      <c r="AH25">
-        <v>32</v>
-      </c>
-      <c r="AI25">
-        <v>0</v>
-      </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
-      <c r="AK25">
-        <v>0</v>
-      </c>
-      <c r="AL25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A26" s="2">
-        <v>45417</v>
-      </c>
-      <c r="B26">
-        <v>472</v>
-      </c>
-      <c r="C26">
-        <v>386</v>
-      </c>
-      <c r="D26">
-        <v>320</v>
-      </c>
-      <c r="E26">
-        <v>238</v>
-      </c>
-      <c r="F26">
-        <v>313</v>
-      </c>
-      <c r="G26">
-        <v>312</v>
-      </c>
-      <c r="H26">
-        <v>263</v>
-      </c>
-      <c r="I26">
-        <v>160</v>
-      </c>
-      <c r="J26">
-        <v>170</v>
-      </c>
-      <c r="K26">
-        <v>259</v>
-      </c>
-      <c r="L26">
-        <v>245</v>
-      </c>
-      <c r="M26">
-        <v>168</v>
-      </c>
-      <c r="N26">
-        <v>133</v>
-      </c>
-      <c r="O26">
-        <v>154</v>
-      </c>
-      <c r="P26">
-        <v>97</v>
-      </c>
-      <c r="Q26">
-        <v>106</v>
-      </c>
-      <c r="R26">
-        <v>118</v>
-      </c>
-      <c r="S26">
-        <v>145</v>
-      </c>
-      <c r="T26">
-        <v>47</v>
-      </c>
-      <c r="U26">
-        <v>23</v>
-      </c>
-      <c r="V26">
-        <v>78</v>
-      </c>
-      <c r="W26">
-        <v>36</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-      <c r="Y26">
-        <v>13</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-      <c r="AB26">
-        <v>22</v>
-      </c>
-      <c r="AC26">
-        <v>0</v>
-      </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AG26">
-        <v>14</v>
-      </c>
-      <c r="AH26">
-        <v>0</v>
-      </c>
-      <c r="AI26">
-        <v>0</v>
-      </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
-      <c r="AK26">
-        <v>0</v>
-      </c>
-      <c r="AL26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A27" s="2">
-        <v>45418</v>
-      </c>
-      <c r="B27">
-        <v>475</v>
-      </c>
-      <c r="C27">
-        <v>388</v>
-      </c>
-      <c r="D27">
-        <v>321</v>
-      </c>
-      <c r="E27">
-        <v>239</v>
-      </c>
-      <c r="F27">
-        <v>292</v>
-      </c>
-      <c r="G27">
-        <v>314</v>
-      </c>
-      <c r="H27">
-        <v>264</v>
-      </c>
-      <c r="I27">
-        <v>161</v>
-      </c>
-      <c r="J27">
-        <v>170</v>
-      </c>
-      <c r="K27">
-        <v>260</v>
-      </c>
-      <c r="L27">
-        <v>246</v>
-      </c>
-      <c r="M27">
-        <v>169</v>
-      </c>
-      <c r="N27">
-        <v>134</v>
-      </c>
-      <c r="O27">
-        <v>155</v>
-      </c>
-      <c r="P27">
-        <v>98</v>
-      </c>
-      <c r="Q27">
-        <v>107</v>
-      </c>
-      <c r="R27">
-        <v>118</v>
-      </c>
-      <c r="S27">
-        <v>146</v>
-      </c>
-      <c r="T27">
-        <v>47</v>
-      </c>
-      <c r="U27">
-        <v>23</v>
-      </c>
-      <c r="V27">
-        <v>78</v>
-      </c>
-      <c r="W27">
-        <v>36</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-      <c r="Y27">
-        <v>14</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <v>1</v>
-      </c>
-      <c r="AB27">
-        <v>22</v>
-      </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-      <c r="AF27">
-        <v>0</v>
-      </c>
-      <c r="AG27">
-        <v>14</v>
-      </c>
-      <c r="AH27">
-        <v>0</v>
-      </c>
-      <c r="AI27">
-        <v>0</v>
-      </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
-      <c r="AK27">
-        <v>0</v>
-      </c>
-      <c r="AL27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A28" s="2">
-        <v>45419</v>
-      </c>
-      <c r="B28">
-        <v>510</v>
-      </c>
-      <c r="C28">
-        <v>397</v>
-      </c>
-      <c r="D28">
-        <v>243</v>
-      </c>
-      <c r="E28">
-        <v>250</v>
-      </c>
-      <c r="F28">
-        <v>307</v>
-      </c>
-      <c r="G28">
-        <v>333</v>
-      </c>
-      <c r="H28">
-        <v>278</v>
-      </c>
-      <c r="I28">
-        <v>169</v>
-      </c>
-      <c r="J28">
-        <v>176</v>
-      </c>
-      <c r="K28">
-        <v>274</v>
-      </c>
-      <c r="L28">
-        <v>257</v>
-      </c>
-      <c r="M28">
-        <v>175</v>
-      </c>
-      <c r="N28">
-        <v>87</v>
-      </c>
-      <c r="O28">
-        <v>191</v>
-      </c>
-      <c r="P28">
-        <v>29</v>
-      </c>
-      <c r="Q28">
-        <v>105</v>
-      </c>
-      <c r="R28">
-        <v>141</v>
-      </c>
-      <c r="S28">
-        <v>148</v>
-      </c>
-      <c r="T28">
-        <v>78</v>
-      </c>
-      <c r="U28">
-        <v>17</v>
-      </c>
-      <c r="V28">
-        <v>73</v>
-      </c>
-      <c r="W28">
-        <v>8</v>
-      </c>
-      <c r="X28">
-        <v>38</v>
-      </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
-        <v>0</v>
-      </c>
-      <c r="AD28">
-        <v>6</v>
-      </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
-      <c r="AF28">
-        <v>0</v>
-      </c>
-      <c r="AG28">
-        <v>2</v>
-      </c>
-      <c r="AH28">
-        <v>0</v>
-      </c>
-      <c r="AI28">
-        <v>0</v>
-      </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
-      <c r="AK28">
-        <v>0</v>
-      </c>
-      <c r="AL28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A29" s="2">
-        <v>45420</v>
-      </c>
-      <c r="B29">
-        <v>486</v>
-      </c>
-      <c r="C29">
-        <v>382</v>
-      </c>
-      <c r="D29">
-        <v>330</v>
-      </c>
-      <c r="E29">
-        <v>327</v>
-      </c>
-      <c r="F29">
-        <v>255</v>
-      </c>
-      <c r="G29">
-        <v>407</v>
-      </c>
-      <c r="H29">
-        <v>147</v>
-      </c>
-      <c r="I29">
-        <v>170</v>
-      </c>
-      <c r="J29">
-        <v>132</v>
-      </c>
-      <c r="K29">
-        <v>266</v>
-      </c>
-      <c r="L29">
-        <v>272</v>
-      </c>
-      <c r="M29">
-        <v>150</v>
-      </c>
-      <c r="N29">
-        <v>132</v>
-      </c>
-      <c r="O29">
-        <v>187</v>
-      </c>
-      <c r="P29">
-        <v>33</v>
-      </c>
-      <c r="Q29">
-        <v>63</v>
-      </c>
-      <c r="R29">
-        <v>187</v>
-      </c>
-      <c r="S29">
-        <v>105</v>
-      </c>
-      <c r="T29">
-        <v>98</v>
-      </c>
-      <c r="U29">
-        <v>26</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
-      <c r="Y29">
-        <v>68</v>
-      </c>
-      <c r="Z29">
-        <v>1</v>
-      </c>
-      <c r="AA29">
-        <v>15</v>
-      </c>
-      <c r="AB29">
-        <v>12</v>
-      </c>
-      <c r="AC29">
-        <v>0</v>
-      </c>
-      <c r="AD29">
-        <v>0</v>
-      </c>
-      <c r="AE29">
-        <v>0</v>
-      </c>
-      <c r="AF29">
-        <v>12</v>
-      </c>
-      <c r="AG29">
-        <v>29</v>
-      </c>
-      <c r="AH29">
-        <v>0</v>
-      </c>
-      <c r="AI29">
-        <v>0</v>
-      </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
-      <c r="AK29">
-        <v>0</v>
-      </c>
-      <c r="AL29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A30" s="2">
-        <v>45421</v>
-      </c>
-      <c r="B30">
-        <v>527</v>
-      </c>
-      <c r="C30">
-        <v>420</v>
-      </c>
-      <c r="D30">
-        <v>267</v>
-      </c>
-      <c r="E30">
-        <v>282</v>
-      </c>
-      <c r="F30">
-        <v>228</v>
-      </c>
-      <c r="G30">
-        <v>488</v>
-      </c>
-      <c r="H30">
-        <v>94</v>
-      </c>
-      <c r="I30">
-        <v>149</v>
-      </c>
-      <c r="J30">
-        <v>81</v>
-      </c>
-      <c r="K30">
-        <v>297</v>
-      </c>
-      <c r="L30">
-        <v>302</v>
-      </c>
-      <c r="M30">
-        <v>175</v>
-      </c>
-      <c r="N30">
-        <v>81</v>
-      </c>
-      <c r="O30">
-        <v>215</v>
-      </c>
-      <c r="P30">
-        <v>35</v>
-      </c>
-      <c r="Q30">
-        <v>84</v>
-      </c>
-      <c r="R30">
-        <v>164</v>
-      </c>
-      <c r="S30">
-        <v>82</v>
-      </c>
-      <c r="T30">
-        <v>119</v>
-      </c>
-      <c r="U30">
-        <v>27</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <v>0</v>
-      </c>
-      <c r="Y30">
-        <v>89</v>
-      </c>
-      <c r="Z30">
-        <v>0</v>
-      </c>
-      <c r="AA30">
-        <v>15</v>
-      </c>
-      <c r="AB30">
-        <v>32</v>
-      </c>
-      <c r="AC30">
-        <v>0</v>
-      </c>
-      <c r="AD30">
-        <v>0</v>
-      </c>
-      <c r="AE30">
-        <v>0</v>
-      </c>
-      <c r="AF30">
-        <v>12</v>
-      </c>
-      <c r="AG30">
-        <v>27</v>
-      </c>
-      <c r="AH30">
-        <v>0</v>
-      </c>
-      <c r="AI30">
-        <v>0</v>
-      </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
-      <c r="AK30">
-        <v>0</v>
-      </c>
-      <c r="AL30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A31" s="2">
-        <v>45422</v>
-      </c>
-      <c r="B31">
-        <v>369</v>
-      </c>
-      <c r="C31">
-        <v>472</v>
-      </c>
-      <c r="D31">
-        <v>235</v>
-      </c>
-      <c r="E31">
-        <v>254</v>
-      </c>
-      <c r="F31">
-        <v>280</v>
-      </c>
-      <c r="G31">
-        <v>342</v>
-      </c>
-      <c r="H31">
-        <v>85</v>
-      </c>
-      <c r="I31">
-        <v>128</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>529</v>
-      </c>
-      <c r="L31">
-        <v>267</v>
-      </c>
-      <c r="M31">
-        <v>156</v>
-      </c>
-      <c r="N31">
-        <v>32</v>
-      </c>
-      <c r="O31">
-        <v>487</v>
-      </c>
-      <c r="P31">
-        <v>77</v>
-      </c>
-      <c r="Q31">
-        <v>68</v>
-      </c>
-      <c r="R31">
-        <v>117</v>
-      </c>
-      <c r="S31">
-        <v>32</v>
-      </c>
-      <c r="T31">
-        <v>141</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
-      <c r="Y31">
-        <v>75</v>
-      </c>
-      <c r="Z31">
-        <v>30</v>
-      </c>
-      <c r="AA31">
-        <v>36</v>
-      </c>
-      <c r="AB31">
-        <v>64</v>
-      </c>
-      <c r="AC31">
-        <v>4</v>
-      </c>
-      <c r="AD31">
-        <v>0</v>
-      </c>
-      <c r="AE31">
-        <v>0</v>
-      </c>
-      <c r="AF31">
-        <v>9</v>
-      </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
-      <c r="AH31">
-        <v>0</v>
-      </c>
-      <c r="AI31">
-        <v>3</v>
-      </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
-      <c r="AK31">
-        <v>0</v>
-      </c>
-      <c r="AL31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A32" s="2">
-        <v>45423</v>
-      </c>
-      <c r="B32">
-        <v>375</v>
-      </c>
-      <c r="C32">
-        <v>453</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>126</v>
-      </c>
-      <c r="F32">
-        <v>268</v>
-      </c>
-      <c r="G32">
-        <v>591</v>
-      </c>
-      <c r="H32">
-        <v>183</v>
-      </c>
-      <c r="I32">
-        <v>90</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>547</v>
-      </c>
-      <c r="L32">
-        <v>445</v>
-      </c>
-      <c r="M32">
-        <v>46</v>
-      </c>
-      <c r="N32">
-        <v>24</v>
-      </c>
-      <c r="O32">
-        <v>278</v>
-      </c>
-      <c r="P32">
-        <v>30</v>
-      </c>
-      <c r="Q32">
-        <v>16</v>
-      </c>
-      <c r="R32">
-        <v>174</v>
-      </c>
-      <c r="S32">
-        <v>34</v>
-      </c>
-      <c r="T32">
-        <v>38</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <v>27</v>
-      </c>
-      <c r="Y32">
-        <v>78</v>
-      </c>
-      <c r="Z32">
-        <v>54</v>
-      </c>
-      <c r="AA32">
-        <v>37</v>
-      </c>
-      <c r="AB32">
-        <v>117</v>
-      </c>
-      <c r="AC32">
-        <v>64</v>
-      </c>
-      <c r="AD32">
-        <v>0</v>
-      </c>
-      <c r="AE32">
-        <v>0</v>
-      </c>
-      <c r="AF32">
-        <v>152</v>
-      </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-      <c r="AH32">
-        <v>0</v>
-      </c>
-      <c r="AI32">
-        <v>103</v>
-      </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
-      <c r="AK32">
-        <v>0</v>
-      </c>
-      <c r="AL32">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="3" spans="1:37" ht="15.75" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="61"/>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="61"/>
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="61"/>
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="61"/>
+      <c r="AI3" s="61"/>
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="61"/>
+    </row>
+    <row r="4" spans="1:37" ht="15.75" customHeight="1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:37" ht="15.75" customHeight="1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:37" ht="15.75" customHeight="1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:37" ht="15.75" customHeight="1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:37" ht="15.75" customHeight="1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:37" ht="15.75" customHeight="1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:37" ht="15.75" customHeight="1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:37" ht="15.75" customHeight="1">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:37" ht="15.75" customHeight="1">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:37" ht="15.75" customHeight="1">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:37" ht="15.75" customHeight="1">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:37" ht="15.75" customHeight="1">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:37" ht="15.75" customHeight="1">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7161,702 +3778,702 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6301985-910C-46A2-BCA7-5B73125291C9}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K38"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.8">
-      <c r="A1" s="62"/>
-      <c r="B1" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>189</v>
-      </c>
-      <c r="D1" s="48" t="s">
+    <row r="1" spans="1:11" ht="15.75">
+      <c r="A1" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="D1" s="69" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="27.6">
-      <c r="A2" s="62">
+      <c r="E1" s="70"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75">
+      <c r="A2" s="71">
         <v>1</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>204</v>
-      </c>
-      <c r="C2" s="50" t="s">
-        <v>205</v>
-      </c>
-      <c r="D2" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="51">
-        <v>529</v>
+      <c r="B2" s="72" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="73">
+        <v>440</v>
       </c>
       <c r="G2" s="58" t="s">
         <v>55</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H38" si="0">VLOOKUP(G2,D:E,2,0)</f>
-        <v>369</v>
+        <v>201</v>
       </c>
       <c r="J2" t="s">
         <v>55</v>
       </c>
       <c r="K2">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="27.6">
-      <c r="A3" s="62">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75">
+      <c r="A3" s="71">
         <v>2</v>
       </c>
-      <c r="B3" s="52" t="s">
-        <v>214</v>
-      </c>
-      <c r="C3" s="52" t="s">
-        <v>215</v>
-      </c>
-      <c r="D3" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="53">
-        <v>487</v>
+      <c r="B3" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="75">
+        <v>227</v>
       </c>
       <c r="G3" s="58" t="s">
         <v>92</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>472</v>
+        <v>97</v>
       </c>
       <c r="J3" t="s">
         <v>92</v>
       </c>
       <c r="K3">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="41.4">
-      <c r="A4" s="62">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75">
+      <c r="A4" s="71">
         <v>3</v>
       </c>
-      <c r="B4" s="54" t="s">
-        <v>194</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="55">
-        <v>472</v>
+      <c r="B4" s="76" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="77">
+        <v>212</v>
       </c>
       <c r="G4" s="58" t="s">
         <v>90</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>235</v>
-      </c>
-      <c r="J4" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="J4" s="62" t="s">
         <v>90</v>
       </c>
       <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="13.8">
-      <c r="A5" s="62">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75">
+      <c r="A5" s="71">
         <v>4</v>
       </c>
-      <c r="B5" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>193</v>
-      </c>
-      <c r="D5" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="57">
-        <v>369</v>
+      <c r="B5" s="78" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="78" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="79">
+        <v>205</v>
       </c>
       <c r="G5" s="58" t="s">
         <v>47</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>254</v>
+        <v>171</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="27.6">
-      <c r="A6" s="62">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75">
+      <c r="A6" s="71">
         <v>5</v>
       </c>
-      <c r="B6" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>201</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="57">
-        <v>342</v>
+      <c r="B6" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="79">
+        <v>205</v>
       </c>
       <c r="G6" s="58" t="s">
         <v>57</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>280</v>
+        <v>171</v>
       </c>
       <c r="J6" t="s">
         <v>57</v>
       </c>
       <c r="K6">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="27.6">
-      <c r="A7" s="62">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75">
+      <c r="A7" s="71">
         <v>6</v>
       </c>
-      <c r="B7" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="C7" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="D7" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="57">
-        <v>280</v>
+      <c r="B7" s="78" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="79">
+        <v>205</v>
       </c>
       <c r="G7" s="58" t="s">
         <v>89</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>342</v>
+        <v>97</v>
       </c>
       <c r="J7" t="s">
         <v>89</v>
       </c>
       <c r="K7">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="13.8">
-      <c r="A8" s="62">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75">
+      <c r="A8" s="71">
         <v>7</v>
       </c>
-      <c r="B8" s="56" t="s">
-        <v>208</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>209</v>
-      </c>
-      <c r="D8" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="57">
-        <v>267</v>
+      <c r="B8" s="78" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="78" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="79">
+        <v>205</v>
       </c>
       <c r="G8" s="58" t="s">
         <v>13</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="13.8">
-      <c r="A9" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75">
+      <c r="A9" s="71">
         <v>8</v>
       </c>
-      <c r="B9" s="56" t="s">
-        <v>196</v>
-      </c>
-      <c r="C9" s="56" t="s">
-        <v>197</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="57">
-        <v>254</v>
+      <c r="B9" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="79">
+        <v>205</v>
       </c>
       <c r="G9" s="58" t="s">
         <v>61</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
         <v>61</v>
       </c>
       <c r="K9">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="27.6">
-      <c r="A10" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75">
+      <c r="A10" s="71">
         <v>9</v>
       </c>
-      <c r="B10" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="C10" s="56" t="s">
-        <v>191</v>
-      </c>
-      <c r="D10" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="57">
-        <v>235</v>
+      <c r="B10" s="78" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="78" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="79">
+        <v>205</v>
       </c>
       <c r="G10" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="H10" t="e">
+      <c r="H10">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J10" s="64" t="s">
+        <v>205</v>
+      </c>
+      <c r="J10" s="62" t="s">
         <v>23</v>
       </c>
       <c r="K10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="27.6">
-      <c r="A11" s="62">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75">
+      <c r="A11" s="71">
         <v>10</v>
       </c>
-      <c r="B11" s="56" t="s">
-        <v>210</v>
-      </c>
-      <c r="C11" s="56" t="s">
-        <v>211</v>
-      </c>
-      <c r="D11" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="57">
-        <v>156</v>
+      <c r="B11" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="78" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="79">
+        <v>201</v>
       </c>
       <c r="G11" s="58" t="s">
         <v>29</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>529</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
         <v>29</v>
       </c>
       <c r="K11">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="27.6">
-      <c r="A12" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75">
+      <c r="A12" s="71">
         <v>11</v>
       </c>
-      <c r="B12" s="48" t="s">
-        <v>224</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="49">
-        <v>141</v>
+      <c r="B12" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="69">
+        <v>201</v>
       </c>
       <c r="G12" s="58" t="s">
         <v>41</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="J12" t="s">
         <v>41</v>
       </c>
       <c r="K12">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="13.8">
-      <c r="A13" s="62">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75">
+      <c r="A13" s="71">
         <v>12</v>
       </c>
-      <c r="B13" s="48" t="s">
-        <v>206</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="49">
-        <v>128</v>
+      <c r="B13" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="68" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="69">
+        <v>175</v>
       </c>
       <c r="G13" s="58" t="s">
         <v>93</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="J13" t="s">
         <v>93</v>
       </c>
       <c r="K13">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="27.6">
-      <c r="A14" s="62">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75">
+      <c r="A14" s="71">
         <v>13</v>
       </c>
-      <c r="B14" s="48" t="s">
-        <v>220</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="D14" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="49">
-        <v>117</v>
+      <c r="B14" s="68" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="69">
+        <v>171</v>
       </c>
       <c r="G14" s="58" t="s">
         <v>17</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
       </c>
       <c r="K14">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="13.8">
-      <c r="A15" s="62">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75">
+      <c r="A15" s="71">
         <v>14</v>
       </c>
-      <c r="B15" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="C15" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="D15" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="49">
-        <v>85</v>
+      <c r="B15" s="68" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="68" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="69">
+        <v>171</v>
       </c>
       <c r="G15" s="58" t="s">
         <v>53</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>487</v>
+        <v>171</v>
       </c>
       <c r="J15" t="s">
         <v>53</v>
       </c>
       <c r="K15">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="13.8">
-      <c r="A16" s="62">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75">
+      <c r="A16" s="71">
         <v>15</v>
       </c>
-      <c r="B16" s="48" t="s">
-        <v>216</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>217</v>
-      </c>
-      <c r="D16" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" s="49">
-        <v>77</v>
+      <c r="B16" s="68" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="68" t="s">
+        <v>182</v>
+      </c>
+      <c r="D16" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="69">
+        <v>171</v>
       </c>
       <c r="G16" s="58" t="s">
         <v>86</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="J16" t="s">
         <v>86</v>
       </c>
       <c r="K16">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="13.8">
-      <c r="A17" s="62">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75">
+      <c r="A17" s="71">
         <v>16</v>
       </c>
-      <c r="B17" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="C17" s="48" t="s">
-        <v>227</v>
-      </c>
-      <c r="D17" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="49">
-        <v>75</v>
+      <c r="B17" s="68" t="s">
+        <v>183</v>
+      </c>
+      <c r="C17" s="68" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="69">
+        <v>171</v>
       </c>
       <c r="G17" s="58" t="s">
         <v>71</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>171</v>
       </c>
       <c r="J17" t="s">
         <v>71</v>
       </c>
       <c r="K17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="13.8">
-      <c r="A18" s="62">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75">
+      <c r="A18" s="71">
         <v>17</v>
       </c>
-      <c r="B18" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>219</v>
-      </c>
-      <c r="D18" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="49">
-        <v>68</v>
+      <c r="B18" s="68" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" s="68" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="69">
+        <v>171</v>
       </c>
       <c r="G18" s="58" t="s">
         <v>87</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>117</v>
+        <v>440</v>
       </c>
       <c r="J18" t="s">
         <v>87</v>
       </c>
       <c r="K18">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="27.6">
-      <c r="A19" s="62">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75">
+      <c r="A19" s="71">
         <v>18</v>
       </c>
-      <c r="B19" s="48" t="s">
-        <v>242</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>243</v>
-      </c>
-      <c r="D19" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="49">
-        <v>64</v>
+      <c r="B19" s="68" t="s">
+        <v>187</v>
+      </c>
+      <c r="C19" s="68" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="69">
+        <v>171</v>
       </c>
       <c r="G19" s="58" t="s">
         <v>43</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
         <v>43</v>
       </c>
       <c r="K19">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="69">
-      <c r="A20" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75">
+      <c r="A20" s="71">
         <v>19</v>
       </c>
-      <c r="B20" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>245</v>
-      </c>
-      <c r="D20" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="49">
-        <v>36</v>
+      <c r="B20" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" s="68" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="69">
+        <v>153</v>
       </c>
       <c r="G20" s="58" t="s">
         <v>39</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>141</v>
+        <v>205</v>
       </c>
       <c r="J20" t="s">
         <v>39</v>
       </c>
       <c r="K20">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="27.6">
-      <c r="A21" s="62">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75">
+      <c r="A21" s="71">
         <v>20</v>
       </c>
-      <c r="B21" s="48" t="s">
-        <v>222</v>
-      </c>
-      <c r="C21" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="D21" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="49">
-        <v>32</v>
+      <c r="B21" s="68" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" s="68" t="s">
+        <v>192</v>
+      </c>
+      <c r="D21" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="69">
+        <v>138</v>
       </c>
       <c r="G21" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="H21" t="e">
+      <c r="H21">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J21" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="80" t="s">
         <v>35</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="13.8">
-      <c r="A22" s="62">
+    <row r="22" spans="1:11" ht="15.75">
+      <c r="A22" s="71">
         <v>21</v>
       </c>
-      <c r="B22" s="48" t="s">
-        <v>212</v>
-      </c>
-      <c r="C22" s="48" t="s">
-        <v>213</v>
-      </c>
-      <c r="D22" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="49">
-        <v>32</v>
+      <c r="B22" s="68" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" s="68" t="s">
+        <v>194</v>
+      </c>
+      <c r="D22" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="69">
+        <v>97</v>
       </c>
       <c r="G22" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="H22" t="e">
+      <c r="H22">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J22" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="80" t="s">
         <v>73</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="13.8">
-      <c r="A23" s="62">
+    <row r="23" spans="1:11" ht="15.75">
+      <c r="A23" s="71">
         <v>22</v>
       </c>
-      <c r="B23" s="48" t="s">
-        <v>230</v>
-      </c>
-      <c r="C23" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="D23" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" s="49">
-        <v>30</v>
+      <c r="B23" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="C23" s="68" t="s">
+        <v>196</v>
+      </c>
+      <c r="D23" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="69">
+        <v>97</v>
       </c>
       <c r="G23" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="H23" t="e">
+      <c r="H23">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J23" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="80" t="s">
         <v>19</v>
       </c>
       <c r="K23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="13.8">
-      <c r="A24" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75">
+      <c r="A24" s="71">
         <v>23</v>
       </c>
-      <c r="B24" s="48" t="s">
-        <v>238</v>
-      </c>
-      <c r="C24" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="D24" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" s="49">
-        <v>9</v>
+      <c r="B24" s="68" t="s">
+        <v>197</v>
+      </c>
+      <c r="C24" s="68" t="s">
+        <v>198</v>
+      </c>
+      <c r="D24" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="69">
+        <v>97</v>
       </c>
       <c r="G24" s="58" t="s">
         <v>85</v>
@@ -7865,87 +4482,87 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="80" t="s">
         <v>85</v>
       </c>
       <c r="K24">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="13.8">
-      <c r="A25" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75">
+      <c r="A25" s="71">
         <v>24</v>
       </c>
-      <c r="B25" s="48" t="s">
-        <v>240</v>
-      </c>
-      <c r="C25" s="48" t="s">
-        <v>241</v>
-      </c>
-      <c r="D25" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="49">
-        <v>4</v>
+      <c r="B25" s="68" t="s">
+        <v>199</v>
+      </c>
+      <c r="C25" s="68" t="s">
+        <v>200</v>
+      </c>
+      <c r="D25" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="69">
+        <v>1</v>
       </c>
       <c r="G25" s="58" t="s">
         <v>31</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="J25" t="s">
+        <v>205</v>
+      </c>
+      <c r="J25" s="80" t="s">
         <v>31</v>
       </c>
       <c r="K25">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="27.6">
-      <c r="A26" s="62">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75">
+      <c r="A26" s="71">
         <v>25</v>
       </c>
-      <c r="B26" s="48" t="s">
-        <v>232</v>
-      </c>
-      <c r="C26" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="D26" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="E26" s="49">
-        <v>3</v>
+      <c r="B26" s="68" t="s">
+        <v>201</v>
+      </c>
+      <c r="C26" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="D26" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="69">
+        <v>0</v>
       </c>
       <c r="G26" s="58" t="s">
         <v>83</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="J26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="80" t="s">
         <v>83</v>
       </c>
       <c r="K26">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="13.8">
-      <c r="A27" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75">
+      <c r="A27" s="71">
         <v>26</v>
       </c>
-      <c r="B27" s="48" t="s">
-        <v>228</v>
-      </c>
-      <c r="C27" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="D27" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="49">
+      <c r="B27" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="C27" s="68" t="s">
+        <v>204</v>
+      </c>
+      <c r="D27" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="69">
         <v>0</v>
       </c>
       <c r="G27" s="58" t="s">
@@ -7953,29 +4570,29 @@
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="J27" t="s">
+        <v>205</v>
+      </c>
+      <c r="J27" s="80" t="s">
         <v>37</v>
       </c>
       <c r="K27">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="27.6">
-      <c r="A28" s="62">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75">
+      <c r="A28" s="71">
         <v>27</v>
       </c>
-      <c r="B28" s="48" t="s">
-        <v>232</v>
-      </c>
-      <c r="C28" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="D28" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="E28" s="49">
+      <c r="B28" s="68" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" s="68" t="s">
+        <v>206</v>
+      </c>
+      <c r="D28" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="69">
         <v>0</v>
       </c>
       <c r="G28" s="58" t="s">
@@ -7983,29 +4600,29 @@
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="J28" t="s">
+        <v>171</v>
+      </c>
+      <c r="J28" s="80" t="s">
         <v>45</v>
       </c>
       <c r="K28">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="13.8">
-      <c r="A29" s="62">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75">
+      <c r="A29" s="71">
         <v>28</v>
       </c>
-      <c r="B29" s="48" t="s">
-        <v>228</v>
-      </c>
-      <c r="C29" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="D29" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29" s="49">
+      <c r="B29" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29" s="68" t="s">
+        <v>208</v>
+      </c>
+      <c r="D29" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="69">
         <v>0</v>
       </c>
       <c r="G29" s="58" t="s">
@@ -8013,59 +4630,59 @@
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J29" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="80" t="s">
         <v>59</v>
       </c>
       <c r="K29">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="13.8">
-      <c r="A30" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75">
+      <c r="A30" s="71">
         <v>29</v>
       </c>
-      <c r="B30" s="48" t="s">
-        <v>240</v>
-      </c>
-      <c r="C30" s="48" t="s">
-        <v>241</v>
-      </c>
-      <c r="D30" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" s="49">
+      <c r="B30" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="C30" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="D30" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="69">
         <v>0</v>
       </c>
       <c r="G30" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="H30" t="e">
+      <c r="H30">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J30" s="64" t="s">
+        <v>171</v>
+      </c>
+      <c r="J30" s="80" t="s">
         <v>15</v>
       </c>
       <c r="K30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="27.6">
-      <c r="A31" s="62">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75">
+      <c r="A31" s="71">
         <v>30</v>
       </c>
-      <c r="B31" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="C31" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="D31" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="49">
+      <c r="B31" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="C31" s="68" t="s">
+        <v>212</v>
+      </c>
+      <c r="D31" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="69">
         <v>0</v>
       </c>
       <c r="G31" s="58" t="s">
@@ -8075,27 +4692,27 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="J31" s="64" t="s">
+      <c r="J31" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="27.6">
-      <c r="A32" s="62">
+      <c r="K31" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.75">
+      <c r="A32" s="71">
         <v>31</v>
       </c>
-      <c r="B32" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="C32" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="D32" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="49">
+      <c r="B32" s="68" t="s">
+        <v>213</v>
+      </c>
+      <c r="C32" s="68" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="E32" s="69">
         <v>0</v>
       </c>
       <c r="G32" s="58" t="s">
@@ -8103,59 +4720,59 @@
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="J32" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" s="80" t="s">
         <v>75</v>
       </c>
       <c r="K32">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="27.6">
-      <c r="A33" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.75">
+      <c r="A33" s="71">
         <v>32</v>
       </c>
-      <c r="B33" s="63">
-        <v>0.46597222222222223</v>
-      </c>
-      <c r="C33" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="D33" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" s="49">
+      <c r="B33" s="68" t="s">
+        <v>215</v>
+      </c>
+      <c r="C33" s="68" t="s">
+        <v>216</v>
+      </c>
+      <c r="D33" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="69">
         <v>0</v>
       </c>
       <c r="G33" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="H33" t="e">
+      <c r="H33">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J33" s="64" t="s">
+        <v>205</v>
+      </c>
+      <c r="J33" s="80" t="s">
         <v>33</v>
       </c>
       <c r="K33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="13.8">
-      <c r="A34" s="62">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.75">
+      <c r="A34" s="71">
         <v>33</v>
       </c>
-      <c r="B34" s="48" t="s">
-        <v>230</v>
-      </c>
-      <c r="C34" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="D34" s="48" t="s">
+      <c r="B34" s="68" t="s">
+        <v>217</v>
+      </c>
+      <c r="C34" s="68" t="s">
+        <v>218</v>
+      </c>
+      <c r="D34" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="E34" s="49">
+      <c r="E34" s="69">
         <v>0</v>
       </c>
       <c r="G34" s="58" t="s">
@@ -8163,29 +4780,29 @@
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="64" t="s">
+        <v>205</v>
+      </c>
+      <c r="J34" s="80" t="s">
         <v>9</v>
       </c>
       <c r="K34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="13.8">
-      <c r="A35" s="62">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.75">
+      <c r="A35" s="71">
         <v>34</v>
       </c>
-      <c r="B35" s="48" t="s">
-        <v>238</v>
-      </c>
-      <c r="C35" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="D35" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="E35" s="49">
+      <c r="B35" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="C35" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="D35" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="69">
         <v>0</v>
       </c>
       <c r="G35" s="58" t="s">
@@ -8193,29 +4810,29 @@
       </c>
       <c r="H35">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="J35" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" s="80" t="s">
         <v>149</v>
       </c>
       <c r="K35">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="13.8">
-      <c r="A36" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.75">
+      <c r="A36" s="71">
         <v>35</v>
       </c>
-      <c r="B36" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="C36" s="48" t="s">
-        <v>227</v>
-      </c>
-      <c r="D36" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" s="49">
+      <c r="B36" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="C36" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="D36" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="69">
         <v>0</v>
       </c>
       <c r="G36" s="58" t="s">
@@ -8223,59 +4840,59 @@
       </c>
       <c r="H36">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="J36" s="80" t="s">
         <v>63</v>
       </c>
       <c r="K36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="27.6">
-      <c r="A37" s="62">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.75">
+      <c r="A37" s="71">
         <v>36</v>
       </c>
-      <c r="B37" s="48" t="s">
-        <v>242</v>
-      </c>
-      <c r="C37" s="48" t="s">
-        <v>243</v>
-      </c>
-      <c r="D37" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="49">
+      <c r="B37" s="68" t="s">
+        <v>223</v>
+      </c>
+      <c r="C37" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="D37" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" s="69">
         <v>0</v>
       </c>
       <c r="G37" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="H37" t="e">
+      <c r="H37">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J37" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="J37" s="80" t="s">
         <v>51</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="27.6">
-      <c r="A38" s="62">
+    <row r="38" spans="1:11" ht="15.75">
+      <c r="A38" s="71">
         <v>37</v>
       </c>
-      <c r="B38" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="C38" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="D38" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="E38" s="49">
+      <c r="B38" s="68" t="s">
+        <v>225</v>
+      </c>
+      <c r="C38" s="68" t="s">
+        <v>226</v>
+      </c>
+      <c r="D38" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" s="69">
         <v>0</v>
       </c>
       <c r="G38" s="58" t="s">
@@ -8283,13 +4900,13 @@
       </c>
       <c r="H38">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="J38" s="80" t="s">
         <v>81</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -8309,25 +4926,25 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="10" max="10" width="26.44140625" customWidth="1"/>
+    <col min="10" max="10" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="13.8">
-      <c r="A1" s="65">
+    <row r="1" spans="1:56" ht="14.25">
+      <c r="A1" s="63">
         <v>45056.999305555553</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
       <c r="H1" s="6"/>
       <c r="I1" s="7" t="s">
         <v>0</v>
@@ -8379,7 +4996,7 @@
       <c r="AZ1" s="6"/>
       <c r="BA1" s="6"/>
     </row>
-    <row r="2" spans="1:56" ht="27.6">
+    <row r="2" spans="1:56" ht="28.5">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -9642,16 +6259,16 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="13.8">
-      <c r="A43" s="67">
+    <row r="43" spans="1:10" ht="14.25">
+      <c r="A43" s="65">
         <v>45057.5</v>
       </c>
-      <c r="B43" s="68"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="68"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="69"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="67"/>
       <c r="I43" s="6">
         <v>43</v>
       </c>
@@ -10600,16 +7217,16 @@
         <v>Ukraine 🇺🇦</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="13.2">
-      <c r="A85" s="67">
+    <row r="85" spans="1:7" ht="12.75">
+      <c r="A85" s="65">
         <v>45057.999305555553</v>
       </c>
-      <c r="B85" s="68"/>
-      <c r="C85" s="68"/>
-      <c r="D85" s="68"/>
-      <c r="E85" s="68"/>
-      <c r="F85" s="68"/>
-      <c r="G85" s="69"/>
+      <c r="B85" s="66"/>
+      <c r="C85" s="66"/>
+      <c r="D85" s="66"/>
+      <c r="E85" s="66"/>
+      <c r="F85" s="66"/>
+      <c r="G85" s="67"/>
     </row>
     <row r="86" spans="1:7" ht="15.75" customHeight="1">
       <c r="A86" s="20" t="s">
@@ -11522,16 +8139,16 @@
         <v>Ukraine 🇺🇦</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="13.2">
-      <c r="A127" s="67">
+    <row r="127" spans="1:10" ht="12.75">
+      <c r="A127" s="65">
         <v>45058.5</v>
       </c>
-      <c r="B127" s="68"/>
-      <c r="C127" s="68"/>
-      <c r="D127" s="68"/>
-      <c r="E127" s="68"/>
-      <c r="F127" s="68"/>
-      <c r="G127" s="69"/>
+      <c r="B127" s="66"/>
+      <c r="C127" s="66"/>
+      <c r="D127" s="66"/>
+      <c r="E127" s="66"/>
+      <c r="F127" s="66"/>
+      <c r="G127" s="67"/>
     </row>
     <row r="128" spans="1:10" ht="15.75" customHeight="1">
       <c r="A128" s="26" t="s">
@@ -12921,9 +9538,9 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:50" ht="13.8">
+    <row r="1" spans="1:50" ht="13.5">
       <c r="A1" s="48" t="s">
         <v>147</v>
       </c>
@@ -13045,7 +9662,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:50" ht="13.8">
+    <row r="2" spans="1:50" ht="13.5">
       <c r="A2" s="50" t="s">
         <v>55</v>
       </c>
@@ -13190,7 +9807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:50" ht="13.8">
+    <row r="3" spans="1:50" ht="13.5">
       <c r="A3" s="52" t="s">
         <v>92</v>
       </c>
@@ -13224,7 +9841,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="4" spans="1:50" ht="27.6">
+    <row r="4" spans="1:50" ht="27">
       <c r="A4" s="54" t="s">
         <v>90</v>
       </c>
@@ -13258,7 +9875,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="5" spans="1:50" ht="13.8">
+    <row r="5" spans="1:50" ht="13.5">
       <c r="A5" s="56" t="s">
         <v>47</v>
       </c>
@@ -13292,7 +9909,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="6" spans="1:50" ht="13.8">
+    <row r="6" spans="1:50" ht="13.5">
       <c r="A6" s="56" t="s">
         <v>57</v>
       </c>
@@ -13326,7 +9943,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="7" spans="1:50" ht="27.6">
+    <row r="7" spans="1:50" ht="27">
       <c r="A7" s="56" t="s">
         <v>89</v>
       </c>
@@ -13360,7 +9977,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="8" spans="1:50" ht="13.8">
+    <row r="8" spans="1:50" ht="13.5">
       <c r="A8" s="56" t="s">
         <v>13</v>
       </c>
@@ -13394,7 +10011,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:50" ht="13.8">
+    <row r="9" spans="1:50" ht="13.5">
       <c r="A9" s="56" t="s">
         <v>61</v>
       </c>
@@ -13428,7 +10045,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:50" ht="13.8">
+    <row r="10" spans="1:50" ht="13.5">
       <c r="A10" s="56" t="s">
         <v>23</v>
       </c>
@@ -13462,7 +10079,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:50" ht="13.8">
+    <row r="11" spans="1:50" ht="13.5">
       <c r="A11" s="56" t="s">
         <v>29</v>
       </c>
@@ -13496,7 +10113,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:50" ht="13.8">
+    <row r="12" spans="1:50" ht="13.5">
       <c r="A12" s="48" t="s">
         <v>41</v>
       </c>
@@ -13530,7 +10147,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:50" ht="27.6">
+    <row r="13" spans="1:50" ht="27">
       <c r="A13" s="48" t="s">
         <v>93</v>
       </c>
@@ -13564,7 +10181,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:50" ht="13.8">
+    <row r="14" spans="1:50" ht="13.5">
       <c r="A14" s="48" t="s">
         <v>17</v>
       </c>
@@ -13598,7 +10215,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:50" ht="13.8">
+    <row r="15" spans="1:50" ht="13.5">
       <c r="A15" s="48" t="s">
         <v>53</v>
       </c>
@@ -13632,7 +10249,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:50" ht="13.8">
+    <row r="16" spans="1:50" ht="13.5">
       <c r="A16" s="48" t="s">
         <v>86</v>
       </c>
@@ -13666,7 +10283,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="13.8">
+    <row r="17" spans="1:11" ht="13.5">
       <c r="A17" s="48" t="s">
         <v>71</v>
       </c>
@@ -13700,7 +10317,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="13.8">
+    <row r="18" spans="1:11" ht="13.5">
       <c r="A18" s="48" t="s">
         <v>87</v>
       </c>
@@ -13734,7 +10351,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="13.8">
+    <row r="19" spans="1:11" ht="13.5">
       <c r="A19" s="48" t="s">
         <v>43</v>
       </c>
@@ -13768,7 +10385,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="13.8">
+    <row r="20" spans="1:11" ht="13.5">
       <c r="A20" s="48" t="s">
         <v>39</v>
       </c>
@@ -13802,7 +10419,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="13.8">
+    <row r="21" spans="1:11" ht="13.5">
       <c r="A21" s="48" t="s">
         <v>35</v>
       </c>
@@ -13836,7 +10453,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="13.8">
+    <row r="22" spans="1:11" ht="13.5">
       <c r="A22" s="48" t="s">
         <v>73</v>
       </c>
@@ -13870,7 +10487,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="13.8">
+    <row r="23" spans="1:11" ht="13.5">
       <c r="A23" s="48" t="s">
         <v>19</v>
       </c>
@@ -13904,7 +10521,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="13.8">
+    <row r="24" spans="1:11" ht="13.5">
       <c r="A24" s="48" t="s">
         <v>85</v>
       </c>
@@ -13938,7 +10555,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="13.8">
+    <row r="25" spans="1:11" ht="13.5">
       <c r="A25" s="48" t="s">
         <v>31</v>
       </c>
@@ -13972,7 +10589,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="13.8">
+    <row r="26" spans="1:11" ht="13.5">
       <c r="A26" s="48" t="s">
         <v>83</v>
       </c>
@@ -14006,7 +10623,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="13.8">
+    <row r="27" spans="1:11" ht="13.5">
       <c r="A27" s="48" t="s">
         <v>37</v>
       </c>
@@ -14039,7 +10656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="13.8">
+    <row r="28" spans="1:11" ht="13.5">
       <c r="A28" s="48" t="s">
         <v>45</v>
       </c>
@@ -14072,7 +10689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="13.8">
+    <row r="29" spans="1:11" ht="13.5">
       <c r="A29" s="48" t="s">
         <v>59</v>
       </c>
@@ -14105,7 +10722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="13.8">
+    <row r="30" spans="1:11" ht="13.5">
       <c r="A30" s="48" t="s">
         <v>15</v>
       </c>
@@ -14138,7 +10755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="13.8">
+    <row r="31" spans="1:11" ht="13.5">
       <c r="A31" s="48" t="s">
         <v>65</v>
       </c>
@@ -14171,7 +10788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="13.8">
+    <row r="32" spans="1:11" ht="13.5">
       <c r="A32" s="48" t="s">
         <v>75</v>
       </c>
@@ -14204,7 +10821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="13.8">
+    <row r="33" spans="1:11" ht="13.5">
       <c r="A33" s="48" t="s">
         <v>33</v>
       </c>
@@ -14237,7 +10854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="13.8">
+    <row r="34" spans="1:11" ht="13.5">
       <c r="A34" s="48" t="s">
         <v>9</v>
       </c>
@@ -14270,7 +10887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="27.6">
+    <row r="35" spans="1:11" ht="27">
       <c r="A35" s="48" t="s">
         <v>149</v>
       </c>
@@ -14303,7 +10920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="13.8">
+    <row r="36" spans="1:11" ht="13.5">
       <c r="A36" s="48" t="s">
         <v>63</v>
       </c>
@@ -14336,7 +10953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="13.8">
+    <row r="37" spans="1:11" ht="13.5">
       <c r="A37" s="48" t="s">
         <v>51</v>
       </c>
@@ -14369,7 +10986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="27.6">
+    <row r="38" spans="1:11" ht="27">
       <c r="A38" s="48" t="s">
         <v>81</v>
       </c>
@@ -14448,7 +11065,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:38">
       <c r="B1" s="1" t="s">
@@ -21024,9 +17641,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -28453,7 +25070,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="42" t="s">

--- a/data/prueba_predicc_dia_dia.xlsx
+++ b/data/prueba_predicc_dia_dia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/Desktop/adri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="655" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17273DCD-1B2B-4BED-BBAA-7388DD7E2839}"/>
+  <xr:revisionPtr revIDLastSave="707" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{647397C7-2BA3-43E4-ABFB-E3E697EF987B}"/>
   <bookViews>
-    <workbookView xWindow="-12108" yWindow="12492" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId8"/>
+    <pivotCache cacheId="8" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="227">
   <si>
     <t>Code</t>
   </si>
@@ -738,7 +738,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy\ h:mm:ss"/>
     <numFmt numFmtId="166" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -844,12 +844,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF31333F"/>
-      <name val="Source Sans Pro"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1064,7 +1058,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1200,6 +1194,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1209,41 +1205,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2329,7 +2293,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45777.756601041663" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45782.511557986109" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="H1:L37" sheet="Hoja 3"/>
   </cacheSource>
@@ -2781,7 +2745,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
   <location ref="A1:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="5">
     <pivotField name="code" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -3412,15 +3376,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AK32"/>
+  <dimension ref="A1:AL32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:37" ht="12.75">
+    <row r="1" spans="1:38" ht="13.2">
       <c r="B1" t="s">
         <v>55</v>
       </c>
@@ -3478,115 +3442,118 @@
       <c r="T1" t="s">
         <v>39</v>
       </c>
-      <c r="U1" s="80" t="s">
+      <c r="U1" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="V1" s="80" t="s">
+      <c r="V1" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="W1" s="80" t="s">
+      <c r="W1" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="80" t="s">
+      <c r="X1" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="Y1" s="80" t="s">
+      <c r="Y1" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="80" t="s">
+      <c r="Z1" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="AA1" s="80" t="s">
+      <c r="AA1" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="AB1" s="80" t="s">
+      <c r="AB1" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" s="80" t="s">
+      <c r="AC1" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="AD1" s="80" t="s">
+      <c r="AD1" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="AE1" s="80" t="s">
+      <c r="AE1" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF1" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="AF1" s="80" t="s">
+      <c r="AG1" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" s="80" t="s">
+      <c r="AH1" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="AH1" s="80" t="s">
+      <c r="AI1" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="AI1" s="80" t="s">
+      <c r="AJ1" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="AJ1" s="80" t="s">
+      <c r="AK1" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="AK1" s="80" t="s">
+      <c r="AL1" s="64" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15.75" customHeight="1">
+    <row r="2" spans="1:38" ht="15.75" customHeight="1">
       <c r="A2" s="2">
-        <v>45777</v>
+        <v>45781</v>
       </c>
       <c r="B2">
-        <v>201</v>
+        <v>370</v>
       </c>
       <c r="C2">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D2">
-        <v>175</v>
+        <v>537</v>
       </c>
       <c r="E2">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="G2">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J2">
-        <v>205</v>
+        <v>21</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="M2">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="N2">
-        <v>227</v>
+        <v>463</v>
       </c>
       <c r="O2">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="P2">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="Q2">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="R2">
-        <v>440</v>
+        <v>690</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T2">
         <v>205</v>
@@ -3595,55 +3562,58 @@
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y2">
-        <v>205</v>
+        <v>71</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>205</v>
+        <v>580</v>
       </c>
       <c r="AB2">
-        <v>171</v>
+        <v>88</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AF2">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="AG2">
-        <v>205</v>
+        <v>25</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="AI2">
-        <v>201</v>
+        <v>5</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="AK2">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
@@ -3681,44 +3651,45 @@
       <c r="AI3" s="61"/>
       <c r="AJ3" s="61"/>
       <c r="AK3" s="61"/>
-    </row>
-    <row r="4" spans="1:37" ht="15.75" customHeight="1">
+      <c r="AL3" s="61"/>
+    </row>
+    <row r="4" spans="1:38" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:37" ht="15.75" customHeight="1">
+    <row r="5" spans="1:38" ht="15.75" customHeight="1">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:37" ht="15.75" customHeight="1">
+    <row r="6" spans="1:38" ht="15.75" customHeight="1">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:37" ht="15.75" customHeight="1">
+    <row r="7" spans="1:38" ht="15.75" customHeight="1">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:37" ht="15.75" customHeight="1">
+    <row r="8" spans="1:38" ht="15.75" customHeight="1">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:37" ht="15.75" customHeight="1">
+    <row r="9" spans="1:38" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:37" ht="15.75" customHeight="1">
+    <row r="10" spans="1:38" ht="15.75" customHeight="1">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:37" ht="15.75" customHeight="1">
+    <row r="11" spans="1:38" ht="15.75" customHeight="1">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:37" ht="15.75" customHeight="1">
+    <row r="12" spans="1:38" ht="15.75" customHeight="1">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:37" ht="15.75" customHeight="1">
+    <row r="13" spans="1:38" ht="15.75" customHeight="1">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:37" ht="15.75" customHeight="1">
+    <row r="14" spans="1:38" ht="15.75" customHeight="1">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:37" ht="15.75" customHeight="1">
+    <row r="15" spans="1:38" ht="15.75" customHeight="1">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:37" ht="15.75" customHeight="1">
+    <row r="16" spans="1:38" ht="15.75" customHeight="1">
       <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1" ht="15.75" customHeight="1">
@@ -3778,222 +3749,225 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6301985-910C-46A2-BCA7-5B73125291C9}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J2" sqref="J2:K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:11" ht="13.8">
+      <c r="A1" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="70"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75">
-      <c r="A2" s="71">
+      <c r="E1" s="63"/>
+    </row>
+    <row r="2" spans="1:11" ht="27.6">
+      <c r="A2" s="70">
         <v>1</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="73">
-        <v>440</v>
+      <c r="E2" s="51">
+        <v>690</v>
       </c>
       <c r="G2" s="58" t="s">
         <v>55</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H38" si="0">VLOOKUP(G2,D:E,2,0)</f>
-        <v>201</v>
+        <v>392</v>
       </c>
       <c r="J2" t="s">
         <v>55</v>
       </c>
       <c r="K2">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75">
-      <c r="A3" s="71">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27.6">
+      <c r="A3" s="70">
         <v>2</v>
       </c>
-      <c r="B3" s="74" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="74" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="75">
-        <v>227</v>
+      <c r="B3" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="53">
+        <v>600</v>
       </c>
       <c r="G3" s="58" t="s">
         <v>92</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J3" t="s">
         <v>92</v>
       </c>
       <c r="K3">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75">
-      <c r="A4" s="71">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27.6">
+      <c r="A4" s="70">
         <v>3</v>
       </c>
-      <c r="B4" s="76" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="77">
-        <v>212</v>
+      <c r="B4" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="55">
+        <v>527</v>
       </c>
       <c r="G4" s="58" t="s">
         <v>90</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>175</v>
+        <v>527</v>
       </c>
       <c r="J4" s="62" t="s">
         <v>90</v>
       </c>
       <c r="K4">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75">
-      <c r="A5" s="71">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="13.8">
+      <c r="A5" s="70">
         <v>4</v>
       </c>
-      <c r="B5" s="78" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" s="78" t="s">
-        <v>160</v>
-      </c>
-      <c r="D5" s="78" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="79">
-        <v>205</v>
+      <c r="B5" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="57">
+        <v>472</v>
       </c>
       <c r="G5" s="58" t="s">
         <v>47</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>171</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27.6">
+      <c r="A6" s="70">
+        <v>5</v>
+      </c>
+      <c r="B6" s="56" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75">
-      <c r="A6" s="71">
-        <v>5</v>
-      </c>
-      <c r="B6" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6" s="78" t="s">
-        <v>162</v>
-      </c>
-      <c r="D6" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="79">
-        <v>205</v>
+      <c r="C6" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="57">
+        <v>392</v>
       </c>
       <c r="G6" s="58" t="s">
         <v>57</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="J6" t="s">
         <v>57</v>
       </c>
       <c r="K6">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75">
-      <c r="A7" s="71">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="13.8">
+      <c r="A7" s="70">
         <v>6</v>
       </c>
-      <c r="B7" s="78" t="s">
-        <v>163</v>
-      </c>
-      <c r="C7" s="78" t="s">
-        <v>164</v>
-      </c>
-      <c r="D7" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="79">
-        <v>205</v>
+      <c r="B7" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="57">
+        <v>270</v>
       </c>
       <c r="G7" s="58" t="s">
         <v>89</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="J7" t="s">
         <v>89</v>
       </c>
       <c r="K7">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75">
-      <c r="A8" s="71">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27.6">
+      <c r="A8" s="70">
         <v>7</v>
       </c>
-      <c r="B8" s="78" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="78" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="79">
-        <v>205</v>
+      <c r="B8" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="57">
+        <v>240</v>
       </c>
       <c r="G8" s="58" t="s">
         <v>13</v>
@@ -4009,81 +3983,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75">
-      <c r="A9" s="71">
+    <row r="9" spans="1:11" ht="27.6">
+      <c r="A9" s="70">
         <v>8</v>
       </c>
-      <c r="B9" s="78" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="78" t="s">
-        <v>168</v>
-      </c>
-      <c r="D9" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="79">
-        <v>205</v>
+      <c r="B9" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="57">
+        <v>220</v>
       </c>
       <c r="G9" s="58" t="s">
         <v>61</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J9" t="s">
         <v>61</v>
       </c>
       <c r="K9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75">
-      <c r="A10" s="71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="13.8">
+      <c r="A10" s="70">
         <v>9</v>
       </c>
-      <c r="B10" s="78" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" s="78" t="s">
-        <v>170</v>
-      </c>
-      <c r="D10" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="79">
-        <v>205</v>
+      <c r="B10" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="57">
+        <v>196</v>
       </c>
       <c r="G10" s="58" t="s">
         <v>23</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>205</v>
+        <v>26</v>
       </c>
       <c r="J10" s="62" t="s">
         <v>23</v>
       </c>
       <c r="K10">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75">
-      <c r="A11" s="71">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="41.4">
+      <c r="A11" s="70">
         <v>10</v>
       </c>
-      <c r="B11" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="C11" s="78" t="s">
-        <v>172</v>
-      </c>
-      <c r="D11" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="79">
-        <v>201</v>
+      <c r="B11" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="57">
+        <v>147</v>
       </c>
       <c r="G11" s="58" t="s">
         <v>29</v>
@@ -4099,231 +4073,231 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75">
-      <c r="A12" s="71">
+    <row r="12" spans="1:11" ht="13.8">
+      <c r="A12" s="70">
         <v>11</v>
       </c>
-      <c r="B12" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="C12" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="D12" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="69">
-        <v>201</v>
+      <c r="B12" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="49">
+        <v>94</v>
       </c>
       <c r="G12" s="58" t="s">
         <v>41</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>270</v>
       </c>
       <c r="J12" t="s">
         <v>41</v>
       </c>
       <c r="K12">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75">
-      <c r="A13" s="71">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="13.8">
+      <c r="A13" s="70">
         <v>12</v>
       </c>
-      <c r="B13" s="68" t="s">
-        <v>175</v>
-      </c>
-      <c r="C13" s="68" t="s">
-        <v>176</v>
-      </c>
-      <c r="D13" s="68" t="s">
+      <c r="B13" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="49">
         <v>90</v>
-      </c>
-      <c r="E13" s="69">
-        <v>175</v>
       </c>
       <c r="G13" s="58" t="s">
         <v>93</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="J13" t="s">
         <v>93</v>
       </c>
       <c r="K13">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75">
-      <c r="A14" s="71">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="13.8">
+      <c r="A14" s="70">
         <v>13</v>
       </c>
-      <c r="B14" s="68" t="s">
-        <v>177</v>
-      </c>
-      <c r="C14" s="68" t="s">
-        <v>178</v>
-      </c>
-      <c r="D14" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="69">
-        <v>171</v>
+      <c r="B14" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="49">
+        <v>82</v>
       </c>
       <c r="G14" s="58" t="s">
         <v>17</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>227</v>
+        <v>472</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
       </c>
       <c r="K14">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="71">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="27.6">
+      <c r="A15" s="70">
         <v>14</v>
       </c>
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="68" t="s">
+      <c r="C15" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="D15" s="68" t="s">
+      <c r="D15" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="69">
-        <v>171</v>
+      <c r="E15" s="49">
+        <v>59</v>
       </c>
       <c r="G15" s="58" t="s">
         <v>53</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
         <v>53</v>
       </c>
       <c r="K15">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75">
-      <c r="A16" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="27.6">
+      <c r="A16" s="70">
         <v>15</v>
       </c>
-      <c r="B16" s="68" t="s">
-        <v>181</v>
-      </c>
-      <c r="C16" s="68" t="s">
-        <v>182</v>
-      </c>
-      <c r="D16" s="68" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="69">
-        <v>171</v>
+      <c r="B16" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="49">
+        <v>55</v>
       </c>
       <c r="G16" s="58" t="s">
         <v>86</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="J16" t="s">
         <v>86</v>
       </c>
       <c r="K16">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75">
-      <c r="A17" s="71">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="41.4">
+      <c r="A17" s="70">
         <v>16</v>
       </c>
-      <c r="B17" s="68" t="s">
-        <v>183</v>
-      </c>
-      <c r="C17" s="68" t="s">
-        <v>184</v>
-      </c>
-      <c r="D17" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="69">
-        <v>171</v>
+      <c r="B17" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="49">
+        <v>46</v>
       </c>
       <c r="G17" s="58" t="s">
         <v>71</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>171</v>
+        <v>59</v>
       </c>
       <c r="J17" t="s">
         <v>71</v>
       </c>
       <c r="K17">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75">
-      <c r="A18" s="71">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="27.6">
+      <c r="A18" s="70">
         <v>17</v>
       </c>
-      <c r="B18" s="68" t="s">
-        <v>185</v>
-      </c>
-      <c r="C18" s="68" t="s">
-        <v>186</v>
-      </c>
-      <c r="D18" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="69">
-        <v>171</v>
+      <c r="B18" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="D18" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="49">
+        <v>39</v>
       </c>
       <c r="G18" s="58" t="s">
         <v>87</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>440</v>
+        <v>690</v>
       </c>
       <c r="J18" t="s">
         <v>87</v>
       </c>
       <c r="K18">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.75">
-      <c r="A19" s="71">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="27.6">
+      <c r="A19" s="70">
         <v>18</v>
       </c>
-      <c r="B19" s="68" t="s">
-        <v>187</v>
-      </c>
-      <c r="C19" s="68" t="s">
-        <v>188</v>
-      </c>
-      <c r="D19" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="69">
-        <v>171</v>
+      <c r="B19" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="49">
+        <v>30</v>
       </c>
       <c r="G19" s="58" t="s">
         <v>43</v>
@@ -4339,51 +4313,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75">
-      <c r="A20" s="71">
+    <row r="20" spans="1:11" ht="27.6">
+      <c r="A20" s="70">
         <v>19</v>
       </c>
-      <c r="B20" s="68" t="s">
-        <v>189</v>
-      </c>
-      <c r="C20" s="68" t="s">
-        <v>190</v>
-      </c>
-      <c r="D20" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="69">
-        <v>153</v>
+      <c r="B20" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="49">
+        <v>26</v>
       </c>
       <c r="G20" s="58" t="s">
         <v>39</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="J20" t="s">
         <v>39</v>
       </c>
       <c r="K20">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.75">
-      <c r="A21" s="71">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="13.8">
+      <c r="A21" s="70">
         <v>20</v>
       </c>
-      <c r="B21" s="68" t="s">
-        <v>191</v>
-      </c>
-      <c r="C21" s="68" t="s">
-        <v>192</v>
-      </c>
-      <c r="D21" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" s="69">
-        <v>138</v>
+      <c r="B21" s="48" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="49">
+        <v>21</v>
       </c>
       <c r="G21" s="58" t="s">
         <v>35</v>
@@ -4392,88 +4366,88 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J21" s="80" t="s">
+      <c r="J21" s="64" t="s">
         <v>35</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75">
-      <c r="A22" s="71">
+    <row r="22" spans="1:11" ht="27.6">
+      <c r="A22" s="70">
         <v>21</v>
       </c>
-      <c r="B22" s="68" t="s">
-        <v>193</v>
-      </c>
-      <c r="C22" s="68" t="s">
-        <v>194</v>
-      </c>
-      <c r="D22" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" s="69">
-        <v>97</v>
+      <c r="B22" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="49">
+        <v>17</v>
       </c>
       <c r="G22" s="58" t="s">
         <v>73</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="64" t="s">
         <v>73</v>
       </c>
       <c r="K22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15.75">
-      <c r="A23" s="71">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="13.8">
+      <c r="A23" s="70">
         <v>22</v>
       </c>
-      <c r="B23" s="68" t="s">
-        <v>195</v>
-      </c>
-      <c r="C23" s="68" t="s">
-        <v>196</v>
-      </c>
-      <c r="D23" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="69">
-        <v>97</v>
+      <c r="B23" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="49">
+        <v>17</v>
       </c>
       <c r="G23" s="58" t="s">
         <v>19</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J23" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="64" t="s">
         <v>19</v>
       </c>
       <c r="K23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15.75">
-      <c r="A24" s="71">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="13.8">
+      <c r="A24" s="70">
         <v>23</v>
       </c>
-      <c r="B24" s="68" t="s">
-        <v>197</v>
-      </c>
-      <c r="C24" s="68" t="s">
-        <v>198</v>
-      </c>
-      <c r="D24" s="68" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="69">
-        <v>97</v>
+      <c r="B24" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="49">
+        <v>6</v>
       </c>
       <c r="G24" s="58" t="s">
         <v>85</v>
@@ -4482,57 +4456,57 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J24" s="80" t="s">
+      <c r="J24" s="64" t="s">
         <v>85</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75">
-      <c r="A25" s="71">
+    <row r="25" spans="1:11" ht="13.8">
+      <c r="A25" s="70">
         <v>24</v>
       </c>
-      <c r="B25" s="68" t="s">
-        <v>199</v>
-      </c>
-      <c r="C25" s="68" t="s">
-        <v>200</v>
-      </c>
-      <c r="D25" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="69">
-        <v>1</v>
+      <c r="B25" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="D25" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="49">
+        <v>2</v>
       </c>
       <c r="G25" s="58" t="s">
         <v>31</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>205</v>
-      </c>
-      <c r="J25" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="J25" s="64" t="s">
         <v>31</v>
       </c>
       <c r="K25">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15.75">
-      <c r="A26" s="71">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="41.4">
+      <c r="A26" s="70">
         <v>25</v>
       </c>
-      <c r="B26" s="68" t="s">
-        <v>201</v>
-      </c>
-      <c r="C26" s="68" t="s">
-        <v>202</v>
-      </c>
-      <c r="D26" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="69">
+      <c r="B26" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="49">
         <v>0</v>
       </c>
       <c r="G26" s="58" t="s">
@@ -4542,27 +4516,27 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J26" s="80" t="s">
+      <c r="J26" s="64" t="s">
         <v>83</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75">
-      <c r="A27" s="71">
+    <row r="27" spans="1:11" ht="13.8">
+      <c r="A27" s="70">
         <v>26</v>
       </c>
-      <c r="B27" s="68" t="s">
-        <v>203</v>
-      </c>
-      <c r="C27" s="68" t="s">
-        <v>204</v>
-      </c>
-      <c r="D27" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="69">
+      <c r="B27" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="49">
         <v>0</v>
       </c>
       <c r="G27" s="58" t="s">
@@ -4570,29 +4544,29 @@
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>205</v>
-      </c>
-      <c r="J27" s="80" t="s">
+        <v>600</v>
+      </c>
+      <c r="J27" s="64" t="s">
         <v>37</v>
       </c>
       <c r="K27">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.75">
-      <c r="A28" s="71">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="27.6">
+      <c r="A28" s="70">
         <v>27</v>
       </c>
-      <c r="B28" s="68" t="s">
-        <v>205</v>
-      </c>
-      <c r="C28" s="68" t="s">
-        <v>206</v>
-      </c>
-      <c r="D28" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="69">
+      <c r="B28" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="49">
         <v>0</v>
       </c>
       <c r="G28" s="58" t="s">
@@ -4600,29 +4574,29 @@
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>171</v>
-      </c>
-      <c r="J28" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="J28" s="64" t="s">
         <v>45</v>
       </c>
       <c r="K28">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15.75">
-      <c r="A29" s="71">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="27.6">
+      <c r="A29" s="70">
         <v>28</v>
       </c>
-      <c r="B29" s="68" t="s">
+      <c r="B29" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="C29" s="68" t="s">
+      <c r="C29" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="D29" s="68" t="s">
+      <c r="D29" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="69">
+      <c r="E29" s="49">
         <v>0</v>
       </c>
       <c r="G29" s="58" t="s">
@@ -4632,27 +4606,27 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J29" s="80" t="s">
+      <c r="J29" s="64" t="s">
         <v>59</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75">
-      <c r="A30" s="71">
+    <row r="30" spans="1:11" ht="13.8">
+      <c r="A30" s="70">
         <v>29</v>
       </c>
-      <c r="B30" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="C30" s="68" t="s">
-        <v>210</v>
-      </c>
-      <c r="D30" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="69">
+      <c r="B30" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="D30" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="49">
         <v>0</v>
       </c>
       <c r="G30" s="58" t="s">
@@ -4660,59 +4634,59 @@
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>171</v>
-      </c>
-      <c r="J30" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="64" t="s">
         <v>15</v>
       </c>
       <c r="K30">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15.75">
-      <c r="A31" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="27.6">
+      <c r="A31" s="70">
         <v>30</v>
       </c>
-      <c r="B31" s="68" t="s">
-        <v>211</v>
-      </c>
-      <c r="C31" s="68" t="s">
-        <v>212</v>
-      </c>
-      <c r="D31" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="69">
+      <c r="B31" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="D31" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" s="49">
         <v>0</v>
       </c>
       <c r="G31" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="H31" t="e">
+        <v>67</v>
+      </c>
+      <c r="H31">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J31" s="80" t="s">
-        <v>65</v>
-      </c>
-      <c r="K31" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="15.75">
-      <c r="A32" s="71">
+        <v>0</v>
+      </c>
+      <c r="J31" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="13.8">
+      <c r="A32" s="70">
         <v>31</v>
       </c>
-      <c r="B32" s="68" t="s">
-        <v>213</v>
-      </c>
-      <c r="C32" s="68" t="s">
-        <v>214</v>
-      </c>
-      <c r="D32" s="68" t="s">
-        <v>149</v>
-      </c>
-      <c r="E32" s="69">
+      <c r="B32" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="C32" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="D32" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="49">
         <v>0</v>
       </c>
       <c r="G32" s="58" t="s">
@@ -4722,27 +4696,27 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J32" s="80" t="s">
+      <c r="J32" s="64" t="s">
         <v>75</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.75">
-      <c r="A33" s="71">
+    <row r="33" spans="1:11" ht="13.8">
+      <c r="A33" s="70">
         <v>32</v>
       </c>
-      <c r="B33" s="68" t="s">
+      <c r="B33" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="C33" s="68" t="s">
+      <c r="C33" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="D33" s="68" t="s">
+      <c r="D33" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="69">
+      <c r="E33" s="49">
         <v>0</v>
       </c>
       <c r="G33" s="58" t="s">
@@ -4750,29 +4724,29 @@
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>205</v>
-      </c>
-      <c r="J33" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="64" t="s">
         <v>33</v>
       </c>
       <c r="K33">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="15.75">
-      <c r="A34" s="71">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="13.8">
+      <c r="A34" s="70">
         <v>33</v>
       </c>
-      <c r="B34" s="68" t="s">
+      <c r="B34" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="C34" s="68" t="s">
+      <c r="C34" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="D34" s="68" t="s">
+      <c r="D34" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="E34" s="69">
+      <c r="E34" s="49">
         <v>0</v>
       </c>
       <c r="G34" s="58" t="s">
@@ -4780,29 +4754,29 @@
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
-        <v>205</v>
-      </c>
-      <c r="J34" s="80" t="s">
+        <v>220</v>
+      </c>
+      <c r="J34" s="64" t="s">
         <v>9</v>
       </c>
       <c r="K34">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="15.75">
-      <c r="A35" s="71">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="13.8">
+      <c r="A35" s="70">
         <v>34</v>
       </c>
-      <c r="B35" s="68" t="s">
-        <v>219</v>
-      </c>
-      <c r="C35" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="D35" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="E35" s="69">
+      <c r="B35" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="C35" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="D35" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="49">
         <v>0</v>
       </c>
       <c r="G35" s="58" t="s">
@@ -4812,27 +4786,27 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J35" s="80" t="s">
+      <c r="J35" s="64" t="s">
         <v>149</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.75">
-      <c r="A36" s="71">
+    <row r="36" spans="1:11" ht="27.6">
+      <c r="A36" s="70">
         <v>35</v>
       </c>
-      <c r="B36" s="68" t="s">
-        <v>221</v>
-      </c>
-      <c r="C36" s="68" t="s">
-        <v>222</v>
-      </c>
-      <c r="D36" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="E36" s="69">
+      <c r="B36" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="C36" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="D36" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="49">
         <v>0</v>
       </c>
       <c r="G36" s="58" t="s">
@@ -4840,29 +4814,29 @@
       </c>
       <c r="H36">
         <f t="shared" si="0"/>
-        <v>201</v>
-      </c>
-      <c r="J36" s="80" t="s">
+        <v>240</v>
+      </c>
+      <c r="J36" s="64" t="s">
         <v>63</v>
       </c>
       <c r="K36">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="15.75">
-      <c r="A37" s="71">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="27.6">
+      <c r="A37" s="70">
         <v>36</v>
       </c>
-      <c r="B37" s="68" t="s">
-        <v>223</v>
-      </c>
-      <c r="C37" s="68" t="s">
-        <v>224</v>
-      </c>
-      <c r="D37" s="68" t="s">
-        <v>85</v>
-      </c>
-      <c r="E37" s="69">
+      <c r="B37" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="C37" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="D37" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="49">
         <v>0</v>
       </c>
       <c r="G37" s="58" t="s">
@@ -4872,27 +4846,27 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J37" s="80" t="s">
+      <c r="J37" s="64" t="s">
         <v>51</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.75">
-      <c r="A38" s="71">
+    <row r="38" spans="1:11" ht="27.6">
+      <c r="A38" s="70">
         <v>37</v>
       </c>
-      <c r="B38" s="68" t="s">
-        <v>225</v>
-      </c>
-      <c r="C38" s="68" t="s">
-        <v>226</v>
-      </c>
-      <c r="D38" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="E38" s="69">
+      <c r="B38" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="D38" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="49">
         <v>0</v>
       </c>
       <c r="G38" s="58" t="s">
@@ -4900,13 +4874,13 @@
       </c>
       <c r="H38">
         <f t="shared" si="0"/>
-        <v>153</v>
-      </c>
-      <c r="J38" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="J38" s="64" t="s">
         <v>81</v>
       </c>
       <c r="K38">
-        <v>153</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -4926,25 +4900,25 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="10" max="10" width="26.42578125" customWidth="1"/>
+    <col min="10" max="10" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="14.25">
-      <c r="A1" s="63">
+    <row r="1" spans="1:56" ht="13.8">
+      <c r="A1" s="65">
         <v>45056.999305555553</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
       <c r="H1" s="6"/>
       <c r="I1" s="7" t="s">
         <v>0</v>
@@ -4996,7 +4970,7 @@
       <c r="AZ1" s="6"/>
       <c r="BA1" s="6"/>
     </row>
-    <row r="2" spans="1:56" ht="28.5">
+    <row r="2" spans="1:56" ht="27.6">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -6259,16 +6233,16 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="14.25">
-      <c r="A43" s="65">
+    <row r="43" spans="1:10" ht="13.8">
+      <c r="A43" s="67">
         <v>45057.5</v>
       </c>
-      <c r="B43" s="66"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="67"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="69"/>
       <c r="I43" s="6">
         <v>43</v>
       </c>
@@ -7217,16 +7191,16 @@
         <v>Ukraine 🇺🇦</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="12.75">
-      <c r="A85" s="65">
+    <row r="85" spans="1:7" ht="13.2">
+      <c r="A85" s="67">
         <v>45057.999305555553</v>
       </c>
-      <c r="B85" s="66"/>
-      <c r="C85" s="66"/>
-      <c r="D85" s="66"/>
-      <c r="E85" s="66"/>
-      <c r="F85" s="66"/>
-      <c r="G85" s="67"/>
+      <c r="B85" s="68"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="68"/>
+      <c r="F85" s="68"/>
+      <c r="G85" s="69"/>
     </row>
     <row r="86" spans="1:7" ht="15.75" customHeight="1">
       <c r="A86" s="20" t="s">
@@ -8139,16 +8113,16 @@
         <v>Ukraine 🇺🇦</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="12.75">
-      <c r="A127" s="65">
+    <row r="127" spans="1:10" ht="13.2">
+      <c r="A127" s="67">
         <v>45058.5</v>
       </c>
-      <c r="B127" s="66"/>
-      <c r="C127" s="66"/>
-      <c r="D127" s="66"/>
-      <c r="E127" s="66"/>
-      <c r="F127" s="66"/>
-      <c r="G127" s="67"/>
+      <c r="B127" s="68"/>
+      <c r="C127" s="68"/>
+      <c r="D127" s="68"/>
+      <c r="E127" s="68"/>
+      <c r="F127" s="68"/>
+      <c r="G127" s="69"/>
     </row>
     <row r="128" spans="1:10" ht="15.75" customHeight="1">
       <c r="A128" s="26" t="s">
@@ -9538,9 +9512,9 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:50" ht="13.5">
+    <row r="1" spans="1:50" ht="13.8">
       <c r="A1" s="48" t="s">
         <v>147</v>
       </c>
@@ -9662,7 +9636,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:50" ht="13.5">
+    <row r="2" spans="1:50" ht="13.8">
       <c r="A2" s="50" t="s">
         <v>55</v>
       </c>
@@ -9807,7 +9781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:50" ht="13.5">
+    <row r="3" spans="1:50" ht="13.8">
       <c r="A3" s="52" t="s">
         <v>92</v>
       </c>
@@ -9841,7 +9815,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="4" spans="1:50" ht="27">
+    <row r="4" spans="1:50" ht="27.6">
       <c r="A4" s="54" t="s">
         <v>90</v>
       </c>
@@ -9875,7 +9849,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="5" spans="1:50" ht="13.5">
+    <row r="5" spans="1:50" ht="13.8">
       <c r="A5" s="56" t="s">
         <v>47</v>
       </c>
@@ -9909,7 +9883,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="6" spans="1:50" ht="13.5">
+    <row r="6" spans="1:50" ht="13.8">
       <c r="A6" s="56" t="s">
         <v>57</v>
       </c>
@@ -9943,7 +9917,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="7" spans="1:50" ht="27">
+    <row r="7" spans="1:50" ht="27.6">
       <c r="A7" s="56" t="s">
         <v>89</v>
       </c>
@@ -9977,7 +9951,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="8" spans="1:50" ht="13.5">
+    <row r="8" spans="1:50" ht="13.8">
       <c r="A8" s="56" t="s">
         <v>13</v>
       </c>
@@ -10011,7 +9985,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:50" ht="13.5">
+    <row r="9" spans="1:50" ht="13.8">
       <c r="A9" s="56" t="s">
         <v>61</v>
       </c>
@@ -10045,7 +10019,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:50" ht="13.5">
+    <row r="10" spans="1:50" ht="13.8">
       <c r="A10" s="56" t="s">
         <v>23</v>
       </c>
@@ -10079,7 +10053,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:50" ht="13.5">
+    <row r="11" spans="1:50" ht="13.8">
       <c r="A11" s="56" t="s">
         <v>29</v>
       </c>
@@ -10113,7 +10087,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:50" ht="13.5">
+    <row r="12" spans="1:50" ht="13.8">
       <c r="A12" s="48" t="s">
         <v>41</v>
       </c>
@@ -10147,7 +10121,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:50" ht="27">
+    <row r="13" spans="1:50" ht="27.6">
       <c r="A13" s="48" t="s">
         <v>93</v>
       </c>
@@ -10181,7 +10155,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:50" ht="13.5">
+    <row r="14" spans="1:50" ht="13.8">
       <c r="A14" s="48" t="s">
         <v>17</v>
       </c>
@@ -10215,7 +10189,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:50" ht="13.5">
+    <row r="15" spans="1:50" ht="13.8">
       <c r="A15" s="48" t="s">
         <v>53</v>
       </c>
@@ -10249,7 +10223,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:50" ht="13.5">
+    <row r="16" spans="1:50" ht="13.8">
       <c r="A16" s="48" t="s">
         <v>86</v>
       </c>
@@ -10283,7 +10257,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="13.5">
+    <row r="17" spans="1:11" ht="13.8">
       <c r="A17" s="48" t="s">
         <v>71</v>
       </c>
@@ -10317,7 +10291,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="13.5">
+    <row r="18" spans="1:11" ht="13.8">
       <c r="A18" s="48" t="s">
         <v>87</v>
       </c>
@@ -10351,7 +10325,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="13.5">
+    <row r="19" spans="1:11" ht="13.8">
       <c r="A19" s="48" t="s">
         <v>43</v>
       </c>
@@ -10385,7 +10359,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="13.5">
+    <row r="20" spans="1:11" ht="13.8">
       <c r="A20" s="48" t="s">
         <v>39</v>
       </c>
@@ -10419,7 +10393,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="13.5">
+    <row r="21" spans="1:11" ht="13.8">
       <c r="A21" s="48" t="s">
         <v>35</v>
       </c>
@@ -10453,7 +10427,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="13.5">
+    <row r="22" spans="1:11" ht="13.8">
       <c r="A22" s="48" t="s">
         <v>73</v>
       </c>
@@ -10487,7 +10461,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="13.5">
+    <row r="23" spans="1:11" ht="13.8">
       <c r="A23" s="48" t="s">
         <v>19</v>
       </c>
@@ -10521,7 +10495,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="13.5">
+    <row r="24" spans="1:11" ht="13.8">
       <c r="A24" s="48" t="s">
         <v>85</v>
       </c>
@@ -10555,7 +10529,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="13.5">
+    <row r="25" spans="1:11" ht="13.8">
       <c r="A25" s="48" t="s">
         <v>31</v>
       </c>
@@ -10589,7 +10563,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="13.5">
+    <row r="26" spans="1:11" ht="13.8">
       <c r="A26" s="48" t="s">
         <v>83</v>
       </c>
@@ -10623,7 +10597,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="13.5">
+    <row r="27" spans="1:11" ht="13.8">
       <c r="A27" s="48" t="s">
         <v>37</v>
       </c>
@@ -10656,7 +10630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="13.5">
+    <row r="28" spans="1:11" ht="13.8">
       <c r="A28" s="48" t="s">
         <v>45</v>
       </c>
@@ -10689,7 +10663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="13.5">
+    <row r="29" spans="1:11" ht="13.8">
       <c r="A29" s="48" t="s">
         <v>59</v>
       </c>
@@ -10722,7 +10696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="13.5">
+    <row r="30" spans="1:11" ht="13.8">
       <c r="A30" s="48" t="s">
         <v>15</v>
       </c>
@@ -10755,7 +10729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="13.5">
+    <row r="31" spans="1:11" ht="13.8">
       <c r="A31" s="48" t="s">
         <v>65</v>
       </c>
@@ -10788,7 +10762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="13.5">
+    <row r="32" spans="1:11" ht="13.8">
       <c r="A32" s="48" t="s">
         <v>75</v>
       </c>
@@ -10821,7 +10795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="13.5">
+    <row r="33" spans="1:11" ht="13.8">
       <c r="A33" s="48" t="s">
         <v>33</v>
       </c>
@@ -10854,7 +10828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="13.5">
+    <row r="34" spans="1:11" ht="13.8">
       <c r="A34" s="48" t="s">
         <v>9</v>
       </c>
@@ -10887,7 +10861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="27">
+    <row r="35" spans="1:11" ht="27.6">
       <c r="A35" s="48" t="s">
         <v>149</v>
       </c>
@@ -10920,7 +10894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="13.5">
+    <row r="36" spans="1:11" ht="13.8">
       <c r="A36" s="48" t="s">
         <v>63</v>
       </c>
@@ -10953,7 +10927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="13.5">
+    <row r="37" spans="1:11" ht="13.8">
       <c r="A37" s="48" t="s">
         <v>51</v>
       </c>
@@ -10986,7 +10960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="27">
+    <row r="38" spans="1:11" ht="27.6">
       <c r="A38" s="48" t="s">
         <v>81</v>
       </c>
@@ -11065,7 +11039,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:38">
       <c r="B1" s="1" t="s">
@@ -17641,9 +17615,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -25070,7 +25044,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="42" t="s">
